--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:O134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5202,12 +5202,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>17b3527cd02d347865e9850e278e68d1</t>
+          <t>868b4cabc8c6415f29c34b34bfa72210</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vpn.italiacdn.net</t>
+          <t>bin.italiacdn.net</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
+          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E81" t="b">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2024-08-09T08:47:18.593613Z</t>
+          <t>2025-03-17T21:43:23.250682Z</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2024-08-09T08:47:18.593613Z</t>
+          <t>2025-03-17T21:43:23.250682Z</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -5261,12 +5261,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>a49ade48a5be45f002d5417140f370a0</t>
+          <t>17b3527cd02d347865e9850e278e68d1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>adinsp9sqvzxue8n.italiadns.com</t>
+          <t>vpn.italiacdn.net</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5276,17 +5276,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -5306,12 +5306,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2024-07-31T13:37:34.938024Z</t>
+          <t>2024-08-09T08:47:18.593613Z</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2024-07-31T13:38:29.779921Z</t>
+          <t>2024-08-09T08:47:18.593613Z</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
@@ -5320,12 +5320,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>57267997534d7cf452997a9c191591ee</t>
+          <t>a49ade48a5be45f002d5417140f370a0</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>mt-link.italiadns.com</t>
+          <t>adinsp9sqvzxue8n.italiadns.com</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E83" t="b">
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -5365,12 +5365,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2024-07-31T13:37:34.938024Z</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2024-07-31T13:38:29.779921Z</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
@@ -5379,12 +5379,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3a7c851242dbc15ea213945d901512b9</t>
+          <t>57267997534d7cf452997a9c191591ee</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.italiadns.com</t>
+          <t>mt-link.italiadns.com</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E84" t="b">
@@ -5424,12 +5424,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
@@ -5438,12 +5438,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>f06b6c37872df6a52852ee0d128d45ee</t>
+          <t>3a7c851242dbc15ea213945d901512b9</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.italiadns.com</t>
+          <t>rwmt1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E85" t="b">
@@ -5483,12 +5483,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -5497,12 +5497,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>41fd60824243d4f2538de3c3c29b7736</t>
+          <t>f06b6c37872df6a52852ee0d128d45ee</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>w1y139ns251ah6gc.italiadns.com</t>
+          <t>rwmt2._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -5542,12 +5542,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
@@ -5556,26 +5556,26 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>a38c7cb5dce002e6fa5326111beba54f</t>
+          <t>41fd60824243d4f2538de3c3c29b7736</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>w1y139ns251ah6gc.italiadns.com</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -5585,12 +5585,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -5601,23 +5601,21 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
-      <c r="O87" t="n">
-        <v>61</v>
-      </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
+          <t>a38c7cb5dce002e6fa5326111beba54f</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5632,7 +5630,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E88" t="b">
@@ -5662,23 +5660,23 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6c5bf0b471503f7060c852986b55b0e0</t>
+          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5693,7 +5691,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E89" t="b">
@@ -5723,38 +5721,38 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>e6da0cedff625c31979aecd06ce463d4</t>
+          <t>6c5bf0b471503f7060c852986b55b0e0</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E90" t="b">
@@ -5784,26 +5782,28 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
+      <c r="O90" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
+          <t>e6da0cedff625c31979aecd06ce463d4</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>_dmarc.italiadns.com</t>
+          <t>cf2024-1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E91" t="b">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -5843,12 +5843,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -5857,12 +5857,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>129ae399ff1f816f521c481aa58251a7</t>
+          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>_dmarc.italiadns.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
+          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E92" t="b">
@@ -5902,12 +5902,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:30.706502Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2024-08-19T08:39:22.495623Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
@@ -5916,22 +5916,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
+          <t>129ae399ff1f816f521c481aa58251a7</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ns-1683.awsdns-18.co.uk</t>
+          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E93" t="b">
@@ -5961,12 +5961,12 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2024-07-31T12:41:30.706502Z</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2024-08-19T08:39:22.495623Z</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
@@ -5975,7 +5975,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>4131e3d65c1df20458045bfa612298e9</t>
+          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ns-1303.awsdns-34.org</t>
+          <t>ns-1683.awsdns-18.co.uk</t>
         </is>
       </c>
       <c r="E94" t="b">
@@ -6020,12 +6020,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
@@ -6034,22 +6034,22 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>03da4898b7afbb1408bfdd51f42e5936</t>
+          <t>4131e3d65c1df20458045bfa612298e9</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
+          <t>ns-1303.awsdns-34.org</t>
         </is>
       </c>
       <c r="E95" t="b">
@@ -6079,12 +6079,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
@@ -6093,7 +6093,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>fd06957f7e745e10c388665bb8be096a</t>
+          <t>03da4898b7afbb1408bfdd51f42e5936</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
+          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
         </is>
       </c>
       <c r="E96" t="b">
@@ -6138,12 +6138,12 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
@@ -6152,7 +6152,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
+          <t>fd06957f7e745e10c388665bb8be096a</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>v=spf1 a mx ~all</t>
+          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
         </is>
       </c>
       <c r="E97" t="b">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -6211,26 +6211,26 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>c7df12561d64e4e680c6b0859c123f99</t>
+          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>imap.rivoluzioneinformatica.org</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>v=spf1 a mx ~all</t>
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -6256,12 +6256,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
@@ -6270,12 +6270,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>e95c85414a6c93e847a2755df7c16cf0</t>
+          <t>c7df12561d64e4e680c6b0859c123f99</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>mail.rivoluzioneinformatica.org</t>
+          <t>imap.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6315,12 +6315,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
@@ -6329,12 +6329,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>6834f98896056a837138409566211327</t>
+          <t>e95c85414a6c93e847a2755df7c16cf0</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>smtp.rivoluzioneinformatica.org</t>
+          <t>mail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6374,12 +6374,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
@@ -6388,12 +6388,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
+          <t>6834f98896056a837138409566211327</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>webmail.rivoluzioneinformatica.org</t>
+          <t>smtp.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6410,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6433,12 +6433,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
@@ -6447,22 +6447,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
+          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>git.rivoluzioneinformatica.org</t>
+          <t>webmail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6492,12 +6492,12 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -6506,12 +6506,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>eb220c9fb1df30719c788ef51fe312f6</t>
+          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>npm.rivoluzioneinformatica.org</t>
+          <t>git.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
+          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -6551,12 +6551,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
@@ -6565,12 +6565,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
+          <t>eb220c9fb1df30719c788ef51fe312f6</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>proxmox.rivoluzioneinformatica.org</t>
+          <t>npm.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
+          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -6610,12 +6610,12 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
@@ -6624,12 +6624,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>236f1b867d3720d5dd29c6af49782d62</t>
+          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>proxmox.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E105" t="b">
@@ -6669,12 +6669,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -6683,12 +6683,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>7c6da25c8e1e486da458cd5373402382</t>
+          <t>236f1b867d3720d5dd29c6af49782d62</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>vpn.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E106" t="b">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -6742,12 +6742,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3045396196bc00b6e05726f94825c6bd</t>
+          <t>7c6da25c8e1e486da458cd5373402382</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>vpn.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>fabriziosalmi.github.io</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E107" t="b">
@@ -6787,12 +6787,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2022-08-17T08:57:50.756388Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2022-08-17T08:59:41.92016Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -6801,12 +6801,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>25f714bcbfe5ff8215c314a503379edc</t>
+          <t>3045396196bc00b6e05726f94825c6bd</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>xmq.rivoluzioneinformatica.org</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E108" t="b">
@@ -6846,12 +6846,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2022-08-17T08:57:50.756388Z</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2022-08-17T08:59:41.92016Z</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6860,41 +6860,41 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
+          <t>25f714bcbfe5ff8215c314a503379edc</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>xmq.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>amir.mx.cloudflare.net</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -6905,23 +6905,21 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
-      <c r="O109" t="n">
-        <v>40</v>
-      </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
+          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6936,7 +6934,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>linda.mx.cloudflare.net</t>
+          <t>amir.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E110" t="b">
@@ -6966,23 +6964,23 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>bcd73d5a0e03a2593be162cd5259a678</t>
+          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6997,7 +6995,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>isaac.mx.cloudflare.net</t>
+          <t>linda.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E111" t="b">
@@ -7027,38 +7025,38 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>e6ffaf786ff743b47650f73557b07b66</t>
+          <t>bcd73d5a0e03a2593be162cd5259a678</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>isaac.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E112" t="b">
@@ -7088,26 +7086,28 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
+      <c r="O112" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
+          <t>e6ffaf786ff743b47650f73557b07b66</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>_dmarc.rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E113" t="b">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -7147,12 +7147,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2022-02-07T15:43:39.763425Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2022-05-22T11:09:18.092063Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -7161,12 +7161,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2a74f92cf716979d913217d640655261</t>
+          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>_dmarc.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E114" t="b">
@@ -7206,12 +7206,12 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2022-02-07T15:43:39.763425Z</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2022-05-22T11:09:18.092063Z</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -7220,7 +7220,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
+          <t>2a74f92cf716979d913217d640655261</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -7235,7 +7235,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
         </is>
       </c>
       <c r="E115" t="b">
@@ -7265,12 +7265,12 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
@@ -7279,7 +7279,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>47bb0eec812c7e5f3961cb9079727d80</t>
+          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E116" t="b">
@@ -7324,12 +7324,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
@@ -7338,12 +7338,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>9abd161d29cb47ce6cfa783657e67723</t>
+          <t>47bb0eec812c7e5f3961cb9079727d80</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
+          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
         </is>
       </c>
       <c r="E117" t="b">
@@ -7383,12 +7383,12 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2022-05-13T21:13:25.301942Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2022-05-22T10:18:49.411362Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -7397,12 +7397,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
+          <t>9abd161d29cb47ce6cfa783657e67723</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
+          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
         </is>
       </c>
       <c r="E118" t="b">
@@ -7442,12 +7442,12 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-05-13T21:13:25.301942Z</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-05-22T10:18:49.411362Z</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
@@ -7456,36 +7456,36 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>904b0a528a01b0dd8370295ce305d3da</t>
+          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>demo.uglyfeed.com</t>
+          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -7501,12 +7501,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
@@ -7515,12 +7515,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1b7333a979fa92816324f0e9be6a564a</t>
+          <t>904b0a528a01b0dd8370295ce305d3da</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>xml.uglyfeed.com</t>
+          <t>demo.uglyfeed.com</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -7560,12 +7560,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
@@ -7574,41 +7574,41 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>1b7333a979fa92816324f0e9be6a564a</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>xml.uglyfeed.com</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -7619,12 +7619,12 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
@@ -7633,12 +7633,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E122" t="b">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -7678,12 +7678,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -7692,12 +7692,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -7737,12 +7737,12 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
@@ -7751,12 +7751,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
@@ -7810,29 +7810,29 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>videodioggi.com</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7855,12 +7855,12 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
@@ -7869,12 +7869,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -7914,12 +7914,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2023-03-30T09:59:11.98058Z</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2023-03-30T09:59:12.228482Z</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
@@ -7928,12 +7928,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>test2.webtek.live</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -7973,12 +7973,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2023-03-28T08:34:29.902515Z</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2023-03-28T08:34:30.164318Z</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -7987,12 +7987,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>432df2553b443742f9f905e155878536</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>test.webtek.live</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -8032,12 +8032,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-24T11:44:15.078812Z</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-24T11:44:15.367412Z</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
@@ -8046,12 +8046,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>webtek.live</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -8091,12 +8091,12 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
@@ -8105,29 +8105,29 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
+          <t>e02587466a80086957e4f19a05760dec</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>_dmarc.youknowwhataimean.com</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -8150,12 +8150,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-10-06T11:52:31.670164Z</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-10-06T12:04:32.454791Z</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
@@ -8164,12 +8164,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
+          <t>_dmarc.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E131" t="b">
@@ -8209,12 +8209,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8223,12 +8223,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>*._domainkey.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E132" t="b">
@@ -8268,12 +8268,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8282,36 +8282,36 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>transversalpuntozero.org</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>transversalpuntozero.pages.dev</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -8327,16 +8327,75 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.org</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.pages.dev</t>
+        </is>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>{'flatten_cname': False}</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O134"/>
+  <dimension ref="A1:O135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5202,7 +5202,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>868b4cabc8c6415f29c34b34bfa72210</t>
+          <t>25f1985f805e21184de23f5dd6f43ea9</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2025-03-17T21:43:23.250682Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2025-03-17T21:43:23.250682Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -5261,12 +5261,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>17b3527cd02d347865e9850e278e68d1</t>
+          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vpn.italiacdn.net</t>
+          <t>logs.italiacdn.net</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
+          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E82" t="b">
@@ -5306,12 +5306,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2024-08-09T08:47:18.593613Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2024-08-09T08:47:18.593613Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
@@ -5320,12 +5320,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>a49ade48a5be45f002d5417140f370a0</t>
+          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>adinsp9sqvzxue8n.italiadns.com</t>
+          <t>vpn.italiacdn.net</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5335,17 +5335,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -5365,12 +5365,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2024-07-31T13:37:34.938024Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2024-07-31T13:38:29.779921Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
@@ -5379,12 +5379,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>57267997534d7cf452997a9c191591ee</t>
+          <t>a49ade48a5be45f002d5417140f370a0</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>mt-link.italiadns.com</t>
+          <t>adinsp9sqvzxue8n.italiadns.com</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E84" t="b">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -5424,12 +5424,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2024-07-31T13:37:34.938024Z</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2024-07-31T13:38:29.779921Z</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
@@ -5438,12 +5438,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3a7c851242dbc15ea213945d901512b9</t>
+          <t>57267997534d7cf452997a9c191591ee</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.italiadns.com</t>
+          <t>mt-link.italiadns.com</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E85" t="b">
@@ -5483,12 +5483,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -5497,12 +5497,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>f06b6c37872df6a52852ee0d128d45ee</t>
+          <t>3a7c851242dbc15ea213945d901512b9</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.italiadns.com</t>
+          <t>rwmt1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -5542,12 +5542,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
@@ -5556,12 +5556,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>41fd60824243d4f2538de3c3c29b7736</t>
+          <t>f06b6c37872df6a52852ee0d128d45ee</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>w1y139ns251ah6gc.italiadns.com</t>
+          <t>rwmt2._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E87" t="b">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -5615,26 +5615,26 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>a38c7cb5dce002e6fa5326111beba54f</t>
+          <t>41fd60824243d4f2538de3c3c29b7736</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>w1y139ns251ah6gc.italiadns.com</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -5644,12 +5644,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -5660,23 +5660,21 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="n">
-        <v>61</v>
-      </c>
+      <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
+          <t>a38c7cb5dce002e6fa5326111beba54f</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5691,7 +5689,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E89" t="b">
@@ -5721,23 +5719,23 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>6c5bf0b471503f7060c852986b55b0e0</t>
+          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5752,7 +5750,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E90" t="b">
@@ -5782,38 +5780,38 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>e6da0cedff625c31979aecd06ce463d4</t>
+          <t>6c5bf0b471503f7060c852986b55b0e0</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E91" t="b">
@@ -5843,26 +5841,28 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
+      <c r="O91" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
+          <t>e6da0cedff625c31979aecd06ce463d4</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>_dmarc.italiadns.com</t>
+          <t>cf2024-1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E92" t="b">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -5902,12 +5902,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
@@ -5916,12 +5916,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>129ae399ff1f816f521c481aa58251a7</t>
+          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>_dmarc.italiadns.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
+          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E93" t="b">
@@ -5961,12 +5961,12 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:30.706502Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2024-08-19T08:39:22.495623Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
@@ -5975,22 +5975,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
+          <t>129ae399ff1f816f521c481aa58251a7</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ns-1683.awsdns-18.co.uk</t>
+          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E94" t="b">
@@ -6020,12 +6020,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2024-07-31T12:41:30.706502Z</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2024-08-19T08:39:22.495623Z</t>
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
@@ -6034,7 +6034,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>4131e3d65c1df20458045bfa612298e9</t>
+          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ns-1303.awsdns-34.org</t>
+          <t>ns-1683.awsdns-18.co.uk</t>
         </is>
       </c>
       <c r="E95" t="b">
@@ -6079,12 +6079,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
@@ -6093,22 +6093,22 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>03da4898b7afbb1408bfdd51f42e5936</t>
+          <t>4131e3d65c1df20458045bfa612298e9</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
+          <t>ns-1303.awsdns-34.org</t>
         </is>
       </c>
       <c r="E96" t="b">
@@ -6138,12 +6138,12 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
@@ -6152,7 +6152,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>fd06957f7e745e10c388665bb8be096a</t>
+          <t>03da4898b7afbb1408bfdd51f42e5936</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
+          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
         </is>
       </c>
       <c r="E97" t="b">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -6211,7 +6211,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
+          <t>fd06957f7e745e10c388665bb8be096a</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>v=spf1 a mx ~all</t>
+          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
         </is>
       </c>
       <c r="E98" t="b">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
@@ -6270,26 +6270,26 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>c7df12561d64e4e680c6b0859c123f99</t>
+          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>imap.rivoluzioneinformatica.org</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>v=spf1 a mx ~all</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
@@ -6315,12 +6315,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
@@ -6329,12 +6329,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>e95c85414a6c93e847a2755df7c16cf0</t>
+          <t>c7df12561d64e4e680c6b0859c123f99</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>mail.rivoluzioneinformatica.org</t>
+          <t>imap.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6374,12 +6374,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
@@ -6388,12 +6388,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>6834f98896056a837138409566211327</t>
+          <t>e95c85414a6c93e847a2755df7c16cf0</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>smtp.rivoluzioneinformatica.org</t>
+          <t>mail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6433,12 +6433,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
@@ -6447,12 +6447,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
+          <t>6834f98896056a837138409566211327</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>webmail.rivoluzioneinformatica.org</t>
+          <t>smtp.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6469,7 +6469,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6492,12 +6492,12 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -6506,22 +6506,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
+          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>git.rivoluzioneinformatica.org</t>
+          <t>webmail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6551,12 +6551,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
@@ -6565,12 +6565,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>eb220c9fb1df30719c788ef51fe312f6</t>
+          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>npm.rivoluzioneinformatica.org</t>
+          <t>git.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
+          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -6610,12 +6610,12 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
@@ -6624,12 +6624,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
+          <t>eb220c9fb1df30719c788ef51fe312f6</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>proxmox.rivoluzioneinformatica.org</t>
+          <t>npm.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
+          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E105" t="b">
@@ -6669,12 +6669,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -6683,12 +6683,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>236f1b867d3720d5dd29c6af49782d62</t>
+          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>proxmox.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E106" t="b">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -6742,12 +6742,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>7c6da25c8e1e486da458cd5373402382</t>
+          <t>236f1b867d3720d5dd29c6af49782d62</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>vpn.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E107" t="b">
@@ -6787,12 +6787,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -6801,12 +6801,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3045396196bc00b6e05726f94825c6bd</t>
+          <t>7c6da25c8e1e486da458cd5373402382</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>vpn.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>fabriziosalmi.github.io</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E108" t="b">
@@ -6846,12 +6846,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2022-08-17T08:57:50.756388Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2022-08-17T08:59:41.92016Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6860,12 +6860,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>25f714bcbfe5ff8215c314a503379edc</t>
+          <t>3045396196bc00b6e05726f94825c6bd</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>xmq.rivoluzioneinformatica.org</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -6875,7 +6875,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E109" t="b">
@@ -6905,12 +6905,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2022-08-17T08:57:50.756388Z</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2022-08-17T08:59:41.92016Z</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6919,41 +6919,41 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
+          <t>25f714bcbfe5ff8215c314a503379edc</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>xmq.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>amir.mx.cloudflare.net</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -6964,23 +6964,21 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
-      <c r="O110" t="n">
-        <v>40</v>
-      </c>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
+          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6995,7 +6993,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>linda.mx.cloudflare.net</t>
+          <t>amir.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E111" t="b">
@@ -7025,23 +7023,23 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>bcd73d5a0e03a2593be162cd5259a678</t>
+          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -7056,7 +7054,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>isaac.mx.cloudflare.net</t>
+          <t>linda.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E112" t="b">
@@ -7086,38 +7084,38 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>e6ffaf786ff743b47650f73557b07b66</t>
+          <t>bcd73d5a0e03a2593be162cd5259a678</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>isaac.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E113" t="b">
@@ -7147,26 +7145,28 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
+      <c r="O113" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
+          <t>e6ffaf786ff743b47650f73557b07b66</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>_dmarc.rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E114" t="b">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -7206,12 +7206,12 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2022-02-07T15:43:39.763425Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2022-05-22T11:09:18.092063Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -7220,12 +7220,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2a74f92cf716979d913217d640655261</t>
+          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>_dmarc.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7235,7 +7235,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E115" t="b">
@@ -7265,12 +7265,12 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2022-02-07T15:43:39.763425Z</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2022-05-22T11:09:18.092063Z</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
@@ -7279,7 +7279,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
+          <t>2a74f92cf716979d913217d640655261</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
         </is>
       </c>
       <c r="E116" t="b">
@@ -7324,12 +7324,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
@@ -7338,7 +7338,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>47bb0eec812c7e5f3961cb9079727d80</t>
+          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E117" t="b">
@@ -7383,12 +7383,12 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -7397,12 +7397,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>9abd161d29cb47ce6cfa783657e67723</t>
+          <t>47bb0eec812c7e5f3961cb9079727d80</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
+          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
         </is>
       </c>
       <c r="E118" t="b">
@@ -7442,12 +7442,12 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2022-05-13T21:13:25.301942Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2022-05-22T10:18:49.411362Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
@@ -7456,12 +7456,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
+          <t>9abd161d29cb47ce6cfa783657e67723</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
+          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -7501,12 +7501,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-05-13T21:13:25.301942Z</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-05-22T10:18:49.411362Z</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
@@ -7515,36 +7515,36 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>904b0a528a01b0dd8370295ce305d3da</t>
+          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>demo.uglyfeed.com</t>
+          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
         </is>
       </c>
       <c r="E120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7560,12 +7560,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
@@ -7574,12 +7574,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1b7333a979fa92816324f0e9be6a564a</t>
+          <t>904b0a528a01b0dd8370295ce305d3da</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>xml.uglyfeed.com</t>
+          <t>demo.uglyfeed.com</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -7619,12 +7619,12 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
@@ -7633,41 +7633,41 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>1b7333a979fa92816324f0e9be6a564a</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>xml.uglyfeed.com</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -7678,12 +7678,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -7692,12 +7692,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -7737,12 +7737,12 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
@@ -7751,12 +7751,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
@@ -7810,12 +7810,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -7855,12 +7855,12 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
@@ -7869,29 +7869,29 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>videodioggi.com</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7914,12 +7914,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
@@ -7928,12 +7928,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -7973,12 +7973,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2023-03-30T09:59:11.98058Z</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2023-03-30T09:59:12.228482Z</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -7987,12 +7987,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>test2.webtek.live</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -8032,12 +8032,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2023-03-28T08:34:29.902515Z</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2023-03-28T08:34:30.164318Z</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
@@ -8046,12 +8046,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>432df2553b443742f9f905e155878536</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>test.webtek.live</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -8091,12 +8091,12 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-24T11:44:15.078812Z</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-24T11:44:15.367412Z</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
@@ -8105,12 +8105,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>webtek.live</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
@@ -8164,29 +8164,29 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
+          <t>e02587466a80086957e4f19a05760dec</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>_dmarc.youknowwhataimean.com</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -8209,12 +8209,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-10-06T11:52:31.670164Z</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-10-06T12:04:32.454791Z</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8223,12 +8223,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
+          <t>_dmarc.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E132" t="b">
@@ -8268,12 +8268,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8282,12 +8282,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>*._domainkey.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -8297,7 +8297,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E133" t="b">
@@ -8327,12 +8327,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8341,36 +8341,36 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>transversalpuntozero.org</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>transversalpuntozero.pages.dev</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -8386,16 +8386,75 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.org</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.pages.dev</t>
+        </is>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>{'flatten_cname': False}</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O135"/>
+  <dimension ref="A1:O139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5202,36 +5202,36 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>25f1985f805e21184de23f5dd6f43ea9</t>
+          <t>f02f658bd3f849218f8880600ee8f124</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bin.italiacdn.net</t>
+          <t>proxmox-dc2-mn.italiacdn.net</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
+          <t>100.92.242.58</t>
         </is>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -5261,12 +5261,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
+          <t>25f1985f805e21184de23f5dd6f43ea9</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>logs.italiacdn.net</t>
+          <t>bin.italiacdn.net</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
+          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E82" t="b">
@@ -5306,12 +5306,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
@@ -5320,12 +5320,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
+          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>vpn.italiacdn.net</t>
+          <t>logs.italiacdn.net</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
+          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E83" t="b">
@@ -5365,12 +5365,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
@@ -5379,12 +5379,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>a49ade48a5be45f002d5417140f370a0</t>
+          <t>b013512ac14813f9241bfb82d58e6a15</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>adinsp9sqvzxue8n.italiadns.com</t>
+          <t>private.italiacdn.net</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5394,17 +5394,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E84" t="b">
         <v>1</v>
       </c>
       <c r="F84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -5424,12 +5424,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2024-07-31T13:37:34.938024Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2024-07-31T13:38:29.779921Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
@@ -5438,12 +5438,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>57267997534d7cf452997a9c191591ee</t>
+          <t>68ff9d51859905c9e8f951acf9650166</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>mt-link.italiadns.com</t>
+          <t>vault.italiacdn.net</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5453,14 +5453,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5483,12 +5483,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -5497,12 +5497,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3a7c851242dbc15ea213945d901512b9</t>
+          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.italiadns.com</t>
+          <t>vpn.italiacdn.net</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5512,14 +5512,14 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5542,12 +5542,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
@@ -5556,36 +5556,36 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>f06b6c37872df6a52852ee0d128d45ee</t>
+          <t>14efda500a1c1e9c12dffecc2640246d</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.italiadns.com</t>
+          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>27b4d1e9dabc5765ebb48532ae2443</t>
         </is>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -5615,12 +5615,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>41fd60824243d4f2538de3c3c29b7736</t>
+          <t>a49ade48a5be45f002d5417140f370a0</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>w1y139ns251ah6gc.italiadns.com</t>
+          <t>adinsp9sqvzxue8n.italiadns.com</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5660,12 +5660,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T13:37:34.938024Z</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T13:38:29.779921Z</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
@@ -5674,26 +5674,26 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>a38c7cb5dce002e6fa5326111beba54f</t>
+          <t>57267997534d7cf452997a9c191591ee</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>mt-link.italiadns.com</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -5703,12 +5703,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -5719,42 +5719,40 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
-      <c r="O89" t="n">
-        <v>61</v>
-      </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
+          <t>3a7c851242dbc15ea213945d901512b9</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>rwmt1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -5764,12 +5762,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -5780,42 +5778,40 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
-      <c r="O90" t="n">
-        <v>14</v>
-      </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>6c5bf0b471503f7060c852986b55b0e0</t>
+          <t>f06b6c37872df6a52852ee0d128d45ee</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>rwmt2._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
@@ -5825,12 +5821,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -5841,42 +5837,40 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
-      <c r="O91" t="n">
-        <v>3</v>
-      </c>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>e6da0cedff625c31979aecd06ce463d4</t>
+          <t>41fd60824243d4f2538de3c3c29b7736</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.italiadns.com</t>
+          <t>w1y139ns251ah6gc.italiadns.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
@@ -5886,12 +5880,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -5902,12 +5896,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
@@ -5916,22 +5910,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
+          <t>a38c7cb5dce002e6fa5326111beba54f</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>_dmarc.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E93" t="b">
@@ -5950,7 +5944,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -5961,21 +5955,23 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
+      <c r="O93" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>129ae399ff1f816f521c481aa58251a7</t>
+          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5985,12 +5981,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E94" t="b">
@@ -6009,7 +6005,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -6020,36 +6016,38 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:30.706502Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2024-08-19T08:39:22.495623Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
+      <c r="O94" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
+          <t>6c5bf0b471503f7060c852986b55b0e0</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ns-1683.awsdns-18.co.uk</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E95" t="b">
@@ -6068,7 +6066,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -6079,36 +6077,38 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
+      <c r="O95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>4131e3d65c1df20458045bfa612298e9</t>
+          <t>e6da0cedff625c31979aecd06ce463d4</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>cf2024-1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ns-1303.awsdns-34.org</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E96" t="b">
@@ -6127,7 +6127,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -6138,12 +6138,12 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
@@ -6152,12 +6152,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>03da4898b7afbb1408bfdd51f42e5936</t>
+          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>_dmarc.italiadns.com</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
+          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E97" t="b">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -6211,12 +6211,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>fd06957f7e745e10c388665bb8be096a</t>
+          <t>129ae399ff1f816f521c481aa58251a7</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
+          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E98" t="b">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2024-07-31T12:41:30.706502Z</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2024-08-19T08:39:22.495623Z</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
@@ -6270,22 +6270,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
+          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>v=spf1 a mx ~all</t>
+          <t>ns-1683.awsdns-18.co.uk</t>
         </is>
       </c>
       <c r="E99" t="b">
@@ -6315,12 +6315,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
@@ -6329,26 +6329,26 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>c7df12561d64e4e680c6b0859c123f99</t>
+          <t>4131e3d65c1df20458045bfa612298e9</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>imap.rivoluzioneinformatica.org</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>ns-1303.awsdns-34.org</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
@@ -6374,12 +6374,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
@@ -6388,26 +6388,26 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>e95c85414a6c93e847a2755df7c16cf0</t>
+          <t>03da4898b7afbb1408bfdd51f42e5936</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>mail.rivoluzioneinformatica.org</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
@@ -6433,12 +6433,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
@@ -6447,26 +6447,26 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>6834f98896056a837138409566211327</t>
+          <t>fd06957f7e745e10c388665bb8be096a</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>smtp.rivoluzioneinformatica.org</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
@@ -6492,12 +6492,12 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -6506,29 +6506,29 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
+          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>webmail.rivoluzioneinformatica.org</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>v=spf1 a mx ~all</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6551,12 +6551,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
@@ -6565,36 +6565,36 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
+          <t>c7df12561d64e4e680c6b0859c123f99</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>git.rivoluzioneinformatica.org</t>
+          <t>imap.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6610,12 +6610,12 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
@@ -6624,36 +6624,36 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>eb220c9fb1df30719c788ef51fe312f6</t>
+          <t>e95c85414a6c93e847a2755df7c16cf0</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>npm.rivoluzioneinformatica.org</t>
+          <t>mail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6669,12 +6669,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -6683,36 +6683,36 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
+          <t>6834f98896056a837138409566211327</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>proxmox.rivoluzioneinformatica.org</t>
+          <t>smtp.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -6742,22 +6742,22 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>236f1b867d3720d5dd29c6af49782d62</t>
+          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>webmail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E107" t="b">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6787,12 +6787,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -6801,12 +6801,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>7c6da25c8e1e486da458cd5373402382</t>
+          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>vpn.rivoluzioneinformatica.org</t>
+          <t>git.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E108" t="b">
@@ -6846,12 +6846,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6860,12 +6860,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>3045396196bc00b6e05726f94825c6bd</t>
+          <t>eb220c9fb1df30719c788ef51fe312f6</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>npm.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -6875,7 +6875,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>fabriziosalmi.github.io</t>
+          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E109" t="b">
@@ -6905,12 +6905,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2022-08-17T08:57:50.756388Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2022-08-17T08:59:41.92016Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6919,12 +6919,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>25f714bcbfe5ff8215c314a503379edc</t>
+          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>xmq.rivoluzioneinformatica.org</t>
+          <t>proxmox.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E110" t="b">
@@ -6964,12 +6964,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
@@ -6978,7 +6978,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
+          <t>236f1b867d3720d5dd29c6af49782d62</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6988,31 +6988,31 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>amir.mx.cloudflare.net</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -7023,57 +7023,55 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
-      <c r="O111" t="n">
-        <v>40</v>
-      </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
+          <t>7c6da25c8e1e486da458cd5373402382</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>vpn.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>linda.mx.cloudflare.net</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -7084,57 +7082,55 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
-      <c r="O112" t="n">
-        <v>90</v>
-      </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>bcd73d5a0e03a2593be162cd5259a678</t>
+          <t>3045396196bc00b6e05726f94825c6bd</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>isaac.mx.cloudflare.net</t>
+          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -7145,57 +7141,55 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2022-08-17T08:57:50.756388Z</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2022-08-17T08:59:41.92016Z</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
-      <c r="O113" t="n">
-        <v>97</v>
-      </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>e6ffaf786ff743b47650f73557b07b66</t>
+          <t>25f714bcbfe5ff8215c314a503379edc</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
+          <t>xmq.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -7206,12 +7200,12 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -7220,22 +7214,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
+          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>_dmarc.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>amir.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E115" t="b">
@@ -7254,7 +7248,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -7265,21 +7259,23 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2022-02-07T15:43:39.763425Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2022-05-22T11:09:18.092063Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
+      <c r="O115" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2a74f92cf716979d913217d640655261</t>
+          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -7289,12 +7285,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
+          <t>linda.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E116" t="b">
@@ -7313,7 +7309,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -7324,21 +7320,23 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
+      <c r="O116" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
+          <t>bcd73d5a0e03a2593be162cd5259a678</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -7348,12 +7346,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>isaac.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E117" t="b">
@@ -7372,7 +7370,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -7383,26 +7381,28 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
+      <c r="O117" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>47bb0eec812c7e5f3961cb9079727d80</t>
+          <t>e6ffaf786ff743b47650f73557b07b66</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E118" t="b">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -7442,12 +7442,12 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
@@ -7456,12 +7456,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>9abd161d29cb47ce6cfa783657e67723</t>
+          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
+          <t>_dmarc.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -7501,12 +7501,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2022-05-13T21:13:25.301942Z</t>
+          <t>2022-02-07T15:43:39.763425Z</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2022-05-22T10:18:49.411362Z</t>
+          <t>2022-05-22T11:09:18.092063Z</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
@@ -7515,12 +7515,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
+          <t>2a74f92cf716979d913217d640655261</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
+          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -7560,12 +7560,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
@@ -7574,36 +7574,36 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>904b0a528a01b0dd8370295ce305d3da</t>
+          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>demo.uglyfeed.com</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7619,12 +7619,12 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
@@ -7633,36 +7633,36 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1b7333a979fa92816324f0e9be6a564a</t>
+          <t>47bb0eec812c7e5f3961cb9079727d80</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>xml.uglyfeed.com</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7678,12 +7678,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -7692,12 +7692,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>9abd161d29cb47ce6cfa783657e67723</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -7737,12 +7737,12 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2022-05-13T21:13:25.301942Z</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2022-05-22T10:18:49.411362Z</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
@@ -7751,12 +7751,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
@@ -7810,36 +7810,36 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>904b0a528a01b0dd8370295ce305d3da</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>demo.uglyfeed.com</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7855,12 +7855,12 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
@@ -7869,36 +7869,36 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>1b7333a979fa92816324f0e9be6a564a</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>xml.uglyfeed.com</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7914,12 +7914,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
@@ -7928,29 +7928,29 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -7973,12 +7973,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -7987,29 +7987,29 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -8032,12 +8032,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
@@ -8046,29 +8046,29 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -8091,12 +8091,12 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
@@ -8105,29 +8105,29 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>videodioggi.com</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -8150,12 +8150,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
@@ -8164,12 +8164,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -8209,12 +8209,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2023-03-30T09:59:11.98058Z</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2023-03-30T09:59:12.228482Z</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8223,29 +8223,29 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>_dmarc.youknowwhataimean.com</t>
+          <t>test2.webtek.live</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -8268,12 +8268,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-03-28T08:34:29.902515Z</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-03-28T08:34:30.164318Z</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8282,29 +8282,29 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+          <t>432df2553b443742f9f905e155878536</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
+          <t>test.webtek.live</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -8327,12 +8327,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-03-24T11:44:15.078812Z</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-03-24T11:44:15.367412Z</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8341,29 +8341,29 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>webtek.live</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -8386,12 +8386,12 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
@@ -8400,22 +8400,22 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
+          <t>e02587466a80086957e4f19a05760dec</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>transversalpuntozero.org</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>transversalpuntozero.pages.dev</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E135" t="b">
@@ -8429,7 +8429,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -8445,16 +8445,252 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-06T11:52:31.670164Z</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-06T12:04:32.454791Z</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>_dmarc.youknowwhataimean.com</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+        </is>
+      </c>
+      <c r="E136" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.963225Z</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.963225Z</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>*._domainkey.youknowwhataimean.com</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>v=DKIM1; p=</t>
+        </is>
+      </c>
+      <c r="E137" t="b">
+        <v>0</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.93815Z</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.93815Z</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>youknowwhataimean.com</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>v=spf1 -all</t>
+        </is>
+      </c>
+      <c r="E138" t="b">
+        <v>0</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.931067Z</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.931067Z</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.org</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.pages.dev</t>
+        </is>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+      <c r="F139" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>{'flatten_cname': False}</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O139"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3011,12 +3011,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>737420529070901f1b0cd444ebf396fd</t>
+          <t>3d0c18afd78dff56ae887d0b7f971bf0</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>baserow.irrazionale.org</t>
+          <t>ai.irrazionale.org</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>fc418fe6-ca4c-4b2d-988b-b2b9bddc570f.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E44" t="b">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2025-02-07T16:23:37.038965Z</t>
+          <t>2025-03-21T11:57:02.473035Z</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2025-02-07T16:23:37.038965Z</t>
+          <t>2025-03-21T11:57:02.473035Z</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -3070,12 +3070,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>081907c20660bf785f8a99b15f7ae6fa</t>
+          <t>737420529070901f1b0cd444ebf396fd</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>cloud.irrazionale.org</t>
+          <t>baserow.irrazionale.org</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>379e723b-0e63-4ee0-aabe-5009125009c9.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E45" t="b">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2022-12-11T16:25:07.205868Z</t>
+          <t>2025-02-07T16:23:37.038965Z</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2022-12-11T16:25:07.205868Z</t>
+          <t>2025-02-07T16:23:37.038965Z</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -3129,12 +3129,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>d0e96bb2faf9ed17182c357e39b68779</t>
+          <t>081907c20660bf785f8a99b15f7ae6fa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>coolify.irrazionale.org</t>
+          <t>cloud.irrazionale.org</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>379e723b-0e63-4ee0-aabe-5009125009c9.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E46" t="b">
@@ -3174,12 +3174,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2025-02-09T22:15:14.34368Z</t>
+          <t>2022-12-11T16:25:07.205868Z</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2025-02-09T22:15:14.34368Z</t>
+          <t>2022-12-11T16:25:07.205868Z</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -3188,12 +3188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>911a85c4a4a11c6e7c594788937a2456</t>
+          <t>d0e96bb2faf9ed17182c357e39b68779</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>dell.irrazionale.org</t>
+          <t>coolify.irrazionale.org</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4e789f43-bcab-410e-a7c8-9c7bd88fd294.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E47" t="b">
@@ -3233,12 +3233,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2023-12-01T12:39:10.88625Z</t>
+          <t>2025-02-09T22:15:14.34368Z</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023-12-01T12:39:10.88625Z</t>
+          <t>2025-02-09T22:15:14.34368Z</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -3247,12 +3247,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>60d0a2d1367b6b64c398aa37848efae3</t>
+          <t>911a85c4a4a11c6e7c594788937a2456</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>docker.irrazionale.org</t>
+          <t>dell.irrazionale.org</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>4e789f43-bcab-410e-a7c8-9c7bd88fd294.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E48" t="b">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2025-02-07T16:29:08.840612Z</t>
+          <t>2023-12-01T12:39:10.88625Z</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2025-02-07T16:29:08.840612Z</t>
+          <t>2023-12-01T12:39:10.88625Z</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -3306,12 +3306,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>08d407943ed4067865b5a819494093df</t>
+          <t>60d0a2d1367b6b64c398aa37848efae3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>freesounds.irrazionale.org</t>
+          <t>docker.irrazionale.org</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>86cfa504-c90d-46fd-a7f9-8c8d7a74ec1b.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E49" t="b">
@@ -3351,12 +3351,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2022-05-29T10:34:39.700377Z</t>
+          <t>2025-02-07T16:29:08.840612Z</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2022-05-29T10:34:39.700377Z</t>
+          <t>2025-02-07T16:29:08.840612Z</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -3365,12 +3365,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>41be2e667e4654c8425c3747809eaf4b</t>
+          <t>08d407943ed4067865b5a819494093df</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>git.irrazionale.org</t>
+          <t>freesounds.irrazionale.org</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>86cfa504-c90d-46fd-a7f9-8c8d7a74ec1b.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E50" t="b">
@@ -3410,12 +3410,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2025-02-09T17:43:27.673327Z</t>
+          <t>2022-05-29T10:34:39.700377Z</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2025-02-09T17:43:27.673327Z</t>
+          <t>2022-05-29T10:34:39.700377Z</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -3424,12 +3424,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>216f28a4197e4846265257d9a19df44a</t>
+          <t>41be2e667e4654c8425c3747809eaf4b</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jellyfin.irrazionale.org</t>
+          <t>git.irrazionale.org</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ecb8d351-a34c-4b72-829d-9e0ef5726b65.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2023-12-01T16:34:33.145093Z</t>
+          <t>2025-02-09T17:43:27.673327Z</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-12-01T16:34:33.145093Z</t>
+          <t>2025-02-09T17:43:27.673327Z</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -3483,12 +3483,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>a294caebd6eeaa83278ae5e170afa4a7</t>
+          <t>216f28a4197e4846265257d9a19df44a</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>lf.irrazionale.org</t>
+          <t>jellyfin.irrazionale.org</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>ecb8d351-a34c-4b72-829d-9e0ef5726b65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E52" t="b">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2024-04-25T08:35:09.947241Z</t>
+          <t>2023-12-01T16:34:33.145093Z</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2024-04-25T08:35:09.947241Z</t>
+          <t>2023-12-01T16:34:33.145093Z</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -3542,12 +3542,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
+          <t>a294caebd6eeaa83278ae5e170afa4a7</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>mt-link.irrazionale.org</t>
+          <t>lf.irrazionale.org</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3557,14 +3557,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2024-04-25T08:35:09.947241Z</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2024-04-25T08:35:09.947241Z</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -3601,12 +3601,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3d3ea0a30645f9869829e88faee2503f</t>
+          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
+          <t>mt-link.irrazionale.org</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E54" t="b">
@@ -3646,12 +3646,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -3660,12 +3660,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
+          <t>3d3ea0a30645f9869829e88faee2503f</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ollama.irrazionale.org</t>
+          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3675,14 +3675,14 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4a64c597d17da513e052355df93bbc58</t>
+          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>powerdns.irrazionale.org</t>
+          <t>ollama.irrazionale.org</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E56" t="b">
@@ -3764,12 +3764,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -3778,12 +3778,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4bd65cc8d342c16851d7e90462f78579</t>
+          <t>4a64c597d17da513e052355df93bbc58</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>proxmox.irrazionale.org</t>
+          <t>powerdns.irrazionale.org</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E57" t="b">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3837,12 +3837,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
+          <t>4bd65cc8d342c16851d7e90462f78579</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>proxmox-ssh.irrazionale.org</t>
+          <t>proxmox.irrazionale.org</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3882,12 +3882,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -3896,12 +3896,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
+          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.irrazionale.org</t>
+          <t>proxmox-ssh.irrazionale.org</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3911,14 +3911,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3941,12 +3941,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -3955,12 +3955,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>04d14cb456a1976f403ee148eca05cc8</t>
+          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.irrazionale.org</t>
+          <t>rwmt1._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E60" t="b">
@@ -4000,12 +4000,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -4014,12 +4014,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
+          <t>04d14cb456a1976f403ee148eca05cc8</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>s3.irrazionale.org</t>
+          <t>rwmt2._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4029,14 +4029,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4059,12 +4059,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0ce0da84393eb2e44a959deb2116cce5</t>
+          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>s3ui.irrazionale.org</t>
+          <t>s3.irrazionale.org</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4118,12 +4118,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -4132,12 +4132,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
+          <t>0ce0da84393eb2e44a959deb2116cce5</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>search.irrazionale.org</t>
+          <t>s3ui.irrazionale.org</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4177,12 +4177,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -4191,12 +4191,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>d136067486f9bfd1260a66e04c217624</t>
+          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>webcheck.irrazionale.org</t>
+          <t>search.irrazionale.org</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4236,12 +4236,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -4250,36 +4250,36 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
+          <t>d136067486f9bfd1260a66e04c217624</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>webcheck.irrazionale.org</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>mail.irrazionale.org</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4295,23 +4295,21 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
-      <c r="O65" t="n">
-        <v>1</v>
-      </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>5e61f46e73d33d23b901c830c11d05e5</t>
+          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4326,7 +4324,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>mail.irrazionale.org</t>
         </is>
       </c>
       <c r="E66" t="b">
@@ -4356,23 +4354,23 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>4a187b659dadf78253cb30054350314c</t>
+          <t>5e61f46e73d33d23b901c830c11d05e5</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4387,7 +4385,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>route2mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E67" t="b">
@@ -4417,23 +4415,23 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="n">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
+          <t>4a187b659dadf78253cb30054350314c</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4448,7 +4446,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route2mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E68" t="b">
@@ -4478,38 +4476,38 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>bb6fca1069dfef36eac3160ec423215a</t>
+          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>safe.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>dnsafe.irrazionale.org</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E69" t="b">
@@ -4539,36 +4537,38 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
+      <c r="O69" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3a04124b47167ef39224aa1b60a8fe25</t>
+          <t>bb6fca1069dfef36eac3160ec423215a</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>_acme-challenge.mail.irrazionale.org</t>
+          <t>safe.irrazionale.org</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
+          <t>dnsafe.irrazionale.org</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -4598,12 +4598,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
@@ -4612,12 +4612,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
+          <t>3a04124b47167ef39224aa1b60a8fe25</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>_acme-challenge.mail.irrazionale.org</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
+          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4657,12 +4657,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>c931695adebdf9cc13b66924f8d442a2</t>
+          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
+          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -4730,7 +4730,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>5674a44427225f44209d188901e7e212</t>
+          <t>c931695adebdf9cc13b66924f8d442a2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
         </is>
       </c>
       <c r="E73" t="b">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
@@ -4789,12 +4789,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>575daba57b52a33ae44441e93e44ad93</t>
+          <t>5674a44427225f44209d188901e7e212</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E74" t="b">
@@ -4834,12 +4834,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -4848,7 +4848,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>8ae5f18920790fbc1ac6e57676db376b</t>
+          <t>575daba57b52a33ae44441e93e44ad93</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
+          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
         </is>
       </c>
       <c r="E75" t="b">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -4907,7 +4907,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5f752add42e06a88468c1b1203a5241c</t>
+          <t>8ae5f18920790fbc1ac6e57676db376b</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
+          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E76" t="b">
@@ -4952,12 +4952,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
@@ -4966,7 +4966,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
+          <t>5f752add42e06a88468c1b1203a5241c</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 -all</t>
+          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
         </is>
       </c>
       <c r="E77" t="b">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -5025,12 +5025,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>96bf76d43d32043fc586f04d28efe912</t>
+          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>mail._domainkey.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
+          <t>v=spf1 ip4:185.182.185.194 -all</t>
         </is>
       </c>
       <c r="E78" t="b">
@@ -5070,12 +5070,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -5084,12 +5084,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6aa7d6d1576b8790519602102e390beb</t>
+          <t>96bf76d43d32043fc586f04d28efe912</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>s20220715915._domainkey.irrazionale.org</t>
+          <t>mail._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
+          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
         </is>
       </c>
       <c r="E79" t="b">
@@ -5129,12 +5129,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
@@ -5143,12 +5143,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>f07372fefe2aeec92ba78a42ee921960</t>
+          <t>6aa7d6d1576b8790519602102e390beb</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>s20221212161._domainkey.irrazionale.org</t>
+          <t>s20220715915._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
         </is>
       </c>
       <c r="E80" t="b">
@@ -5188,12 +5188,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -5202,22 +5202,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>f02f658bd3f849218f8880600ee8f124</t>
+          <t>f07372fefe2aeec92ba78a42ee921960</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>proxmox-dc2-mn.italiacdn.net</t>
+          <t>s20221212161._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>100.92.242.58</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
         </is>
       </c>
       <c r="E81" t="b">
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -5261,36 +5261,36 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>25f1985f805e21184de23f5dd6f43ea9</t>
+          <t>f02f658bd3f849218f8880600ee8f124</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>bin.italiacdn.net</t>
+          <t>proxmox-dc2-mn.italiacdn.net</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
+          <t>100.92.242.58</t>
         </is>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5306,12 +5306,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
@@ -5320,12 +5320,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
+          <t>25f1985f805e21184de23f5dd6f43ea9</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>logs.italiacdn.net</t>
+          <t>bin.italiacdn.net</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
+          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E83" t="b">
@@ -5365,12 +5365,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
@@ -5379,12 +5379,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>b013512ac14813f9241bfb82d58e6a15</t>
+          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>private.italiacdn.net</t>
+          <t>logs.italiacdn.net</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
+          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E84" t="b">
@@ -5424,12 +5424,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
@@ -5438,12 +5438,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>68ff9d51859905c9e8f951acf9650166</t>
+          <t>b013512ac14813f9241bfb82d58e6a15</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>vault.italiacdn.net</t>
+          <t>private.italiacdn.net</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
+          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E85" t="b">
@@ -5483,12 +5483,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -5497,12 +5497,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
+          <t>da6f732331d53062b4a64822c4d8053c</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>vpn.italiacdn.net</t>
+          <t>public-bucket.italiacdn.net</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
+          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -5542,12 +5542,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
@@ -5556,36 +5556,36 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>14efda500a1c1e9c12dffecc2640246d</t>
+          <t>68ff9d51859905c9e8f951acf9650166</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
+          <t>vault.italiacdn.net</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>27b4d1e9dabc5765ebb48532ae2443</t>
+          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -5615,12 +5615,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>a49ade48a5be45f002d5417140f370a0</t>
+          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>adinsp9sqvzxue8n.italiadns.com</t>
+          <t>vpn.italiacdn.net</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5630,17 +5630,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5660,12 +5660,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2024-07-31T13:37:34.938024Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2024-07-31T13:38:29.779921Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
@@ -5674,36 +5674,36 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>57267997534d7cf452997a9c191591ee</t>
+          <t>14efda500a1c1e9c12dffecc2640246d</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>mt-link.italiadns.com</t>
+          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>27b4d1e9dabc5765ebb48532ae2443</t>
         </is>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5719,12 +5719,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
@@ -5733,12 +5733,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3a7c851242dbc15ea213945d901512b9</t>
+          <t>a49ade48a5be45f002d5417140f370a0</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.italiadns.com</t>
+          <t>adinsp9sqvzxue8n.italiadns.com</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E90" t="b">
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5778,12 +5778,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:37:34.938024Z</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:38:29.779921Z</t>
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
@@ -5792,12 +5792,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>f06b6c37872df6a52852ee0d128d45ee</t>
+          <t>57267997534d7cf452997a9c191591ee</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.italiadns.com</t>
+          <t>mt-link.italiadns.com</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E91" t="b">
@@ -5837,12 +5837,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -5851,12 +5851,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>41fd60824243d4f2538de3c3c29b7736</t>
+          <t>3a7c851242dbc15ea213945d901512b9</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>w1y139ns251ah6gc.italiadns.com</t>
+          <t>rwmt1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E92" t="b">
@@ -5896,12 +5896,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
@@ -5910,26 +5910,26 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>a38c7cb5dce002e6fa5326111beba54f</t>
+          <t>f06b6c37872df6a52852ee0d128d45ee</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>rwmt2._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -5939,12 +5939,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -5955,42 +5955,40 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
-      <c r="O93" t="n">
-        <v>61</v>
-      </c>
+      <c r="O93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
+          <t>41fd60824243d4f2538de3c3c29b7736</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>w1y139ns251ah6gc.italiadns.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
@@ -6000,12 +5998,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -6016,23 +6014,21 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
-      <c r="O94" t="n">
-        <v>14</v>
-      </c>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>6c5bf0b471503f7060c852986b55b0e0</t>
+          <t>a38c7cb5dce002e6fa5326111beba54f</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6047,7 +6043,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E95" t="b">
@@ -6077,38 +6073,38 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>e6da0cedff625c31979aecd06ce463d4</t>
+          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E96" t="b">
@@ -6138,36 +6134,38 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
+      <c r="O96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
+          <t>6c5bf0b471503f7060c852986b55b0e0</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>_dmarc.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E97" t="b">
@@ -6186,7 +6184,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -6197,26 +6195,28 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
+      <c r="O97" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>129ae399ff1f816f521c481aa58251a7</t>
+          <t>e6da0cedff625c31979aecd06ce463d4</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>cf2024-1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E98" t="b">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -6256,12 +6256,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:30.706502Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2024-08-19T08:39:22.495623Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
@@ -6270,22 +6270,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
+          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>_dmarc.italiadns.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ns-1683.awsdns-18.co.uk</t>
+          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E99" t="b">
@@ -6315,12 +6315,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
@@ -6329,22 +6329,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>4131e3d65c1df20458045bfa612298e9</t>
+          <t>129ae399ff1f816f521c481aa58251a7</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ns-1303.awsdns-34.org</t>
+          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E100" t="b">
@@ -6374,12 +6374,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2024-07-31T12:41:30.706502Z</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2024-08-19T08:39:22.495623Z</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
@@ -6388,22 +6388,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>03da4898b7afbb1408bfdd51f42e5936</t>
+          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
+          <t>ns-1683.awsdns-18.co.uk</t>
         </is>
       </c>
       <c r="E101" t="b">
@@ -6433,12 +6433,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
@@ -6447,22 +6447,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>fd06957f7e745e10c388665bb8be096a</t>
+          <t>4131e3d65c1df20458045bfa612298e9</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
+          <t>ns-1303.awsdns-34.org</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -6492,12 +6492,12 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -6506,7 +6506,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
+          <t>03da4898b7afbb1408bfdd51f42e5936</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>v=spf1 a mx ~all</t>
+          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -6551,12 +6551,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
@@ -6565,26 +6565,26 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>c7df12561d64e4e680c6b0859c123f99</t>
+          <t>fd06957f7e745e10c388665bb8be096a</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>imap.rivoluzioneinformatica.org</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
         </is>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="b">
         <v>0</v>
@@ -6610,12 +6610,12 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
@@ -6624,26 +6624,26 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>e95c85414a6c93e847a2755df7c16cf0</t>
+          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>mail.rivoluzioneinformatica.org</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>v=spf1 a mx ~all</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
@@ -6669,12 +6669,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -6683,12 +6683,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>6834f98896056a837138409566211327</t>
+          <t>c7df12561d64e4e680c6b0859c123f99</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>smtp.rivoluzioneinformatica.org</t>
+          <t>imap.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -6742,12 +6742,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
+          <t>e95c85414a6c93e847a2755df7c16cf0</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>webmail.rivoluzioneinformatica.org</t>
+          <t>mail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -6764,7 +6764,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6787,12 +6787,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -6801,36 +6801,36 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
+          <t>6834f98896056a837138409566211327</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>git.rivoluzioneinformatica.org</t>
+          <t>smtp.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6846,12 +6846,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6860,22 +6860,22 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>eb220c9fb1df30719c788ef51fe312f6</t>
+          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>npm.rivoluzioneinformatica.org</t>
+          <t>webmail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E109" t="b">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6905,12 +6905,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6919,12 +6919,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
+          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>proxmox.rivoluzioneinformatica.org</t>
+          <t>git.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
+          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E110" t="b">
@@ -6964,12 +6964,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
@@ -6978,12 +6978,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>236f1b867d3720d5dd29c6af49782d62</t>
+          <t>eb220c9fb1df30719c788ef51fe312f6</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>npm.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E111" t="b">
@@ -7023,12 +7023,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
@@ -7037,12 +7037,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>7c6da25c8e1e486da458cd5373402382</t>
+          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>vpn.rivoluzioneinformatica.org</t>
+          <t>proxmox.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7052,7 +7052,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E112" t="b">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -7096,22 +7096,22 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>3045396196bc00b6e05726f94825c6bd</t>
+          <t>236f1b867d3720d5dd29c6af49782d62</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>rivoluzioneinformatica.org</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>www.rivoluzioneinformatica.org</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>CNAME</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E113" t="b">
@@ -7141,12 +7141,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2022-08-17T08:57:50.756388Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2022-08-17T08:59:41.92016Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -7155,12 +7155,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>25f714bcbfe5ff8215c314a503379edc</t>
+          <t>7c6da25c8e1e486da458cd5373402382</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>xmq.rivoluzioneinformatica.org</t>
+          <t>vpn.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7200,12 +7200,12 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -7214,41 +7214,41 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
+          <t>3045396196bc00b6e05726f94825c6bd</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>amir.mx.cloudflare.net</t>
+          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -7259,57 +7259,55 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2022-08-17T08:57:50.756388Z</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2022-08-17T08:59:41.92016Z</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
-      <c r="O115" t="n">
-        <v>40</v>
-      </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
+          <t>25f714bcbfe5ff8215c314a503379edc</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>xmq.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>linda.mx.cloudflare.net</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -7320,23 +7318,21 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
-      <c r="O116" t="n">
-        <v>90</v>
-      </c>
+      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>bcd73d5a0e03a2593be162cd5259a678</t>
+          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -7351,7 +7347,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>isaac.mx.cloudflare.net</t>
+          <t>amir.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E117" t="b">
@@ -7381,38 +7377,38 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="n">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>e6ffaf786ff743b47650f73557b07b66</t>
+          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>linda.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E118" t="b">
@@ -7442,36 +7438,38 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
+      <c r="O118" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
+          <t>bcd73d5a0e03a2593be162cd5259a678</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>_dmarc.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>isaac.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -7490,7 +7488,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -7501,26 +7499,28 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2022-02-07T15:43:39.763425Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2022-05-22T11:09:18.092063Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
+      <c r="O119" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2a74f92cf716979d913217d640655261</t>
+          <t>e6ffaf786ff743b47650f73557b07b66</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -7560,12 +7560,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
@@ -7574,12 +7574,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
+          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>_dmarc.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E121" t="b">
@@ -7619,12 +7619,12 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2022-02-07T15:43:39.763425Z</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2022-05-22T11:09:18.092063Z</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
@@ -7633,7 +7633,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>47bb0eec812c7e5f3961cb9079727d80</t>
+          <t>2a74f92cf716979d913217d640655261</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
+          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
         </is>
       </c>
       <c r="E122" t="b">
@@ -7678,12 +7678,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -7692,12 +7692,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>9abd161d29cb47ce6cfa783657e67723</t>
+          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -7737,12 +7737,12 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2022-05-13T21:13:25.301942Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2022-05-22T10:18:49.411362Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
@@ -7751,12 +7751,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
+          <t>47bb0eec812c7e5f3961cb9079727d80</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
+          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
@@ -7810,36 +7810,36 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>904b0a528a01b0dd8370295ce305d3da</t>
+          <t>9abd161d29cb47ce6cfa783657e67723</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>demo.uglyfeed.com</t>
+          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7855,12 +7855,12 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-05-13T21:13:25.301942Z</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-05-22T10:18:49.411362Z</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
@@ -7869,36 +7869,36 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1b7333a979fa92816324f0e9be6a564a</t>
+          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>xml.uglyfeed.com</t>
+          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
         </is>
       </c>
       <c r="E126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7914,12 +7914,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
@@ -7928,41 +7928,41 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>904b0a528a01b0dd8370295ce305d3da</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>demo.uglyfeed.com</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -7973,12 +7973,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -7987,36 +7987,36 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>1b7333a979fa92816324f0e9be6a564a</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>xml.uglyfeed.com</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8032,12 +8032,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
@@ -8046,12 +8046,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E129" t="b">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -8091,12 +8091,12 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
@@ -8105,12 +8105,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E130" t="b">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
@@ -8164,29 +8164,29 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -8209,12 +8209,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8223,29 +8223,29 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>videodioggi.com</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -8268,12 +8268,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8282,12 +8282,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -8327,12 +8327,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2023-03-30T09:59:11.98058Z</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2023-03-30T09:59:12.228482Z</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8341,12 +8341,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>test2.webtek.live</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -8386,12 +8386,12 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-28T08:34:29.902515Z</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-28T08:34:30.164318Z</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
@@ -8400,12 +8400,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>432df2553b443742f9f905e155878536</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>test.webtek.live</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -8445,12 +8445,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2023-03-24T11:44:15.078812Z</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2023-03-24T11:44:15.367412Z</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
@@ -8459,29 +8459,29 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>_dmarc.youknowwhataimean.com</t>
+          <t>webtek.live</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8504,12 +8504,12 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
@@ -8518,29 +8518,29 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+          <t>e02587466a80086957e4f19a05760dec</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -8563,12 +8563,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-06T11:52:31.670164Z</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-06T12:04:32.454791Z</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -8577,12 +8577,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>_dmarc.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E138" t="b">
@@ -8622,12 +8622,12 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
@@ -8636,36 +8636,36 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>transversalpuntozero.org</t>
+          <t>*._domainkey.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>transversalpuntozero.pages.dev</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8681,16 +8681,134 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>youknowwhataimean.com</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>v=spf1 -all</t>
+        </is>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.931067Z</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.931067Z</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.org</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.pages.dev</t>
+        </is>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>{'flatten_cname': False}</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O141"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3601,12 +3601,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
+          <t>b3c12f8816422fb6e017703c896aa4eb</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>mt-link.irrazionale.org</t>
+          <t>localhost.irrazionale.org</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3616,14 +3616,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>05dcfc0e-c6f7-45c8-9c51-04d3ea300b3c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3646,12 +3646,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2025-03-26T09:51:19.730468Z</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2025-03-26T09:51:19.730468Z</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -3660,12 +3660,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3d3ea0a30645f9869829e88faee2503f</t>
+          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
+          <t>mt-link.irrazionale.org</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E55" t="b">
@@ -3705,12 +3705,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
+          <t>3d3ea0a30645f9869829e88faee2503f</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ollama.irrazionale.org</t>
+          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3734,14 +3734,14 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -3778,12 +3778,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4a64c597d17da513e052355df93bbc58</t>
+          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>powerdns.irrazionale.org</t>
+          <t>ollama.irrazionale.org</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E57" t="b">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3837,12 +3837,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4bd65cc8d342c16851d7e90462f78579</t>
+          <t>4a64c597d17da513e052355df93bbc58</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>proxmox.irrazionale.org</t>
+          <t>powerdns.irrazionale.org</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E58" t="b">
@@ -3882,12 +3882,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -3896,12 +3896,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
+          <t>4bd65cc8d342c16851d7e90462f78579</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>proxmox-ssh.irrazionale.org</t>
+          <t>proxmox.irrazionale.org</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3941,12 +3941,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -3955,12 +3955,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
+          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.irrazionale.org</t>
+          <t>proxmox-ssh.irrazionale.org</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3970,14 +3970,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4000,12 +4000,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -4014,12 +4014,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>04d14cb456a1976f403ee148eca05cc8</t>
+          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.irrazionale.org</t>
+          <t>rwmt1._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E61" t="b">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
+          <t>04d14cb456a1976f403ee148eca05cc8</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>s3.irrazionale.org</t>
+          <t>rwmt2._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4088,14 +4088,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4118,12 +4118,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -4132,12 +4132,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0ce0da84393eb2e44a959deb2116cce5</t>
+          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>s3ui.irrazionale.org</t>
+          <t>s3.irrazionale.org</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4177,12 +4177,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -4191,12 +4191,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
+          <t>0ce0da84393eb2e44a959deb2116cce5</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>search.irrazionale.org</t>
+          <t>s3ui.irrazionale.org</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4236,12 +4236,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -4250,12 +4250,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>d136067486f9bfd1260a66e04c217624</t>
+          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>webcheck.irrazionale.org</t>
+          <t>sci-fi.irrazionale.org</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E65" t="b">
@@ -4295,12 +4295,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -4309,36 +4309,36 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
+          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>search.irrazionale.org</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>mail.irrazionale.org</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4354,52 +4354,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
-      <c r="O66" t="n">
-        <v>1</v>
-      </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>5e61f46e73d33d23b901c830c11d05e5</t>
+          <t>d136067486f9bfd1260a66e04c217624</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>webcheck.irrazionale.org</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4415,23 +4413,21 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="n">
-        <v>73</v>
-      </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4a187b659dadf78253cb30054350314c</t>
+          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4446,7 +4442,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>route2mx.cloudflare.net</t>
+          <t>mail.irrazionale.org</t>
         </is>
       </c>
       <c r="E68" t="b">
@@ -4476,23 +4472,23 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
+          <t>5e61f46e73d33d23b901c830c11d05e5</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4507,7 +4503,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E69" t="b">
@@ -4537,38 +4533,38 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>bb6fca1069dfef36eac3160ec423215a</t>
+          <t>4a187b659dadf78253cb30054350314c</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>safe.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>dnsafe.irrazionale.org</t>
+          <t>route2mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -4598,36 +4594,38 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="O70" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3a04124b47167ef39224aa1b60a8fe25</t>
+          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>_acme-challenge.mail.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -4637,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4657,36 +4655,38 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="O71" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
+          <t>bb6fca1069dfef36eac3160ec423215a</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>safe.irrazionale.org</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
+          <t>dnsafe.irrazionale.org</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -4730,12 +4730,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>c931695adebdf9cc13b66924f8d442a2</t>
+          <t>3a04124b47167ef39224aa1b60a8fe25</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>_acme-challenge.mail.irrazionale.org</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
+          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
         </is>
       </c>
       <c r="E73" t="b">
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4775,12 +4775,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
@@ -4789,7 +4789,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>5674a44427225f44209d188901e7e212</t>
+          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
         </is>
       </c>
       <c r="E74" t="b">
@@ -4834,12 +4834,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -4848,12 +4848,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>575daba57b52a33ae44441e93e44ad93</t>
+          <t>c931695adebdf9cc13b66924f8d442a2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
+          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
         </is>
       </c>
       <c r="E75" t="b">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -4907,12 +4907,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>8ae5f18920790fbc1ac6e57676db376b</t>
+          <t>5674a44427225f44209d188901e7e212</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E76" t="b">
@@ -4952,12 +4952,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
@@ -4966,7 +4966,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>5f752add42e06a88468c1b1203a5241c</t>
+          <t>575daba57b52a33ae44441e93e44ad93</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
+          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
         </is>
       </c>
       <c r="E77" t="b">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -5025,7 +5025,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
+          <t>8ae5f18920790fbc1ac6e57676db376b</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 -all</t>
+          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E78" t="b">
@@ -5070,12 +5070,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -5084,12 +5084,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>96bf76d43d32043fc586f04d28efe912</t>
+          <t>5f752add42e06a88468c1b1203a5241c</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>mail._domainkey.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
+          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
         </is>
       </c>
       <c r="E79" t="b">
@@ -5129,12 +5129,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
@@ -5143,12 +5143,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6aa7d6d1576b8790519602102e390beb</t>
+          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>s20220715915._domainkey.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
+          <t>v=spf1 ip4:185.182.185.194 -all</t>
         </is>
       </c>
       <c r="E80" t="b">
@@ -5188,12 +5188,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -5202,12 +5202,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>f07372fefe2aeec92ba78a42ee921960</t>
+          <t>96bf76d43d32043fc586f04d28efe912</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>s20221212161._domainkey.irrazionale.org</t>
+          <t>mail._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
+          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
         </is>
       </c>
       <c r="E81" t="b">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -5261,22 +5261,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>f02f658bd3f849218f8880600ee8f124</t>
+          <t>6aa7d6d1576b8790519602102e390beb</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>proxmox-dc2-mn.italiacdn.net</t>
+          <t>s20220715915._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>100.92.242.58</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
         </is>
       </c>
       <c r="E82" t="b">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -5306,12 +5306,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
@@ -5320,36 +5320,36 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>25f1985f805e21184de23f5dd6f43ea9</t>
+          <t>f07372fefe2aeec92ba78a42ee921960</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>bin.italiacdn.net</t>
+          <t>s20221212161._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
         </is>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5365,12 +5365,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
@@ -5379,36 +5379,36 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
+          <t>f02f658bd3f849218f8880600ee8f124</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>logs.italiacdn.net</t>
+          <t>proxmox-dc2-mn.italiacdn.net</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
+          <t>100.92.242.58</t>
         </is>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5424,12 +5424,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
@@ -5438,12 +5438,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>b013512ac14813f9241bfb82d58e6a15</t>
+          <t>25f1985f805e21184de23f5dd6f43ea9</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>private.italiacdn.net</t>
+          <t>bin.italiacdn.net</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
+          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E85" t="b">
@@ -5483,12 +5483,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -5497,12 +5497,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>da6f732331d53062b4a64822c4d8053c</t>
+          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>public-bucket.italiacdn.net</t>
+          <t>logs.italiacdn.net</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
+          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -5542,12 +5542,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
@@ -5556,12 +5556,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>68ff9d51859905c9e8f951acf9650166</t>
+          <t>b013512ac14813f9241bfb82d58e6a15</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>vault.italiacdn.net</t>
+          <t>private.italiacdn.net</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
+          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E87" t="b">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -5615,12 +5615,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
+          <t>da6f732331d53062b4a64822c4d8053c</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>vpn.italiacdn.net</t>
+          <t>public-bucket.italiacdn.net</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
+          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E88" t="b">
@@ -5660,12 +5660,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
@@ -5674,36 +5674,36 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>14efda500a1c1e9c12dffecc2640246d</t>
+          <t>68ff9d51859905c9e8f951acf9650166</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
+          <t>vault.italiacdn.net</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>27b4d1e9dabc5765ebb48532ae2443</t>
+          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5719,12 +5719,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
@@ -5733,12 +5733,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>a49ade48a5be45f002d5417140f370a0</t>
+          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>adinsp9sqvzxue8n.italiadns.com</t>
+          <t>vpn.italiacdn.net</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5748,17 +5748,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5778,12 +5778,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2024-07-31T13:37:34.938024Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2024-07-31T13:38:29.779921Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
@@ -5792,36 +5792,36 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>57267997534d7cf452997a9c191591ee</t>
+          <t>14efda500a1c1e9c12dffecc2640246d</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>mt-link.italiadns.com</t>
+          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>27b4d1e9dabc5765ebb48532ae2443</t>
         </is>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5837,12 +5837,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -5851,12 +5851,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3a7c851242dbc15ea213945d901512b9</t>
+          <t>a49ade48a5be45f002d5417140f370a0</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.italiadns.com</t>
+          <t>adinsp9sqvzxue8n.italiadns.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E92" t="b">
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5896,12 +5896,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:37:34.938024Z</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:38:29.779921Z</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
@@ -5910,12 +5910,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>f06b6c37872df6a52852ee0d128d45ee</t>
+          <t>57267997534d7cf452997a9c191591ee</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.italiadns.com</t>
+          <t>mt-link.italiadns.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E93" t="b">
@@ -5955,12 +5955,12 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
@@ -5969,12 +5969,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>41fd60824243d4f2538de3c3c29b7736</t>
+          <t>3a7c851242dbc15ea213945d901512b9</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>w1y139ns251ah6gc.italiadns.com</t>
+          <t>rwmt1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E94" t="b">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
@@ -6028,26 +6028,26 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>a38c7cb5dce002e6fa5326111beba54f</t>
+          <t>f06b6c37872df6a52852ee0d128d45ee</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>rwmt2._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
@@ -6057,12 +6057,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -6073,42 +6073,40 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="n">
-        <v>61</v>
-      </c>
+      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
+          <t>41fd60824243d4f2538de3c3c29b7736</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>w1y139ns251ah6gc.italiadns.com</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
@@ -6118,12 +6116,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -6134,23 +6132,21 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="n">
-        <v>14</v>
-      </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>6c5bf0b471503f7060c852986b55b0e0</t>
+          <t>a38c7cb5dce002e6fa5326111beba54f</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6165,7 +6161,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E97" t="b">
@@ -6195,38 +6191,38 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>e6da0cedff625c31979aecd06ce463d4</t>
+          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E98" t="b">
@@ -6256,36 +6252,38 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
+      <c r="O98" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
+          <t>6c5bf0b471503f7060c852986b55b0e0</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>_dmarc.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E99" t="b">
@@ -6304,7 +6302,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -6315,26 +6313,28 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
+      <c r="O99" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>129ae399ff1f816f521c481aa58251a7</t>
+          <t>e6da0cedff625c31979aecd06ce463d4</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>cf2024-1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E100" t="b">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -6374,12 +6374,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:30.706502Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2024-08-19T08:39:22.495623Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
@@ -6388,22 +6388,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
+          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>_dmarc.italiadns.com</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ns-1683.awsdns-18.co.uk</t>
+          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E101" t="b">
@@ -6433,12 +6433,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
@@ -6447,22 +6447,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>4131e3d65c1df20458045bfa612298e9</t>
+          <t>129ae399ff1f816f521c481aa58251a7</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ns-1303.awsdns-34.org</t>
+          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -6492,12 +6492,12 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2024-07-31T12:41:30.706502Z</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2024-08-19T08:39:22.495623Z</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -6506,22 +6506,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>03da4898b7afbb1408bfdd51f42e5936</t>
+          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
+          <t>ns-1683.awsdns-18.co.uk</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -6551,12 +6551,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
@@ -6565,22 +6565,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>fd06957f7e745e10c388665bb8be096a</t>
+          <t>4131e3d65c1df20458045bfa612298e9</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
+          <t>ns-1303.awsdns-34.org</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -6610,12 +6610,12 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
@@ -6624,7 +6624,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
+          <t>03da4898b7afbb1408bfdd51f42e5936</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>v=spf1 a mx ~all</t>
+          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
         </is>
       </c>
       <c r="E105" t="b">
@@ -6669,12 +6669,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -6683,26 +6683,26 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>c7df12561d64e4e680c6b0859c123f99</t>
+          <t>fd06957f7e745e10c388665bb8be096a</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>imap.rivoluzioneinformatica.org</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
         </is>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -6728,12 +6728,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -6742,26 +6742,26 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>e95c85414a6c93e847a2755df7c16cf0</t>
+          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>mail.rivoluzioneinformatica.org</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>v=spf1 a mx ~all</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -6787,12 +6787,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -6801,12 +6801,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>6834f98896056a837138409566211327</t>
+          <t>c7df12561d64e4e680c6b0859c123f99</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>smtp.rivoluzioneinformatica.org</t>
+          <t>imap.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -6846,12 +6846,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6860,12 +6860,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
+          <t>e95c85414a6c93e847a2755df7c16cf0</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>webmail.rivoluzioneinformatica.org</t>
+          <t>mail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -6882,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6905,12 +6905,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6919,36 +6919,36 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
+          <t>6834f98896056a837138409566211327</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>git.rivoluzioneinformatica.org</t>
+          <t>smtp.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6964,12 +6964,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
@@ -6978,22 +6978,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>eb220c9fb1df30719c788ef51fe312f6</t>
+          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>npm.rivoluzioneinformatica.org</t>
+          <t>webmail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E111" t="b">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7023,12 +7023,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
@@ -7037,12 +7037,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
+          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>proxmox.rivoluzioneinformatica.org</t>
+          <t>git.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7052,7 +7052,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
+          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E112" t="b">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -7096,12 +7096,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>236f1b867d3720d5dd29c6af49782d62</t>
+          <t>eb220c9fb1df30719c788ef51fe312f6</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>npm.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E113" t="b">
@@ -7141,12 +7141,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -7155,12 +7155,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>7c6da25c8e1e486da458cd5373402382</t>
+          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>vpn.rivoluzioneinformatica.org</t>
+          <t>proxmox.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E114" t="b">
@@ -7200,12 +7200,12 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -7214,22 +7214,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>3045396196bc00b6e05726f94825c6bd</t>
+          <t>236f1b867d3720d5dd29c6af49782d62</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>rivoluzioneinformatica.org</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>www.rivoluzioneinformatica.org</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>CNAME</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E115" t="b">
@@ -7259,12 +7259,12 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2022-08-17T08:57:50.756388Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2022-08-17T08:59:41.92016Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
@@ -7273,12 +7273,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>25f714bcbfe5ff8215c314a503379edc</t>
+          <t>7c6da25c8e1e486da458cd5373402382</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>xmq.rivoluzioneinformatica.org</t>
+          <t>vpn.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7318,12 +7318,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
@@ -7332,41 +7332,41 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
+          <t>3045396196bc00b6e05726f94825c6bd</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>amir.mx.cloudflare.net</t>
+          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -7377,57 +7377,55 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2022-08-17T08:57:50.756388Z</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2022-08-17T08:59:41.92016Z</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
-      <c r="O117" t="n">
-        <v>40</v>
-      </c>
+      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
+          <t>25f714bcbfe5ff8215c314a503379edc</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>xmq.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>linda.mx.cloudflare.net</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -7438,23 +7436,21 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
-      <c r="O118" t="n">
-        <v>90</v>
-      </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>bcd73d5a0e03a2593be162cd5259a678</t>
+          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -7469,7 +7465,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>isaac.mx.cloudflare.net</t>
+          <t>amir.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -7499,38 +7495,38 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="n">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>e6ffaf786ff743b47650f73557b07b66</t>
+          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>linda.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -7560,36 +7556,38 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
+      <c r="O120" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
+          <t>bcd73d5a0e03a2593be162cd5259a678</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>_dmarc.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>isaac.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E121" t="b">
@@ -7608,7 +7606,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -7619,26 +7617,28 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2022-02-07T15:43:39.763425Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2022-05-22T11:09:18.092063Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
+      <c r="O121" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2a74f92cf716979d913217d640655261</t>
+          <t>e6ffaf786ff743b47650f73557b07b66</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E122" t="b">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -7678,12 +7678,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -7692,12 +7692,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
+          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>_dmarc.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -7737,12 +7737,12 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2022-02-07T15:43:39.763425Z</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2022-05-22T11:09:18.092063Z</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
@@ -7751,7 +7751,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>47bb0eec812c7e5f3961cb9079727d80</t>
+          <t>2a74f92cf716979d913217d640655261</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
+          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
@@ -7810,12 +7810,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>9abd161d29cb47ce6cfa783657e67723</t>
+          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -7855,12 +7855,12 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2022-05-13T21:13:25.301942Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2022-05-22T10:18:49.411362Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
@@ -7869,12 +7869,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
+          <t>47bb0eec812c7e5f3961cb9079727d80</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
+          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -7914,12 +7914,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
@@ -7928,36 +7928,36 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>904b0a528a01b0dd8370295ce305d3da</t>
+          <t>9abd161d29cb47ce6cfa783657e67723</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>demo.uglyfeed.com</t>
+          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7973,12 +7973,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-05-13T21:13:25.301942Z</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-05-22T10:18:49.411362Z</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -7987,36 +7987,36 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1b7333a979fa92816324f0e9be6a564a</t>
+          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>xml.uglyfeed.com</t>
+          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
         </is>
       </c>
       <c r="E128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8032,12 +8032,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
@@ -8046,41 +8046,41 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>904b0a528a01b0dd8370295ce305d3da</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>demo.uglyfeed.com</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -8091,12 +8091,12 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
@@ -8105,36 +8105,36 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>1b7333a979fa92816324f0e9be6a564a</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>xml.uglyfeed.com</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
@@ -8164,12 +8164,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E131" t="b">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -8209,12 +8209,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8223,12 +8223,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E132" t="b">
@@ -8268,12 +8268,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8282,29 +8282,29 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -8327,12 +8327,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8341,29 +8341,29 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>videodioggi.com</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -8386,12 +8386,12 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
@@ -8400,12 +8400,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -8445,12 +8445,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2023-03-30T09:59:11.98058Z</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2023-03-30T09:59:12.228482Z</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
@@ -8459,12 +8459,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>test2.webtek.live</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -8504,12 +8504,12 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-28T08:34:29.902515Z</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-28T08:34:30.164318Z</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
@@ -8518,12 +8518,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>432df2553b443742f9f905e155878536</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>test.webtek.live</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -8563,12 +8563,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2023-03-24T11:44:15.078812Z</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2023-03-24T11:44:15.367412Z</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -8577,29 +8577,29 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>_dmarc.youknowwhataimean.com</t>
+          <t>webtek.live</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -8622,12 +8622,12 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
@@ -8636,29 +8636,29 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+          <t>e02587466a80086957e4f19a05760dec</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -8681,12 +8681,12 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-06T11:52:31.670164Z</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-06T12:04:32.454791Z</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
@@ -8695,12 +8695,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>_dmarc.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E140" t="b">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
@@ -8754,36 +8754,36 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>transversalpuntozero.org</t>
+          <t>*._domainkey.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>transversalpuntozero.pages.dev</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8799,16 +8799,134 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>youknowwhataimean.com</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>v=spf1 -all</t>
+        </is>
+      </c>
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.931067Z</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.931067Z</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.org</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.pages.dev</t>
+        </is>
+      </c>
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>{'flatten_cname': False}</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -7302,7 +7302,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8075,7 +8075,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -7302,7 +7302,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8075,7 +8075,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O143"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-08-01T22:05:04.408687Z</t>
+          <t>2025-04-05T11:26:15.517306Z</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -580,22 +580,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>87b7692406e3371b3d7488bff3d9a0f2</t>
+          <t>f9a11b71ec7dcf73bb3910e53eaaf4d7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test.audiolibri.org</t>
+          <t>_24bc74214160960f4d12dd6fbff201f1.audiolibri.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>185.190.210.2</t>
+          <t>b2c17ba6004759ccb8c9a77d014a29a0.6f845f21928b6cae571ad9b0c6abc9df.d43d56d38a87d9f.comodoca.com</t>
         </is>
       </c>
       <c r="E3" t="b">
@@ -609,7 +609,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -625,12 +625,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2024-09-13T21:15:57.818873Z</t>
+          <t>2023-05-03T14:21:45.203592Z</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2024-09-14T09:49:38.555093Z</t>
+          <t>2023-05-03T14:22:05.697231Z</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -639,36 +639,36 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>f9a11b71ec7dcf73bb3910e53eaaf4d7</t>
+          <t>b3331100fb4b9053f9ea9dde42e5babc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>_24bc74214160960f4d12dd6fbff201f1.audiolibri.org</t>
+          <t>audiolibri.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>b2c17ba6004759ccb8c9a77d014a29a0.6f845f21928b6cae571ad9b0c6abc9df.d43d56d38a87d9f.comodoca.com</t>
+          <t>o6wcxcfitqtebrzpn756dnwexqr6vbcpbkj7nq5hixj4uzn2eswq.mx-verification.google.com</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -684,50 +684,52 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-05-03T14:21:45.203592Z</t>
+          <t>2017-11-01T19:18:31.093932Z</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-05-03T14:22:05.697231Z</t>
+          <t>2017-11-01T19:18:31.093932Z</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>71c65415c2aced7763afe2d2c61de57f</t>
+          <t>0d46d10a289881e17aeaea972e3bc4e4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>hugo.audiolibri.org</t>
+          <t>audiolibri.org</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>73e3a861-551e-4bdf-ad7a-a2ca6fe63e80.cfargotunnel.com</t>
+          <t>aspmx.l.google.com</t>
         </is>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -743,21 +745,23 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-12-15T13:28:21.769261Z</t>
+          <t>2017-11-01T19:18:14.785126Z</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-12-15T13:28:21.769261Z</t>
+          <t>2017-11-01T19:18:14.785126Z</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>b3331100fb4b9053f9ea9dde42e5babc</t>
+          <t>c4b015ebb6540fa1c64482131c937ad9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -767,12 +771,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>o6wcxcfitqtebrzpn756dnwexqr6vbcpbkj7nq5hixj4uzn2eswq.mx-verification.google.com</t>
+          <t>v=spf1 include:audiolibri.org -all</t>
         </is>
       </c>
       <c r="E6" t="b">
@@ -802,38 +806,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2017-11-01T19:18:31.093932Z</t>
+          <t>2022-01-24T18:09:26.735522Z</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2017-11-01T19:18:31.093932Z</t>
+          <t>2022-01-24T18:09:26.735522Z</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>15</v>
-      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0d46d10a289881e17aeaea972e3bc4e4</t>
+          <t>8123b69792536eda89581575fc5e6501</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>audiolibri.org</t>
+          <t>_dmarc.audiolibri.org</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>aspmx.l.google.com</t>
+          <t>v=DMARC1; p=reject; rua=mailto:fabrizio.salmi@gmail.com</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -863,28 +865,26 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2017-11-01T19:18:14.785126Z</t>
+          <t>2022-01-24T18:09:38.385312Z</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2017-11-01T19:18:14.785126Z</t>
+          <t>2022-01-24T18:09:38.385312Z</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>c4b015ebb6540fa1c64482131c937ad9</t>
+          <t>f7cedd17785f7e80f46f70b4c2592ef8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>audiolibri.org</t>
+          <t>_github-pages-challenge-fabriziosalmi.audiolibri.org</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>v=spf1 include:audiolibri.org -all</t>
+          <t>a2d349f948218278c16896b4854e7e</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -924,12 +924,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2022-01-24T18:09:26.735522Z</t>
+          <t>2022-05-28T20:00:29.610113Z</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2022-01-24T18:09:26.735522Z</t>
+          <t>2022-05-28T20:00:29.610113Z</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -938,29 +938,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8123b69792536eda89581575fc5e6501</t>
+          <t>bdeca83d3f52cd29a0461c8c328e7eb8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>_dmarc.audiolibri.org</t>
+          <t>cfguru.org</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; rua=mailto:fabrizio.salmi@gmail.com</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -983,12 +983,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2022-01-24T18:09:38.385312Z</t>
+          <t>2023-12-17T13:15:33.42644Z</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2022-01-24T18:09:38.385312Z</t>
+          <t>2023-12-17T13:22:36.5376Z</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -997,29 +997,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>f7cedd17785f7e80f46f70b4c2592ef8</t>
+          <t>3c7558d6d766ea8ee23519dc6b3c6fcb</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>_github-pages-challenge-fabriziosalmi.audiolibri.org</t>
+          <t>get.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>a2d349f948218278c16896b4854e7e</t>
+          <t>93.186.251.28</t>
         </is>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1042,12 +1042,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2022-05-28T20:00:29.610113Z</t>
+          <t>2023-07-29T12:48:06.891684Z</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2022-05-28T20:00:29.610113Z</t>
+          <t>2023-07-29T12:48:06.891684Z</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1056,12 +1056,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bdeca83d3f52cd29a0461c8c328e7eb8</t>
+          <t>90854dd1388fe82242ce0109dfec5c88</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cfguru.org</t>
+          <t>review.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>93.186.251.28</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-12-17T13:15:33.42644Z</t>
+          <t>2023-08-30T11:38:30.653586Z</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-12-17T13:22:36.5376Z</t>
+          <t>2023-08-30T11:38:30.653586Z</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1115,12 +1115,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3c7558d6d766ea8ee23519dc6b3c6fcb</t>
+          <t>c292f89526841ffe14bf72950e566b00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>get.domainsblacklists.com</t>
+          <t>www.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.186.251.28</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-07-29T12:48:06.891684Z</t>
+          <t>2024-01-07T12:46:47.09149Z</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-07-29T12:48:06.891684Z</t>
+          <t>2024-01-07T12:47:11.363311Z</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1174,22 +1174,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>90854dd1388fe82242ce0109dfec5c88</t>
+          <t>c357c5667fdc1f5189ff62d9127c5b66</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>review.domainsblacklists.com</t>
+          <t>adguard.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.186.251.28</t>
+          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-30T11:38:30.653586Z</t>
+          <t>2023-08-11T14:30:49.889256Z</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-08-30T11:38:30.653586Z</t>
+          <t>2023-08-11T14:30:49.889256Z</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1233,22 +1233,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>c292f89526841ffe14bf72950e566b00</t>
+          <t>8b834fd2fd544e045645fac878b84f55</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>www.domainsblacklists.com</t>
+          <t>api-ipres.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>8743e1c1-51d3-4bf8-ba49-c84defa95d06.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-01-07T12:46:47.09149Z</t>
+          <t>2023-08-18T17:52:42.610086Z</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-01-07T12:47:11.363311Z</t>
+          <t>2023-08-18T17:52:42.610086Z</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1292,12 +1292,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>c357c5667fdc1f5189ff62d9127c5b66</t>
+          <t>dfe1bcabcf091b40abb6b049a8192442</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>adguard.domainsblacklists.com</t>
+          <t>changedetection.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
+          <t>3eec4402-ad54-45de-bf9b-926b6e88a159.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-11T14:30:49.889256Z</t>
+          <t>2023-09-13T18:26:54.071Z</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-08-11T14:30:49.889256Z</t>
+          <t>2023-09-13T18:26:54.071Z</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1351,12 +1351,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8b834fd2fd544e045645fac878b84f55</t>
+          <t>c776f79530a239242078e5a3cb5d11d2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>api-ipres.domainsblacklists.com</t>
+          <t>req.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8743e1c1-51d3-4bf8-ba49-c84defa95d06.cfargotunnel.com</t>
+          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-08-18T17:52:42.610086Z</t>
+          <t>2023-09-10T12:21:43.338698Z</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-08-18T17:52:42.610086Z</t>
+          <t>2023-09-10T12:21:43.338698Z</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -1410,41 +1410,41 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dfe1bcabcf091b40abb6b049a8192442</t>
+          <t>2f418611b09ffd2e435cea99583e9480</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>changedetection.domainsblacklists.com</t>
+          <t>domainsblacklists.com</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3eec4402-ad54-45de-bf9b-926b6e88a159.cfargotunnel.com</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1455,55 +1455,57 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-09-13T18:26:54.071Z</t>
+          <t>2023-07-29T12:50:26.397174Z</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-09-13T18:26:54.071Z</t>
+          <t>2023-07-29T12:50:26.397174Z</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>c776f79530a239242078e5a3cb5d11d2</t>
+          <t>a5a312e4dbaaaec1eabfe1b9a5c17055</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>req.domainsblacklists.com</t>
+          <t>domainsblacklists.com</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1514,21 +1516,23 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-09-10T12:21:43.338698Z</t>
+          <t>2023-07-29T12:50:26.389737Z</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-09-10T12:21:43.338698Z</t>
+          <t>2023-07-29T12:50:26.389737Z</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2f418611b09ffd2e435cea99583e9480</t>
+          <t>376df1b8131105ac8a7209306e22b59c</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1543,7 +1547,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E19" t="b">
@@ -1573,38 +1577,38 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.397174Z</t>
+          <t>2023-07-29T12:50:26.382045Z</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.397174Z</t>
+          <t>2023-07-29T12:50:26.382045Z</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>a5a312e4dbaaaec1eabfe1b9a5c17055</t>
+          <t>92388a78ff6bc640e36a75e31b30977a</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>domainsblacklists.com</t>
+          <t>cf2024-1._domainkey.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -1634,38 +1638,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.389737Z</t>
+          <t>2025-02-01T22:59:01.091354Z</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.389737Z</t>
+          <t>2025-02-01T22:59:01.091354Z</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>93</v>
-      </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>376df1b8131105ac8a7209306e22b59c</t>
+          <t>b1f7c2007e82e1af53a8ec6061b331f8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>domainsblacklists.com</t>
+          <t>_dmarc.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>v=DMARC1;  p=none; rua=mailto:9c70ea076036494c93d766dfefd2def1@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -1684,7 +1686,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1695,28 +1697,26 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.382045Z</t>
+          <t>2023-07-29T12:50:10.919349Z</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.382045Z</t>
+          <t>2023-07-29T12:50:10.919349Z</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>93</v>
-      </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>92388a78ff6bc640e36a75e31b30977a</t>
+          <t>519f3626ce2ea9a6dad71afe898ce796</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.domainsblacklists.com</t>
+          <t>domainsblacklists.com</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E22" t="b">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1756,12 +1756,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2025-02-01T22:59:01.091354Z</t>
+          <t>2023-07-29T12:50:26.404775Z</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2025-02-01T22:59:01.091354Z</t>
+          <t>2023-07-29T12:50:26.404775Z</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -1770,26 +1770,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>b1f7c2007e82e1af53a8ec6061b331f8</t>
+          <t>4dd327c64e78f584c16dc531a13ec1ec</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>_dmarc.domainsblacklists.com</t>
+          <t>proxmox-test-1.freesubnet.com</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:9c70ea076036494c93d766dfefd2def1@dmarc-reports.cloudflare.net</t>
+          <t>37.183.16.191</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1815,12 +1815,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:10.919349Z</t>
+          <t>2024-07-28T19:51:23.923255Z</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:10.919349Z</t>
+          <t>2024-07-28T19:51:23.923255Z</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -1829,26 +1829,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>519f3626ce2ea9a6dad71afe898ce796</t>
+          <t>ec12d53bf42e7bc2c950d7f4d4eb60e4</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>domainsblacklists.com</t>
+          <t>rp.freesubnet.com</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>18.102.76.90</t>
         </is>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.404775Z</t>
+          <t>2023-05-03T13:52:38.28258Z</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.404775Z</t>
+          <t>2023-05-03T16:25:08.617872Z</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4dd327c64e78f584c16dc531a13ec1ec</t>
+          <t>9bdd5da061a0b3543fb74847be092a31</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>proxmox-test-1.freesubnet.com</t>
+          <t>test.freesubnet.com</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2024-07-28T19:51:23.923255Z</t>
+          <t>2024-07-24T12:42:57.795531Z</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2024-07-28T19:51:23.923255Z</t>
+          <t>2024-07-28T13:17:47.159096Z</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -1947,24 +1947,24 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ec12d53bf42e7bc2c950d7f4d4eb60e4</t>
+          <t>13b2a5129e5f7772daa7f0f70e349a26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>waf.freesubnet.com</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>rp.freesubnet.com</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>18.102.76.90</t>
-        </is>
-      </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1992,12 +1992,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2023-05-03T13:52:38.28258Z</t>
+          <t>2023-05-03T13:53:22.545371Z</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-05-03T16:25:08.617872Z</t>
+          <t>2023-05-03T16:25:02.924302Z</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -2006,12 +2006,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9bdd5da061a0b3543fb74847be092a31</t>
+          <t>77c251b8488617268d91ee1ebd51ede5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>test.freesubnet.com</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2021,17 +2021,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>37.183.16.191</t>
+          <t>207.180.193.100</t>
         </is>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2051,12 +2051,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2024-07-24T12:42:57.795531Z</t>
+          <t>2021-07-23T08:58:49.378112Z</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2024-07-28T13:17:47.159096Z</t>
+          <t>2021-07-23T12:56:39.987386Z</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -2065,36 +2065,36 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>13b2a5129e5f7772daa7f0f70e349a26</t>
+          <t>dd673c4571ae6ec6ea4517da4047fa5f</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>waf.freesubnet.com</t>
+          <t>listen.free-tekno.com</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rp.freesubnet.com</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2110,12 +2110,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2023-05-03T13:53:22.545371Z</t>
+          <t>2022-02-07T20:32:13.606665Z</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-05-03T16:25:02.924302Z</t>
+          <t>2022-02-07T20:32:43.921656Z</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -2124,12 +2124,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>77c251b8488617268d91ee1ebd51ede5</t>
+          <t>de47139d99158674daebfa2bcc46381b</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>radio.free-tekno.com</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>207.180.193.100</t>
+          <t>161.97.120.130</t>
         </is>
       </c>
       <c r="E29" t="b">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2021-07-23T08:58:49.378112Z</t>
+          <t>2021-06-27T11:17:21.364442Z</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2021-07-23T12:56:39.987386Z</t>
+          <t>2022-02-16T15:58:36.261027Z</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2183,12 +2183,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>dd673c4571ae6ec6ea4517da4047fa5f</t>
+          <t>5acccdfb3c59cd49cacd28e83e48d221</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>listen.free-tekno.com</t>
+          <t>www.free-tekno.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>161.97.120.130</t>
         </is>
       </c>
       <c r="E30" t="b">
@@ -2228,12 +2228,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2022-02-07T20:32:13.606665Z</t>
+          <t>2022-02-07T16:41:14.791288Z</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2022-02-07T20:32:43.921656Z</t>
+          <t>2022-02-07T16:41:14.791288Z</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -2242,22 +2242,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>de47139d99158674daebfa2bcc46381b</t>
+          <t>ac7c113f029bd912a9b6fe78dffe02a5</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>radio.free-tekno.com</t>
+          <t>mp3.free-tekno.com</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>161.97.120.130</t>
+          <t>freetekno.free.nf</t>
         </is>
       </c>
       <c r="E31" t="b">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2287,12 +2287,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2021-06-27T11:17:21.364442Z</t>
+          <t>2023-07-04T19:53:02.363162Z</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2022-02-16T15:58:36.261027Z</t>
+          <t>2023-07-04T19:53:02.363162Z</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -2301,29 +2301,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5acccdfb3c59cd49cacd28e83e48d221</t>
+          <t>9450bd2c3778824d44882bf3a36c136a</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>www.free-tekno.com</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>161.97.120.130</t>
+          <t>poste.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2346,50 +2346,52 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2022-02-07T16:41:14.791288Z</t>
+          <t>2022-02-16T15:14:24.531147Z</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2022-02-07T16:41:14.791288Z</t>
+          <t>2022-02-16T15:14:24.531147Z</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ac7c113f029bd912a9b6fe78dffe02a5</t>
+          <t>ec58d36579ccf292f4a659648d6a9c19</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>mp3.free-tekno.com</t>
+          <t>_dmarc.free-tekno.com</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>freetekno.free.nf</t>
+          <t>v=DMARC1; p=reject; rua=mailto:cloud@free-tekno.com;</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2405,12 +2407,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2023-07-04T19:53:02.363162Z</t>
+          <t>2022-02-16T15:36:47.274766Z</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-07-04T19:53:02.363162Z</t>
+          <t>2022-02-16T15:36:47.274766Z</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -2419,7 +2421,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9450bd2c3778824d44882bf3a36c136a</t>
+          <t>f82cb05f0c7bd0ee554dc7a7e68481c2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2429,12 +2431,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>poste.rivoluzioneinformatica.org</t>
+          <t>v=spf1 mx ip4:161.97.120.130/32 a:mail.rivoluzioneinformatica.org a:poste.rivoluzioneinformatica.org -all</t>
         </is>
       </c>
       <c r="E34" t="b">
@@ -2464,28 +2466,26 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2022-02-16T15:14:24.531147Z</t>
+          <t>2022-02-16T12:57:13.550913Z</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2022-02-16T15:14:24.531147Z</t>
+          <t>2022-02-16T15:47:18.346287Z</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="n">
-        <v>10</v>
-      </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ec58d36579ccf292f4a659648d6a9c19</t>
+          <t>15a4efde5824a7f870270570f044bf6a</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>_dmarc.free-tekno.com</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; rua=mailto:cloud@free-tekno.com;</t>
+          <t>google-site-verification=u1RtWKENUcJYrh_iqqGrIQMTts0ipS2LpFZjtt7T-Nk</t>
         </is>
       </c>
       <c r="E35" t="b">
@@ -2525,12 +2525,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2022-02-16T15:36:47.274766Z</t>
+          <t>2021-07-25T02:01:05.324193Z</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2022-02-16T15:36:47.274766Z</t>
+          <t>2021-07-25T02:01:05.324193Z</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -2539,12 +2539,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>f82cb05f0c7bd0ee554dc7a7e68481c2</t>
+          <t>6f78e130390aca374862016649566194</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>s20220216247._domainkey.free-tekno.com</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>v=spf1 mx ip4:161.97.120.130/32 a:mail.rivoluzioneinformatica.org a:poste.rivoluzioneinformatica.org -all</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA25fjdBEzCOeoRC5460U3HHjYEIjqtI4wkAVXidP5ynP9anEQ5i2+bW/lKh+xa5WKGjPofy/qxsnjuLE40ZnivPy7wfOwU3uOFf4CD5cen08xi/76vrqj3r1F29j8v+jJqB9+Z5RCOxCuu0Zx99okko+BaBej+O9W4Eh70d4PAb1TwrwNoBD47GnSLG3xu2b1NuXyWbuAEoQQ43/1+M689TJt7azAmG3yqft4J/7Oo0B7Wyk5V8Al2bpt6GYEoSV48HPrUC+MudIxgxVtR3O5oIVq9tHm7+jg5EY0GZpyk6yVJFlAXFJzt0OIKe4KvCngW0vHQSISmy0tgmZ8j38+uQIDAQAB</t>
         </is>
       </c>
       <c r="E36" t="b">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-02-16T12:57:13.550913Z</t>
+          <t>2022-02-16T12:55:09.214302Z</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2022-02-16T15:47:18.346287Z</t>
+          <t>2022-02-16T12:55:09.214302Z</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
@@ -2598,36 +2598,36 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>15a4efde5824a7f870270570f044bf6a</t>
+          <t>54e5f74cd09ee8a8c9729c9cdb0397b6</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>freesounds-selfhosted.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>google-site-verification=u1RtWKENUcJYrh_iqqGrIQMTts0ipS2LpFZjtt7T-Nk</t>
+          <t>54a3646c-9701-4a8b-b6b0-e8b9f08e297f.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2643,12 +2643,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2021-07-25T02:01:05.324193Z</t>
+          <t>2022-12-10T19:31:31.948543Z</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2021-07-25T02:01:05.324193Z</t>
+          <t>2022-12-10T19:31:31.948543Z</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -2657,36 +2657,36 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6f78e130390aca374862016649566194</t>
+          <t>f2d988c340f9edd8b38f1dcd778bb88a</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>s20220216247._domainkey.free-tekno.com</t>
+          <t>mp3.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA25fjdBEzCOeoRC5460U3HHjYEIjqtI4wkAVXidP5ynP9anEQ5i2+bW/lKh+xa5WKGjPofy/qxsnjuLE40ZnivPy7wfOwU3uOFf4CD5cen08xi/76vrqj3r1F29j8v+jJqB9+Z5RCOxCuu0Zx99okko+BaBej+O9W4Eh70d4PAb1TwrwNoBD47GnSLG3xu2b1NuXyWbuAEoQQ43/1+M689TJt7azAmG3yqft4J/7Oo0B7Wyk5V8Al2bpt6GYEoSV48HPrUC+MudIxgxVtR3O5oIVq9tHm7+jg5EY0GZpyk6yVJFlAXFJzt0OIKe4KvCngW0vHQSISmy0tgmZ8j38+uQIDAQAB</t>
+          <t>7544e2f1-de2b-411b-9eed-4a6c28bf46ac.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2702,12 +2702,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-02-16T12:55:09.214302Z</t>
+          <t>2022-12-10T20:18:13.753251Z</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2022-02-16T12:55:09.214302Z</t>
+          <t>2022-12-10T20:18:13.753251Z</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -2716,12 +2716,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>54e5f74cd09ee8a8c9729c9cdb0397b6</t>
+          <t>7d449cbba90883fa8a14389f9a18a7a6</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>freesounds-selfhosted.freeundergroundtekno.org</t>
+          <t>radio.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>54a3646c-9701-4a8b-b6b0-e8b9f08e297f.cfargotunnel.com</t>
+          <t>1e58dbc4-7d4f-4d5c-bf27-f801381a4fce.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E39" t="b">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2022-12-10T19:31:31.948543Z</t>
+          <t>2024-06-08T18:04:10.985475Z</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2022-12-10T19:31:31.948543Z</t>
+          <t>2024-06-08T18:04:10.985475Z</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -2775,36 +2775,36 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>f2d988c340f9edd8b38f1dcd778bb88a</t>
+          <t>b24f98873ca6f73f11bb06015e03a3d1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>mp3.freeundergroundtekno.org</t>
+          <t>_acme-challenge.sound.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7544e2f1-de2b-411b-9eed-4a6c28bf46ac.cfargotunnel.com</t>
+          <t>4bHK_Yi224RlQPT3GaNFHfWNtm2reTuFAJitGpMFgM8</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2820,12 +2820,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2022-12-10T20:18:13.753251Z</t>
+          <t>2018-08-07T16:10:03.300043Z</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2022-12-10T20:18:13.753251Z</t>
+          <t>2018-08-07T16:10:03.300043Z</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -2834,36 +2834,36 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7d449cbba90883fa8a14389f9a18a7a6</t>
+          <t>e302bd7fb84138a3a709507e25855226</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>radio.freeundergroundtekno.org</t>
+          <t>freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1e58dbc4-7d4f-4d5c-bf27-f801381a4fce.cfargotunnel.com</t>
+          <t>google-site-verification=UoPqDBPRj-_7eqBxrBhGViVVv41rzy51Zb_ZCmftsq0</t>
         </is>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2879,12 +2879,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-06-08T18:04:10.985475Z</t>
+          <t>2024-03-25T22:28:21.998451Z</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2024-06-08T18:04:10.985475Z</t>
+          <t>2024-03-25T22:28:21.998451Z</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
@@ -2893,36 +2893,36 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>b24f98873ca6f73f11bb06015e03a3d1</t>
+          <t>3d0c18afd78dff56ae887d0b7f971bf0</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>_acme-challenge.sound.freeundergroundtekno.org</t>
+          <t>ai.irrazionale.org</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4bHK_Yi224RlQPT3GaNFHfWNtm2reTuFAJitGpMFgM8</t>
+          <t>fc418fe6-ca4c-4b2d-988b-b2b9bddc570f.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2938,12 +2938,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2018-08-07T16:10:03.300043Z</t>
+          <t>2025-03-21T11:57:02.473035Z</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2018-08-07T16:10:03.300043Z</t>
+          <t>2025-03-21T11:57:02.473035Z</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -2952,36 +2952,36 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>e302bd7fb84138a3a709507e25855226</t>
+          <t>737420529070901f1b0cd444ebf396fd</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>freeundergroundtekno.org</t>
+          <t>baserow.irrazionale.org</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>google-site-verification=UoPqDBPRj-_7eqBxrBhGViVVv41rzy51Zb_ZCmftsq0</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>3600</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2997,12 +2997,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2024-03-25T22:28:21.998451Z</t>
+          <t>2025-02-07T16:23:37.038965Z</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2024-03-25T22:28:21.998451Z</t>
+          <t>2025-02-07T16:23:37.038965Z</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -3011,12 +3011,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3d0c18afd78dff56ae887d0b7f971bf0</t>
+          <t>081907c20660bf785f8a99b15f7ae6fa</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ai.irrazionale.org</t>
+          <t>cloud.irrazionale.org</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>fc418fe6-ca4c-4b2d-988b-b2b9bddc570f.cfargotunnel.com</t>
+          <t>379e723b-0e63-4ee0-aabe-5009125009c9.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E44" t="b">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2025-03-21T11:57:02.473035Z</t>
+          <t>2022-12-11T16:25:07.205868Z</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2025-03-21T11:57:02.473035Z</t>
+          <t>2022-12-11T16:25:07.205868Z</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -3070,12 +3070,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>737420529070901f1b0cd444ebf396fd</t>
+          <t>d0e96bb2faf9ed17182c357e39b68779</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>baserow.irrazionale.org</t>
+          <t>coolify.irrazionale.org</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2025-02-07T16:23:37.038965Z</t>
+          <t>2025-02-09T22:15:14.34368Z</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2025-02-07T16:23:37.038965Z</t>
+          <t>2025-02-09T22:15:14.34368Z</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -3129,12 +3129,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>081907c20660bf785f8a99b15f7ae6fa</t>
+          <t>911a85c4a4a11c6e7c594788937a2456</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>cloud.irrazionale.org</t>
+          <t>dell.irrazionale.org</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>379e723b-0e63-4ee0-aabe-5009125009c9.cfargotunnel.com</t>
+          <t>4e789f43-bcab-410e-a7c8-9c7bd88fd294.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E46" t="b">
@@ -3174,12 +3174,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-12-11T16:25:07.205868Z</t>
+          <t>2023-12-01T12:39:10.88625Z</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2022-12-11T16:25:07.205868Z</t>
+          <t>2023-12-01T12:39:10.88625Z</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -3188,12 +3188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>d0e96bb2faf9ed17182c357e39b68779</t>
+          <t>60d0a2d1367b6b64c398aa37848efae3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>coolify.irrazionale.org</t>
+          <t>docker.irrazionale.org</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3233,12 +3233,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2025-02-09T22:15:14.34368Z</t>
+          <t>2025-02-07T16:29:08.840612Z</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2025-02-09T22:15:14.34368Z</t>
+          <t>2025-02-07T16:29:08.840612Z</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -3247,12 +3247,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>911a85c4a4a11c6e7c594788937a2456</t>
+          <t>08d407943ed4067865b5a819494093df</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>dell.irrazionale.org</t>
+          <t>freesounds.irrazionale.org</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4e789f43-bcab-410e-a7c8-9c7bd88fd294.cfargotunnel.com</t>
+          <t>86cfa504-c90d-46fd-a7f9-8c8d7a74ec1b.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E48" t="b">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2023-12-01T12:39:10.88625Z</t>
+          <t>2022-05-29T10:34:39.700377Z</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023-12-01T12:39:10.88625Z</t>
+          <t>2022-05-29T10:34:39.700377Z</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -3306,12 +3306,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>60d0a2d1367b6b64c398aa37848efae3</t>
+          <t>41be2e667e4654c8425c3747809eaf4b</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>docker.irrazionale.org</t>
+          <t>git.irrazionale.org</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3351,12 +3351,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2025-02-07T16:29:08.840612Z</t>
+          <t>2025-02-09T17:43:27.673327Z</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2025-02-07T16:29:08.840612Z</t>
+          <t>2025-02-09T17:43:27.673327Z</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -3365,12 +3365,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>08d407943ed4067865b5a819494093df</t>
+          <t>216f28a4197e4846265257d9a19df44a</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>freesounds.irrazionale.org</t>
+          <t>jellyfin.irrazionale.org</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>86cfa504-c90d-46fd-a7f9-8c8d7a74ec1b.cfargotunnel.com</t>
+          <t>ecb8d351-a34c-4b72-829d-9e0ef5726b65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E50" t="b">
@@ -3410,12 +3410,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2022-05-29T10:34:39.700377Z</t>
+          <t>2023-12-01T16:34:33.145093Z</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2022-05-29T10:34:39.700377Z</t>
+          <t>2023-12-01T16:34:33.145093Z</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -3424,12 +3424,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>41be2e667e4654c8425c3747809eaf4b</t>
+          <t>a294caebd6eeaa83278ae5e170afa4a7</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>git.irrazionale.org</t>
+          <t>lf.irrazionale.org</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2025-02-09T17:43:27.673327Z</t>
+          <t>2024-04-25T08:35:09.947241Z</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2025-02-09T17:43:27.673327Z</t>
+          <t>2024-04-25T08:35:09.947241Z</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -3483,12 +3483,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>216f28a4197e4846265257d9a19df44a</t>
+          <t>b3c12f8816422fb6e017703c896aa4eb</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jellyfin.irrazionale.org</t>
+          <t>localhost.irrazionale.org</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ecb8d351-a34c-4b72-829d-9e0ef5726b65.cfargotunnel.com</t>
+          <t>05dcfc0e-c6f7-45c8-9c51-04d3ea300b3c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E52" t="b">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2023-12-01T16:34:33.145093Z</t>
+          <t>2025-03-26T09:51:19.730468Z</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2023-12-01T16:34:33.145093Z</t>
+          <t>2025-03-26T09:51:19.730468Z</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -3542,12 +3542,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>a294caebd6eeaa83278ae5e170afa4a7</t>
+          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>lf.irrazionale.org</t>
+          <t>mt-link.irrazionale.org</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3557,14 +3557,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2024-04-25T08:35:09.947241Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2024-04-25T08:35:09.947241Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -3601,12 +3601,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>b3c12f8816422fb6e017703c896aa4eb</t>
+          <t>3d3ea0a30645f9869829e88faee2503f</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>localhost.irrazionale.org</t>
+          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3616,14 +3616,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>05dcfc0e-c6f7-45c8-9c51-04d3ea300b3c.cfargotunnel.com</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3646,12 +3646,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2025-03-26T09:51:19.730468Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2025-03-26T09:51:19.730468Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -3660,12 +3660,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
+          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mt-link.irrazionale.org</t>
+          <t>ollama.irrazionale.org</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3675,14 +3675,14 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3d3ea0a30645f9869829e88faee2503f</t>
+          <t>4a64c597d17da513e052355df93bbc58</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
+          <t>powerdns.irrazionale.org</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3734,14 +3734,14 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -3778,12 +3778,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
+          <t>4bd65cc8d342c16851d7e90462f78579</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ollama.irrazionale.org</t>
+          <t>proxmox.irrazionale.org</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E57" t="b">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3837,12 +3837,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4a64c597d17da513e052355df93bbc58</t>
+          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>powerdns.irrazionale.org</t>
+          <t>proxmox-ssh.irrazionale.org</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E58" t="b">
@@ -3882,12 +3882,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -3896,12 +3896,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4bd65cc8d342c16851d7e90462f78579</t>
+          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>proxmox.irrazionale.org</t>
+          <t>rwmt1._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3911,14 +3911,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3941,12 +3941,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -3955,12 +3955,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
+          <t>04d14cb456a1976f403ee148eca05cc8</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>proxmox-ssh.irrazionale.org</t>
+          <t>rwmt2._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3970,14 +3970,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4000,12 +4000,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -4014,12 +4014,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
+          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.irrazionale.org</t>
+          <t>s3.irrazionale.org</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4029,14 +4029,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4059,12 +4059,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>04d14cb456a1976f403ee148eca05cc8</t>
+          <t>0ce0da84393eb2e44a959deb2116cce5</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.irrazionale.org</t>
+          <t>s3ui.irrazionale.org</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4088,14 +4088,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4118,12 +4118,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -4132,12 +4132,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
+          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>s3.irrazionale.org</t>
+          <t>sci-fi.irrazionale.org</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E63" t="b">
@@ -4177,12 +4177,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -4191,12 +4191,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0ce0da84393eb2e44a959deb2116cce5</t>
+          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>s3ui.irrazionale.org</t>
+          <t>search.irrazionale.org</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4236,12 +4236,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -4250,12 +4250,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
+          <t>d136067486f9bfd1260a66e04c217624</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>sci-fi.irrazionale.org</t>
+          <t>webcheck.irrazionale.org</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E65" t="b">
@@ -4295,12 +4295,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -4309,36 +4309,36 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
+          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>search.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>mail.irrazionale.org</t>
         </is>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4354,50 +4354,52 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>d136067486f9bfd1260a66e04c217624</t>
+          <t>5e61f46e73d33d23b901c830c11d05e5</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>webcheck.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4413,21 +4415,23 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="O67" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
+          <t>4a187b659dadf78253cb30054350314c</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4442,7 +4446,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>mail.irrazionale.org</t>
+          <t>route2mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E68" t="b">
@@ -4472,23 +4476,23 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>5e61f46e73d33d23b901c830c11d05e5</t>
+          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4503,7 +4507,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E69" t="b">
@@ -4533,38 +4537,38 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4a187b659dadf78253cb30054350314c</t>
+          <t>bb6fca1069dfef36eac3160ec423215a</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>safe.irrazionale.org</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>route2mx.cloudflare.net</t>
+          <t>dnsafe.irrazionale.org</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -4594,38 +4598,36 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="n">
-        <v>99</v>
-      </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
+          <t>3a04124b47167ef39224aa1b60a8fe25</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>_acme-challenge.mail.irrazionale.org</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -4635,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4655,38 +4657,36 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="n">
-        <v>89</v>
-      </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>bb6fca1069dfef36eac3160ec423215a</t>
+          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>safe.irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>dnsafe.irrazionale.org</t>
+          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -4730,12 +4730,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3a04124b47167ef39224aa1b60a8fe25</t>
+          <t>c931695adebdf9cc13b66924f8d442a2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>_acme-challenge.mail.irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
+          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
         </is>
       </c>
       <c r="E73" t="b">
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4775,12 +4775,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
@@ -4789,7 +4789,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
+          <t>5674a44427225f44209d188901e7e212</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E74" t="b">
@@ -4834,12 +4834,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -4848,12 +4848,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>c931695adebdf9cc13b66924f8d442a2</t>
+          <t>575daba57b52a33ae44441e93e44ad93</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
+          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
         </is>
       </c>
       <c r="E75" t="b">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -4907,12 +4907,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5674a44427225f44209d188901e7e212</t>
+          <t>8ae5f18920790fbc1ac6e57676db376b</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E76" t="b">
@@ -4952,12 +4952,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
@@ -4966,7 +4966,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>575daba57b52a33ae44441e93e44ad93</t>
+          <t>5f752add42e06a88468c1b1203a5241c</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
+          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
         </is>
       </c>
       <c r="E77" t="b">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -5025,7 +5025,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>8ae5f18920790fbc1ac6e57676db376b</t>
+          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
+          <t>v=spf1 ip4:185.182.185.194 -all</t>
         </is>
       </c>
       <c r="E78" t="b">
@@ -5070,12 +5070,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -5084,12 +5084,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>5f752add42e06a88468c1b1203a5241c</t>
+          <t>96bf76d43d32043fc586f04d28efe912</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>mail._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
+          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
         </is>
       </c>
       <c r="E79" t="b">
@@ -5129,12 +5129,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
@@ -5143,12 +5143,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
+          <t>6aa7d6d1576b8790519602102e390beb</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>s20220715915._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 -all</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
         </is>
       </c>
       <c r="E80" t="b">
@@ -5188,12 +5188,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -5202,12 +5202,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>96bf76d43d32043fc586f04d28efe912</t>
+          <t>f07372fefe2aeec92ba78a42ee921960</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>mail._domainkey.irrazionale.org</t>
+          <t>s20221212161._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
         </is>
       </c>
       <c r="E81" t="b">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -5261,22 +5261,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6aa7d6d1576b8790519602102e390beb</t>
+          <t>f02f658bd3f849218f8880600ee8f124</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>s20220715915._domainkey.irrazionale.org</t>
+          <t>proxmox-dc2-mn.italiacdn.net</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
+          <t>100.92.242.58</t>
         </is>
       </c>
       <c r="E82" t="b">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -5306,12 +5306,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
@@ -5320,36 +5320,36 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>f07372fefe2aeec92ba78a42ee921960</t>
+          <t>25f1985f805e21184de23f5dd6f43ea9</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>s20221212161._domainkey.irrazionale.org</t>
+          <t>bin.italiacdn.net</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
+          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5365,12 +5365,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
@@ -5379,36 +5379,36 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>f02f658bd3f849218f8880600ee8f124</t>
+          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>proxmox-dc2-mn.italiacdn.net</t>
+          <t>logs.italiacdn.net</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>100.92.242.58</t>
+          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5424,12 +5424,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
@@ -5438,12 +5438,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>25f1985f805e21184de23f5dd6f43ea9</t>
+          <t>b013512ac14813f9241bfb82d58e6a15</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>bin.italiacdn.net</t>
+          <t>private.italiacdn.net</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
+          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E85" t="b">
@@ -5483,12 +5483,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -5497,12 +5497,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
+          <t>da6f732331d53062b4a64822c4d8053c</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>logs.italiacdn.net</t>
+          <t>public-bucket.italiacdn.net</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
+          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -5542,12 +5542,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
@@ -5556,12 +5556,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>b013512ac14813f9241bfb82d58e6a15</t>
+          <t>68ff9d51859905c9e8f951acf9650166</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>private.italiacdn.net</t>
+          <t>vault.italiacdn.net</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
+          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E87" t="b">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -5615,12 +5615,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>da6f732331d53062b4a64822c4d8053c</t>
+          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>public-bucket.italiacdn.net</t>
+          <t>vpn.italiacdn.net</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
+          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E88" t="b">
@@ -5660,12 +5660,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
@@ -5674,36 +5674,36 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>68ff9d51859905c9e8f951acf9650166</t>
+          <t>14efda500a1c1e9c12dffecc2640246d</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>vault.italiacdn.net</t>
+          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
+          <t>27b4d1e9dabc5765ebb48532ae2443</t>
         </is>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5719,12 +5719,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
@@ -5733,12 +5733,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
+          <t>a49ade48a5be45f002d5417140f370a0</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>vpn.italiacdn.net</t>
+          <t>adinsp9sqvzxue8n.italiadns.com</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5748,17 +5748,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5778,12 +5778,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2024-07-31T13:37:34.938024Z</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2024-07-31T13:38:29.779921Z</t>
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
@@ -5792,36 +5792,36 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>14efda500a1c1e9c12dffecc2640246d</t>
+          <t>57267997534d7cf452997a9c191591ee</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
+          <t>mt-link.italiadns.com</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>27b4d1e9dabc5765ebb48532ae2443</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5837,12 +5837,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -5851,12 +5851,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>a49ade48a5be45f002d5417140f370a0</t>
+          <t>3a7c851242dbc15ea213945d901512b9</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>adinsp9sqvzxue8n.italiadns.com</t>
+          <t>rwmt1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E92" t="b">
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5896,12 +5896,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2024-07-31T13:37:34.938024Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2024-07-31T13:38:29.779921Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
@@ -5910,12 +5910,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>57267997534d7cf452997a9c191591ee</t>
+          <t>f06b6c37872df6a52852ee0d128d45ee</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>mt-link.italiadns.com</t>
+          <t>rwmt2._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E93" t="b">
@@ -5955,12 +5955,12 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
@@ -5969,12 +5969,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3a7c851242dbc15ea213945d901512b9</t>
+          <t>41fd60824243d4f2538de3c3c29b7736</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.italiadns.com</t>
+          <t>w1y139ns251ah6gc.italiadns.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E94" t="b">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
@@ -6028,26 +6028,26 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>f06b6c37872df6a52852ee0d128d45ee</t>
+          <t>a38c7cb5dce002e6fa5326111beba54f</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
@@ -6057,12 +6057,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -6073,40 +6073,42 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
+      <c r="O95" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>41fd60824243d4f2538de3c3c29b7736</t>
+          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>w1y139ns251ah6gc.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
@@ -6116,12 +6118,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -6132,21 +6134,23 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
+      <c r="O96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>a38c7cb5dce002e6fa5326111beba54f</t>
+          <t>6c5bf0b471503f7060c852986b55b0e0</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6161,7 +6165,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E97" t="b">
@@ -6191,38 +6195,38 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
+          <t>e6da0cedff625c31979aecd06ce463d4</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>cf2024-1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E98" t="b">
@@ -6252,38 +6256,36 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
-      <c r="O98" t="n">
-        <v>14</v>
-      </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6c5bf0b471503f7060c852986b55b0e0</t>
+          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>_dmarc.italiadns.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E99" t="b">
@@ -6302,7 +6304,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -6313,28 +6315,26 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
-      <c r="O99" t="n">
-        <v>3</v>
-      </c>
+      <c r="O99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>e6da0cedff625c31979aecd06ce463d4</t>
+          <t>129ae399ff1f816f521c481aa58251a7</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E100" t="b">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -6374,12 +6374,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2024-07-31T12:41:30.706502Z</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2024-08-19T08:39:22.495623Z</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
@@ -6388,22 +6388,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
+          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>_dmarc.italiadns.com</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
+          <t>ns-1683.awsdns-18.co.uk</t>
         </is>
       </c>
       <c r="E101" t="b">
@@ -6433,12 +6433,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
@@ -6447,22 +6447,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>129ae399ff1f816f521c481aa58251a7</t>
+          <t>4131e3d65c1df20458045bfa612298e9</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
+          <t>ns-1303.awsdns-34.org</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -6492,12 +6492,12 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:30.706502Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2024-08-19T08:39:22.495623Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -6506,22 +6506,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
+          <t>03da4898b7afbb1408bfdd51f42e5936</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ns-1683.awsdns-18.co.uk</t>
+          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -6551,12 +6551,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
@@ -6565,22 +6565,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>4131e3d65c1df20458045bfa612298e9</t>
+          <t>fd06957f7e745e10c388665bb8be096a</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ns-1303.awsdns-34.org</t>
+          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -6610,12 +6610,12 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
@@ -6624,7 +6624,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>03da4898b7afbb1408bfdd51f42e5936</t>
+          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
+          <t>v=spf1 a mx ~all</t>
         </is>
       </c>
       <c r="E105" t="b">
@@ -6669,12 +6669,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -6683,26 +6683,26 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>fd06957f7e745e10c388665bb8be096a</t>
+          <t>c7df12561d64e4e680c6b0859c123f99</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>imap.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -6728,12 +6728,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -6742,26 +6742,26 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
+          <t>e95c85414a6c93e847a2755df7c16cf0</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>mail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>v=spf1 a mx ~all</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -6787,12 +6787,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -6801,12 +6801,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>c7df12561d64e4e680c6b0859c123f99</t>
+          <t>6834f98896056a837138409566211327</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>imap.rivoluzioneinformatica.org</t>
+          <t>smtp.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -6846,12 +6846,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6860,12 +6860,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>e95c85414a6c93e847a2755df7c16cf0</t>
+          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>mail.rivoluzioneinformatica.org</t>
+          <t>webmail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -6882,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6905,12 +6905,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6919,36 +6919,36 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>6834f98896056a837138409566211327</t>
+          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>smtp.rivoluzioneinformatica.org</t>
+          <t>git.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6964,12 +6964,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
@@ -6978,22 +6978,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
+          <t>eb220c9fb1df30719c788ef51fe312f6</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>webmail.rivoluzioneinformatica.org</t>
+          <t>npm.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E111" t="b">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7023,12 +7023,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
@@ -7037,12 +7037,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
+          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>git.rivoluzioneinformatica.org</t>
+          <t>proxmox.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7052,7 +7052,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
+          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E112" t="b">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -7096,12 +7096,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>eb220c9fb1df30719c788ef51fe312f6</t>
+          <t>236f1b867d3720d5dd29c6af49782d62</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>npm.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E113" t="b">
@@ -7141,12 +7141,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -7155,12 +7155,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
+          <t>7c6da25c8e1e486da458cd5373402382</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>proxmox.rivoluzioneinformatica.org</t>
+          <t>vpn.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E114" t="b">
@@ -7200,12 +7200,12 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -7214,12 +7214,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>236f1b867d3720d5dd29c6af49782d62</t>
+          <t>3045396196bc00b6e05726f94825c6bd</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E115" t="b">
@@ -7259,12 +7259,12 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-08-17T08:57:50.756388Z</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-08-17T08:59:41.92016Z</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
@@ -7273,12 +7273,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>7c6da25c8e1e486da458cd5373402382</t>
+          <t>25f714bcbfe5ff8215c314a503379edc</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>vpn.rivoluzioneinformatica.org</t>
+          <t>xmq.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7318,12 +7318,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
@@ -7332,41 +7332,41 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3045396196bc00b6e05726f94825c6bd</t>
+          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>fabriziosalmi.github.io</t>
+          <t>amir.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -7377,55 +7377,57 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2022-08-17T08:57:50.756388Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2022-08-17T08:59:41.92016Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
+      <c r="O117" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>25f714bcbfe5ff8215c314a503379edc</t>
+          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>xmq.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>linda.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -7436,21 +7438,23 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
+      <c r="O118" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
+          <t>bcd73d5a0e03a2593be162cd5259a678</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -7465,7 +7469,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>amir.mx.cloudflare.net</t>
+          <t>isaac.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -7495,38 +7499,38 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="n">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
+          <t>e6ffaf786ff743b47650f73557b07b66</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>linda.mx.cloudflare.net</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -7556,38 +7560,36 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
-      <c r="O120" t="n">
-        <v>90</v>
-      </c>
+      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>bcd73d5a0e03a2593be162cd5259a678</t>
+          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>_dmarc.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>isaac.mx.cloudflare.net</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E121" t="b">
@@ -7606,7 +7608,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -7617,28 +7619,26 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2022-02-07T15:43:39.763425Z</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2022-05-22T11:09:18.092063Z</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
-      <c r="O121" t="n">
-        <v>97</v>
-      </c>
+      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>e6ffaf786ff743b47650f73557b07b66</t>
+          <t>2a74f92cf716979d913217d640655261</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
         </is>
       </c>
       <c r="E122" t="b">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -7678,12 +7678,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -7692,12 +7692,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
+          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>_dmarc.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -7737,12 +7737,12 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2022-02-07T15:43:39.763425Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2022-05-22T11:09:18.092063Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
@@ -7751,7 +7751,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2a74f92cf716979d913217d640655261</t>
+          <t>47bb0eec812c7e5f3961cb9079727d80</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
+          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
@@ -7810,12 +7810,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
+          <t>9abd161d29cb47ce6cfa783657e67723</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -7855,12 +7855,12 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2022-05-13T21:13:25.301942Z</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2022-05-22T10:18:49.411362Z</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
@@ -7869,12 +7869,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>47bb0eec812c7e5f3961cb9079727d80</t>
+          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -7914,12 +7914,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
@@ -7928,36 +7928,36 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>9abd161d29cb47ce6cfa783657e67723</t>
+          <t>904b0a528a01b0dd8370295ce305d3da</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
+          <t>demo.uglyfeed.com</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7973,12 +7973,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2022-05-13T21:13:25.301942Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2022-05-22T10:18:49.411362Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -7987,36 +7987,36 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
+          <t>1b7333a979fa92816324f0e9be6a564a</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
+          <t>xml.uglyfeed.com</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8032,12 +8032,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
@@ -8046,41 +8046,41 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>904b0a528a01b0dd8370295ce305d3da</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>demo.uglyfeed.com</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -8091,12 +8091,12 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
@@ -8105,36 +8105,36 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1b7333a979fa92816324f0e9be6a564a</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>xml.uglyfeed.com</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
@@ -8164,12 +8164,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E131" t="b">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -8209,12 +8209,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8223,12 +8223,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>videodioggi.com</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E132" t="b">
@@ -8268,12 +8268,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8282,29 +8282,29 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -8327,12 +8327,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2023-03-30T09:59:11.98058Z</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2023-03-30T09:59:12.228482Z</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8341,29 +8341,29 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>test2.webtek.live</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -8386,12 +8386,12 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2023-03-28T08:34:29.902515Z</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2023-03-28T08:34:30.164318Z</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
@@ -8400,12 +8400,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>432df2553b443742f9f905e155878536</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>test.webtek.live</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -8445,12 +8445,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2023-03-24T11:44:15.078812Z</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2023-03-24T11:44:15.367412Z</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
@@ -8459,12 +8459,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>webtek.live</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -8504,12 +8504,12 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
@@ -8518,12 +8518,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>e02587466a80086957e4f19a05760dec</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -8563,12 +8563,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2023-10-06T11:52:31.670164Z</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2023-10-06T12:04:32.454791Z</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -8577,29 +8577,29 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>_dmarc.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -8622,12 +8622,12 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
@@ -8636,29 +8636,29 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>*._domainkey.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -8681,12 +8681,12 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
@@ -8695,12 +8695,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>_dmarc.youknowwhataimean.com</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E140" t="b">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
@@ -8754,36 +8754,36 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
+          <t>transversalpuntozero.org</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>transversalpuntozero.pages.dev</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8799,134 +8799,16 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2024-11-03T08:47:11.475444Z</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2024-11-03T08:47:11.475444Z</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>youknowwhataimean.com</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>TXT</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>v=spf1 -all</t>
-        </is>
-      </c>
-      <c r="E142" t="b">
-        <v>0</v>
-      </c>
-      <c r="F142" t="b">
-        <v>0</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>transversalpuntozero.org</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>CNAME</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>transversalpuntozero.pages.dev</t>
-        </is>
-      </c>
-      <c r="E143" t="b">
-        <v>1</v>
-      </c>
-      <c r="F143" t="b">
-        <v>1</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>{'flatten_cname': False}</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -7302,7 +7302,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O141"/>
+  <dimension ref="A1:O144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6683,29 +6683,29 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>c7df12561d64e4e680c6b0859c123f99</t>
+          <t>ae3d4333d59bdaf8bd1422fa455dce2e</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>imap.rivoluzioneinformatica.org</t>
+          <t>arena.repolizer.com</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6728,12 +6728,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-04-09T08:36:52.625051Z</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-04-09T08:36:52.625051Z</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -6742,29 +6742,29 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>e95c85414a6c93e847a2755df7c16cf0</t>
+          <t>b738ae8c910e28345612400cb8a6e23e</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>mail.rivoluzioneinformatica.org</t>
+          <t>ssh.repolizer.com</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6787,12 +6787,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -6801,29 +6801,29 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>6834f98896056a837138409566211327</t>
+          <t>f243341ae6695c4a95ea6e21d06ef471</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>smtp.rivoluzioneinformatica.org</t>
+          <t>stats.repolizer.com</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6846,12 +6846,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2025-04-09T08:36:33.043311Z</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2025-04-09T08:36:33.043311Z</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6860,12 +6860,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
+          <t>c7df12561d64e4e680c6b0859c123f99</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>webmail.rivoluzioneinformatica.org</t>
+          <t>imap.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -6882,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6905,12 +6905,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6919,29 +6919,29 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
+          <t>e95c85414a6c93e847a2755df7c16cf0</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>git.rivoluzioneinformatica.org</t>
+          <t>mail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6964,12 +6964,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
@@ -6978,29 +6978,29 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>eb220c9fb1df30719c788ef51fe312f6</t>
+          <t>6834f98896056a837138409566211327</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>npm.rivoluzioneinformatica.org</t>
+          <t>smtp.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7023,12 +7023,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
@@ -7037,22 +7037,22 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
+          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>proxmox.rivoluzioneinformatica.org</t>
+          <t>webmail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E112" t="b">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -7096,12 +7096,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>236f1b867d3720d5dd29c6af49782d62</t>
+          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>git.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E113" t="b">
@@ -7141,12 +7141,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -7155,12 +7155,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>7c6da25c8e1e486da458cd5373402382</t>
+          <t>eb220c9fb1df30719c788ef51fe312f6</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>vpn.rivoluzioneinformatica.org</t>
+          <t>npm.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E114" t="b">
@@ -7200,12 +7200,12 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -7214,12 +7214,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>3045396196bc00b6e05726f94825c6bd</t>
+          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>proxmox.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>fabriziosalmi.github.io</t>
+          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E115" t="b">
@@ -7259,12 +7259,12 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2022-08-17T08:57:50.756388Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2022-08-17T08:59:41.92016Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
@@ -7273,12 +7273,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>25f714bcbfe5ff8215c314a503379edc</t>
+          <t>236f1b867d3720d5dd29c6af49782d62</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>xmq.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E116" t="b">
@@ -7318,12 +7318,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
@@ -7332,29 +7332,29 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
+          <t>7c6da25c8e1e486da458cd5373402382</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>vpn.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>amir.mx.cloudflare.net</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -7377,45 +7377,43 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
-      <c r="O117" t="n">
-        <v>40</v>
-      </c>
+      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
+          <t>3045396196bc00b6e05726f94825c6bd</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>linda.mx.cloudflare.net</t>
+          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7427,7 +7425,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -7438,45 +7436,43 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2022-08-17T08:57:50.756388Z</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2022-08-17T08:59:41.92016Z</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
-      <c r="O118" t="n">
-        <v>90</v>
-      </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>bcd73d5a0e03a2593be162cd5259a678</t>
+          <t>25f714bcbfe5ff8215c314a503379edc</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>xmq.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>isaac.mx.cloudflare.net</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7488,7 +7484,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -7499,38 +7495,36 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
-      <c r="O119" t="n">
-        <v>97</v>
-      </c>
+      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>e6ffaf786ff743b47650f73557b07b66</t>
+          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>amir.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -7560,36 +7554,38 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
+      <c r="O120" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
+          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>_dmarc.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>linda.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E121" t="b">
@@ -7608,7 +7604,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -7619,21 +7615,23 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2022-02-07T15:43:39.763425Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2022-05-22T11:09:18.092063Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
+      <c r="O121" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2a74f92cf716979d913217d640655261</t>
+          <t>bcd73d5a0e03a2593be162cd5259a678</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -7643,12 +7641,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
+          <t>isaac.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E122" t="b">
@@ -7667,7 +7665,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -7678,26 +7676,28 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
+      <c r="O122" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
+          <t>e6ffaf786ff743b47650f73557b07b66</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -7737,12 +7737,12 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
@@ -7751,12 +7751,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>47bb0eec812c7e5f3961cb9079727d80</t>
+          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>_dmarc.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2022-02-07T15:43:39.763425Z</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2022-05-22T11:09:18.092063Z</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
@@ -7810,12 +7810,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>9abd161d29cb47ce6cfa783657e67723</t>
+          <t>2a74f92cf716979d913217d640655261</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
+          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -7855,12 +7855,12 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2022-05-13T21:13:25.301942Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2022-05-22T10:18:49.411362Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
@@ -7869,12 +7869,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
+          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -7914,12 +7914,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
@@ -7928,29 +7928,29 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>904b0a528a01b0dd8370295ce305d3da</t>
+          <t>47bb0eec812c7e5f3961cb9079727d80</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>demo.uglyfeed.com</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7973,12 +7973,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -7987,29 +7987,29 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1b7333a979fa92816324f0e9be6a564a</t>
+          <t>9abd161d29cb47ce6cfa783657e67723</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>xml.uglyfeed.com</t>
+          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
         </is>
       </c>
       <c r="E128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -8032,12 +8032,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2022-05-13T21:13:25.301942Z</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2022-05-22T10:18:49.411362Z</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
@@ -8046,12 +8046,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
         </is>
       </c>
       <c r="E129" t="b">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -8091,12 +8091,12 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
@@ -8105,29 +8105,29 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>904b0a528a01b0dd8370295ce305d3da</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>demo.uglyfeed.com</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -8150,12 +8150,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
@@ -8164,29 +8164,29 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>1b7333a979fa92816324f0e9be6a564a</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>xml.uglyfeed.com</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -8209,12 +8209,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8223,12 +8223,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E132" t="b">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -8268,12 +8268,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8282,29 +8282,29 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -8327,12 +8327,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8341,29 +8341,29 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -8386,12 +8386,12 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
@@ -8400,29 +8400,29 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>videodioggi.com</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -8445,12 +8445,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
@@ -8459,12 +8459,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -8504,12 +8504,12 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-30T09:59:11.98058Z</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-30T09:59:12.228482Z</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
@@ -8518,12 +8518,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>test2.webtek.live</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -8563,12 +8563,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2023-03-28T08:34:29.902515Z</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2023-03-28T08:34:30.164318Z</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -8577,29 +8577,29 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
+          <t>432df2553b443742f9f905e155878536</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>_dmarc.youknowwhataimean.com</t>
+          <t>test.webtek.live</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -8622,12 +8622,12 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-03-24T11:44:15.078812Z</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-03-24T11:44:15.367412Z</t>
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
@@ -8636,29 +8636,29 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
+          <t>webtek.live</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -8681,12 +8681,12 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
@@ -8695,7 +8695,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+          <t>e02587466a80086957e4f19a05760dec</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -8705,19 +8705,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -8740,12 +8740,12 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-06T11:52:31.670164Z</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-06T12:04:32.454791Z</t>
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
@@ -8754,29 +8754,29 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>transversalpuntozero.org</t>
+          <t>_dmarc.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>transversalpuntozero.pages.dev</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -8799,16 +8799,193 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>*._domainkey.youknowwhataimean.com</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>v=DKIM1; p=</t>
+        </is>
+      </c>
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.93815Z</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.93815Z</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>youknowwhataimean.com</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>v=spf1 -all</t>
+        </is>
+      </c>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.931067Z</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.931067Z</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.org</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.pages.dev</t>
+        </is>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O144"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3011,12 +3011,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>081907c20660bf785f8a99b15f7ae6fa</t>
+          <t>2628b62f7c721d0e34d5ad5f81f94aa6</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cloud.irrazionale.org</t>
+          <t>check.irrazionale.org</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>379e723b-0e63-4ee0-aabe-5009125009c9.cfargotunnel.com</t>
+          <t>eb879ac1-3924-4f69-9c6c-75f6a9e1cdb8.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E44" t="b">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2022-12-11T16:25:07.205868Z</t>
+          <t>2025-04-10T17:26:36.959974Z</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2022-12-11T16:25:07.205868Z</t>
+          <t>2025-04-10T17:26:36.959974Z</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -3070,12 +3070,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>d0e96bb2faf9ed17182c357e39b68779</t>
+          <t>081907c20660bf785f8a99b15f7ae6fa</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>coolify.irrazionale.org</t>
+          <t>cloud.irrazionale.org</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>379e723b-0e63-4ee0-aabe-5009125009c9.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E45" t="b">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2025-02-09T22:15:14.34368Z</t>
+          <t>2022-12-11T16:25:07.205868Z</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2025-02-09T22:15:14.34368Z</t>
+          <t>2022-12-11T16:25:07.205868Z</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -3129,12 +3129,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>911a85c4a4a11c6e7c594788937a2456</t>
+          <t>d0e96bb2faf9ed17182c357e39b68779</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>dell.irrazionale.org</t>
+          <t>coolify.irrazionale.org</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4e789f43-bcab-410e-a7c8-9c7bd88fd294.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E46" t="b">
@@ -3174,12 +3174,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2023-12-01T12:39:10.88625Z</t>
+          <t>2025-02-09T22:15:14.34368Z</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2023-12-01T12:39:10.88625Z</t>
+          <t>2025-02-09T22:15:14.34368Z</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -3188,12 +3188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>60d0a2d1367b6b64c398aa37848efae3</t>
+          <t>911a85c4a4a11c6e7c594788937a2456</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>docker.irrazionale.org</t>
+          <t>dell.irrazionale.org</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>4e789f43-bcab-410e-a7c8-9c7bd88fd294.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E47" t="b">
@@ -3233,12 +3233,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2025-02-07T16:29:08.840612Z</t>
+          <t>2023-12-01T12:39:10.88625Z</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2025-02-07T16:29:08.840612Z</t>
+          <t>2023-12-01T12:39:10.88625Z</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -3247,12 +3247,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>08d407943ed4067865b5a819494093df</t>
+          <t>60d0a2d1367b6b64c398aa37848efae3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>freesounds.irrazionale.org</t>
+          <t>docker.irrazionale.org</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>86cfa504-c90d-46fd-a7f9-8c8d7a74ec1b.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E48" t="b">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2022-05-29T10:34:39.700377Z</t>
+          <t>2025-02-07T16:29:08.840612Z</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2022-05-29T10:34:39.700377Z</t>
+          <t>2025-02-07T16:29:08.840612Z</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -3306,12 +3306,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>41be2e667e4654c8425c3747809eaf4b</t>
+          <t>08d407943ed4067865b5a819494093df</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>git.irrazionale.org</t>
+          <t>freesounds.irrazionale.org</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>86cfa504-c90d-46fd-a7f9-8c8d7a74ec1b.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E49" t="b">
@@ -3351,12 +3351,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2025-02-09T17:43:27.673327Z</t>
+          <t>2022-05-29T10:34:39.700377Z</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2025-02-09T17:43:27.673327Z</t>
+          <t>2022-05-29T10:34:39.700377Z</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -3365,12 +3365,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>216f28a4197e4846265257d9a19df44a</t>
+          <t>41be2e667e4654c8425c3747809eaf4b</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jellyfin.irrazionale.org</t>
+          <t>git.irrazionale.org</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ecb8d351-a34c-4b72-829d-9e0ef5726b65.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E50" t="b">
@@ -3410,12 +3410,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2023-12-01T16:34:33.145093Z</t>
+          <t>2025-02-09T17:43:27.673327Z</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023-12-01T16:34:33.145093Z</t>
+          <t>2025-02-09T17:43:27.673327Z</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -3424,12 +3424,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>a294caebd6eeaa83278ae5e170afa4a7</t>
+          <t>216f28a4197e4846265257d9a19df44a</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>lf.irrazionale.org</t>
+          <t>jellyfin.irrazionale.org</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>ecb8d351-a34c-4b72-829d-9e0ef5726b65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2024-04-25T08:35:09.947241Z</t>
+          <t>2023-12-01T16:34:33.145093Z</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2024-04-25T08:35:09.947241Z</t>
+          <t>2023-12-01T16:34:33.145093Z</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -3483,12 +3483,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>b3c12f8816422fb6e017703c896aa4eb</t>
+          <t>a294caebd6eeaa83278ae5e170afa4a7</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>localhost.irrazionale.org</t>
+          <t>lf.irrazionale.org</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>05dcfc0e-c6f7-45c8-9c51-04d3ea300b3c.cfargotunnel.com</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E52" t="b">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2025-03-26T09:51:19.730468Z</t>
+          <t>2024-04-25T08:35:09.947241Z</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2025-03-26T09:51:19.730468Z</t>
+          <t>2024-04-25T08:35:09.947241Z</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -3542,12 +3542,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
+          <t>b3c12f8816422fb6e017703c896aa4eb</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>mt-link.irrazionale.org</t>
+          <t>localhost.irrazionale.org</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3557,14 +3557,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>05dcfc0e-c6f7-45c8-9c51-04d3ea300b3c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2025-03-26T09:51:19.730468Z</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2025-03-26T09:51:19.730468Z</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -3601,12 +3601,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3d3ea0a30645f9869829e88faee2503f</t>
+          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
+          <t>mt-link.irrazionale.org</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E54" t="b">
@@ -3646,12 +3646,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -3660,12 +3660,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
+          <t>3d3ea0a30645f9869829e88faee2503f</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ollama.irrazionale.org</t>
+          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3675,14 +3675,14 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4a64c597d17da513e052355df93bbc58</t>
+          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>powerdns.irrazionale.org</t>
+          <t>ollama.irrazionale.org</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E56" t="b">
@@ -3764,12 +3764,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -3778,12 +3778,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4bd65cc8d342c16851d7e90462f78579</t>
+          <t>4a64c597d17da513e052355df93bbc58</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>proxmox.irrazionale.org</t>
+          <t>powerdns.irrazionale.org</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E57" t="b">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3837,12 +3837,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
+          <t>4bd65cc8d342c16851d7e90462f78579</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>proxmox-ssh.irrazionale.org</t>
+          <t>proxmox.irrazionale.org</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3882,12 +3882,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -3896,12 +3896,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
+          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.irrazionale.org</t>
+          <t>proxmox-ssh.irrazionale.org</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3911,14 +3911,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3941,12 +3941,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -3955,12 +3955,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>04d14cb456a1976f403ee148eca05cc8</t>
+          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.irrazionale.org</t>
+          <t>rwmt1._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E60" t="b">
@@ -4000,12 +4000,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -4014,12 +4014,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
+          <t>04d14cb456a1976f403ee148eca05cc8</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>s3.irrazionale.org</t>
+          <t>rwmt2._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4029,14 +4029,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4059,12 +4059,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0ce0da84393eb2e44a959deb2116cce5</t>
+          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>s3ui.irrazionale.org</t>
+          <t>s3.irrazionale.org</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4118,12 +4118,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -4132,12 +4132,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
+          <t>0ce0da84393eb2e44a959deb2116cce5</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>sci-fi.irrazionale.org</t>
+          <t>s3ui.irrazionale.org</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E63" t="b">
@@ -4177,12 +4177,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -4191,12 +4191,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
+          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>search.irrazionale.org</t>
+          <t>sci-fi.irrazionale.org</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E64" t="b">
@@ -4236,12 +4236,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -4250,12 +4250,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>d136067486f9bfd1260a66e04c217624</t>
+          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>webcheck.irrazionale.org</t>
+          <t>search.irrazionale.org</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4295,12 +4295,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -4309,29 +4309,29 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
+          <t>d136067486f9bfd1260a66e04c217624</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>webcheck.irrazionale.org</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>mail.irrazionale.org</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4354,23 +4354,21 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
-      <c r="O66" t="n">
-        <v>1</v>
-      </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>5e61f46e73d33d23b901c830c11d05e5</t>
+          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4385,7 +4383,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>mail.irrazionale.org</t>
         </is>
       </c>
       <c r="E67" t="b">
@@ -4415,23 +4413,23 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4a187b659dadf78253cb30054350314c</t>
+          <t>5e61f46e73d33d23b901c830c11d05e5</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4446,7 +4444,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>route2mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E68" t="b">
@@ -4476,23 +4474,23 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="n">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
+          <t>4a187b659dadf78253cb30054350314c</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4507,7 +4505,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route2mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E69" t="b">
@@ -4537,38 +4535,38 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>bb6fca1069dfef36eac3160ec423215a</t>
+          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>safe.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>dnsafe.irrazionale.org</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -4598,36 +4596,38 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="O70" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3a04124b47167ef39224aa1b60a8fe25</t>
+          <t>bb6fca1069dfef36eac3160ec423215a</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>_acme-challenge.mail.irrazionale.org</t>
+          <t>safe.irrazionale.org</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
+          <t>dnsafe.irrazionale.org</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4657,12 +4657,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
@@ -4671,12 +4671,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
+          <t>3a04124b47167ef39224aa1b60a8fe25</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>_acme-challenge.mail.irrazionale.org</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
+          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4716,12 +4716,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -4730,7 +4730,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>c931695adebdf9cc13b66924f8d442a2</t>
+          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
+          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
         </is>
       </c>
       <c r="E73" t="b">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
@@ -4789,7 +4789,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>5674a44427225f44209d188901e7e212</t>
+          <t>c931695adebdf9cc13b66924f8d442a2</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
         </is>
       </c>
       <c r="E74" t="b">
@@ -4834,12 +4834,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -4848,12 +4848,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>575daba57b52a33ae44441e93e44ad93</t>
+          <t>5674a44427225f44209d188901e7e212</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E75" t="b">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -4907,7 +4907,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>8ae5f18920790fbc1ac6e57676db376b</t>
+          <t>575daba57b52a33ae44441e93e44ad93</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
+          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
         </is>
       </c>
       <c r="E76" t="b">
@@ -4952,12 +4952,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
@@ -4966,7 +4966,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>5f752add42e06a88468c1b1203a5241c</t>
+          <t>8ae5f18920790fbc1ac6e57676db376b</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
+          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E77" t="b">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -5025,7 +5025,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
+          <t>5f752add42e06a88468c1b1203a5241c</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 -all</t>
+          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
         </is>
       </c>
       <c r="E78" t="b">
@@ -5070,12 +5070,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -5084,12 +5084,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>96bf76d43d32043fc586f04d28efe912</t>
+          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>mail._domainkey.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
+          <t>v=spf1 ip4:185.182.185.194 -all</t>
         </is>
       </c>
       <c r="E79" t="b">
@@ -5129,12 +5129,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
@@ -5143,12 +5143,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6aa7d6d1576b8790519602102e390beb</t>
+          <t>96bf76d43d32043fc586f04d28efe912</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>s20220715915._domainkey.irrazionale.org</t>
+          <t>mail._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
+          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
         </is>
       </c>
       <c r="E80" t="b">
@@ -5188,12 +5188,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -5202,12 +5202,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>f07372fefe2aeec92ba78a42ee921960</t>
+          <t>6aa7d6d1576b8790519602102e390beb</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>s20221212161._domainkey.irrazionale.org</t>
+          <t>s20220715915._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
         </is>
       </c>
       <c r="E81" t="b">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -5261,22 +5261,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>f02f658bd3f849218f8880600ee8f124</t>
+          <t>f07372fefe2aeec92ba78a42ee921960</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>proxmox-dc2-mn.italiacdn.net</t>
+          <t>s20221212161._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>100.92.242.58</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
         </is>
       </c>
       <c r="E82" t="b">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -5306,12 +5306,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
@@ -5320,32 +5320,32 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>25f1985f805e21184de23f5dd6f43ea9</t>
+          <t>f02f658bd3f849218f8880600ee8f124</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>bin.italiacdn.net</t>
+          <t>proxmox-dc2-mn.italiacdn.net</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
+          <t>100.92.242.58</t>
         </is>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -5365,12 +5365,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
@@ -5379,12 +5379,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
+          <t>25f1985f805e21184de23f5dd6f43ea9</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>logs.italiacdn.net</t>
+          <t>bin.italiacdn.net</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
+          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E84" t="b">
@@ -5424,12 +5424,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
@@ -5438,12 +5438,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>b013512ac14813f9241bfb82d58e6a15</t>
+          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>private.italiacdn.net</t>
+          <t>logs.italiacdn.net</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
+          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E85" t="b">
@@ -5483,12 +5483,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -5497,12 +5497,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>da6f732331d53062b4a64822c4d8053c</t>
+          <t>b013512ac14813f9241bfb82d58e6a15</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>public-bucket.italiacdn.net</t>
+          <t>private.italiacdn.net</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
+          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -5542,12 +5542,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
@@ -5556,12 +5556,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>68ff9d51859905c9e8f951acf9650166</t>
+          <t>da6f732331d53062b4a64822c4d8053c</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>vault.italiacdn.net</t>
+          <t>public-bucket.italiacdn.net</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
+          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E87" t="b">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -5615,12 +5615,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
+          <t>68ff9d51859905c9e8f951acf9650166</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>vpn.italiacdn.net</t>
+          <t>vault.italiacdn.net</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
+          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E88" t="b">
@@ -5660,12 +5660,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
@@ -5674,32 +5674,32 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>14efda500a1c1e9c12dffecc2640246d</t>
+          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
+          <t>vpn.italiacdn.net</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>27b4d1e9dabc5765ebb48532ae2443</t>
+          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5719,12 +5719,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
@@ -5733,26 +5733,26 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>a49ade48a5be45f002d5417140f370a0</t>
+          <t>14efda500a1c1e9c12dffecc2640246d</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>adinsp9sqvzxue8n.italiadns.com</t>
+          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>27b4d1e9dabc5765ebb48532ae2443</t>
         </is>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -5778,12 +5778,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2024-07-31T13:37:34.938024Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2024-07-31T13:38:29.779921Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
@@ -5792,12 +5792,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>57267997534d7cf452997a9c191591ee</t>
+          <t>a49ade48a5be45f002d5417140f370a0</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>mt-link.italiadns.com</t>
+          <t>adinsp9sqvzxue8n.italiadns.com</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E91" t="b">
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5837,12 +5837,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2024-07-31T13:37:34.938024Z</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2024-07-31T13:38:29.779921Z</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -5851,12 +5851,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3a7c851242dbc15ea213945d901512b9</t>
+          <t>57267997534d7cf452997a9c191591ee</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.italiadns.com</t>
+          <t>mt-link.italiadns.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E92" t="b">
@@ -5896,12 +5896,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
@@ -5910,12 +5910,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>f06b6c37872df6a52852ee0d128d45ee</t>
+          <t>3a7c851242dbc15ea213945d901512b9</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.italiadns.com</t>
+          <t>rwmt1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E93" t="b">
@@ -5955,12 +5955,12 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
@@ -5969,12 +5969,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>41fd60824243d4f2538de3c3c29b7736</t>
+          <t>f06b6c37872df6a52852ee0d128d45ee</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>w1y139ns251ah6gc.italiadns.com</t>
+          <t>rwmt2._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E94" t="b">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
@@ -6028,26 +6028,26 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>a38c7cb5dce002e6fa5326111beba54f</t>
+          <t>41fd60824243d4f2538de3c3c29b7736</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>w1y139ns251ah6gc.italiadns.com</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -6073,23 +6073,21 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="n">
-        <v>61</v>
-      </c>
+      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
+          <t>a38c7cb5dce002e6fa5326111beba54f</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6104,7 +6102,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E96" t="b">
@@ -6134,23 +6132,23 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>6c5bf0b471503f7060c852986b55b0e0</t>
+          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6165,7 +6163,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E97" t="b">
@@ -6195,38 +6193,38 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>e6da0cedff625c31979aecd06ce463d4</t>
+          <t>6c5bf0b471503f7060c852986b55b0e0</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E98" t="b">
@@ -6256,26 +6254,28 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
+      <c r="O98" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
+          <t>e6da0cedff625c31979aecd06ce463d4</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>_dmarc.italiadns.com</t>
+          <t>cf2024-1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E99" t="b">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -6315,12 +6315,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
@@ -6329,12 +6329,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>129ae399ff1f816f521c481aa58251a7</t>
+          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>_dmarc.italiadns.com</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
+          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E100" t="b">
@@ -6374,12 +6374,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:30.706502Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2024-08-19T08:39:22.495623Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
@@ -6388,22 +6388,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
+          <t>129ae399ff1f816f521c481aa58251a7</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ns-1683.awsdns-18.co.uk</t>
+          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E101" t="b">
@@ -6433,12 +6433,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2024-07-31T12:41:30.706502Z</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2024-08-19T08:39:22.495623Z</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
@@ -6447,7 +6447,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>4131e3d65c1df20458045bfa612298e9</t>
+          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ns-1303.awsdns-34.org</t>
+          <t>ns-1683.awsdns-18.co.uk</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -6492,12 +6492,12 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -6506,22 +6506,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>03da4898b7afbb1408bfdd51f42e5936</t>
+          <t>4131e3d65c1df20458045bfa612298e9</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
+          <t>ns-1303.awsdns-34.org</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -6551,12 +6551,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
@@ -6565,7 +6565,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>fd06957f7e745e10c388665bb8be096a</t>
+          <t>03da4898b7afbb1408bfdd51f42e5936</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
+          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -6610,12 +6610,12 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
@@ -6624,7 +6624,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
+          <t>fd06957f7e745e10c388665bb8be096a</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>v=spf1 a mx ~all</t>
+          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
         </is>
       </c>
       <c r="E105" t="b">
@@ -6669,12 +6669,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -6683,29 +6683,29 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ae3d4333d59bdaf8bd1422fa455dce2e</t>
+          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>arena.repolizer.com</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
+          <t>v=spf1 a mx ~all</t>
         </is>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6728,12 +6728,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2025-04-09T08:36:52.625051Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2025-04-09T08:36:52.625051Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -6742,12 +6742,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>b738ae8c910e28345612400cb8a6e23e</t>
+          <t>ae3d4333d59bdaf8bd1422fa455dce2e</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ssh.repolizer.com</t>
+          <t>arena.repolizer.com</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -6787,12 +6787,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2025-04-09T08:36:52.625051Z</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2025-04-09T08:36:52.625051Z</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -6801,12 +6801,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>f243341ae6695c4a95ea6e21d06ef471</t>
+          <t>b738ae8c910e28345612400cb8a6e23e</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>stats.repolizer.com</t>
+          <t>ssh.repolizer.com</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -6846,12 +6846,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2025-04-09T08:36:33.043311Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2025-04-09T08:36:33.043311Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6860,29 +6860,29 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>c7df12561d64e4e680c6b0859c123f99</t>
+          <t>f243341ae6695c4a95ea6e21d06ef471</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>imap.rivoluzioneinformatica.org</t>
+          <t>stats.repolizer.com</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6905,12 +6905,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-04-09T08:36:33.043311Z</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-04-09T08:36:33.043311Z</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6919,12 +6919,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>e95c85414a6c93e847a2755df7c16cf0</t>
+          <t>c7df12561d64e4e680c6b0859c123f99</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>mail.rivoluzioneinformatica.org</t>
+          <t>imap.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -6964,12 +6964,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
@@ -6978,12 +6978,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>6834f98896056a837138409566211327</t>
+          <t>e95c85414a6c93e847a2755df7c16cf0</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>smtp.rivoluzioneinformatica.org</t>
+          <t>mail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -7023,12 +7023,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
@@ -7037,12 +7037,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
+          <t>6834f98896056a837138409566211327</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>webmail.rivoluzioneinformatica.org</t>
+          <t>smtp.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7059,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7082,12 +7082,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -7096,22 +7096,22 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
+          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>git.rivoluzioneinformatica.org</t>
+          <t>webmail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E113" t="b">
@@ -7141,12 +7141,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -7155,12 +7155,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>eb220c9fb1df30719c788ef51fe312f6</t>
+          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>npm.rivoluzioneinformatica.org</t>
+          <t>git.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
+          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E114" t="b">
@@ -7200,12 +7200,12 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -7214,12 +7214,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
+          <t>eb220c9fb1df30719c788ef51fe312f6</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>proxmox.rivoluzioneinformatica.org</t>
+          <t>npm.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
+          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E115" t="b">
@@ -7259,12 +7259,12 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
@@ -7273,12 +7273,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>236f1b867d3720d5dd29c6af49782d62</t>
+          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>proxmox.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E116" t="b">
@@ -7318,12 +7318,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
@@ -7332,12 +7332,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>7c6da25c8e1e486da458cd5373402382</t>
+          <t>236f1b867d3720d5dd29c6af49782d62</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>vpn.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E117" t="b">
@@ -7377,12 +7377,12 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -7391,12 +7391,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>3045396196bc00b6e05726f94825c6bd</t>
+          <t>7c6da25c8e1e486da458cd5373402382</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>vpn.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>fabriziosalmi.github.io</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E118" t="b">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2022-08-17T08:57:50.756388Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2022-08-17T08:59:41.92016Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
@@ -7450,12 +7450,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>25f714bcbfe5ff8215c314a503379edc</t>
+          <t>3045396196bc00b6e05726f94825c6bd</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>xmq.rivoluzioneinformatica.org</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -7495,12 +7495,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2022-08-17T08:57:50.756388Z</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2022-08-17T08:59:41.92016Z</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
@@ -7509,29 +7509,29 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
+          <t>25f714bcbfe5ff8215c314a503379edc</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>xmq.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>amir.mx.cloudflare.net</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -7554,23 +7554,21 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
-      <c r="O120" t="n">
-        <v>40</v>
-      </c>
+      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
+          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -7585,7 +7583,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>linda.mx.cloudflare.net</t>
+          <t>amir.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E121" t="b">
@@ -7615,23 +7613,23 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>bcd73d5a0e03a2593be162cd5259a678</t>
+          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -7646,7 +7644,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>isaac.mx.cloudflare.net</t>
+          <t>linda.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E122" t="b">
@@ -7676,38 +7674,38 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>e6ffaf786ff743b47650f73557b07b66</t>
+          <t>bcd73d5a0e03a2593be162cd5259a678</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>isaac.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -7737,26 +7735,28 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
+      <c r="O123" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
+          <t>e6ffaf786ff743b47650f73557b07b66</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>_dmarc.rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2022-02-07T15:43:39.763425Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2022-05-22T11:09:18.092063Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
@@ -7810,12 +7810,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2a74f92cf716979d913217d640655261</t>
+          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>_dmarc.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -7855,12 +7855,12 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2022-02-07T15:43:39.763425Z</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2022-05-22T11:09:18.092063Z</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
@@ -7869,7 +7869,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
+          <t>2a74f92cf716979d913217d640655261</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -7914,12 +7914,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
@@ -7928,7 +7928,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>47bb0eec812c7e5f3961cb9079727d80</t>
+          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E127" t="b">
@@ -7973,12 +7973,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -7987,12 +7987,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>9abd161d29cb47ce6cfa783657e67723</t>
+          <t>47bb0eec812c7e5f3961cb9079727d80</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
+          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
         </is>
       </c>
       <c r="E128" t="b">
@@ -8032,12 +8032,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2022-05-13T21:13:25.301942Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2022-05-22T10:18:49.411362Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
@@ -8046,12 +8046,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
+          <t>9abd161d29cb47ce6cfa783657e67723</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
+          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
         </is>
       </c>
       <c r="E129" t="b">
@@ -8091,12 +8091,12 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-05-13T21:13:25.301942Z</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-05-22T10:18:49.411362Z</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
@@ -8105,29 +8105,29 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>904b0a528a01b0dd8370295ce305d3da</t>
+          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>demo.uglyfeed.com</t>
+          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -8150,12 +8150,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
@@ -8164,12 +8164,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1b7333a979fa92816324f0e9be6a564a</t>
+          <t>904b0a528a01b0dd8370295ce305d3da</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>xml.uglyfeed.com</t>
+          <t>demo.uglyfeed.com</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -8209,12 +8209,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8223,29 +8223,29 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>1b7333a979fa92816324f0e9be6a564a</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>xml.uglyfeed.com</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -8257,7 +8257,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -8268,12 +8268,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8282,12 +8282,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -8297,7 +8297,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E133" t="b">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -8327,12 +8327,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8341,12 +8341,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -8356,7 +8356,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E134" t="b">
@@ -8386,12 +8386,12 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
@@ -8400,12 +8400,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E135" t="b">
@@ -8445,12 +8445,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
@@ -8459,29 +8459,29 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>videodioggi.com</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8504,12 +8504,12 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
@@ -8518,12 +8518,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -8563,12 +8563,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2023-03-30T09:59:11.98058Z</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2023-03-30T09:59:12.228482Z</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -8577,12 +8577,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>test2.webtek.live</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -8622,12 +8622,12 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2023-03-28T08:34:29.902515Z</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2023-03-28T08:34:30.164318Z</t>
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
@@ -8636,12 +8636,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>432df2553b443742f9f905e155878536</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>test.webtek.live</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -8681,12 +8681,12 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-24T11:44:15.078812Z</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-24T11:44:15.367412Z</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
@@ -8695,12 +8695,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>webtek.live</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
@@ -8754,29 +8754,29 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
+          <t>e02587466a80086957e4f19a05760dec</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>_dmarc.youknowwhataimean.com</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -8799,12 +8799,12 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-10-06T11:52:31.670164Z</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-10-06T12:04:32.454791Z</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
@@ -8813,12 +8813,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
+          <t>_dmarc.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -8828,7 +8828,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E142" t="b">
@@ -8858,12 +8858,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -8872,12 +8872,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>*._domainkey.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E143" t="b">
@@ -8917,12 +8917,12 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="N143" t="inlineStr"/>
@@ -8931,29 +8931,29 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>transversalpuntozero.org</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>transversalpuntozero.pages.dev</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -8976,16 +8976,75 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.org</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.pages.dev</t>
+        </is>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O145"/>
+  <dimension ref="A1:O147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3719,12 +3719,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
+          <t>1229fb10c393330dc3c65ae010d33165</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ollama.irrazionale.org</t>
+          <t>ocr.irrazionale.org</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E56" t="b">
@@ -3764,12 +3764,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2025-04-14T16:13:52.683863Z</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2025-04-14T16:13:52.683863Z</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -3778,12 +3778,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4a64c597d17da513e052355df93bbc58</t>
+          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>powerdns.irrazionale.org</t>
+          <t>ollama.irrazionale.org</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E57" t="b">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3837,12 +3837,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4bd65cc8d342c16851d7e90462f78579</t>
+          <t>78c3a51bff323b9cf5c78e4d2c699452</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>proxmox.irrazionale.org</t>
+          <t>pdf2docx.irrazionale.org</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>bc9f57f2-e22f-4154-a26b-a765f0942d61.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E58" t="b">
@@ -3882,12 +3882,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2025-04-14T15:30:12.902487Z</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2025-04-14T15:30:12.902487Z</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -3896,12 +3896,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
+          <t>4a64c597d17da513e052355df93bbc58</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>proxmox-ssh.irrazionale.org</t>
+          <t>powerdns.irrazionale.org</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E59" t="b">
@@ -3941,12 +3941,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -3955,12 +3955,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
+          <t>4bd65cc8d342c16851d7e90462f78579</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.irrazionale.org</t>
+          <t>proxmox.irrazionale.org</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3970,14 +3970,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4000,12 +4000,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -4014,12 +4014,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>04d14cb456a1976f403ee148eca05cc8</t>
+          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.irrazionale.org</t>
+          <t>proxmox-ssh.irrazionale.org</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4029,14 +4029,14 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4059,12 +4059,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
+          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>s3.irrazionale.org</t>
+          <t>rwmt1._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4088,14 +4088,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4118,12 +4118,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -4132,12 +4132,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0ce0da84393eb2e44a959deb2116cce5</t>
+          <t>04d14cb456a1976f403ee148eca05cc8</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>s3ui.irrazionale.org</t>
+          <t>rwmt2._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4147,14 +4147,14 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4177,12 +4177,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -4191,12 +4191,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
+          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>sci-fi.irrazionale.org</t>
+          <t>s3.irrazionale.org</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E64" t="b">
@@ -4236,12 +4236,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -4250,12 +4250,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
+          <t>0ce0da84393eb2e44a959deb2116cce5</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>search.irrazionale.org</t>
+          <t>s3ui.irrazionale.org</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4295,12 +4295,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -4309,12 +4309,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>d136067486f9bfd1260a66e04c217624</t>
+          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>webcheck.irrazionale.org</t>
+          <t>sci-fi.irrazionale.org</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E66" t="b">
@@ -4354,12 +4354,12 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -4368,29 +4368,29 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
+          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>search.irrazionale.org</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>mail.irrazionale.org</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4413,45 +4413,43 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="n">
-        <v>1</v>
-      </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5e61f46e73d33d23b901c830c11d05e5</t>
+          <t>d136067486f9bfd1260a66e04c217624</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>webcheck.irrazionale.org</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4474,23 +4472,21 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="n">
-        <v>73</v>
-      </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4a187b659dadf78253cb30054350314c</t>
+          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4505,7 +4501,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>route2mx.cloudflare.net</t>
+          <t>mail.irrazionale.org</t>
         </is>
       </c>
       <c r="E69" t="b">
@@ -4535,23 +4531,23 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
+          <t>5e61f46e73d33d23b901c830c11d05e5</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4566,7 +4562,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -4596,38 +4592,38 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>bb6fca1069dfef36eac3160ec423215a</t>
+          <t>4a187b659dadf78253cb30054350314c</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>safe.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>dnsafe.irrazionale.org</t>
+          <t>route2mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -4657,36 +4653,38 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="O71" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3a04124b47167ef39224aa1b60a8fe25</t>
+          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>_acme-challenge.mail.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -4696,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4716,36 +4714,38 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+      <c r="O72" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
+          <t>bb6fca1069dfef36eac3160ec423215a</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>safe.irrazionale.org</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
+          <t>dnsafe.irrazionale.org</t>
         </is>
       </c>
       <c r="E73" t="b">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
@@ -4789,12 +4789,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>c931695adebdf9cc13b66924f8d442a2</t>
+          <t>3a04124b47167ef39224aa1b60a8fe25</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>_acme-challenge.mail.irrazionale.org</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
+          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
         </is>
       </c>
       <c r="E74" t="b">
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4834,12 +4834,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -4848,7 +4848,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5674a44427225f44209d188901e7e212</t>
+          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
         </is>
       </c>
       <c r="E75" t="b">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -4907,12 +4907,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>575daba57b52a33ae44441e93e44ad93</t>
+          <t>c931695adebdf9cc13b66924f8d442a2</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
+          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
         </is>
       </c>
       <c r="E76" t="b">
@@ -4952,12 +4952,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
@@ -4966,12 +4966,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>8ae5f18920790fbc1ac6e57676db376b</t>
+          <t>5674a44427225f44209d188901e7e212</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E77" t="b">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -5025,7 +5025,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>5f752add42e06a88468c1b1203a5241c</t>
+          <t>575daba57b52a33ae44441e93e44ad93</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
+          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
         </is>
       </c>
       <c r="E78" t="b">
@@ -5070,12 +5070,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -5084,7 +5084,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
+          <t>8ae5f18920790fbc1ac6e57676db376b</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 -all</t>
+          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E79" t="b">
@@ -5129,12 +5129,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
@@ -5143,12 +5143,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>96bf76d43d32043fc586f04d28efe912</t>
+          <t>5f752add42e06a88468c1b1203a5241c</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>mail._domainkey.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
+          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
         </is>
       </c>
       <c r="E80" t="b">
@@ -5188,12 +5188,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -5202,12 +5202,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6aa7d6d1576b8790519602102e390beb</t>
+          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>s20220715915._domainkey.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
+          <t>v=spf1 ip4:185.182.185.194 -all</t>
         </is>
       </c>
       <c r="E81" t="b">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -5261,12 +5261,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>f07372fefe2aeec92ba78a42ee921960</t>
+          <t>96bf76d43d32043fc586f04d28efe912</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>s20221212161._domainkey.irrazionale.org</t>
+          <t>mail._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
+          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
         </is>
       </c>
       <c r="E82" t="b">
@@ -5306,12 +5306,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
@@ -5320,22 +5320,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>f02f658bd3f849218f8880600ee8f124</t>
+          <t>6aa7d6d1576b8790519602102e390beb</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>proxmox-dc2-mn.italiacdn.net</t>
+          <t>s20220715915._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>100.92.242.58</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
         </is>
       </c>
       <c r="E83" t="b">
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -5365,12 +5365,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
@@ -5379,29 +5379,29 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>25f1985f805e21184de23f5dd6f43ea9</t>
+          <t>f07372fefe2aeec92ba78a42ee921960</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>bin.italiacdn.net</t>
+          <t>s20221212161._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
         </is>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5424,12 +5424,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
@@ -5438,32 +5438,32 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
+          <t>f02f658bd3f849218f8880600ee8f124</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>logs.italiacdn.net</t>
+          <t>proxmox-dc2-mn.italiacdn.net</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
+          <t>100.92.242.58</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5483,12 +5483,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -5497,12 +5497,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>b013512ac14813f9241bfb82d58e6a15</t>
+          <t>25f1985f805e21184de23f5dd6f43ea9</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>private.italiacdn.net</t>
+          <t>bin.italiacdn.net</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
+          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -5542,12 +5542,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
@@ -5556,12 +5556,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>da6f732331d53062b4a64822c4d8053c</t>
+          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>public-bucket.italiacdn.net</t>
+          <t>logs.italiacdn.net</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
+          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E87" t="b">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -5615,12 +5615,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>68ff9d51859905c9e8f951acf9650166</t>
+          <t>b013512ac14813f9241bfb82d58e6a15</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>vault.italiacdn.net</t>
+          <t>private.italiacdn.net</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
+          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E88" t="b">
@@ -5660,12 +5660,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
@@ -5674,12 +5674,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
+          <t>da6f732331d53062b4a64822c4d8053c</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>vpn.italiacdn.net</t>
+          <t>public-bucket.italiacdn.net</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
+          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E89" t="b">
@@ -5719,12 +5719,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
@@ -5733,32 +5733,32 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>14efda500a1c1e9c12dffecc2640246d</t>
+          <t>68ff9d51859905c9e8f951acf9650166</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
+          <t>vault.italiacdn.net</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>27b4d1e9dabc5765ebb48532ae2443</t>
+          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5778,12 +5778,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
@@ -5792,12 +5792,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>a49ade48a5be45f002d5417140f370a0</t>
+          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>adinsp9sqvzxue8n.italiadns.com</t>
+          <t>vpn.italiacdn.net</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5807,17 +5807,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5837,12 +5837,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2024-07-31T13:37:34.938024Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2024-07-31T13:38:29.779921Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -5851,32 +5851,32 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>57267997534d7cf452997a9c191591ee</t>
+          <t>14efda500a1c1e9c12dffecc2640246d</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>mt-link.italiadns.com</t>
+          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>27b4d1e9dabc5765ebb48532ae2443</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5896,12 +5896,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
@@ -5910,12 +5910,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3a7c851242dbc15ea213945d901512b9</t>
+          <t>a49ade48a5be45f002d5417140f370a0</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.italiadns.com</t>
+          <t>adinsp9sqvzxue8n.italiadns.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E93" t="b">
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -5955,12 +5955,12 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:37:34.938024Z</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:38:29.779921Z</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
@@ -5969,12 +5969,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>f06b6c37872df6a52852ee0d128d45ee</t>
+          <t>57267997534d7cf452997a9c191591ee</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.italiadns.com</t>
+          <t>mt-link.italiadns.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E94" t="b">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
@@ -6028,12 +6028,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>41fd60824243d4f2538de3c3c29b7736</t>
+          <t>3a7c851242dbc15ea213945d901512b9</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>w1y139ns251ah6gc.italiadns.com</t>
+          <t>rwmt1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E95" t="b">
@@ -6073,12 +6073,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
@@ -6087,26 +6087,26 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>a38c7cb5dce002e6fa5326111beba54f</t>
+          <t>f06b6c37872df6a52852ee0d128d45ee</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>rwmt2._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -6132,42 +6132,40 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="n">
-        <v>61</v>
-      </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
+          <t>41fd60824243d4f2538de3c3c29b7736</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>w1y139ns251ah6gc.italiadns.com</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
@@ -6182,7 +6180,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -6193,23 +6191,21 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
-      <c r="O97" t="n">
-        <v>14</v>
-      </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>6c5bf0b471503f7060c852986b55b0e0</t>
+          <t>a38c7cb5dce002e6fa5326111beba54f</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6224,7 +6220,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E98" t="b">
@@ -6254,38 +6250,38 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>e6da0cedff625c31979aecd06ce463d4</t>
+          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E99" t="b">
@@ -6315,36 +6311,38 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
+      <c r="O99" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
+          <t>6c5bf0b471503f7060c852986b55b0e0</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>_dmarc.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E100" t="b">
@@ -6363,7 +6361,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -6374,26 +6372,28 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
+      <c r="O100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>129ae399ff1f816f521c481aa58251a7</t>
+          <t>e6da0cedff625c31979aecd06ce463d4</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>cf2024-1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E101" t="b">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -6433,12 +6433,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:30.706502Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2024-08-19T08:39:22.495623Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
@@ -6447,22 +6447,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
+          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>_dmarc.italiadns.com</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ns-1683.awsdns-18.co.uk</t>
+          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -6492,12 +6492,12 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -6506,22 +6506,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>4131e3d65c1df20458045bfa612298e9</t>
+          <t>129ae399ff1f816f521c481aa58251a7</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ns-1303.awsdns-34.org</t>
+          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -6551,12 +6551,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2024-07-31T12:41:30.706502Z</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2024-08-19T08:39:22.495623Z</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
@@ -6565,22 +6565,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>03da4898b7afbb1408bfdd51f42e5936</t>
+          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
+          <t>ns-1683.awsdns-18.co.uk</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -6610,12 +6610,12 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
@@ -6624,22 +6624,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>fd06957f7e745e10c388665bb8be096a</t>
+          <t>4131e3d65c1df20458045bfa612298e9</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
+          <t>ns-1303.awsdns-34.org</t>
         </is>
       </c>
       <c r="E105" t="b">
@@ -6669,12 +6669,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -6683,7 +6683,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
+          <t>03da4898b7afbb1408bfdd51f42e5936</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>v=spf1 a mx ~all</t>
+          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
         </is>
       </c>
       <c r="E106" t="b">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -6742,29 +6742,29 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ae3d4333d59bdaf8bd1422fa455dce2e</t>
+          <t>fd06957f7e745e10c388665bb8be096a</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>arena.repolizer.com</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
+          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6787,12 +6787,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2025-04-09T08:36:52.625051Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2025-04-09T08:36:52.625051Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -6801,29 +6801,29 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>b738ae8c910e28345612400cb8a6e23e</t>
+          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ssh.repolizer.com</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
+          <t>v=spf1 a mx ~all</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6846,12 +6846,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6860,12 +6860,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>f243341ae6695c4a95ea6e21d06ef471</t>
+          <t>ae3d4333d59bdaf8bd1422fa455dce2e</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>stats.repolizer.com</t>
+          <t>arena.repolizer.com</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -6905,12 +6905,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2025-04-09T08:36:33.043311Z</t>
+          <t>2025-04-09T08:36:52.625051Z</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2025-04-09T08:36:33.043311Z</t>
+          <t>2025-04-09T08:36:52.625051Z</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6919,29 +6919,29 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>c7df12561d64e4e680c6b0859c123f99</t>
+          <t>b738ae8c910e28345612400cb8a6e23e</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>imap.rivoluzioneinformatica.org</t>
+          <t>ssh.repolizer.com</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6964,12 +6964,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
@@ -6978,29 +6978,29 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>e95c85414a6c93e847a2755df7c16cf0</t>
+          <t>f243341ae6695c4a95ea6e21d06ef471</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>mail.rivoluzioneinformatica.org</t>
+          <t>stats.repolizer.com</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7023,12 +7023,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2025-04-09T08:36:33.043311Z</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2025-04-09T08:36:33.043311Z</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
@@ -7037,12 +7037,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>6834f98896056a837138409566211327</t>
+          <t>c7df12561d64e4e680c6b0859c123f99</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>smtp.rivoluzioneinformatica.org</t>
+          <t>imap.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -7096,12 +7096,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
+          <t>e95c85414a6c93e847a2755df7c16cf0</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>webmail.rivoluzioneinformatica.org</t>
+          <t>mail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7118,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -7141,12 +7141,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -7155,29 +7155,29 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
+          <t>6834f98896056a837138409566211327</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>git.rivoluzioneinformatica.org</t>
+          <t>smtp.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7200,12 +7200,12 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -7214,22 +7214,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>eb220c9fb1df30719c788ef51fe312f6</t>
+          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>npm.rivoluzioneinformatica.org</t>
+          <t>webmail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E115" t="b">
@@ -7259,12 +7259,12 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
@@ -7273,12 +7273,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
+          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>proxmox.rivoluzioneinformatica.org</t>
+          <t>git.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
+          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E116" t="b">
@@ -7318,12 +7318,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
@@ -7332,12 +7332,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>236f1b867d3720d5dd29c6af49782d62</t>
+          <t>eb220c9fb1df30719c788ef51fe312f6</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>npm.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E117" t="b">
@@ -7377,12 +7377,12 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -7391,12 +7391,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>7c6da25c8e1e486da458cd5373402382</t>
+          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>vpn.rivoluzioneinformatica.org</t>
+          <t>proxmox.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E118" t="b">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
@@ -7450,22 +7450,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3045396196bc00b6e05726f94825c6bd</t>
+          <t>236f1b867d3720d5dd29c6af49782d62</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>rivoluzioneinformatica.org</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>www.rivoluzioneinformatica.org</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>CNAME</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -7495,12 +7495,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2022-08-17T08:57:50.756388Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2022-08-17T08:59:41.92016Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
@@ -7509,12 +7509,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>25f714bcbfe5ff8215c314a503379edc</t>
+          <t>7c6da25c8e1e486da458cd5373402382</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>xmq.rivoluzioneinformatica.org</t>
+          <t>vpn.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -7554,12 +7554,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
@@ -7568,29 +7568,29 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
+          <t>3045396196bc00b6e05726f94825c6bd</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>amir.mx.cloudflare.net</t>
+          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -7602,7 +7602,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -7613,45 +7613,43 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2022-08-17T08:57:50.756388Z</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2022-08-17T08:59:41.92016Z</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
-      <c r="O121" t="n">
-        <v>40</v>
-      </c>
+      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
+          <t>25f714bcbfe5ff8215c314a503379edc</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>xmq.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>linda.mx.cloudflare.net</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7663,7 +7661,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -7674,23 +7672,21 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
-      <c r="O122" t="n">
-        <v>90</v>
-      </c>
+      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>bcd73d5a0e03a2593be162cd5259a678</t>
+          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -7705,7 +7701,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>isaac.mx.cloudflare.net</t>
+          <t>amir.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -7735,38 +7731,38 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="n">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>e6ffaf786ff743b47650f73557b07b66</t>
+          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>linda.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -7796,36 +7792,38 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
+      <c r="O124" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
+          <t>bcd73d5a0e03a2593be162cd5259a678</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>_dmarc.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>isaac.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -7844,7 +7842,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -7855,26 +7853,28 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2022-02-07T15:43:39.763425Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2022-05-22T11:09:18.092063Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
+      <c r="O125" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2a74f92cf716979d913217d640655261</t>
+          <t>e6ffaf786ff743b47650f73557b07b66</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -7914,12 +7914,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
@@ -7928,12 +7928,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
+          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>_dmarc.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E127" t="b">
@@ -7973,12 +7973,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2022-02-07T15:43:39.763425Z</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2022-05-22T11:09:18.092063Z</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -7987,7 +7987,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>47bb0eec812c7e5f3961cb9079727d80</t>
+          <t>2a74f92cf716979d913217d640655261</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
+          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
         </is>
       </c>
       <c r="E128" t="b">
@@ -8032,12 +8032,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
@@ -8046,12 +8046,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>9abd161d29cb47ce6cfa783657e67723</t>
+          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E129" t="b">
@@ -8091,12 +8091,12 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2022-05-13T21:13:25.301942Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2022-05-22T10:18:49.411362Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
@@ -8105,12 +8105,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
+          <t>47bb0eec812c7e5f3961cb9079727d80</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
+          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
         </is>
       </c>
       <c r="E130" t="b">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
@@ -8164,29 +8164,29 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>904b0a528a01b0dd8370295ce305d3da</t>
+          <t>9abd161d29cb47ce6cfa783657e67723</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>demo.uglyfeed.com</t>
+          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -8209,12 +8209,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-05-13T21:13:25.301942Z</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-05-22T10:18:49.411362Z</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8223,29 +8223,29 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1b7333a979fa92816324f0e9be6a564a</t>
+          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>xml.uglyfeed.com</t>
+          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -8268,12 +8268,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8282,29 +8282,29 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>904b0a528a01b0dd8370295ce305d3da</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>demo.uglyfeed.com</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -8316,7 +8316,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -8327,12 +8327,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8341,29 +8341,29 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>1b7333a979fa92816324f0e9be6a564a</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>xml.uglyfeed.com</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -8386,12 +8386,12 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
@@ -8400,12 +8400,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E135" t="b">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -8445,12 +8445,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
@@ -8459,12 +8459,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E136" t="b">
@@ -8504,12 +8504,12 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
@@ -8518,29 +8518,29 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -8563,12 +8563,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -8577,29 +8577,29 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>videodioggi.com</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -8622,12 +8622,12 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
@@ -8636,12 +8636,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -8681,12 +8681,12 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2023-03-30T09:59:11.98058Z</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2023-03-30T09:59:12.228482Z</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
@@ -8695,12 +8695,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>test2.webtek.live</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-28T08:34:29.902515Z</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-28T08:34:30.164318Z</t>
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
@@ -8754,12 +8754,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>432df2553b443742f9f905e155878536</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>test.webtek.live</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -8799,12 +8799,12 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2023-03-24T11:44:15.078812Z</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2023-03-24T11:44:15.367412Z</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
@@ -8813,29 +8813,29 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>_dmarc.youknowwhataimean.com</t>
+          <t>webtek.live</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8858,12 +8858,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -8872,29 +8872,29 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+          <t>e02587466a80086957e4f19a05760dec</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -8917,12 +8917,12 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-06T11:52:31.670164Z</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-06T12:04:32.454791Z</t>
         </is>
       </c>
       <c r="N143" t="inlineStr"/>
@@ -8931,12 +8931,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>_dmarc.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E144" t="b">
@@ -8976,12 +8976,12 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="N144" t="inlineStr"/>
@@ -8990,29 +8990,29 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>transversalpuntozero.org</t>
+          <t>*._domainkey.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>transversalpuntozero.pages.dev</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -9035,16 +9035,134 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>youknowwhataimean.com</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>v=spf1 -all</t>
+        </is>
+      </c>
+      <c r="E146" t="b">
+        <v>0</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.931067Z</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.931067Z</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.org</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.pages.dev</t>
+        </is>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O147"/>
+  <dimension ref="A1:O146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6860,12 +6860,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ae3d4333d59bdaf8bd1422fa455dce2e</t>
+          <t>b738ae8c910e28345612400cb8a6e23e</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>arena.repolizer.com</t>
+          <t>ssh.repolizer.com</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -6905,12 +6905,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2025-04-09T08:36:52.625051Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2025-04-09T08:36:52.625051Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6919,12 +6919,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>b738ae8c910e28345612400cb8a6e23e</t>
+          <t>bfd43018c9b1cd41cc29efc4c62c6d8c</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ssh.repolizer.com</t>
+          <t>www.repolizer.com</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -6964,12 +6964,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2025-04-23T08:30:24.446765Z</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2025-04-23T08:34:01.380912Z</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
@@ -6978,29 +6978,29 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>f243341ae6695c4a95ea6e21d06ef471</t>
+          <t>c7df12561d64e4e680c6b0859c123f99</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>stats.repolizer.com</t>
+          <t>imap.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7023,12 +7023,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2025-04-09T08:36:33.043311Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2025-04-09T08:36:33.043311Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
@@ -7037,12 +7037,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>c7df12561d64e4e680c6b0859c123f99</t>
+          <t>e95c85414a6c93e847a2755df7c16cf0</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>imap.rivoluzioneinformatica.org</t>
+          <t>mail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -7096,12 +7096,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>e95c85414a6c93e847a2755df7c16cf0</t>
+          <t>6834f98896056a837138409566211327</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>mail.rivoluzioneinformatica.org</t>
+          <t>smtp.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7141,12 +7141,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -7155,12 +7155,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>6834f98896056a837138409566211327</t>
+          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>smtp.rivoluzioneinformatica.org</t>
+          <t>webmail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7177,7 +7177,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7200,12 +7200,12 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -7214,22 +7214,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
+          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>webmail.rivoluzioneinformatica.org</t>
+          <t>git.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E115" t="b">
@@ -7259,12 +7259,12 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
@@ -7273,12 +7273,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
+          <t>eb220c9fb1df30719c788ef51fe312f6</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>git.rivoluzioneinformatica.org</t>
+          <t>npm.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
+          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E116" t="b">
@@ -7318,12 +7318,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
@@ -7332,12 +7332,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>eb220c9fb1df30719c788ef51fe312f6</t>
+          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>npm.rivoluzioneinformatica.org</t>
+          <t>proxmox.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
+          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E117" t="b">
@@ -7377,12 +7377,12 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -7391,12 +7391,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
+          <t>236f1b867d3720d5dd29c6af49782d62</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>proxmox.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E118" t="b">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
@@ -7450,12 +7450,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>236f1b867d3720d5dd29c6af49782d62</t>
+          <t>7c6da25c8e1e486da458cd5373402382</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>vpn.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -7495,12 +7495,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
@@ -7509,12 +7509,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>7c6da25c8e1e486da458cd5373402382</t>
+          <t>3045396196bc00b6e05726f94825c6bd</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>vpn.rivoluzioneinformatica.org</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -7554,12 +7554,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2022-08-17T08:57:50.756388Z</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2022-08-17T08:59:41.92016Z</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
@@ -7568,12 +7568,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>3045396196bc00b6e05726f94825c6bd</t>
+          <t>25f714bcbfe5ff8215c314a503379edc</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>xmq.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>fabriziosalmi.github.io</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E121" t="b">
@@ -7613,12 +7613,12 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2022-08-17T08:57:50.756388Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2022-08-17T08:59:41.92016Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
@@ -7627,29 +7627,29 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>25f714bcbfe5ff8215c314a503379edc</t>
+          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>xmq.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>amir.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -7672,21 +7672,23 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
+      <c r="O122" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
+          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -7701,7 +7703,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>amir.mx.cloudflare.net</t>
+          <t>linda.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -7731,23 +7733,23 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
+          <t>bcd73d5a0e03a2593be162cd5259a678</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -7762,7 +7764,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>linda.mx.cloudflare.net</t>
+          <t>isaac.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -7792,38 +7794,38 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>bcd73d5a0e03a2593be162cd5259a678</t>
+          <t>e6ffaf786ff743b47650f73557b07b66</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>isaac.mx.cloudflare.net</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -7853,28 +7855,26 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
-      <c r="O125" t="n">
-        <v>97</v>
-      </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>e6ffaf786ff743b47650f73557b07b66</t>
+          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
+          <t>_dmarc.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -7914,12 +7914,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2022-02-07T15:43:39.763425Z</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2022-05-22T11:09:18.092063Z</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
@@ -7928,12 +7928,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
+          <t>2a74f92cf716979d913217d640655261</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>_dmarc.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
         </is>
       </c>
       <c r="E127" t="b">
@@ -7973,12 +7973,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2022-02-07T15:43:39.763425Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2022-05-22T11:09:18.092063Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -7987,7 +7987,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2a74f92cf716979d913217d640655261</t>
+          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E128" t="b">
@@ -8032,12 +8032,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
+          <t>47bb0eec812c7e5f3961cb9079727d80</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
         </is>
       </c>
       <c r="E129" t="b">
@@ -8091,12 +8091,12 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
@@ -8105,12 +8105,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>47bb0eec812c7e5f3961cb9079727d80</t>
+          <t>9abd161d29cb47ce6cfa783657e67723</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
         </is>
       </c>
       <c r="E130" t="b">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2022-05-13T21:13:25.301942Z</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2022-05-22T10:18:49.411362Z</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
@@ -8164,12 +8164,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>9abd161d29cb47ce6cfa783657e67723</t>
+          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
+          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
         </is>
       </c>
       <c r="E131" t="b">
@@ -8209,12 +8209,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2022-05-13T21:13:25.301942Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2022-05-22T10:18:49.411362Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8223,29 +8223,29 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
+          <t>904b0a528a01b0dd8370295ce305d3da</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
+          <t>demo.uglyfeed.com</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -8268,12 +8268,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8282,12 +8282,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>904b0a528a01b0dd8370295ce305d3da</t>
+          <t>1b7333a979fa92816324f0e9be6a564a</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>demo.uglyfeed.com</t>
+          <t>xml.uglyfeed.com</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -8327,12 +8327,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8341,29 +8341,29 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1b7333a979fa92816324f0e9be6a564a</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>xml.uglyfeed.com</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -8386,12 +8386,12 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
@@ -8400,12 +8400,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E135" t="b">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -8445,12 +8445,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
@@ -8459,12 +8459,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E136" t="b">
@@ -8504,12 +8504,12 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
@@ -8518,12 +8518,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>videodioggi.com</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E137" t="b">
@@ -8563,12 +8563,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -8577,29 +8577,29 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -8622,12 +8622,12 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2023-03-30T09:59:11.98058Z</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2023-03-30T09:59:12.228482Z</t>
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
@@ -8636,12 +8636,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>test2.webtek.live</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -8681,12 +8681,12 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2023-03-28T08:34:29.902515Z</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2023-03-28T08:34:30.164318Z</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
@@ -8695,12 +8695,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>432df2553b443742f9f905e155878536</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>test.webtek.live</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2023-03-24T11:44:15.078812Z</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2023-03-24T11:44:15.367412Z</t>
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
@@ -8754,12 +8754,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>webtek.live</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -8799,12 +8799,12 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
@@ -8813,12 +8813,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>e02587466a80086957e4f19a05760dec</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -8858,12 +8858,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-10-06T11:52:31.670164Z</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-10-06T12:04:32.454791Z</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -8872,29 +8872,29 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>_dmarc.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -8917,12 +8917,12 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="N143" t="inlineStr"/>
@@ -8931,12 +8931,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>_dmarc.youknowwhataimean.com</t>
+          <t>*._domainkey.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E144" t="b">
@@ -8976,12 +8976,12 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="N144" t="inlineStr"/>
@@ -8990,12 +8990,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E145" t="b">
@@ -9035,12 +9035,12 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="N145" t="inlineStr"/>
@@ -9049,29 +9049,29 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>transversalpuntozero.org</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>transversalpuntozero.pages.dev</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -9094,75 +9094,16 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2024-11-03T08:47:11.475444Z</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2024-11-03T08:47:11.475444Z</t>
         </is>
       </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>transversalpuntozero.org</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>CNAME</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>transversalpuntozero.pages.dev</t>
-        </is>
-      </c>
-      <c r="E147" t="b">
-        <v>1</v>
-      </c>
-      <c r="F147" t="b">
-        <v>1</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -528,14 +528,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>185.190.210.1</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-04-05T11:26:15.517306Z</t>
+          <t>2025-05-13T06:10:50.128085Z</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O146"/>
+  <dimension ref="A1:O147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,12 +997,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3c7558d6d766ea8ee23519dc6b3c6fcb</t>
+          <t>6473c95616aa9ef1dcb17dacef169db4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>get.domainsblacklists.com</t>
+          <t>challenged.cfguru.org</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.186.251.28</t>
+          <t>185.199.110.153</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-07-29T12:48:06.891684Z</t>
+          <t>2025-05-23T07:08:03.816887Z</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-07-29T12:48:06.891684Z</t>
+          <t>2025-05-23T07:23:56.302349Z</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1056,12 +1056,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>90854dd1388fe82242ce0109dfec5c88</t>
+          <t>3c7558d6d766ea8ee23519dc6b3c6fcb</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>review.domainsblacklists.com</t>
+          <t>get.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-30T11:38:30.653586Z</t>
+          <t>2023-07-29T12:48:06.891684Z</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-08-30T11:38:30.653586Z</t>
+          <t>2023-07-29T12:48:06.891684Z</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1115,12 +1115,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>c292f89526841ffe14bf72950e566b00</t>
+          <t>90854dd1388fe82242ce0109dfec5c88</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>www.domainsblacklists.com</t>
+          <t>review.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>93.186.251.28</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2024-01-07T12:46:47.09149Z</t>
+          <t>2023-08-30T11:38:30.653586Z</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2024-01-07T12:47:11.363311Z</t>
+          <t>2023-08-30T11:38:30.653586Z</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1174,22 +1174,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>c357c5667fdc1f5189ff62d9127c5b66</t>
+          <t>c292f89526841ffe14bf72950e566b00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>adguard.domainsblacklists.com</t>
+          <t>www.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-11T14:30:49.889256Z</t>
+          <t>2024-01-07T12:46:47.09149Z</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-08-11T14:30:49.889256Z</t>
+          <t>2024-01-07T12:47:11.363311Z</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1233,12 +1233,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8b834fd2fd544e045645fac878b84f55</t>
+          <t>c357c5667fdc1f5189ff62d9127c5b66</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>api-ipres.domainsblacklists.com</t>
+          <t>adguard.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8743e1c1-51d3-4bf8-ba49-c84defa95d06.cfargotunnel.com</t>
+          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-08-18T17:52:42.610086Z</t>
+          <t>2023-08-11T14:30:49.889256Z</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-08-18T17:52:42.610086Z</t>
+          <t>2023-08-11T14:30:49.889256Z</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1292,12 +1292,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dfe1bcabcf091b40abb6b049a8192442</t>
+          <t>8b834fd2fd544e045645fac878b84f55</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>changedetection.domainsblacklists.com</t>
+          <t>api-ipres.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3eec4402-ad54-45de-bf9b-926b6e88a159.cfargotunnel.com</t>
+          <t>8743e1c1-51d3-4bf8-ba49-c84defa95d06.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-09-13T18:26:54.071Z</t>
+          <t>2023-08-18T17:52:42.610086Z</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-09-13T18:26:54.071Z</t>
+          <t>2023-08-18T17:52:42.610086Z</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1351,12 +1351,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>c776f79530a239242078e5a3cb5d11d2</t>
+          <t>dfe1bcabcf091b40abb6b049a8192442</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>req.domainsblacklists.com</t>
+          <t>changedetection.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
+          <t>3eec4402-ad54-45de-bf9b-926b6e88a159.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-09-10T12:21:43.338698Z</t>
+          <t>2023-09-13T18:26:54.071Z</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-09-10T12:21:43.338698Z</t>
+          <t>2023-09-13T18:26:54.071Z</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -1410,29 +1410,29 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2f418611b09ffd2e435cea99583e9480</t>
+          <t>c776f79530a239242078e5a3cb5d11d2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>domainsblacklists.com</t>
+          <t>req.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1455,23 +1455,21 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.397174Z</t>
+          <t>2023-09-10T12:21:43.338698Z</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.397174Z</t>
+          <t>2023-09-10T12:21:43.338698Z</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>39</v>
-      </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>a5a312e4dbaaaec1eabfe1b9a5c17055</t>
+          <t>2f418611b09ffd2e435cea99583e9480</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1486,7 +1484,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -1516,23 +1514,23 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.389737Z</t>
+          <t>2023-07-29T12:50:26.397174Z</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.389737Z</t>
+          <t>2023-07-29T12:50:26.397174Z</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>93</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>376df1b8131105ac8a7209306e22b59c</t>
+          <t>a5a312e4dbaaaec1eabfe1b9a5c17055</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1547,7 +1545,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E19" t="b">
@@ -1577,12 +1575,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.382045Z</t>
+          <t>2023-07-29T12:50:26.389737Z</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.382045Z</t>
+          <t>2023-07-29T12:50:26.389737Z</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -1593,22 +1591,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>92388a78ff6bc640e36a75e31b30977a</t>
+          <t>376df1b8131105ac8a7209306e22b59c</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.domainsblacklists.com</t>
+          <t>domainsblacklists.com</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -1638,26 +1636,28 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2025-02-01T22:59:01.091354Z</t>
+          <t>2023-07-29T12:50:26.382045Z</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2025-02-01T22:59:01.091354Z</t>
+          <t>2023-07-29T12:50:26.382045Z</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>b1f7c2007e82e1af53a8ec6061b331f8</t>
+          <t>92388a78ff6bc640e36a75e31b30977a</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>_dmarc.domainsblacklists.com</t>
+          <t>cf2024-1._domainkey.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:9c70ea076036494c93d766dfefd2def1@dmarc-reports.cloudflare.net</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1697,12 +1697,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:10.919349Z</t>
+          <t>2025-02-01T22:59:01.091354Z</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:10.919349Z</t>
+          <t>2025-02-01T22:59:01.091354Z</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -1711,12 +1711,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>519f3626ce2ea9a6dad71afe898ce796</t>
+          <t>b1f7c2007e82e1af53a8ec6061b331f8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>domainsblacklists.com</t>
+          <t>_dmarc.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>v=DMARC1;  p=none; rua=mailto:9c70ea076036494c93d766dfefd2def1@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E22" t="b">
@@ -1756,12 +1756,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.404775Z</t>
+          <t>2023-07-29T12:50:10.919349Z</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.404775Z</t>
+          <t>2023-07-29T12:50:10.919349Z</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -1770,26 +1770,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4dd327c64e78f584c16dc531a13ec1ec</t>
+          <t>519f3626ce2ea9a6dad71afe898ce796</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>proxmox-test-1.freesubnet.com</t>
+          <t>domainsblacklists.com</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>37.183.16.191</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1815,12 +1815,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-07-28T19:51:23.923255Z</t>
+          <t>2023-07-29T12:50:26.404775Z</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-07-28T19:51:23.923255Z</t>
+          <t>2023-07-29T12:50:26.404775Z</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -1829,12 +1829,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ec12d53bf42e7bc2c950d7f4d4eb60e4</t>
+          <t>4dd327c64e78f584c16dc531a13ec1ec</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>rp.freesubnet.com</t>
+          <t>proxmox-test-1.freesubnet.com</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>18.102.76.90</t>
+          <t>37.183.16.191</t>
         </is>
       </c>
       <c r="E24" t="b">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2023-05-03T13:52:38.28258Z</t>
+          <t>2024-07-28T19:51:23.923255Z</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-05-03T16:25:08.617872Z</t>
+          <t>2024-07-28T19:51:23.923255Z</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9bdd5da061a0b3543fb74847be092a31</t>
+          <t>ec12d53bf42e7bc2c950d7f4d4eb60e4</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>test.freesubnet.com</t>
+          <t>rp.freesubnet.com</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>37.183.16.191</t>
+          <t>18.102.76.90</t>
         </is>
       </c>
       <c r="E25" t="b">
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2024-07-24T12:42:57.795531Z</t>
+          <t>2023-05-03T13:52:38.28258Z</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2024-07-28T13:17:47.159096Z</t>
+          <t>2023-05-03T16:25:08.617872Z</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -1947,22 +1947,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>13b2a5129e5f7772daa7f0f70e349a26</t>
+          <t>9bdd5da061a0b3543fb74847be092a31</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>waf.freesubnet.com</t>
+          <t>test.freesubnet.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>rp.freesubnet.com</t>
+          <t>37.183.16.191</t>
         </is>
       </c>
       <c r="E26" t="b">
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1992,12 +1992,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2023-05-03T13:53:22.545371Z</t>
+          <t>2024-07-24T12:42:57.795531Z</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-05-03T16:25:02.924302Z</t>
+          <t>2024-07-28T13:17:47.159096Z</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -2006,29 +2006,29 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>77c251b8488617268d91ee1ebd51ede5</t>
+          <t>13b2a5129e5f7772daa7f0f70e349a26</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>waf.freesubnet.com</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>207.180.193.100</t>
+          <t>rp.freesubnet.com</t>
         </is>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2051,12 +2051,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2021-07-23T08:58:49.378112Z</t>
+          <t>2023-05-03T13:53:22.545371Z</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2021-07-23T12:56:39.987386Z</t>
+          <t>2023-05-03T16:25:02.924302Z</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -2065,12 +2065,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>dd673c4571ae6ec6ea4517da4047fa5f</t>
+          <t>77c251b8488617268d91ee1ebd51ede5</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>listen.free-tekno.com</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>207.180.193.100</t>
         </is>
       </c>
       <c r="E28" t="b">
@@ -2110,12 +2110,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2022-02-07T20:32:13.606665Z</t>
+          <t>2021-07-23T08:58:49.378112Z</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2022-02-07T20:32:43.921656Z</t>
+          <t>2021-07-23T12:56:39.987386Z</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -2124,12 +2124,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>de47139d99158674daebfa2bcc46381b</t>
+          <t>dd673c4571ae6ec6ea4517da4047fa5f</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>radio.free-tekno.com</t>
+          <t>listen.free-tekno.com</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>161.97.120.130</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E29" t="b">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2021-06-27T11:17:21.364442Z</t>
+          <t>2022-02-07T20:32:13.606665Z</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2022-02-16T15:58:36.261027Z</t>
+          <t>2022-02-07T20:32:43.921656Z</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2183,12 +2183,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5acccdfb3c59cd49cacd28e83e48d221</t>
+          <t>de47139d99158674daebfa2bcc46381b</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>www.free-tekno.com</t>
+          <t>radio.free-tekno.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2228,12 +2228,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2022-02-07T16:41:14.791288Z</t>
+          <t>2021-06-27T11:17:21.364442Z</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2022-02-07T16:41:14.791288Z</t>
+          <t>2022-02-16T15:58:36.261027Z</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -2242,22 +2242,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ac7c113f029bd912a9b6fe78dffe02a5</t>
+          <t>5acccdfb3c59cd49cacd28e83e48d221</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>mp3.free-tekno.com</t>
+          <t>www.free-tekno.com</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>freetekno.free.nf</t>
+          <t>161.97.120.130</t>
         </is>
       </c>
       <c r="E31" t="b">
@@ -2287,12 +2287,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2023-07-04T19:53:02.363162Z</t>
+          <t>2022-02-07T16:41:14.791288Z</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-07-04T19:53:02.363162Z</t>
+          <t>2022-02-07T16:41:14.791288Z</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -2301,29 +2301,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9450bd2c3778824d44882bf3a36c136a</t>
+          <t>ac7c113f029bd912a9b6fe78dffe02a5</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>mp3.free-tekno.com</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>poste.rivoluzioneinformatica.org</t>
+          <t>freetekno.free.nf</t>
         </is>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2346,38 +2346,36 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2022-02-16T15:14:24.531147Z</t>
+          <t>2023-07-04T19:53:02.363162Z</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2022-02-16T15:14:24.531147Z</t>
+          <t>2023-07-04T19:53:02.363162Z</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="n">
-        <v>10</v>
-      </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ec58d36579ccf292f4a659648d6a9c19</t>
+          <t>9450bd2c3778824d44882bf3a36c136a</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>_dmarc.free-tekno.com</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; rua=mailto:cloud@free-tekno.com;</t>
+          <t>poste.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E33" t="b">
@@ -2407,26 +2405,28 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2022-02-16T15:36:47.274766Z</t>
+          <t>2022-02-16T15:14:24.531147Z</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2022-02-16T15:36:47.274766Z</t>
+          <t>2022-02-16T15:14:24.531147Z</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>f82cb05f0c7bd0ee554dc7a7e68481c2</t>
+          <t>ec58d36579ccf292f4a659648d6a9c19</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>_dmarc.free-tekno.com</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>v=spf1 mx ip4:161.97.120.130/32 a:mail.rivoluzioneinformatica.org a:poste.rivoluzioneinformatica.org -all</t>
+          <t>v=DMARC1; p=reject; rua=mailto:cloud@free-tekno.com;</t>
         </is>
       </c>
       <c r="E34" t="b">
@@ -2466,12 +2466,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2022-02-16T12:57:13.550913Z</t>
+          <t>2022-02-16T15:36:47.274766Z</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2022-02-16T15:47:18.346287Z</t>
+          <t>2022-02-16T15:36:47.274766Z</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -2480,7 +2480,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>15a4efde5824a7f870270570f044bf6a</t>
+          <t>f82cb05f0c7bd0ee554dc7a7e68481c2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>google-site-verification=u1RtWKENUcJYrh_iqqGrIQMTts0ipS2LpFZjtt7T-Nk</t>
+          <t>v=spf1 mx ip4:161.97.120.130/32 a:mail.rivoluzioneinformatica.org a:poste.rivoluzioneinformatica.org -all</t>
         </is>
       </c>
       <c r="E35" t="b">
@@ -2525,12 +2525,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2021-07-25T02:01:05.324193Z</t>
+          <t>2022-02-16T12:57:13.550913Z</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2021-07-25T02:01:05.324193Z</t>
+          <t>2022-02-16T15:47:18.346287Z</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -2539,12 +2539,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6f78e130390aca374862016649566194</t>
+          <t>15a4efde5824a7f870270570f044bf6a</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>s20220216247._domainkey.free-tekno.com</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA25fjdBEzCOeoRC5460U3HHjYEIjqtI4wkAVXidP5ynP9anEQ5i2+bW/lKh+xa5WKGjPofy/qxsnjuLE40ZnivPy7wfOwU3uOFf4CD5cen08xi/76vrqj3r1F29j8v+jJqB9+Z5RCOxCuu0Zx99okko+BaBej+O9W4Eh70d4PAb1TwrwNoBD47GnSLG3xu2b1NuXyWbuAEoQQ43/1+M689TJt7azAmG3yqft4J/7Oo0B7Wyk5V8Al2bpt6GYEoSV48HPrUC+MudIxgxVtR3O5oIVq9tHm7+jg5EY0GZpyk6yVJFlAXFJzt0OIKe4KvCngW0vHQSISmy0tgmZ8j38+uQIDAQAB</t>
+          <t>google-site-verification=u1RtWKENUcJYrh_iqqGrIQMTts0ipS2LpFZjtt7T-Nk</t>
         </is>
       </c>
       <c r="E36" t="b">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-02-16T12:55:09.214302Z</t>
+          <t>2021-07-25T02:01:05.324193Z</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2022-02-16T12:55:09.214302Z</t>
+          <t>2021-07-25T02:01:05.324193Z</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
@@ -2598,29 +2598,29 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>54e5f74cd09ee8a8c9729c9cdb0397b6</t>
+          <t>6f78e130390aca374862016649566194</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>freesounds-selfhosted.freeundergroundtekno.org</t>
+          <t>s20220216247._domainkey.free-tekno.com</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>54a3646c-9701-4a8b-b6b0-e8b9f08e297f.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA25fjdBEzCOeoRC5460U3HHjYEIjqtI4wkAVXidP5ynP9anEQ5i2+bW/lKh+xa5WKGjPofy/qxsnjuLE40ZnivPy7wfOwU3uOFf4CD5cen08xi/76vrqj3r1F29j8v+jJqB9+Z5RCOxCuu0Zx99okko+BaBej+O9W4Eh70d4PAb1TwrwNoBD47GnSLG3xu2b1NuXyWbuAEoQQ43/1+M689TJt7azAmG3yqft4J/7Oo0B7Wyk5V8Al2bpt6GYEoSV48HPrUC+MudIxgxVtR3O5oIVq9tHm7+jg5EY0GZpyk6yVJFlAXFJzt0OIKe4KvCngW0vHQSISmy0tgmZ8j38+uQIDAQAB</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2643,12 +2643,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2022-12-10T19:31:31.948543Z</t>
+          <t>2022-02-16T12:55:09.214302Z</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2022-12-10T19:31:31.948543Z</t>
+          <t>2022-02-16T12:55:09.214302Z</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -2657,12 +2657,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>f2d988c340f9edd8b38f1dcd778bb88a</t>
+          <t>54e5f74cd09ee8a8c9729c9cdb0397b6</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mp3.freeundergroundtekno.org</t>
+          <t>freesounds-selfhosted.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7544e2f1-de2b-411b-9eed-4a6c28bf46ac.cfargotunnel.com</t>
+          <t>54a3646c-9701-4a8b-b6b0-e8b9f08e297f.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E38" t="b">
@@ -2702,12 +2702,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-12-10T20:18:13.753251Z</t>
+          <t>2022-12-10T19:31:31.948543Z</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2022-12-10T20:18:13.753251Z</t>
+          <t>2022-12-10T19:31:31.948543Z</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -2716,12 +2716,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7d449cbba90883fa8a14389f9a18a7a6</t>
+          <t>f2d988c340f9edd8b38f1dcd778bb88a</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>radio.freeundergroundtekno.org</t>
+          <t>mp3.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1e58dbc4-7d4f-4d5c-bf27-f801381a4fce.cfargotunnel.com</t>
+          <t>7544e2f1-de2b-411b-9eed-4a6c28bf46ac.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E39" t="b">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2024-06-08T18:04:10.985475Z</t>
+          <t>2022-12-10T20:18:13.753251Z</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2024-06-08T18:04:10.985475Z</t>
+          <t>2022-12-10T20:18:13.753251Z</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -2775,32 +2775,32 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>b24f98873ca6f73f11bb06015e03a3d1</t>
+          <t>7d449cbba90883fa8a14389f9a18a7a6</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>_acme-challenge.sound.freeundergroundtekno.org</t>
+          <t>radio.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4bHK_Yi224RlQPT3GaNFHfWNtm2reTuFAJitGpMFgM8</t>
+          <t>1e58dbc4-7d4f-4d5c-bf27-f801381a4fce.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2820,12 +2820,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2018-08-07T16:10:03.300043Z</t>
+          <t>2024-06-08T18:04:10.985475Z</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2018-08-07T16:10:03.300043Z</t>
+          <t>2024-06-08T18:04:10.985475Z</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -2834,12 +2834,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>e302bd7fb84138a3a709507e25855226</t>
+          <t>b24f98873ca6f73f11bb06015e03a3d1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>freeundergroundtekno.org</t>
+          <t>_acme-challenge.sound.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>google-site-verification=UoPqDBPRj-_7eqBxrBhGViVVv41rzy51Zb_ZCmftsq0</t>
+          <t>4bHK_Yi224RlQPT3GaNFHfWNtm2reTuFAJitGpMFgM8</t>
         </is>
       </c>
       <c r="E41" t="b">
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3600</v>
+        <v>120</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2879,12 +2879,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-03-25T22:28:21.998451Z</t>
+          <t>2018-08-07T16:10:03.300043Z</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2024-03-25T22:28:21.998451Z</t>
+          <t>2018-08-07T16:10:03.300043Z</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
@@ -2893,32 +2893,32 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3d0c18afd78dff56ae887d0b7f971bf0</t>
+          <t>e302bd7fb84138a3a709507e25855226</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ai.irrazionale.org</t>
+          <t>freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>fc418fe6-ca4c-4b2d-988b-b2b9bddc570f.cfargotunnel.com</t>
+          <t>google-site-verification=UoPqDBPRj-_7eqBxrBhGViVVv41rzy51Zb_ZCmftsq0</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2938,12 +2938,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2025-03-21T11:57:02.473035Z</t>
+          <t>2024-03-25T22:28:21.998451Z</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2025-03-21T11:57:02.473035Z</t>
+          <t>2024-03-25T22:28:21.998451Z</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -2952,12 +2952,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>737420529070901f1b0cd444ebf396fd</t>
+          <t>3d0c18afd78dff56ae887d0b7f971bf0</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>baserow.irrazionale.org</t>
+          <t>ai.irrazionale.org</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>fc418fe6-ca4c-4b2d-988b-b2b9bddc570f.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E43" t="b">
@@ -2997,12 +2997,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2025-02-07T16:23:37.038965Z</t>
+          <t>2025-03-21T11:57:02.473035Z</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2025-02-07T16:23:37.038965Z</t>
+          <t>2025-03-21T11:57:02.473035Z</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -3011,12 +3011,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2628b62f7c721d0e34d5ad5f81f94aa6</t>
+          <t>737420529070901f1b0cd444ebf396fd</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>check.irrazionale.org</t>
+          <t>baserow.irrazionale.org</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>eb879ac1-3924-4f69-9c6c-75f6a9e1cdb8.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E44" t="b">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2025-04-10T17:26:36.959974Z</t>
+          <t>2025-02-07T16:23:37.038965Z</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2025-04-10T17:26:36.959974Z</t>
+          <t>2025-02-07T16:23:37.038965Z</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -3070,12 +3070,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>081907c20660bf785f8a99b15f7ae6fa</t>
+          <t>2628b62f7c721d0e34d5ad5f81f94aa6</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>cloud.irrazionale.org</t>
+          <t>check.irrazionale.org</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>379e723b-0e63-4ee0-aabe-5009125009c9.cfargotunnel.com</t>
+          <t>eb879ac1-3924-4f69-9c6c-75f6a9e1cdb8.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E45" t="b">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2022-12-11T16:25:07.205868Z</t>
+          <t>2025-04-10T17:26:36.959974Z</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2022-12-11T16:25:07.205868Z</t>
+          <t>2025-04-10T17:26:36.959974Z</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -3129,12 +3129,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>d0e96bb2faf9ed17182c357e39b68779</t>
+          <t>081907c20660bf785f8a99b15f7ae6fa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>coolify.irrazionale.org</t>
+          <t>cloud.irrazionale.org</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>379e723b-0e63-4ee0-aabe-5009125009c9.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E46" t="b">
@@ -3174,12 +3174,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2025-02-09T22:15:14.34368Z</t>
+          <t>2022-12-11T16:25:07.205868Z</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2025-02-09T22:15:14.34368Z</t>
+          <t>2022-12-11T16:25:07.205868Z</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -3188,12 +3188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>911a85c4a4a11c6e7c594788937a2456</t>
+          <t>d0e96bb2faf9ed17182c357e39b68779</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>dell.irrazionale.org</t>
+          <t>coolify.irrazionale.org</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4e789f43-bcab-410e-a7c8-9c7bd88fd294.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E47" t="b">
@@ -3233,12 +3233,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2023-12-01T12:39:10.88625Z</t>
+          <t>2025-02-09T22:15:14.34368Z</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023-12-01T12:39:10.88625Z</t>
+          <t>2025-02-09T22:15:14.34368Z</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -3247,12 +3247,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>60d0a2d1367b6b64c398aa37848efae3</t>
+          <t>911a85c4a4a11c6e7c594788937a2456</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>docker.irrazionale.org</t>
+          <t>dell.irrazionale.org</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>4e789f43-bcab-410e-a7c8-9c7bd88fd294.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E48" t="b">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2025-02-07T16:29:08.840612Z</t>
+          <t>2023-12-01T12:39:10.88625Z</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2025-02-07T16:29:08.840612Z</t>
+          <t>2023-12-01T12:39:10.88625Z</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -3306,12 +3306,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>08d407943ed4067865b5a819494093df</t>
+          <t>60d0a2d1367b6b64c398aa37848efae3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>freesounds.irrazionale.org</t>
+          <t>docker.irrazionale.org</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>86cfa504-c90d-46fd-a7f9-8c8d7a74ec1b.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E49" t="b">
@@ -3351,12 +3351,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2022-05-29T10:34:39.700377Z</t>
+          <t>2025-02-07T16:29:08.840612Z</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2022-05-29T10:34:39.700377Z</t>
+          <t>2025-02-07T16:29:08.840612Z</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -3365,12 +3365,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>41be2e667e4654c8425c3747809eaf4b</t>
+          <t>08d407943ed4067865b5a819494093df</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>git.irrazionale.org</t>
+          <t>freesounds.irrazionale.org</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>86cfa504-c90d-46fd-a7f9-8c8d7a74ec1b.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E50" t="b">
@@ -3410,12 +3410,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2025-02-09T17:43:27.673327Z</t>
+          <t>2022-05-29T10:34:39.700377Z</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2025-02-09T17:43:27.673327Z</t>
+          <t>2022-05-29T10:34:39.700377Z</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -3424,12 +3424,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>216f28a4197e4846265257d9a19df44a</t>
+          <t>41be2e667e4654c8425c3747809eaf4b</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>jellyfin.irrazionale.org</t>
+          <t>git.irrazionale.org</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ecb8d351-a34c-4b72-829d-9e0ef5726b65.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2023-12-01T16:34:33.145093Z</t>
+          <t>2025-02-09T17:43:27.673327Z</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-12-01T16:34:33.145093Z</t>
+          <t>2025-02-09T17:43:27.673327Z</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -3483,12 +3483,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>a294caebd6eeaa83278ae5e170afa4a7</t>
+          <t>216f28a4197e4846265257d9a19df44a</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>lf.irrazionale.org</t>
+          <t>jellyfin.irrazionale.org</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>ecb8d351-a34c-4b72-829d-9e0ef5726b65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E52" t="b">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2024-04-25T08:35:09.947241Z</t>
+          <t>2023-12-01T16:34:33.145093Z</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2024-04-25T08:35:09.947241Z</t>
+          <t>2023-12-01T16:34:33.145093Z</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -3542,12 +3542,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>b3c12f8816422fb6e017703c896aa4eb</t>
+          <t>a294caebd6eeaa83278ae5e170afa4a7</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>localhost.irrazionale.org</t>
+          <t>lf.irrazionale.org</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>05dcfc0e-c6f7-45c8-9c51-04d3ea300b3c.cfargotunnel.com</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E53" t="b">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2025-03-26T09:51:19.730468Z</t>
+          <t>2024-04-25T08:35:09.947241Z</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2025-03-26T09:51:19.730468Z</t>
+          <t>2024-04-25T08:35:09.947241Z</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -3601,12 +3601,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
+          <t>b3c12f8816422fb6e017703c896aa4eb</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>mt-link.irrazionale.org</t>
+          <t>localhost.irrazionale.org</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3616,14 +3616,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>05dcfc0e-c6f7-45c8-9c51-04d3ea300b3c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3646,12 +3646,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2025-03-26T09:51:19.730468Z</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2025-03-26T09:51:19.730468Z</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -3660,12 +3660,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3d3ea0a30645f9869829e88faee2503f</t>
+          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
+          <t>mt-link.irrazionale.org</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E55" t="b">
@@ -3705,12 +3705,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1229fb10c393330dc3c65ae010d33165</t>
+          <t>3d3ea0a30645f9869829e88faee2503f</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ocr.irrazionale.org</t>
+          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3734,14 +3734,14 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2025-04-14T16:13:52.683863Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2025-04-14T16:13:52.683863Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -3778,12 +3778,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
+          <t>1229fb10c393330dc3c65ae010d33165</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ollama.irrazionale.org</t>
+          <t>ocr.irrazionale.org</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E57" t="b">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2025-04-14T16:13:52.683863Z</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2025-04-14T16:13:52.683863Z</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3837,12 +3837,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>78c3a51bff323b9cf5c78e4d2c699452</t>
+          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pdf2docx.irrazionale.org</t>
+          <t>ollama.irrazionale.org</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>bc9f57f2-e22f-4154-a26b-a765f0942d61.cfargotunnel.com</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E58" t="b">
@@ -3882,12 +3882,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2025-04-14T15:30:12.902487Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2025-04-14T15:30:12.902487Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -3896,12 +3896,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4a64c597d17da513e052355df93bbc58</t>
+          <t>78c3a51bff323b9cf5c78e4d2c699452</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>powerdns.irrazionale.org</t>
+          <t>pdf2docx.irrazionale.org</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
+          <t>bc9f57f2-e22f-4154-a26b-a765f0942d61.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E59" t="b">
@@ -3941,12 +3941,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2025-04-14T15:30:12.902487Z</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2025-04-14T15:30:12.902487Z</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -3955,12 +3955,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4bd65cc8d342c16851d7e90462f78579</t>
+          <t>4a64c597d17da513e052355df93bbc58</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>proxmox.irrazionale.org</t>
+          <t>powerdns.irrazionale.org</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E60" t="b">
@@ -4000,12 +4000,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -4014,12 +4014,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
+          <t>4bd65cc8d342c16851d7e90462f78579</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>proxmox-ssh.irrazionale.org</t>
+          <t>proxmox.irrazionale.org</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
+          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.irrazionale.org</t>
+          <t>proxmox-ssh.irrazionale.org</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4088,14 +4088,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4118,12 +4118,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -4132,12 +4132,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>04d14cb456a1976f403ee148eca05cc8</t>
+          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.irrazionale.org</t>
+          <t>rwmt1._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E63" t="b">
@@ -4177,12 +4177,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -4191,12 +4191,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
+          <t>04d14cb456a1976f403ee148eca05cc8</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>s3.irrazionale.org</t>
+          <t>rwmt2._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4206,14 +4206,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4236,12 +4236,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -4250,12 +4250,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0ce0da84393eb2e44a959deb2116cce5</t>
+          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>s3ui.irrazionale.org</t>
+          <t>s3.irrazionale.org</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4295,12 +4295,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -4309,12 +4309,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
+          <t>0ce0da84393eb2e44a959deb2116cce5</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>sci-fi.irrazionale.org</t>
+          <t>s3ui.irrazionale.org</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E66" t="b">
@@ -4354,12 +4354,12 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -4368,12 +4368,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
+          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>search.irrazionale.org</t>
+          <t>sci-fi.irrazionale.org</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E67" t="b">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -4427,12 +4427,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>d136067486f9bfd1260a66e04c217624</t>
+          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>webcheck.irrazionale.org</t>
+          <t>search.irrazionale.org</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4472,12 +4472,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -4486,29 +4486,29 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
+          <t>d136067486f9bfd1260a66e04c217624</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>webcheck.irrazionale.org</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>mail.irrazionale.org</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4531,23 +4531,21 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
-      <c r="O69" t="n">
-        <v>1</v>
-      </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>5e61f46e73d33d23b901c830c11d05e5</t>
+          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4562,7 +4560,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>mail.irrazionale.org</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -4592,23 +4590,23 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4a187b659dadf78253cb30054350314c</t>
+          <t>5e61f46e73d33d23b901c830c11d05e5</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4623,7 +4621,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>route2mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -4653,23 +4651,23 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="n">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
+          <t>4a187b659dadf78253cb30054350314c</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4684,7 +4682,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route2mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -4714,38 +4712,38 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>bb6fca1069dfef36eac3160ec423215a</t>
+          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>safe.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>dnsafe.irrazionale.org</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E73" t="b">
@@ -4775,36 +4773,38 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
+      <c r="O73" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3a04124b47167ef39224aa1b60a8fe25</t>
+          <t>bb6fca1069dfef36eac3160ec423215a</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>_acme-challenge.mail.irrazionale.org</t>
+          <t>safe.irrazionale.org</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
+          <t>dnsafe.irrazionale.org</t>
         </is>
       </c>
       <c r="E74" t="b">
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4834,12 +4834,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -4848,12 +4848,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
+          <t>3a04124b47167ef39224aa1b60a8fe25</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>_acme-challenge.mail.irrazionale.org</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
+          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
         </is>
       </c>
       <c r="E75" t="b">
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4893,12 +4893,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -4907,7 +4907,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>c931695adebdf9cc13b66924f8d442a2</t>
+          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
+          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
         </is>
       </c>
       <c r="E76" t="b">
@@ -4952,12 +4952,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
@@ -4966,7 +4966,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>5674a44427225f44209d188901e7e212</t>
+          <t>c931695adebdf9cc13b66924f8d442a2</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
         </is>
       </c>
       <c r="E77" t="b">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -5025,12 +5025,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>575daba57b52a33ae44441e93e44ad93</t>
+          <t>5674a44427225f44209d188901e7e212</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E78" t="b">
@@ -5070,12 +5070,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -5084,7 +5084,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>8ae5f18920790fbc1ac6e57676db376b</t>
+          <t>575daba57b52a33ae44441e93e44ad93</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
+          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
         </is>
       </c>
       <c r="E79" t="b">
@@ -5129,12 +5129,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
@@ -5143,7 +5143,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>5f752add42e06a88468c1b1203a5241c</t>
+          <t>8ae5f18920790fbc1ac6e57676db376b</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
+          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E80" t="b">
@@ -5188,12 +5188,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -5202,7 +5202,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
+          <t>5f752add42e06a88468c1b1203a5241c</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 -all</t>
+          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
         </is>
       </c>
       <c r="E81" t="b">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -5261,12 +5261,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>96bf76d43d32043fc586f04d28efe912</t>
+          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>mail._domainkey.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
+          <t>v=spf1 ip4:185.182.185.194 -all</t>
         </is>
       </c>
       <c r="E82" t="b">
@@ -5306,12 +5306,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
@@ -5320,12 +5320,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6aa7d6d1576b8790519602102e390beb</t>
+          <t>96bf76d43d32043fc586f04d28efe912</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>s20220715915._domainkey.irrazionale.org</t>
+          <t>mail._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
+          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
         </is>
       </c>
       <c r="E83" t="b">
@@ -5365,12 +5365,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
@@ -5379,12 +5379,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>f07372fefe2aeec92ba78a42ee921960</t>
+          <t>6aa7d6d1576b8790519602102e390beb</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>s20221212161._domainkey.irrazionale.org</t>
+          <t>s20220715915._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
         </is>
       </c>
       <c r="E84" t="b">
@@ -5424,12 +5424,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
@@ -5438,22 +5438,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>f02f658bd3f849218f8880600ee8f124</t>
+          <t>f07372fefe2aeec92ba78a42ee921960</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>proxmox-dc2-mn.italiacdn.net</t>
+          <t>s20221212161._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>100.92.242.58</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
         </is>
       </c>
       <c r="E85" t="b">
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5483,12 +5483,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -5497,32 +5497,32 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>25f1985f805e21184de23f5dd6f43ea9</t>
+          <t>f02f658bd3f849218f8880600ee8f124</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>bin.italiacdn.net</t>
+          <t>proxmox-dc2-mn.italiacdn.net</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
+          <t>100.92.242.58</t>
         </is>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5542,12 +5542,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
@@ -5556,12 +5556,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
+          <t>25f1985f805e21184de23f5dd6f43ea9</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>logs.italiacdn.net</t>
+          <t>bin.italiacdn.net</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
+          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E87" t="b">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -5615,12 +5615,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>b013512ac14813f9241bfb82d58e6a15</t>
+          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>private.italiacdn.net</t>
+          <t>logs.italiacdn.net</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
+          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E88" t="b">
@@ -5660,12 +5660,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
@@ -5674,12 +5674,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>da6f732331d53062b4a64822c4d8053c</t>
+          <t>b013512ac14813f9241bfb82d58e6a15</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>public-bucket.italiacdn.net</t>
+          <t>private.italiacdn.net</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
+          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E89" t="b">
@@ -5719,12 +5719,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
@@ -5733,12 +5733,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>68ff9d51859905c9e8f951acf9650166</t>
+          <t>da6f732331d53062b4a64822c4d8053c</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>vault.italiacdn.net</t>
+          <t>public-bucket.italiacdn.net</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
+          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E90" t="b">
@@ -5778,12 +5778,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
@@ -5792,12 +5792,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
+          <t>68ff9d51859905c9e8f951acf9650166</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>vpn.italiacdn.net</t>
+          <t>vault.italiacdn.net</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
+          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E91" t="b">
@@ -5837,12 +5837,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -5851,32 +5851,32 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>14efda500a1c1e9c12dffecc2640246d</t>
+          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
+          <t>vpn.italiacdn.net</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>27b4d1e9dabc5765ebb48532ae2443</t>
+          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5896,12 +5896,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
@@ -5910,26 +5910,26 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>a49ade48a5be45f002d5417140f370a0</t>
+          <t>14efda500a1c1e9c12dffecc2640246d</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>adinsp9sqvzxue8n.italiadns.com</t>
+          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>27b4d1e9dabc5765ebb48532ae2443</t>
         </is>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -5955,12 +5955,12 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2024-07-31T13:37:34.938024Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2024-07-31T13:38:29.779921Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
@@ -5969,12 +5969,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>57267997534d7cf452997a9c191591ee</t>
+          <t>a49ade48a5be45f002d5417140f370a0</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>mt-link.italiadns.com</t>
+          <t>adinsp9sqvzxue8n.italiadns.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E94" t="b">
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -6014,12 +6014,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2024-07-31T13:37:34.938024Z</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2024-07-31T13:38:29.779921Z</t>
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
@@ -6028,12 +6028,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3a7c851242dbc15ea213945d901512b9</t>
+          <t>57267997534d7cf452997a9c191591ee</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.italiadns.com</t>
+          <t>mt-link.italiadns.com</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E95" t="b">
@@ -6073,12 +6073,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
@@ -6087,12 +6087,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>f06b6c37872df6a52852ee0d128d45ee</t>
+          <t>3a7c851242dbc15ea213945d901512b9</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.italiadns.com</t>
+          <t>rwmt1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E96" t="b">
@@ -6132,12 +6132,12 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
@@ -6146,12 +6146,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>41fd60824243d4f2538de3c3c29b7736</t>
+          <t>f06b6c37872df6a52852ee0d128d45ee</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>w1y139ns251ah6gc.italiadns.com</t>
+          <t>rwmt2._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E97" t="b">
@@ -6191,12 +6191,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -6205,26 +6205,26 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>a38c7cb5dce002e6fa5326111beba54f</t>
+          <t>41fd60824243d4f2538de3c3c29b7736</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>w1y139ns251ah6gc.italiadns.com</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -6250,23 +6250,21 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
-      <c r="O98" t="n">
-        <v>61</v>
-      </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
+          <t>a38c7cb5dce002e6fa5326111beba54f</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6281,7 +6279,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E99" t="b">
@@ -6311,23 +6309,23 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>6c5bf0b471503f7060c852986b55b0e0</t>
+          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6342,7 +6340,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E100" t="b">
@@ -6372,38 +6370,38 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>e6da0cedff625c31979aecd06ce463d4</t>
+          <t>6c5bf0b471503f7060c852986b55b0e0</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E101" t="b">
@@ -6433,26 +6431,28 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
+      <c r="O101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
+          <t>e6da0cedff625c31979aecd06ce463d4</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>_dmarc.italiadns.com</t>
+          <t>cf2024-1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -6492,12 +6492,12 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -6506,12 +6506,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>129ae399ff1f816f521c481aa58251a7</t>
+          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>_dmarc.italiadns.com</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
+          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -6551,12 +6551,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:30.706502Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2024-08-19T08:39:22.495623Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
@@ -6565,22 +6565,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
+          <t>129ae399ff1f816f521c481aa58251a7</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ns-1683.awsdns-18.co.uk</t>
+          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -6610,12 +6610,12 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2024-07-31T12:41:30.706502Z</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2024-08-19T08:39:22.495623Z</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
@@ -6624,7 +6624,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>4131e3d65c1df20458045bfa612298e9</t>
+          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ns-1303.awsdns-34.org</t>
+          <t>ns-1683.awsdns-18.co.uk</t>
         </is>
       </c>
       <c r="E105" t="b">
@@ -6669,12 +6669,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -6683,22 +6683,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>03da4898b7afbb1408bfdd51f42e5936</t>
+          <t>4131e3d65c1df20458045bfa612298e9</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
+          <t>ns-1303.awsdns-34.org</t>
         </is>
       </c>
       <c r="E106" t="b">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -6742,7 +6742,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>fd06957f7e745e10c388665bb8be096a</t>
+          <t>03da4898b7afbb1408bfdd51f42e5936</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
+          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
         </is>
       </c>
       <c r="E107" t="b">
@@ -6787,12 +6787,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -6801,7 +6801,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
+          <t>fd06957f7e745e10c388665bb8be096a</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>v=spf1 a mx ~all</t>
+          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
         </is>
       </c>
       <c r="E108" t="b">
@@ -6846,12 +6846,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6860,29 +6860,29 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>b738ae8c910e28345612400cb8a6e23e</t>
+          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ssh.repolizer.com</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
+          <t>v=spf1 a mx ~all</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6905,12 +6905,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6919,12 +6919,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>bfd43018c9b1cd41cc29efc4c62c6d8c</t>
+          <t>b738ae8c910e28345612400cb8a6e23e</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>www.repolizer.com</t>
+          <t>ssh.repolizer.com</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -6964,12 +6964,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2025-04-23T08:30:24.446765Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2025-04-23T08:34:01.380912Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
@@ -6978,29 +6978,29 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>c7df12561d64e4e680c6b0859c123f99</t>
+          <t>bfd43018c9b1cd41cc29efc4c62c6d8c</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>imap.rivoluzioneinformatica.org</t>
+          <t>www.repolizer.com</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7023,12 +7023,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-04-23T08:30:24.446765Z</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-04-23T08:34:01.380912Z</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
@@ -7037,12 +7037,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>e95c85414a6c93e847a2755df7c16cf0</t>
+          <t>c7df12561d64e4e680c6b0859c123f99</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>mail.rivoluzioneinformatica.org</t>
+          <t>imap.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -7096,12 +7096,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6834f98896056a837138409566211327</t>
+          <t>e95c85414a6c93e847a2755df7c16cf0</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>smtp.rivoluzioneinformatica.org</t>
+          <t>mail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7141,12 +7141,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -7155,12 +7155,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
+          <t>6834f98896056a837138409566211327</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>webmail.rivoluzioneinformatica.org</t>
+          <t>smtp.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7177,7 +7177,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7200,12 +7200,12 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -7214,22 +7214,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
+          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>git.rivoluzioneinformatica.org</t>
+          <t>webmail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E115" t="b">
@@ -7259,12 +7259,12 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
@@ -7273,12 +7273,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>eb220c9fb1df30719c788ef51fe312f6</t>
+          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>npm.rivoluzioneinformatica.org</t>
+          <t>git.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
+          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E116" t="b">
@@ -7318,12 +7318,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
@@ -7332,12 +7332,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
+          <t>eb220c9fb1df30719c788ef51fe312f6</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>proxmox.rivoluzioneinformatica.org</t>
+          <t>npm.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
+          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E117" t="b">
@@ -7377,12 +7377,12 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -7391,12 +7391,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>236f1b867d3720d5dd29c6af49782d62</t>
+          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>proxmox.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E118" t="b">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
@@ -7450,12 +7450,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>7c6da25c8e1e486da458cd5373402382</t>
+          <t>236f1b867d3720d5dd29c6af49782d62</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>vpn.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -7495,12 +7495,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
@@ -7509,12 +7509,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3045396196bc00b6e05726f94825c6bd</t>
+          <t>7c6da25c8e1e486da458cd5373402382</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>vpn.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>fabriziosalmi.github.io</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -7554,12 +7554,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2022-08-17T08:57:50.756388Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2022-08-17T08:59:41.92016Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
@@ -7568,12 +7568,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>25f714bcbfe5ff8215c314a503379edc</t>
+          <t>3045396196bc00b6e05726f94825c6bd</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>xmq.rivoluzioneinformatica.org</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E121" t="b">
@@ -7613,12 +7613,12 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2022-08-17T08:57:50.756388Z</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2022-08-17T08:59:41.92016Z</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
@@ -7627,29 +7627,29 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
+          <t>25f714bcbfe5ff8215c314a503379edc</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>xmq.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>amir.mx.cloudflare.net</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -7672,23 +7672,21 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
-      <c r="O122" t="n">
-        <v>40</v>
-      </c>
+      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
+          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -7703,7 +7701,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>linda.mx.cloudflare.net</t>
+          <t>amir.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -7733,23 +7731,23 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>bcd73d5a0e03a2593be162cd5259a678</t>
+          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -7764,7 +7762,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>isaac.mx.cloudflare.net</t>
+          <t>linda.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -7794,38 +7792,38 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>e6ffaf786ff743b47650f73557b07b66</t>
+          <t>bcd73d5a0e03a2593be162cd5259a678</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>isaac.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -7855,26 +7853,28 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
+      <c r="O125" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
+          <t>e6ffaf786ff743b47650f73557b07b66</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>_dmarc.rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -7914,12 +7914,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2022-02-07T15:43:39.763425Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2022-05-22T11:09:18.092063Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
@@ -7928,12 +7928,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2a74f92cf716979d913217d640655261</t>
+          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>_dmarc.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E127" t="b">
@@ -7973,12 +7973,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2022-02-07T15:43:39.763425Z</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2022-05-22T11:09:18.092063Z</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -7987,7 +7987,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
+          <t>2a74f92cf716979d913217d640655261</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
         </is>
       </c>
       <c r="E128" t="b">
@@ -8032,12 +8032,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>47bb0eec812c7e5f3961cb9079727d80</t>
+          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E129" t="b">
@@ -8091,12 +8091,12 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
@@ -8105,12 +8105,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>9abd161d29cb47ce6cfa783657e67723</t>
+          <t>47bb0eec812c7e5f3961cb9079727d80</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
+          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
         </is>
       </c>
       <c r="E130" t="b">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2022-05-13T21:13:25.301942Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2022-05-22T10:18:49.411362Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
@@ -8164,12 +8164,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
+          <t>9abd161d29cb47ce6cfa783657e67723</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
+          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
         </is>
       </c>
       <c r="E131" t="b">
@@ -8209,12 +8209,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-05-13T21:13:25.301942Z</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-05-22T10:18:49.411362Z</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8223,29 +8223,29 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>904b0a528a01b0dd8370295ce305d3da</t>
+          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>demo.uglyfeed.com</t>
+          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -8268,12 +8268,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8282,12 +8282,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1b7333a979fa92816324f0e9be6a564a</t>
+          <t>904b0a528a01b0dd8370295ce305d3da</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>xml.uglyfeed.com</t>
+          <t>demo.uglyfeed.com</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -8327,12 +8327,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8341,29 +8341,29 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>1b7333a979fa92816324f0e9be6a564a</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>xml.uglyfeed.com</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -8386,12 +8386,12 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
@@ -8400,12 +8400,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E135" t="b">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -8445,12 +8445,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
@@ -8459,12 +8459,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E136" t="b">
@@ -8504,12 +8504,12 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
@@ -8518,12 +8518,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E137" t="b">
@@ -8563,12 +8563,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -8577,29 +8577,29 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>videodioggi.com</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -8622,12 +8622,12 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
@@ -8636,12 +8636,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -8681,12 +8681,12 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2023-03-30T09:59:11.98058Z</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2023-03-30T09:59:12.228482Z</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
@@ -8695,12 +8695,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>test2.webtek.live</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2023-03-28T08:34:29.902515Z</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2023-03-28T08:34:30.164318Z</t>
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
@@ -8754,12 +8754,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>432df2553b443742f9f905e155878536</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>test.webtek.live</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -8799,12 +8799,12 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-24T11:44:15.078812Z</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-24T11:44:15.367412Z</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
@@ -8813,12 +8813,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>webtek.live</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -8858,12 +8858,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -8872,29 +8872,29 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
+          <t>e02587466a80086957e4f19a05760dec</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>_dmarc.youknowwhataimean.com</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -8917,12 +8917,12 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-10-06T11:52:31.670164Z</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-10-06T12:04:32.454791Z</t>
         </is>
       </c>
       <c r="N143" t="inlineStr"/>
@@ -8931,12 +8931,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
+          <t>_dmarc.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E144" t="b">
@@ -8976,12 +8976,12 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="N144" t="inlineStr"/>
@@ -8990,12 +8990,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>*._domainkey.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E145" t="b">
@@ -9035,12 +9035,12 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="N145" t="inlineStr"/>
@@ -9049,29 +9049,29 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>transversalpuntozero.org</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>transversalpuntozero.pages.dev</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -9094,16 +9094,75 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.org</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.pages.dev</t>
+        </is>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O147"/>
+  <dimension ref="A1:O148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,29 +639,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>b3331100fb4b9053f9ea9dde42e5babc</t>
+          <t>5b3addd61bdc5bd1cba5fb46350964cf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>audiolibri.org</t>
+          <t>edit.audiolibri.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>o6wcxcfitqtebrzpn756dnwexqr6vbcpbkj7nq5hixj4uzn2eswq.mx-verification.google.com</t>
+          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -684,23 +684,21 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2017-11-01T19:18:31.093932Z</t>
+          <t>2025-06-03T18:38:49.481585Z</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2017-11-01T19:18:31.093932Z</t>
+          <t>2025-06-03T18:38:49.481585Z</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>15</v>
-      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0d46d10a289881e17aeaea972e3bc4e4</t>
+          <t>b3331100fb4b9053f9ea9dde42e5babc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -715,7 +713,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>aspmx.l.google.com</t>
+          <t>o6wcxcfitqtebrzpn756dnwexqr6vbcpbkj7nq5hixj4uzn2eswq.mx-verification.google.com</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -745,23 +743,23 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2017-11-01T19:18:14.785126Z</t>
+          <t>2017-11-01T19:18:31.093932Z</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2017-11-01T19:18:14.785126Z</t>
+          <t>2017-11-01T19:18:31.093932Z</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>c4b015ebb6540fa1c64482131c937ad9</t>
+          <t>0d46d10a289881e17aeaea972e3bc4e4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -771,12 +769,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>v=spf1 include:audiolibri.org -all</t>
+          <t>aspmx.l.google.com</t>
         </is>
       </c>
       <c r="E6" t="b">
@@ -806,26 +804,28 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2022-01-24T18:09:26.735522Z</t>
+          <t>2017-11-01T19:18:14.785126Z</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2022-01-24T18:09:26.735522Z</t>
+          <t>2017-11-01T19:18:14.785126Z</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8123b69792536eda89581575fc5e6501</t>
+          <t>c4b015ebb6540fa1c64482131c937ad9</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>_dmarc.audiolibri.org</t>
+          <t>audiolibri.org</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; rua=mailto:fabrizio.salmi@gmail.com</t>
+          <t>v=spf1 include:audiolibri.org -all</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -865,12 +865,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2022-01-24T18:09:38.385312Z</t>
+          <t>2022-01-24T18:09:26.735522Z</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2022-01-24T18:09:38.385312Z</t>
+          <t>2022-01-24T18:09:26.735522Z</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -879,12 +879,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>f7cedd17785f7e80f46f70b4c2592ef8</t>
+          <t>8123b69792536eda89581575fc5e6501</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>_github-pages-challenge-fabriziosalmi.audiolibri.org</t>
+          <t>_dmarc.audiolibri.org</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>a2d349f948218278c16896b4854e7e</t>
+          <t>v=DMARC1; p=reject; rua=mailto:fabrizio.salmi@gmail.com</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -924,12 +924,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2022-05-28T20:00:29.610113Z</t>
+          <t>2022-01-24T18:09:38.385312Z</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2022-05-28T20:00:29.610113Z</t>
+          <t>2022-01-24T18:09:38.385312Z</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -938,29 +938,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>bdeca83d3f52cd29a0461c8c328e7eb8</t>
+          <t>f7cedd17785f7e80f46f70b4c2592ef8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cfguru.org</t>
+          <t>_github-pages-challenge-fabriziosalmi.audiolibri.org</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>a2d349f948218278c16896b4854e7e</t>
         </is>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -983,12 +983,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-12-17T13:15:33.42644Z</t>
+          <t>2022-05-28T20:00:29.610113Z</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-12-17T13:22:36.5376Z</t>
+          <t>2022-05-28T20:00:29.610113Z</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -997,12 +997,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6473c95616aa9ef1dcb17dacef169db4</t>
+          <t>bdeca83d3f52cd29a0461c8c328e7eb8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>challenged.cfguru.org</t>
+          <t>cfguru.org</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>185.199.110.153</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2025-05-23T07:08:03.816887Z</t>
+          <t>2023-12-17T13:15:33.42644Z</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2025-05-23T07:23:56.302349Z</t>
+          <t>2023-12-17T13:22:36.5376Z</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1056,12 +1056,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3c7558d6d766ea8ee23519dc6b3c6fcb</t>
+          <t>6473c95616aa9ef1dcb17dacef169db4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>get.domainsblacklists.com</t>
+          <t>challenged.cfguru.org</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.186.251.28</t>
+          <t>185.199.110.153</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-07-29T12:48:06.891684Z</t>
+          <t>2025-05-23T07:08:03.816887Z</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-07-29T12:48:06.891684Z</t>
+          <t>2025-05-23T07:23:56.302349Z</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1115,12 +1115,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>90854dd1388fe82242ce0109dfec5c88</t>
+          <t>3c7558d6d766ea8ee23519dc6b3c6fcb</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>review.domainsblacklists.com</t>
+          <t>get.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-08-30T11:38:30.653586Z</t>
+          <t>2023-07-29T12:48:06.891684Z</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-08-30T11:38:30.653586Z</t>
+          <t>2023-07-29T12:48:06.891684Z</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1174,12 +1174,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>c292f89526841ffe14bf72950e566b00</t>
+          <t>90854dd1388fe82242ce0109dfec5c88</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>www.domainsblacklists.com</t>
+          <t>review.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>93.186.251.28</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2024-01-07T12:46:47.09149Z</t>
+          <t>2023-08-30T11:38:30.653586Z</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2024-01-07T12:47:11.363311Z</t>
+          <t>2023-08-30T11:38:30.653586Z</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1233,22 +1233,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>c357c5667fdc1f5189ff62d9127c5b66</t>
+          <t>c292f89526841ffe14bf72950e566b00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>adguard.domainsblacklists.com</t>
+          <t>www.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-08-11T14:30:49.889256Z</t>
+          <t>2024-01-07T12:46:47.09149Z</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-08-11T14:30:49.889256Z</t>
+          <t>2024-01-07T12:47:11.363311Z</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1292,12 +1292,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8b834fd2fd544e045645fac878b84f55</t>
+          <t>c357c5667fdc1f5189ff62d9127c5b66</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>api-ipres.domainsblacklists.com</t>
+          <t>adguard.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8743e1c1-51d3-4bf8-ba49-c84defa95d06.cfargotunnel.com</t>
+          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-18T17:52:42.610086Z</t>
+          <t>2023-08-11T14:30:49.889256Z</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-08-18T17:52:42.610086Z</t>
+          <t>2023-08-11T14:30:49.889256Z</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1351,12 +1351,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dfe1bcabcf091b40abb6b049a8192442</t>
+          <t>8b834fd2fd544e045645fac878b84f55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>changedetection.domainsblacklists.com</t>
+          <t>api-ipres.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3eec4402-ad54-45de-bf9b-926b6e88a159.cfargotunnel.com</t>
+          <t>8743e1c1-51d3-4bf8-ba49-c84defa95d06.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-09-13T18:26:54.071Z</t>
+          <t>2023-08-18T17:52:42.610086Z</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-09-13T18:26:54.071Z</t>
+          <t>2023-08-18T17:52:42.610086Z</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -1410,12 +1410,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>c776f79530a239242078e5a3cb5d11d2</t>
+          <t>dfe1bcabcf091b40abb6b049a8192442</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>req.domainsblacklists.com</t>
+          <t>changedetection.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
+          <t>3eec4402-ad54-45de-bf9b-926b6e88a159.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E17" t="b">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-09-10T12:21:43.338698Z</t>
+          <t>2023-09-13T18:26:54.071Z</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-09-10T12:21:43.338698Z</t>
+          <t>2023-09-13T18:26:54.071Z</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -1469,29 +1469,29 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2f418611b09ffd2e435cea99583e9480</t>
+          <t>c776f79530a239242078e5a3cb5d11d2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>domainsblacklists.com</t>
+          <t>req.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1514,23 +1514,21 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.397174Z</t>
+          <t>2023-09-10T12:21:43.338698Z</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.397174Z</t>
+          <t>2023-09-10T12:21:43.338698Z</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>39</v>
-      </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>a5a312e4dbaaaec1eabfe1b9a5c17055</t>
+          <t>2f418611b09ffd2e435cea99583e9480</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1545,7 +1543,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E19" t="b">
@@ -1575,23 +1573,23 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.389737Z</t>
+          <t>2023-07-29T12:50:26.397174Z</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.389737Z</t>
+          <t>2023-07-29T12:50:26.397174Z</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>93</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>376df1b8131105ac8a7209306e22b59c</t>
+          <t>a5a312e4dbaaaec1eabfe1b9a5c17055</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1606,7 +1604,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -1636,12 +1634,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.382045Z</t>
+          <t>2023-07-29T12:50:26.389737Z</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.382045Z</t>
+          <t>2023-07-29T12:50:26.389737Z</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -1652,22 +1650,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>92388a78ff6bc640e36a75e31b30977a</t>
+          <t>376df1b8131105ac8a7209306e22b59c</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.domainsblacklists.com</t>
+          <t>domainsblacklists.com</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -1697,26 +1695,28 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2025-02-01T22:59:01.091354Z</t>
+          <t>2023-07-29T12:50:26.382045Z</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2025-02-01T22:59:01.091354Z</t>
+          <t>2023-07-29T12:50:26.382045Z</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>b1f7c2007e82e1af53a8ec6061b331f8</t>
+          <t>92388a78ff6bc640e36a75e31b30977a</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>_dmarc.domainsblacklists.com</t>
+          <t>cf2024-1._domainkey.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:9c70ea076036494c93d766dfefd2def1@dmarc-reports.cloudflare.net</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E22" t="b">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1756,12 +1756,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:10.919349Z</t>
+          <t>2025-02-01T22:59:01.091354Z</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:10.919349Z</t>
+          <t>2025-02-01T22:59:01.091354Z</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -1770,12 +1770,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>519f3626ce2ea9a6dad71afe898ce796</t>
+          <t>b1f7c2007e82e1af53a8ec6061b331f8</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>domainsblacklists.com</t>
+          <t>_dmarc.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>v=DMARC1;  p=none; rua=mailto:9c70ea076036494c93d766dfefd2def1@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E23" t="b">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.404775Z</t>
+          <t>2023-07-29T12:50:10.919349Z</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.404775Z</t>
+          <t>2023-07-29T12:50:10.919349Z</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -1829,26 +1829,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4dd327c64e78f584c16dc531a13ec1ec</t>
+          <t>519f3626ce2ea9a6dad71afe898ce796</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>proxmox-test-1.freesubnet.com</t>
+          <t>domainsblacklists.com</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>37.183.16.191</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2024-07-28T19:51:23.923255Z</t>
+          <t>2023-07-29T12:50:26.404775Z</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2024-07-28T19:51:23.923255Z</t>
+          <t>2023-07-29T12:50:26.404775Z</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -1888,12 +1888,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ec12d53bf42e7bc2c950d7f4d4eb60e4</t>
+          <t>4dd327c64e78f584c16dc531a13ec1ec</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>rp.freesubnet.com</t>
+          <t>proxmox-test-1.freesubnet.com</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18.102.76.90</t>
+          <t>37.183.16.191</t>
         </is>
       </c>
       <c r="E25" t="b">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2023-05-03T13:52:38.28258Z</t>
+          <t>2024-07-28T19:51:23.923255Z</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-05-03T16:25:08.617872Z</t>
+          <t>2024-07-28T19:51:23.923255Z</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -1947,12 +1947,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9bdd5da061a0b3543fb74847be092a31</t>
+          <t>ec12d53bf42e7bc2c950d7f4d4eb60e4</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>test.freesubnet.com</t>
+          <t>rp.freesubnet.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>37.183.16.191</t>
+          <t>18.102.76.90</t>
         </is>
       </c>
       <c r="E26" t="b">
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1992,12 +1992,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2024-07-24T12:42:57.795531Z</t>
+          <t>2023-05-03T13:52:38.28258Z</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2024-07-28T13:17:47.159096Z</t>
+          <t>2023-05-03T16:25:08.617872Z</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -2006,22 +2006,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>13b2a5129e5f7772daa7f0f70e349a26</t>
+          <t>9bdd5da061a0b3543fb74847be092a31</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>waf.freesubnet.com</t>
+          <t>test.freesubnet.com</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>rp.freesubnet.com</t>
+          <t>37.183.16.191</t>
         </is>
       </c>
       <c r="E27" t="b">
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2051,12 +2051,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2023-05-03T13:53:22.545371Z</t>
+          <t>2024-07-24T12:42:57.795531Z</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-05-03T16:25:02.924302Z</t>
+          <t>2024-07-28T13:17:47.159096Z</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -2065,29 +2065,29 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>77c251b8488617268d91ee1ebd51ede5</t>
+          <t>13b2a5129e5f7772daa7f0f70e349a26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>waf.freesubnet.com</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>207.180.193.100</t>
+          <t>rp.freesubnet.com</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2110,12 +2110,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2021-07-23T08:58:49.378112Z</t>
+          <t>2023-05-03T13:53:22.545371Z</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2021-07-23T12:56:39.987386Z</t>
+          <t>2023-05-03T16:25:02.924302Z</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -2124,12 +2124,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>dd673c4571ae6ec6ea4517da4047fa5f</t>
+          <t>77c251b8488617268d91ee1ebd51ede5</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>listen.free-tekno.com</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>207.180.193.100</t>
         </is>
       </c>
       <c r="E29" t="b">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2022-02-07T20:32:13.606665Z</t>
+          <t>2021-07-23T08:58:49.378112Z</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2022-02-07T20:32:43.921656Z</t>
+          <t>2021-07-23T12:56:39.987386Z</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2183,12 +2183,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>de47139d99158674daebfa2bcc46381b</t>
+          <t>dd673c4571ae6ec6ea4517da4047fa5f</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>radio.free-tekno.com</t>
+          <t>listen.free-tekno.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>161.97.120.130</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E30" t="b">
@@ -2228,12 +2228,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2021-06-27T11:17:21.364442Z</t>
+          <t>2022-02-07T20:32:13.606665Z</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2022-02-16T15:58:36.261027Z</t>
+          <t>2022-02-07T20:32:43.921656Z</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -2242,12 +2242,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5acccdfb3c59cd49cacd28e83e48d221</t>
+          <t>de47139d99158674daebfa2bcc46381b</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>www.free-tekno.com</t>
+          <t>radio.free-tekno.com</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2287,12 +2287,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2022-02-07T16:41:14.791288Z</t>
+          <t>2021-06-27T11:17:21.364442Z</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2022-02-07T16:41:14.791288Z</t>
+          <t>2022-02-16T15:58:36.261027Z</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -2301,22 +2301,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ac7c113f029bd912a9b6fe78dffe02a5</t>
+          <t>5acccdfb3c59cd49cacd28e83e48d221</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>mp3.free-tekno.com</t>
+          <t>www.free-tekno.com</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>freetekno.free.nf</t>
+          <t>161.97.120.130</t>
         </is>
       </c>
       <c r="E32" t="b">
@@ -2346,12 +2346,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2023-07-04T19:53:02.363162Z</t>
+          <t>2022-02-07T16:41:14.791288Z</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-07-04T19:53:02.363162Z</t>
+          <t>2022-02-07T16:41:14.791288Z</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -2360,29 +2360,29 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9450bd2c3778824d44882bf3a36c136a</t>
+          <t>ac7c113f029bd912a9b6fe78dffe02a5</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>mp3.free-tekno.com</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>poste.rivoluzioneinformatica.org</t>
+          <t>freetekno.free.nf</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2405,38 +2405,36 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2022-02-16T15:14:24.531147Z</t>
+          <t>2023-07-04T19:53:02.363162Z</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2022-02-16T15:14:24.531147Z</t>
+          <t>2023-07-04T19:53:02.363162Z</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="n">
-        <v>10</v>
-      </c>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ec58d36579ccf292f4a659648d6a9c19</t>
+          <t>9450bd2c3778824d44882bf3a36c136a</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>_dmarc.free-tekno.com</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; rua=mailto:cloud@free-tekno.com;</t>
+          <t>poste.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E34" t="b">
@@ -2466,26 +2464,28 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2022-02-16T15:36:47.274766Z</t>
+          <t>2022-02-16T15:14:24.531147Z</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2022-02-16T15:36:47.274766Z</t>
+          <t>2022-02-16T15:14:24.531147Z</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>f82cb05f0c7bd0ee554dc7a7e68481c2</t>
+          <t>ec58d36579ccf292f4a659648d6a9c19</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>_dmarc.free-tekno.com</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>v=spf1 mx ip4:161.97.120.130/32 a:mail.rivoluzioneinformatica.org a:poste.rivoluzioneinformatica.org -all</t>
+          <t>v=DMARC1; p=reject; rua=mailto:cloud@free-tekno.com;</t>
         </is>
       </c>
       <c r="E35" t="b">
@@ -2525,12 +2525,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2022-02-16T12:57:13.550913Z</t>
+          <t>2022-02-16T15:36:47.274766Z</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2022-02-16T15:47:18.346287Z</t>
+          <t>2022-02-16T15:36:47.274766Z</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -2539,7 +2539,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>15a4efde5824a7f870270570f044bf6a</t>
+          <t>f82cb05f0c7bd0ee554dc7a7e68481c2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>google-site-verification=u1RtWKENUcJYrh_iqqGrIQMTts0ipS2LpFZjtt7T-Nk</t>
+          <t>v=spf1 mx ip4:161.97.120.130/32 a:mail.rivoluzioneinformatica.org a:poste.rivoluzioneinformatica.org -all</t>
         </is>
       </c>
       <c r="E36" t="b">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2021-07-25T02:01:05.324193Z</t>
+          <t>2022-02-16T12:57:13.550913Z</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2021-07-25T02:01:05.324193Z</t>
+          <t>2022-02-16T15:47:18.346287Z</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
@@ -2598,12 +2598,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6f78e130390aca374862016649566194</t>
+          <t>15a4efde5824a7f870270570f044bf6a</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>s20220216247._domainkey.free-tekno.com</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA25fjdBEzCOeoRC5460U3HHjYEIjqtI4wkAVXidP5ynP9anEQ5i2+bW/lKh+xa5WKGjPofy/qxsnjuLE40ZnivPy7wfOwU3uOFf4CD5cen08xi/76vrqj3r1F29j8v+jJqB9+Z5RCOxCuu0Zx99okko+BaBej+O9W4Eh70d4PAb1TwrwNoBD47GnSLG3xu2b1NuXyWbuAEoQQ43/1+M689TJt7azAmG3yqft4J/7Oo0B7Wyk5V8Al2bpt6GYEoSV48HPrUC+MudIxgxVtR3O5oIVq9tHm7+jg5EY0GZpyk6yVJFlAXFJzt0OIKe4KvCngW0vHQSISmy0tgmZ8j38+uQIDAQAB</t>
+          <t>google-site-verification=u1RtWKENUcJYrh_iqqGrIQMTts0ipS2LpFZjtt7T-Nk</t>
         </is>
       </c>
       <c r="E37" t="b">
@@ -2643,12 +2643,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2022-02-16T12:55:09.214302Z</t>
+          <t>2021-07-25T02:01:05.324193Z</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2022-02-16T12:55:09.214302Z</t>
+          <t>2021-07-25T02:01:05.324193Z</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -2657,29 +2657,29 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>54e5f74cd09ee8a8c9729c9cdb0397b6</t>
+          <t>6f78e130390aca374862016649566194</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>freesounds-selfhosted.freeundergroundtekno.org</t>
+          <t>s20220216247._domainkey.free-tekno.com</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>54a3646c-9701-4a8b-b6b0-e8b9f08e297f.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA25fjdBEzCOeoRC5460U3HHjYEIjqtI4wkAVXidP5ynP9anEQ5i2+bW/lKh+xa5WKGjPofy/qxsnjuLE40ZnivPy7wfOwU3uOFf4CD5cen08xi/76vrqj3r1F29j8v+jJqB9+Z5RCOxCuu0Zx99okko+BaBej+O9W4Eh70d4PAb1TwrwNoBD47GnSLG3xu2b1NuXyWbuAEoQQ43/1+M689TJt7azAmG3yqft4J/7Oo0B7Wyk5V8Al2bpt6GYEoSV48HPrUC+MudIxgxVtR3O5oIVq9tHm7+jg5EY0GZpyk6yVJFlAXFJzt0OIKe4KvCngW0vHQSISmy0tgmZ8j38+uQIDAQAB</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-12-10T19:31:31.948543Z</t>
+          <t>2022-02-16T12:55:09.214302Z</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2022-12-10T19:31:31.948543Z</t>
+          <t>2022-02-16T12:55:09.214302Z</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -2716,12 +2716,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>f2d988c340f9edd8b38f1dcd778bb88a</t>
+          <t>54e5f74cd09ee8a8c9729c9cdb0397b6</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mp3.freeundergroundtekno.org</t>
+          <t>freesounds-selfhosted.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>7544e2f1-de2b-411b-9eed-4a6c28bf46ac.cfargotunnel.com</t>
+          <t>54a3646c-9701-4a8b-b6b0-e8b9f08e297f.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E39" t="b">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2022-12-10T20:18:13.753251Z</t>
+          <t>2022-12-10T19:31:31.948543Z</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2022-12-10T20:18:13.753251Z</t>
+          <t>2022-12-10T19:31:31.948543Z</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -2775,12 +2775,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7d449cbba90883fa8a14389f9a18a7a6</t>
+          <t>f2d988c340f9edd8b38f1dcd778bb88a</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>radio.freeundergroundtekno.org</t>
+          <t>mp3.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1e58dbc4-7d4f-4d5c-bf27-f801381a4fce.cfargotunnel.com</t>
+          <t>7544e2f1-de2b-411b-9eed-4a6c28bf46ac.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E40" t="b">
@@ -2820,12 +2820,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2024-06-08T18:04:10.985475Z</t>
+          <t>2022-12-10T20:18:13.753251Z</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2024-06-08T18:04:10.985475Z</t>
+          <t>2022-12-10T20:18:13.753251Z</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -2834,32 +2834,32 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>b24f98873ca6f73f11bb06015e03a3d1</t>
+          <t>7d449cbba90883fa8a14389f9a18a7a6</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>_acme-challenge.sound.freeundergroundtekno.org</t>
+          <t>radio.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4bHK_Yi224RlQPT3GaNFHfWNtm2reTuFAJitGpMFgM8</t>
+          <t>1e58dbc4-7d4f-4d5c-bf27-f801381a4fce.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2879,12 +2879,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2018-08-07T16:10:03.300043Z</t>
+          <t>2024-06-08T18:04:10.985475Z</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2018-08-07T16:10:03.300043Z</t>
+          <t>2024-06-08T18:04:10.985475Z</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
@@ -2893,12 +2893,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>e302bd7fb84138a3a709507e25855226</t>
+          <t>b24f98873ca6f73f11bb06015e03a3d1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>freeundergroundtekno.org</t>
+          <t>_acme-challenge.sound.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>google-site-verification=UoPqDBPRj-_7eqBxrBhGViVVv41rzy51Zb_ZCmftsq0</t>
+          <t>4bHK_Yi224RlQPT3GaNFHfWNtm2reTuFAJitGpMFgM8</t>
         </is>
       </c>
       <c r="E42" t="b">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>3600</v>
+        <v>120</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2938,12 +2938,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2024-03-25T22:28:21.998451Z</t>
+          <t>2018-08-07T16:10:03.300043Z</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2024-03-25T22:28:21.998451Z</t>
+          <t>2018-08-07T16:10:03.300043Z</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -2952,32 +2952,32 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3d0c18afd78dff56ae887d0b7f971bf0</t>
+          <t>e302bd7fb84138a3a709507e25855226</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ai.irrazionale.org</t>
+          <t>freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>fc418fe6-ca4c-4b2d-988b-b2b9bddc570f.cfargotunnel.com</t>
+          <t>google-site-verification=UoPqDBPRj-_7eqBxrBhGViVVv41rzy51Zb_ZCmftsq0</t>
         </is>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2997,12 +2997,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2025-03-21T11:57:02.473035Z</t>
+          <t>2024-03-25T22:28:21.998451Z</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2025-03-21T11:57:02.473035Z</t>
+          <t>2024-03-25T22:28:21.998451Z</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -3011,12 +3011,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>737420529070901f1b0cd444ebf396fd</t>
+          <t>3d0c18afd78dff56ae887d0b7f971bf0</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>baserow.irrazionale.org</t>
+          <t>ai.irrazionale.org</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>fc418fe6-ca4c-4b2d-988b-b2b9bddc570f.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E44" t="b">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2025-02-07T16:23:37.038965Z</t>
+          <t>2025-03-21T11:57:02.473035Z</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2025-02-07T16:23:37.038965Z</t>
+          <t>2025-03-21T11:57:02.473035Z</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -3070,12 +3070,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2628b62f7c721d0e34d5ad5f81f94aa6</t>
+          <t>737420529070901f1b0cd444ebf396fd</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>check.irrazionale.org</t>
+          <t>baserow.irrazionale.org</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>eb879ac1-3924-4f69-9c6c-75f6a9e1cdb8.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E45" t="b">
@@ -3115,12 +3115,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2025-04-10T17:26:36.959974Z</t>
+          <t>2025-02-07T16:23:37.038965Z</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2025-04-10T17:26:36.959974Z</t>
+          <t>2025-02-07T16:23:37.038965Z</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -3129,12 +3129,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>081907c20660bf785f8a99b15f7ae6fa</t>
+          <t>2628b62f7c721d0e34d5ad5f81f94aa6</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>cloud.irrazionale.org</t>
+          <t>check.irrazionale.org</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>379e723b-0e63-4ee0-aabe-5009125009c9.cfargotunnel.com</t>
+          <t>eb879ac1-3924-4f69-9c6c-75f6a9e1cdb8.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E46" t="b">
@@ -3174,12 +3174,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-12-11T16:25:07.205868Z</t>
+          <t>2025-04-10T17:26:36.959974Z</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2022-12-11T16:25:07.205868Z</t>
+          <t>2025-04-10T17:26:36.959974Z</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -3188,12 +3188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>d0e96bb2faf9ed17182c357e39b68779</t>
+          <t>081907c20660bf785f8a99b15f7ae6fa</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>coolify.irrazionale.org</t>
+          <t>cloud.irrazionale.org</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>379e723b-0e63-4ee0-aabe-5009125009c9.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E47" t="b">
@@ -3233,12 +3233,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2025-02-09T22:15:14.34368Z</t>
+          <t>2022-12-11T16:25:07.205868Z</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2025-02-09T22:15:14.34368Z</t>
+          <t>2022-12-11T16:25:07.205868Z</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -3247,12 +3247,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>911a85c4a4a11c6e7c594788937a2456</t>
+          <t>d0e96bb2faf9ed17182c357e39b68779</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>dell.irrazionale.org</t>
+          <t>coolify.irrazionale.org</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4e789f43-bcab-410e-a7c8-9c7bd88fd294.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E48" t="b">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2023-12-01T12:39:10.88625Z</t>
+          <t>2025-02-09T22:15:14.34368Z</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023-12-01T12:39:10.88625Z</t>
+          <t>2025-02-09T22:15:14.34368Z</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -3306,12 +3306,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>60d0a2d1367b6b64c398aa37848efae3</t>
+          <t>911a85c4a4a11c6e7c594788937a2456</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>docker.irrazionale.org</t>
+          <t>dell.irrazionale.org</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>4e789f43-bcab-410e-a7c8-9c7bd88fd294.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E49" t="b">
@@ -3351,12 +3351,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2025-02-07T16:29:08.840612Z</t>
+          <t>2023-12-01T12:39:10.88625Z</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2025-02-07T16:29:08.840612Z</t>
+          <t>2023-12-01T12:39:10.88625Z</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -3365,12 +3365,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>08d407943ed4067865b5a819494093df</t>
+          <t>60d0a2d1367b6b64c398aa37848efae3</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>freesounds.irrazionale.org</t>
+          <t>docker.irrazionale.org</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>86cfa504-c90d-46fd-a7f9-8c8d7a74ec1b.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E50" t="b">
@@ -3410,12 +3410,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2022-05-29T10:34:39.700377Z</t>
+          <t>2025-02-07T16:29:08.840612Z</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2022-05-29T10:34:39.700377Z</t>
+          <t>2025-02-07T16:29:08.840612Z</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -3424,12 +3424,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>41be2e667e4654c8425c3747809eaf4b</t>
+          <t>08d407943ed4067865b5a819494093df</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>git.irrazionale.org</t>
+          <t>freesounds.irrazionale.org</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>86cfa504-c90d-46fd-a7f9-8c8d7a74ec1b.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2025-02-09T17:43:27.673327Z</t>
+          <t>2022-05-29T10:34:39.700377Z</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2025-02-09T17:43:27.673327Z</t>
+          <t>2022-05-29T10:34:39.700377Z</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -3483,12 +3483,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>216f28a4197e4846265257d9a19df44a</t>
+          <t>41be2e667e4654c8425c3747809eaf4b</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>jellyfin.irrazionale.org</t>
+          <t>git.irrazionale.org</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ecb8d351-a34c-4b72-829d-9e0ef5726b65.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E52" t="b">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2023-12-01T16:34:33.145093Z</t>
+          <t>2025-02-09T17:43:27.673327Z</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2023-12-01T16:34:33.145093Z</t>
+          <t>2025-02-09T17:43:27.673327Z</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -3542,12 +3542,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>a294caebd6eeaa83278ae5e170afa4a7</t>
+          <t>216f28a4197e4846265257d9a19df44a</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>lf.irrazionale.org</t>
+          <t>jellyfin.irrazionale.org</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>ecb8d351-a34c-4b72-829d-9e0ef5726b65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E53" t="b">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2024-04-25T08:35:09.947241Z</t>
+          <t>2023-12-01T16:34:33.145093Z</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2024-04-25T08:35:09.947241Z</t>
+          <t>2023-12-01T16:34:33.145093Z</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -3601,12 +3601,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>b3c12f8816422fb6e017703c896aa4eb</t>
+          <t>a294caebd6eeaa83278ae5e170afa4a7</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>localhost.irrazionale.org</t>
+          <t>lf.irrazionale.org</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>05dcfc0e-c6f7-45c8-9c51-04d3ea300b3c.cfargotunnel.com</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E54" t="b">
@@ -3646,12 +3646,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2025-03-26T09:51:19.730468Z</t>
+          <t>2024-04-25T08:35:09.947241Z</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2025-03-26T09:51:19.730468Z</t>
+          <t>2024-04-25T08:35:09.947241Z</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -3660,12 +3660,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
+          <t>b3c12f8816422fb6e017703c896aa4eb</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mt-link.irrazionale.org</t>
+          <t>localhost.irrazionale.org</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3675,14 +3675,14 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>05dcfc0e-c6f7-45c8-9c51-04d3ea300b3c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2025-03-26T09:51:19.730468Z</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2025-03-26T09:51:19.730468Z</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3d3ea0a30645f9869829e88faee2503f</t>
+          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
+          <t>mt-link.irrazionale.org</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E56" t="b">
@@ -3764,12 +3764,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -3778,12 +3778,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1229fb10c393330dc3c65ae010d33165</t>
+          <t>3d3ea0a30645f9869829e88faee2503f</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ocr.irrazionale.org</t>
+          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3793,14 +3793,14 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2025-04-14T16:13:52.683863Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2025-04-14T16:13:52.683863Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3837,12 +3837,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
+          <t>1229fb10c393330dc3c65ae010d33165</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ollama.irrazionale.org</t>
+          <t>ocr.irrazionale.org</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E58" t="b">
@@ -3882,12 +3882,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2025-04-14T16:13:52.683863Z</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2025-04-14T16:13:52.683863Z</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -3896,12 +3896,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>78c3a51bff323b9cf5c78e4d2c699452</t>
+          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pdf2docx.irrazionale.org</t>
+          <t>ollama.irrazionale.org</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>bc9f57f2-e22f-4154-a26b-a765f0942d61.cfargotunnel.com</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E59" t="b">
@@ -3941,12 +3941,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2025-04-14T15:30:12.902487Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2025-04-14T15:30:12.902487Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -3955,12 +3955,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4a64c597d17da513e052355df93bbc58</t>
+          <t>78c3a51bff323b9cf5c78e4d2c699452</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>powerdns.irrazionale.org</t>
+          <t>pdf2docx.irrazionale.org</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
+          <t>bc9f57f2-e22f-4154-a26b-a765f0942d61.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E60" t="b">
@@ -4000,12 +4000,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2025-04-14T15:30:12.902487Z</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2025-04-14T15:30:12.902487Z</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -4014,12 +4014,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4bd65cc8d342c16851d7e90462f78579</t>
+          <t>4a64c597d17da513e052355df93bbc58</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>proxmox.irrazionale.org</t>
+          <t>powerdns.irrazionale.org</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E61" t="b">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
+          <t>4bd65cc8d342c16851d7e90462f78579</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>proxmox-ssh.irrazionale.org</t>
+          <t>proxmox.irrazionale.org</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4118,12 +4118,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -4132,12 +4132,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
+          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.irrazionale.org</t>
+          <t>proxmox-ssh.irrazionale.org</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4147,14 +4147,14 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4177,12 +4177,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -4191,12 +4191,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>04d14cb456a1976f403ee148eca05cc8</t>
+          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.irrazionale.org</t>
+          <t>rwmt1._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E64" t="b">
@@ -4236,12 +4236,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -4250,12 +4250,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
+          <t>04d14cb456a1976f403ee148eca05cc8</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>s3.irrazionale.org</t>
+          <t>rwmt2._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4265,14 +4265,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4295,12 +4295,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -4309,12 +4309,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0ce0da84393eb2e44a959deb2116cce5</t>
+          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>s3ui.irrazionale.org</t>
+          <t>s3.irrazionale.org</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4354,12 +4354,12 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -4368,12 +4368,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
+          <t>0ce0da84393eb2e44a959deb2116cce5</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>sci-fi.irrazionale.org</t>
+          <t>s3ui.irrazionale.org</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E67" t="b">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -4427,12 +4427,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
+          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>search.irrazionale.org</t>
+          <t>sci-fi.irrazionale.org</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E68" t="b">
@@ -4472,12 +4472,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -4486,12 +4486,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>d136067486f9bfd1260a66e04c217624</t>
+          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>webcheck.irrazionale.org</t>
+          <t>search.irrazionale.org</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4531,12 +4531,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -4545,29 +4545,29 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
+          <t>d136067486f9bfd1260a66e04c217624</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>webcheck.irrazionale.org</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>mail.irrazionale.org</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4590,23 +4590,21 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="n">
-        <v>1</v>
-      </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>5e61f46e73d33d23b901c830c11d05e5</t>
+          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4621,7 +4619,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>mail.irrazionale.org</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -4651,23 +4649,23 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4a187b659dadf78253cb30054350314c</t>
+          <t>5e61f46e73d33d23b901c830c11d05e5</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4682,7 +4680,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>route2mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -4712,23 +4710,23 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="n">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
+          <t>4a187b659dadf78253cb30054350314c</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4743,7 +4741,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route2mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E73" t="b">
@@ -4773,38 +4771,38 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bb6fca1069dfef36eac3160ec423215a</t>
+          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>safe.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>dnsafe.irrazionale.org</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E74" t="b">
@@ -4834,36 +4832,38 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+      <c r="O74" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3a04124b47167ef39224aa1b60a8fe25</t>
+          <t>bb6fca1069dfef36eac3160ec423215a</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>_acme-challenge.mail.irrazionale.org</t>
+          <t>safe.irrazionale.org</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
+          <t>dnsafe.irrazionale.org</t>
         </is>
       </c>
       <c r="E75" t="b">
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4893,12 +4893,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -4907,12 +4907,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
+          <t>3a04124b47167ef39224aa1b60a8fe25</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>_acme-challenge.mail.irrazionale.org</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
+          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
         </is>
       </c>
       <c r="E76" t="b">
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4952,12 +4952,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
@@ -4966,7 +4966,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>c931695adebdf9cc13b66924f8d442a2</t>
+          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
+          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
         </is>
       </c>
       <c r="E77" t="b">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -5025,7 +5025,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>5674a44427225f44209d188901e7e212</t>
+          <t>c931695adebdf9cc13b66924f8d442a2</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
         </is>
       </c>
       <c r="E78" t="b">
@@ -5070,12 +5070,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -5084,12 +5084,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>575daba57b52a33ae44441e93e44ad93</t>
+          <t>5674a44427225f44209d188901e7e212</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E79" t="b">
@@ -5129,12 +5129,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
@@ -5143,7 +5143,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>8ae5f18920790fbc1ac6e57676db376b</t>
+          <t>575daba57b52a33ae44441e93e44ad93</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
+          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
         </is>
       </c>
       <c r="E80" t="b">
@@ -5188,12 +5188,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -5202,7 +5202,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5f752add42e06a88468c1b1203a5241c</t>
+          <t>8ae5f18920790fbc1ac6e57676db376b</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
+          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E81" t="b">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -5261,7 +5261,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
+          <t>5f752add42e06a88468c1b1203a5241c</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 -all</t>
+          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
         </is>
       </c>
       <c r="E82" t="b">
@@ -5306,12 +5306,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
@@ -5320,12 +5320,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>96bf76d43d32043fc586f04d28efe912</t>
+          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>mail._domainkey.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
+          <t>v=spf1 ip4:185.182.185.194 -all</t>
         </is>
       </c>
       <c r="E83" t="b">
@@ -5365,12 +5365,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
@@ -5379,12 +5379,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6aa7d6d1576b8790519602102e390beb</t>
+          <t>96bf76d43d32043fc586f04d28efe912</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>s20220715915._domainkey.irrazionale.org</t>
+          <t>mail._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
+          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
         </is>
       </c>
       <c r="E84" t="b">
@@ -5424,12 +5424,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
@@ -5438,12 +5438,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>f07372fefe2aeec92ba78a42ee921960</t>
+          <t>6aa7d6d1576b8790519602102e390beb</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>s20221212161._domainkey.irrazionale.org</t>
+          <t>s20220715915._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
         </is>
       </c>
       <c r="E85" t="b">
@@ -5483,12 +5483,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -5497,22 +5497,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>f02f658bd3f849218f8880600ee8f124</t>
+          <t>f07372fefe2aeec92ba78a42ee921960</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>proxmox-dc2-mn.italiacdn.net</t>
+          <t>s20221212161._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>100.92.242.58</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5542,12 +5542,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
@@ -5556,32 +5556,32 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>25f1985f805e21184de23f5dd6f43ea9</t>
+          <t>f02f658bd3f849218f8880600ee8f124</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>bin.italiacdn.net</t>
+          <t>proxmox-dc2-mn.italiacdn.net</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
+          <t>100.92.242.58</t>
         </is>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -5601,12 +5601,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -5615,12 +5615,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
+          <t>25f1985f805e21184de23f5dd6f43ea9</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>logs.italiacdn.net</t>
+          <t>bin.italiacdn.net</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
+          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E88" t="b">
@@ -5660,12 +5660,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
@@ -5674,12 +5674,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>b013512ac14813f9241bfb82d58e6a15</t>
+          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>private.italiacdn.net</t>
+          <t>logs.italiacdn.net</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
+          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E89" t="b">
@@ -5719,12 +5719,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
@@ -5733,12 +5733,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>da6f732331d53062b4a64822c4d8053c</t>
+          <t>b013512ac14813f9241bfb82d58e6a15</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>public-bucket.italiacdn.net</t>
+          <t>private.italiacdn.net</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
+          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E90" t="b">
@@ -5778,12 +5778,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
@@ -5792,12 +5792,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>68ff9d51859905c9e8f951acf9650166</t>
+          <t>da6f732331d53062b4a64822c4d8053c</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>vault.italiacdn.net</t>
+          <t>public-bucket.italiacdn.net</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
+          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E91" t="b">
@@ -5837,12 +5837,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -5851,12 +5851,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
+          <t>68ff9d51859905c9e8f951acf9650166</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>vpn.italiacdn.net</t>
+          <t>vault.italiacdn.net</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
+          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E92" t="b">
@@ -5896,12 +5896,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
@@ -5910,32 +5910,32 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>14efda500a1c1e9c12dffecc2640246d</t>
+          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
+          <t>vpn.italiacdn.net</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>27b4d1e9dabc5765ebb48532ae2443</t>
+          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -5955,12 +5955,12 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
@@ -5969,26 +5969,26 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>a49ade48a5be45f002d5417140f370a0</t>
+          <t>14efda500a1c1e9c12dffecc2640246d</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>adinsp9sqvzxue8n.italiadns.com</t>
+          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>27b4d1e9dabc5765ebb48532ae2443</t>
         </is>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
@@ -6014,12 +6014,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2024-07-31T13:37:34.938024Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2024-07-31T13:38:29.779921Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
@@ -6028,12 +6028,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>57267997534d7cf452997a9c191591ee</t>
+          <t>a49ade48a5be45f002d5417140f370a0</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>mt-link.italiadns.com</t>
+          <t>adinsp9sqvzxue8n.italiadns.com</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E95" t="b">
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -6073,12 +6073,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2024-07-31T13:37:34.938024Z</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2024-07-31T13:38:29.779921Z</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
@@ -6087,12 +6087,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3a7c851242dbc15ea213945d901512b9</t>
+          <t>57267997534d7cf452997a9c191591ee</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.italiadns.com</t>
+          <t>mt-link.italiadns.com</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E96" t="b">
@@ -6132,12 +6132,12 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
@@ -6146,12 +6146,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>f06b6c37872df6a52852ee0d128d45ee</t>
+          <t>3a7c851242dbc15ea213945d901512b9</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.italiadns.com</t>
+          <t>rwmt1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E97" t="b">
@@ -6191,12 +6191,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -6205,12 +6205,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>41fd60824243d4f2538de3c3c29b7736</t>
+          <t>f06b6c37872df6a52852ee0d128d45ee</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>w1y139ns251ah6gc.italiadns.com</t>
+          <t>rwmt2._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E98" t="b">
@@ -6250,12 +6250,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
@@ -6264,26 +6264,26 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>a38c7cb5dce002e6fa5326111beba54f</t>
+          <t>41fd60824243d4f2538de3c3c29b7736</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>w1y139ns251ah6gc.italiadns.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -6309,23 +6309,21 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
-      <c r="O99" t="n">
-        <v>61</v>
-      </c>
+      <c r="O99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
+          <t>a38c7cb5dce002e6fa5326111beba54f</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6340,7 +6338,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E100" t="b">
@@ -6370,23 +6368,23 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>6c5bf0b471503f7060c852986b55b0e0</t>
+          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6401,7 +6399,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E101" t="b">
@@ -6431,38 +6429,38 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>e6da0cedff625c31979aecd06ce463d4</t>
+          <t>6c5bf0b471503f7060c852986b55b0e0</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -6492,26 +6490,28 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
+      <c r="O102" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
+          <t>e6da0cedff625c31979aecd06ce463d4</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>_dmarc.italiadns.com</t>
+          <t>cf2024-1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -6551,12 +6551,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
@@ -6565,12 +6565,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>129ae399ff1f816f521c481aa58251a7</t>
+          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>_dmarc.italiadns.com</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
+          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -6610,12 +6610,12 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:30.706502Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2024-08-19T08:39:22.495623Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
@@ -6624,22 +6624,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
+          <t>129ae399ff1f816f521c481aa58251a7</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ns-1683.awsdns-18.co.uk</t>
+          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E105" t="b">
@@ -6669,12 +6669,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2024-07-31T12:41:30.706502Z</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2024-08-19T08:39:22.495623Z</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -6683,7 +6683,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>4131e3d65c1df20458045bfa612298e9</t>
+          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ns-1303.awsdns-34.org</t>
+          <t>ns-1683.awsdns-18.co.uk</t>
         </is>
       </c>
       <c r="E106" t="b">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -6742,22 +6742,22 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>03da4898b7afbb1408bfdd51f42e5936</t>
+          <t>4131e3d65c1df20458045bfa612298e9</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
+          <t>ns-1303.awsdns-34.org</t>
         </is>
       </c>
       <c r="E107" t="b">
@@ -6787,12 +6787,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -6801,7 +6801,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>fd06957f7e745e10c388665bb8be096a</t>
+          <t>03da4898b7afbb1408bfdd51f42e5936</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
+          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
         </is>
       </c>
       <c r="E108" t="b">
@@ -6846,12 +6846,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6860,7 +6860,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
+          <t>fd06957f7e745e10c388665bb8be096a</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6875,7 +6875,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>v=spf1 a mx ~all</t>
+          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
         </is>
       </c>
       <c r="E109" t="b">
@@ -6905,12 +6905,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6919,29 +6919,29 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>b738ae8c910e28345612400cb8a6e23e</t>
+          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ssh.repolizer.com</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
+          <t>v=spf1 a mx ~all</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6964,12 +6964,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
@@ -6978,12 +6978,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>bfd43018c9b1cd41cc29efc4c62c6d8c</t>
+          <t>b738ae8c910e28345612400cb8a6e23e</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>www.repolizer.com</t>
+          <t>ssh.repolizer.com</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -7023,12 +7023,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2025-04-23T08:30:24.446765Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2025-04-23T08:34:01.380912Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
@@ -7037,29 +7037,29 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>c7df12561d64e4e680c6b0859c123f99</t>
+          <t>bfd43018c9b1cd41cc29efc4c62c6d8c</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>imap.rivoluzioneinformatica.org</t>
+          <t>www.repolizer.com</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7082,12 +7082,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-04-23T08:30:24.446765Z</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-04-23T08:34:01.380912Z</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -7096,12 +7096,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>e95c85414a6c93e847a2755df7c16cf0</t>
+          <t>c7df12561d64e4e680c6b0859c123f99</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>mail.rivoluzioneinformatica.org</t>
+          <t>imap.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7141,12 +7141,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -7155,12 +7155,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>6834f98896056a837138409566211327</t>
+          <t>e95c85414a6c93e847a2755df7c16cf0</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>smtp.rivoluzioneinformatica.org</t>
+          <t>mail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7200,12 +7200,12 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -7214,12 +7214,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
+          <t>6834f98896056a837138409566211327</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>webmail.rivoluzioneinformatica.org</t>
+          <t>smtp.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7236,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7259,12 +7259,12 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
@@ -7273,22 +7273,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
+          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>git.rivoluzioneinformatica.org</t>
+          <t>webmail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E116" t="b">
@@ -7318,12 +7318,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
@@ -7332,12 +7332,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>eb220c9fb1df30719c788ef51fe312f6</t>
+          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>npm.rivoluzioneinformatica.org</t>
+          <t>git.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
+          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E117" t="b">
@@ -7377,12 +7377,12 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -7391,12 +7391,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
+          <t>eb220c9fb1df30719c788ef51fe312f6</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>proxmox.rivoluzioneinformatica.org</t>
+          <t>npm.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
+          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E118" t="b">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
@@ -7450,12 +7450,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>236f1b867d3720d5dd29c6af49782d62</t>
+          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>proxmox.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -7495,12 +7495,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
@@ -7509,12 +7509,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>7c6da25c8e1e486da458cd5373402382</t>
+          <t>236f1b867d3720d5dd29c6af49782d62</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>vpn.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -7554,12 +7554,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
@@ -7568,12 +7568,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>3045396196bc00b6e05726f94825c6bd</t>
+          <t>7c6da25c8e1e486da458cd5373402382</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>vpn.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>fabriziosalmi.github.io</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E121" t="b">
@@ -7613,12 +7613,12 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2022-08-17T08:57:50.756388Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2022-08-17T08:59:41.92016Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
@@ -7627,12 +7627,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>25f714bcbfe5ff8215c314a503379edc</t>
+          <t>3045396196bc00b6e05726f94825c6bd</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>xmq.rivoluzioneinformatica.org</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E122" t="b">
@@ -7672,12 +7672,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2022-08-17T08:57:50.756388Z</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2022-08-17T08:59:41.92016Z</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -7686,29 +7686,29 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
+          <t>25f714bcbfe5ff8215c314a503379edc</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>xmq.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>amir.mx.cloudflare.net</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7720,7 +7720,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -7731,23 +7731,21 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
-      <c r="O123" t="n">
-        <v>40</v>
-      </c>
+      <c r="O123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
+          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -7762,7 +7760,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>linda.mx.cloudflare.net</t>
+          <t>amir.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -7792,23 +7790,23 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>bcd73d5a0e03a2593be162cd5259a678</t>
+          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -7823,7 +7821,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>isaac.mx.cloudflare.net</t>
+          <t>linda.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -7853,38 +7851,38 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>e6ffaf786ff743b47650f73557b07b66</t>
+          <t>bcd73d5a0e03a2593be162cd5259a678</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>isaac.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -7914,26 +7912,28 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
+      <c r="O126" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
+          <t>e6ffaf786ff743b47650f73557b07b66</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>_dmarc.rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E127" t="b">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -7973,12 +7973,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2022-02-07T15:43:39.763425Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2022-05-22T11:09:18.092063Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -7987,12 +7987,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2a74f92cf716979d913217d640655261</t>
+          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>_dmarc.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E128" t="b">
@@ -8032,12 +8032,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2022-02-07T15:43:39.763425Z</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2022-05-22T11:09:18.092063Z</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
+          <t>2a74f92cf716979d913217d640655261</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
         </is>
       </c>
       <c r="E129" t="b">
@@ -8091,12 +8091,12 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
@@ -8105,7 +8105,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>47bb0eec812c7e5f3961cb9079727d80</t>
+          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E130" t="b">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
@@ -8164,12 +8164,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>9abd161d29cb47ce6cfa783657e67723</t>
+          <t>47bb0eec812c7e5f3961cb9079727d80</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
+          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
         </is>
       </c>
       <c r="E131" t="b">
@@ -8209,12 +8209,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2022-05-13T21:13:25.301942Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2022-05-22T10:18:49.411362Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8223,12 +8223,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
+          <t>9abd161d29cb47ce6cfa783657e67723</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
+          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
         </is>
       </c>
       <c r="E132" t="b">
@@ -8268,12 +8268,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-05-13T21:13:25.301942Z</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-05-22T10:18:49.411362Z</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8282,29 +8282,29 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>904b0a528a01b0dd8370295ce305d3da</t>
+          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>demo.uglyfeed.com</t>
+          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
         </is>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -8327,12 +8327,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8341,12 +8341,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1b7333a979fa92816324f0e9be6a564a</t>
+          <t>904b0a528a01b0dd8370295ce305d3da</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>xml.uglyfeed.com</t>
+          <t>demo.uglyfeed.com</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -8386,12 +8386,12 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
@@ -8400,29 +8400,29 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>1b7333a979fa92816324f0e9be6a564a</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>xml.uglyfeed.com</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -8434,7 +8434,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -8445,12 +8445,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
@@ -8459,12 +8459,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E136" t="b">
@@ -8493,7 +8493,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -8504,12 +8504,12 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
@@ -8518,12 +8518,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E137" t="b">
@@ -8563,12 +8563,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -8577,12 +8577,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E138" t="b">
@@ -8622,12 +8622,12 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
@@ -8636,29 +8636,29 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>videodioggi.com</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -8681,12 +8681,12 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
@@ -8695,12 +8695,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2023-03-30T09:59:11.98058Z</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2023-03-30T09:59:12.228482Z</t>
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
@@ -8754,12 +8754,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>test2.webtek.live</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -8799,12 +8799,12 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2023-03-28T08:34:29.902515Z</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2023-03-28T08:34:30.164318Z</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
@@ -8813,12 +8813,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>432df2553b443742f9f905e155878536</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>test.webtek.live</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -8858,12 +8858,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-24T11:44:15.078812Z</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-24T11:44:15.367412Z</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -8872,12 +8872,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>webtek.live</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -8917,12 +8917,12 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="N143" t="inlineStr"/>
@@ -8931,29 +8931,29 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
+          <t>e02587466a80086957e4f19a05760dec</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>_dmarc.youknowwhataimean.com</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -8976,12 +8976,12 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-10-06T11:52:31.670164Z</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-10-06T12:04:32.454791Z</t>
         </is>
       </c>
       <c r="N144" t="inlineStr"/>
@@ -8990,12 +8990,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
+          <t>_dmarc.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E145" t="b">
@@ -9035,12 +9035,12 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="N145" t="inlineStr"/>
@@ -9049,12 +9049,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>*._domainkey.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E146" t="b">
@@ -9094,12 +9094,12 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="N146" t="inlineStr"/>
@@ -9108,29 +9108,29 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>transversalpuntozero.org</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>transversalpuntozero.pages.dev</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -9153,16 +9153,75 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.org</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.pages.dev</t>
+        </is>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -535,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-05-13T06:10:50.128085Z</t>
+          <t>2025-06-23T19:27:00.019706Z</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O148"/>
+  <dimension ref="A1:O150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-06-23T19:27:00.019706Z</t>
+          <t>2025-06-24T07:12:14.786532Z</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>c4b015ebb6540fa1c64482131c937ad9</t>
+          <t>98615a1b925f8a53052a3744ee0a7bb4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>audiolibri.org</t>
+          <t>_acme-challenge.audiolibri.org</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>v=spf1 include:audiolibri.org -all</t>
+          <t>vgmGWms_dQKaoDQQBDmiIDwGo43gwQ-Rav0ifnAdbMs</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -865,12 +865,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2022-01-24T18:09:26.735522Z</t>
+          <t>2025-06-24T06:37:32.587791Z</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2022-01-24T18:09:26.735522Z</t>
+          <t>2025-06-24T06:37:32.587791Z</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -879,12 +879,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8123b69792536eda89581575fc5e6501</t>
+          <t>eb9d358e9f430b94014063e8676f0e86</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>_dmarc.audiolibri.org</t>
+          <t>_acme-challenge.audiolibri.org</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; rua=mailto:fabrizio.salmi@gmail.com</t>
+          <t>yakDUwFPKE2PxTEDTtumVZ6ShvAAp6-aU5uJymKhh50</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -924,12 +924,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2022-01-24T18:09:38.385312Z</t>
+          <t>2025-06-24T06:37:30.348717Z</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2022-01-24T18:09:38.385312Z</t>
+          <t>2025-06-24T06:37:30.348717Z</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -938,12 +938,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>f7cedd17785f7e80f46f70b4c2592ef8</t>
+          <t>c4b015ebb6540fa1c64482131c937ad9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>_github-pages-challenge-fabriziosalmi.audiolibri.org</t>
+          <t>audiolibri.org</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>a2d349f948218278c16896b4854e7e</t>
+          <t>v=spf1 include:audiolibri.org -all</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -983,12 +983,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2022-05-28T20:00:29.610113Z</t>
+          <t>2022-01-24T18:09:26.735522Z</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2022-05-28T20:00:29.610113Z</t>
+          <t>2022-01-24T18:09:26.735522Z</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -997,29 +997,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bdeca83d3f52cd29a0461c8c328e7eb8</t>
+          <t>8123b69792536eda89581575fc5e6501</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cfguru.org</t>
+          <t>_dmarc.audiolibri.org</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DMARC1; p=reject; rua=mailto:fabrizio.salmi@gmail.com</t>
         </is>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1042,12 +1042,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-12-17T13:15:33.42644Z</t>
+          <t>2022-01-24T18:09:38.385312Z</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-12-17T13:22:36.5376Z</t>
+          <t>2022-01-24T18:09:38.385312Z</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1056,29 +1056,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6473c95616aa9ef1dcb17dacef169db4</t>
+          <t>f7cedd17785f7e80f46f70b4c2592ef8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>challenged.cfguru.org</t>
+          <t>_github-pages-challenge-fabriziosalmi.audiolibri.org</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>185.199.110.153</t>
+          <t>a2d349f948218278c16896b4854e7e</t>
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2025-05-23T07:08:03.816887Z</t>
+          <t>2022-05-28T20:00:29.610113Z</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2025-05-23T07:23:56.302349Z</t>
+          <t>2022-05-28T20:00:29.610113Z</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1115,12 +1115,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3c7558d6d766ea8ee23519dc6b3c6fcb</t>
+          <t>bdeca83d3f52cd29a0461c8c328e7eb8</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>get.domainsblacklists.com</t>
+          <t>cfguru.org</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.186.251.28</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-07-29T12:48:06.891684Z</t>
+          <t>2023-12-17T13:15:33.42644Z</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-07-29T12:48:06.891684Z</t>
+          <t>2023-12-17T13:22:36.5376Z</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1174,12 +1174,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>90854dd1388fe82242ce0109dfec5c88</t>
+          <t>6473c95616aa9ef1dcb17dacef169db4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>review.domainsblacklists.com</t>
+          <t>challenged.cfguru.org</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.186.251.28</t>
+          <t>185.199.110.153</t>
         </is>
       </c>
       <c r="E13" t="b">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-30T11:38:30.653586Z</t>
+          <t>2025-05-23T07:08:03.816887Z</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-08-30T11:38:30.653586Z</t>
+          <t>2025-05-23T07:23:56.302349Z</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1233,12 +1233,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>c292f89526841ffe14bf72950e566b00</t>
+          <t>3c7558d6d766ea8ee23519dc6b3c6fcb</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>www.domainsblacklists.com</t>
+          <t>get.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>93.186.251.28</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-01-07T12:46:47.09149Z</t>
+          <t>2023-07-29T12:48:06.891684Z</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-01-07T12:47:11.363311Z</t>
+          <t>2023-07-29T12:48:06.891684Z</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1292,22 +1292,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>c357c5667fdc1f5189ff62d9127c5b66</t>
+          <t>90854dd1388fe82242ce0109dfec5c88</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>adguard.domainsblacklists.com</t>
+          <t>review.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
+          <t>93.186.251.28</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-11T14:30:49.889256Z</t>
+          <t>2023-08-30T11:38:30.653586Z</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-08-11T14:30:49.889256Z</t>
+          <t>2023-08-30T11:38:30.653586Z</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1351,22 +1351,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8b834fd2fd544e045645fac878b84f55</t>
+          <t>c292f89526841ffe14bf72950e566b00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>api-ipres.domainsblacklists.com</t>
+          <t>www.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8743e1c1-51d3-4bf8-ba49-c84defa95d06.cfargotunnel.com</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-08-18T17:52:42.610086Z</t>
+          <t>2024-01-07T12:46:47.09149Z</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-08-18T17:52:42.610086Z</t>
+          <t>2024-01-07T12:47:11.363311Z</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -1410,12 +1410,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dfe1bcabcf091b40abb6b049a8192442</t>
+          <t>c357c5667fdc1f5189ff62d9127c5b66</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>changedetection.domainsblacklists.com</t>
+          <t>adguard.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3eec4402-ad54-45de-bf9b-926b6e88a159.cfargotunnel.com</t>
+          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E17" t="b">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-09-13T18:26:54.071Z</t>
+          <t>2023-08-11T14:30:49.889256Z</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-09-13T18:26:54.071Z</t>
+          <t>2023-08-11T14:30:49.889256Z</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -1469,12 +1469,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>c776f79530a239242078e5a3cb5d11d2</t>
+          <t>8b834fd2fd544e045645fac878b84f55</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>req.domainsblacklists.com</t>
+          <t>api-ipres.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
+          <t>8743e1c1-51d3-4bf8-ba49-c84defa95d06.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -1514,12 +1514,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-09-10T12:21:43.338698Z</t>
+          <t>2023-08-18T17:52:42.610086Z</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-09-10T12:21:43.338698Z</t>
+          <t>2023-08-18T17:52:42.610086Z</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -1528,29 +1528,29 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2f418611b09ffd2e435cea99583e9480</t>
+          <t>dfe1bcabcf091b40abb6b049a8192442</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>domainsblacklists.com</t>
+          <t>changedetection.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>3eec4402-ad54-45de-bf9b-926b6e88a159.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1573,45 +1573,43 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.397174Z</t>
+          <t>2023-09-13T18:26:54.071Z</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.397174Z</t>
+          <t>2023-09-13T18:26:54.071Z</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>39</v>
-      </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>a5a312e4dbaaaec1eabfe1b9a5c17055</t>
+          <t>c776f79530a239242078e5a3cb5d11d2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>domainsblacklists.com</t>
+          <t>req.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1623,7 +1621,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1634,23 +1632,21 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.389737Z</t>
+          <t>2023-09-10T12:21:43.338698Z</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.389737Z</t>
+          <t>2023-09-10T12:21:43.338698Z</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>93</v>
-      </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>376df1b8131105ac8a7209306e22b59c</t>
+          <t>2f418611b09ffd2e435cea99583e9480</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1665,7 +1661,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -1695,38 +1691,38 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.382045Z</t>
+          <t>2023-07-29T12:50:26.397174Z</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.382045Z</t>
+          <t>2023-07-29T12:50:26.397174Z</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>93</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>92388a78ff6bc640e36a75e31b30977a</t>
+          <t>a5a312e4dbaaaec1eabfe1b9a5c17055</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.domainsblacklists.com</t>
+          <t>domainsblacklists.com</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E22" t="b">
@@ -1756,36 +1752,38 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2025-02-01T22:59:01.091354Z</t>
+          <t>2023-07-29T12:50:26.389737Z</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2025-02-01T22:59:01.091354Z</t>
+          <t>2023-07-29T12:50:26.389737Z</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>b1f7c2007e82e1af53a8ec6061b331f8</t>
+          <t>376df1b8131105ac8a7209306e22b59c</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>_dmarc.domainsblacklists.com</t>
+          <t>domainsblacklists.com</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:9c70ea076036494c93d766dfefd2def1@dmarc-reports.cloudflare.net</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E23" t="b">
@@ -1804,7 +1802,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1815,26 +1813,28 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:10.919349Z</t>
+          <t>2023-07-29T12:50:26.382045Z</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:10.919349Z</t>
+          <t>2023-07-29T12:50:26.382045Z</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>519f3626ce2ea9a6dad71afe898ce796</t>
+          <t>92388a78ff6bc640e36a75e31b30977a</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>domainsblacklists.com</t>
+          <t>cf2024-1._domainkey.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E24" t="b">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.404775Z</t>
+          <t>2025-02-01T22:59:01.091354Z</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.404775Z</t>
+          <t>2025-02-01T22:59:01.091354Z</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -1888,26 +1888,26 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4dd327c64e78f584c16dc531a13ec1ec</t>
+          <t>b1f7c2007e82e1af53a8ec6061b331f8</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>proxmox-test-1.freesubnet.com</t>
+          <t>_dmarc.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>37.183.16.191</t>
+          <t>v=DMARC1;  p=none; rua=mailto:9c70ea076036494c93d766dfefd2def1@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2024-07-28T19:51:23.923255Z</t>
+          <t>2023-07-29T12:50:10.919349Z</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2024-07-28T19:51:23.923255Z</t>
+          <t>2023-07-29T12:50:10.919349Z</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -1947,26 +1947,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ec12d53bf42e7bc2c950d7f4d4eb60e4</t>
+          <t>519f3626ce2ea9a6dad71afe898ce796</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>rp.freesubnet.com</t>
+          <t>domainsblacklists.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18.102.76.90</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1992,12 +1992,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2023-05-03T13:52:38.28258Z</t>
+          <t>2023-07-29T12:50:26.404775Z</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-05-03T16:25:08.617872Z</t>
+          <t>2023-07-29T12:50:26.404775Z</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -2006,12 +2006,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9bdd5da061a0b3543fb74847be092a31</t>
+          <t>4dd327c64e78f584c16dc531a13ec1ec</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>test.freesubnet.com</t>
+          <t>proxmox-test-1.freesubnet.com</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2051,12 +2051,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2024-07-24T12:42:57.795531Z</t>
+          <t>2024-07-28T19:51:23.923255Z</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2024-07-28T13:17:47.159096Z</t>
+          <t>2024-07-28T19:51:23.923255Z</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -2065,22 +2065,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>13b2a5129e5f7772daa7f0f70e349a26</t>
+          <t>ec12d53bf42e7bc2c950d7f4d4eb60e4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>waf.freesubnet.com</t>
+          <t>rp.freesubnet.com</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rp.freesubnet.com</t>
+          <t>18.102.76.90</t>
         </is>
       </c>
       <c r="E28" t="b">
@@ -2110,12 +2110,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2023-05-03T13:53:22.545371Z</t>
+          <t>2023-05-03T13:52:38.28258Z</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-05-03T16:25:02.924302Z</t>
+          <t>2023-05-03T16:25:08.617872Z</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -2124,12 +2124,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>77c251b8488617268d91ee1ebd51ede5</t>
+          <t>9bdd5da061a0b3543fb74847be092a31</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>test.freesubnet.com</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2139,17 +2139,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>207.180.193.100</t>
+          <t>37.183.16.191</t>
         </is>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2169,12 +2169,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2021-07-23T08:58:49.378112Z</t>
+          <t>2024-07-24T12:42:57.795531Z</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2021-07-23T12:56:39.987386Z</t>
+          <t>2024-07-28T13:17:47.159096Z</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2183,29 +2183,29 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>dd673c4571ae6ec6ea4517da4047fa5f</t>
+          <t>13b2a5129e5f7772daa7f0f70e349a26</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>listen.free-tekno.com</t>
+          <t>waf.freesubnet.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>rp.freesubnet.com</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2228,12 +2228,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2022-02-07T20:32:13.606665Z</t>
+          <t>2023-05-03T13:53:22.545371Z</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2022-02-07T20:32:43.921656Z</t>
+          <t>2023-05-03T16:25:02.924302Z</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -2242,12 +2242,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>de47139d99158674daebfa2bcc46381b</t>
+          <t>77c251b8488617268d91ee1ebd51ede5</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>radio.free-tekno.com</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>161.97.120.130</t>
+          <t>207.180.193.100</t>
         </is>
       </c>
       <c r="E31" t="b">
@@ -2287,12 +2287,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2021-06-27T11:17:21.364442Z</t>
+          <t>2021-07-23T08:58:49.378112Z</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2022-02-16T15:58:36.261027Z</t>
+          <t>2021-07-23T12:56:39.987386Z</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -2301,12 +2301,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5acccdfb3c59cd49cacd28e83e48d221</t>
+          <t>dd673c4571ae6ec6ea4517da4047fa5f</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>www.free-tekno.com</t>
+          <t>listen.free-tekno.com</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>161.97.120.130</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E32" t="b">
@@ -2346,12 +2346,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2022-02-07T16:41:14.791288Z</t>
+          <t>2022-02-07T20:32:13.606665Z</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2022-02-07T16:41:14.791288Z</t>
+          <t>2022-02-07T20:32:43.921656Z</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -2360,22 +2360,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ac7c113f029bd912a9b6fe78dffe02a5</t>
+          <t>de47139d99158674daebfa2bcc46381b</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>mp3.free-tekno.com</t>
+          <t>radio.free-tekno.com</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>freetekno.free.nf</t>
+          <t>161.97.120.130</t>
         </is>
       </c>
       <c r="E33" t="b">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2023-07-04T19:53:02.363162Z</t>
+          <t>2021-06-27T11:17:21.364442Z</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-07-04T19:53:02.363162Z</t>
+          <t>2022-02-16T15:58:36.261027Z</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -2419,29 +2419,29 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9450bd2c3778824d44882bf3a36c136a</t>
+          <t>5acccdfb3c59cd49cacd28e83e48d221</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>www.free-tekno.com</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>poste.rivoluzioneinformatica.org</t>
+          <t>161.97.120.130</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2464,45 +2464,43 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2022-02-16T15:14:24.531147Z</t>
+          <t>2022-02-07T16:41:14.791288Z</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2022-02-16T15:14:24.531147Z</t>
+          <t>2022-02-07T16:41:14.791288Z</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="n">
-        <v>10</v>
-      </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ec58d36579ccf292f4a659648d6a9c19</t>
+          <t>ac7c113f029bd912a9b6fe78dffe02a5</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>_dmarc.free-tekno.com</t>
+          <t>mp3.free-tekno.com</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; rua=mailto:cloud@free-tekno.com;</t>
+          <t>freetekno.free.nf</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2525,12 +2523,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2022-02-16T15:36:47.274766Z</t>
+          <t>2023-07-04T19:53:02.363162Z</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2022-02-16T15:36:47.274766Z</t>
+          <t>2023-07-04T19:53:02.363162Z</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -2539,7 +2537,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>f82cb05f0c7bd0ee554dc7a7e68481c2</t>
+          <t>9450bd2c3778824d44882bf3a36c136a</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2549,12 +2547,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>v=spf1 mx ip4:161.97.120.130/32 a:mail.rivoluzioneinformatica.org a:poste.rivoluzioneinformatica.org -all</t>
+          <t>poste.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E36" t="b">
@@ -2584,26 +2582,28 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-02-16T12:57:13.550913Z</t>
+          <t>2022-02-16T15:14:24.531147Z</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2022-02-16T15:47:18.346287Z</t>
+          <t>2022-02-16T15:14:24.531147Z</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>15a4efde5824a7f870270570f044bf6a</t>
+          <t>ec58d36579ccf292f4a659648d6a9c19</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>_dmarc.free-tekno.com</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>google-site-verification=u1RtWKENUcJYrh_iqqGrIQMTts0ipS2LpFZjtt7T-Nk</t>
+          <t>v=DMARC1; p=reject; rua=mailto:cloud@free-tekno.com;</t>
         </is>
       </c>
       <c r="E37" t="b">
@@ -2643,12 +2643,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2021-07-25T02:01:05.324193Z</t>
+          <t>2022-02-16T15:36:47.274766Z</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2021-07-25T02:01:05.324193Z</t>
+          <t>2022-02-16T15:36:47.274766Z</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -2657,12 +2657,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6f78e130390aca374862016649566194</t>
+          <t>f82cb05f0c7bd0ee554dc7a7e68481c2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>s20220216247._domainkey.free-tekno.com</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA25fjdBEzCOeoRC5460U3HHjYEIjqtI4wkAVXidP5ynP9anEQ5i2+bW/lKh+xa5WKGjPofy/qxsnjuLE40ZnivPy7wfOwU3uOFf4CD5cen08xi/76vrqj3r1F29j8v+jJqB9+Z5RCOxCuu0Zx99okko+BaBej+O9W4Eh70d4PAb1TwrwNoBD47GnSLG3xu2b1NuXyWbuAEoQQ43/1+M689TJt7azAmG3yqft4J/7Oo0B7Wyk5V8Al2bpt6GYEoSV48HPrUC+MudIxgxVtR3O5oIVq9tHm7+jg5EY0GZpyk6yVJFlAXFJzt0OIKe4KvCngW0vHQSISmy0tgmZ8j38+uQIDAQAB</t>
+          <t>v=spf1 mx ip4:161.97.120.130/32 a:mail.rivoluzioneinformatica.org a:poste.rivoluzioneinformatica.org -all</t>
         </is>
       </c>
       <c r="E38" t="b">
@@ -2702,12 +2702,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-02-16T12:55:09.214302Z</t>
+          <t>2022-02-16T12:57:13.550913Z</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2022-02-16T12:55:09.214302Z</t>
+          <t>2022-02-16T15:47:18.346287Z</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -2716,29 +2716,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>54e5f74cd09ee8a8c9729c9cdb0397b6</t>
+          <t>15a4efde5824a7f870270570f044bf6a</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>freesounds-selfhosted.freeundergroundtekno.org</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>54a3646c-9701-4a8b-b6b0-e8b9f08e297f.cfargotunnel.com</t>
+          <t>google-site-verification=u1RtWKENUcJYrh_iqqGrIQMTts0ipS2LpFZjtt7T-Nk</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2022-12-10T19:31:31.948543Z</t>
+          <t>2021-07-25T02:01:05.324193Z</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2022-12-10T19:31:31.948543Z</t>
+          <t>2021-07-25T02:01:05.324193Z</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -2775,29 +2775,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>f2d988c340f9edd8b38f1dcd778bb88a</t>
+          <t>6f78e130390aca374862016649566194</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>mp3.freeundergroundtekno.org</t>
+          <t>s20220216247._domainkey.free-tekno.com</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>7544e2f1-de2b-411b-9eed-4a6c28bf46ac.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA25fjdBEzCOeoRC5460U3HHjYEIjqtI4wkAVXidP5ynP9anEQ5i2+bW/lKh+xa5WKGjPofy/qxsnjuLE40ZnivPy7wfOwU3uOFf4CD5cen08xi/76vrqj3r1F29j8v+jJqB9+Z5RCOxCuu0Zx99okko+BaBej+O9W4Eh70d4PAb1TwrwNoBD47GnSLG3xu2b1NuXyWbuAEoQQ43/1+M689TJt7azAmG3yqft4J/7Oo0B7Wyk5V8Al2bpt6GYEoSV48HPrUC+MudIxgxVtR3O5oIVq9tHm7+jg5EY0GZpyk6yVJFlAXFJzt0OIKe4KvCngW0vHQSISmy0tgmZ8j38+uQIDAQAB</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2820,12 +2820,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2022-12-10T20:18:13.753251Z</t>
+          <t>2022-02-16T12:55:09.214302Z</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2022-12-10T20:18:13.753251Z</t>
+          <t>2022-02-16T12:55:09.214302Z</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -2834,12 +2834,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7d449cbba90883fa8a14389f9a18a7a6</t>
+          <t>54e5f74cd09ee8a8c9729c9cdb0397b6</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>radio.freeundergroundtekno.org</t>
+          <t>freesounds-selfhosted.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1e58dbc4-7d4f-4d5c-bf27-f801381a4fce.cfargotunnel.com</t>
+          <t>54a3646c-9701-4a8b-b6b0-e8b9f08e297f.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E41" t="b">
@@ -2879,12 +2879,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-06-08T18:04:10.985475Z</t>
+          <t>2022-12-10T19:31:31.948543Z</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2024-06-08T18:04:10.985475Z</t>
+          <t>2022-12-10T19:31:31.948543Z</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
@@ -2893,32 +2893,32 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>b24f98873ca6f73f11bb06015e03a3d1</t>
+          <t>f2d988c340f9edd8b38f1dcd778bb88a</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>_acme-challenge.sound.freeundergroundtekno.org</t>
+          <t>mp3.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4bHK_Yi224RlQPT3GaNFHfWNtm2reTuFAJitGpMFgM8</t>
+          <t>7544e2f1-de2b-411b-9eed-4a6c28bf46ac.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2938,12 +2938,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2018-08-07T16:10:03.300043Z</t>
+          <t>2022-12-10T20:18:13.753251Z</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2018-08-07T16:10:03.300043Z</t>
+          <t>2022-12-10T20:18:13.753251Z</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -2952,32 +2952,32 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>e302bd7fb84138a3a709507e25855226</t>
+          <t>7d449cbba90883fa8a14389f9a18a7a6</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>freeundergroundtekno.org</t>
+          <t>radio.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>google-site-verification=UoPqDBPRj-_7eqBxrBhGViVVv41rzy51Zb_ZCmftsq0</t>
+          <t>1e58dbc4-7d4f-4d5c-bf27-f801381a4fce.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>3600</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2997,12 +2997,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2024-03-25T22:28:21.998451Z</t>
+          <t>2024-06-08T18:04:10.985475Z</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2024-03-25T22:28:21.998451Z</t>
+          <t>2024-06-08T18:04:10.985475Z</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -3011,32 +3011,32 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3d0c18afd78dff56ae887d0b7f971bf0</t>
+          <t>b24f98873ca6f73f11bb06015e03a3d1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ai.irrazionale.org</t>
+          <t>_acme-challenge.sound.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>fc418fe6-ca4c-4b2d-988b-b2b9bddc570f.cfargotunnel.com</t>
+          <t>4bHK_Yi224RlQPT3GaNFHfWNtm2reTuFAJitGpMFgM8</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -3056,12 +3056,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2025-03-21T11:57:02.473035Z</t>
+          <t>2018-08-07T16:10:03.300043Z</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2025-03-21T11:57:02.473035Z</t>
+          <t>2018-08-07T16:10:03.300043Z</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -3070,32 +3070,32 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>737420529070901f1b0cd444ebf396fd</t>
+          <t>e302bd7fb84138a3a709507e25855226</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>baserow.irrazionale.org</t>
+          <t>freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>google-site-verification=UoPqDBPRj-_7eqBxrBhGViVVv41rzy51Zb_ZCmftsq0</t>
         </is>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -3115,12 +3115,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2025-02-07T16:23:37.038965Z</t>
+          <t>2024-03-25T22:28:21.998451Z</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2025-02-07T16:23:37.038965Z</t>
+          <t>2024-03-25T22:28:21.998451Z</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -3129,12 +3129,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2628b62f7c721d0e34d5ad5f81f94aa6</t>
+          <t>3d0c18afd78dff56ae887d0b7f971bf0</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>check.irrazionale.org</t>
+          <t>ai.irrazionale.org</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>eb879ac1-3924-4f69-9c6c-75f6a9e1cdb8.cfargotunnel.com</t>
+          <t>fc418fe6-ca4c-4b2d-988b-b2b9bddc570f.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E46" t="b">
@@ -3174,12 +3174,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2025-04-10T17:26:36.959974Z</t>
+          <t>2025-03-21T11:57:02.473035Z</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2025-04-10T17:26:36.959974Z</t>
+          <t>2025-03-21T11:57:02.473035Z</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -3188,12 +3188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>081907c20660bf785f8a99b15f7ae6fa</t>
+          <t>737420529070901f1b0cd444ebf396fd</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>cloud.irrazionale.org</t>
+          <t>baserow.irrazionale.org</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>379e723b-0e63-4ee0-aabe-5009125009c9.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E47" t="b">
@@ -3233,12 +3233,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2022-12-11T16:25:07.205868Z</t>
+          <t>2025-02-07T16:23:37.038965Z</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2022-12-11T16:25:07.205868Z</t>
+          <t>2025-02-07T16:23:37.038965Z</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -3247,12 +3247,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>d0e96bb2faf9ed17182c357e39b68779</t>
+          <t>2628b62f7c721d0e34d5ad5f81f94aa6</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>coolify.irrazionale.org</t>
+          <t>check.irrazionale.org</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>eb879ac1-3924-4f69-9c6c-75f6a9e1cdb8.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E48" t="b">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2025-02-09T22:15:14.34368Z</t>
+          <t>2025-04-10T17:26:36.959974Z</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2025-02-09T22:15:14.34368Z</t>
+          <t>2025-04-10T17:26:36.959974Z</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -3306,12 +3306,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>911a85c4a4a11c6e7c594788937a2456</t>
+          <t>081907c20660bf785f8a99b15f7ae6fa</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>dell.irrazionale.org</t>
+          <t>cloud.irrazionale.org</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4e789f43-bcab-410e-a7c8-9c7bd88fd294.cfargotunnel.com</t>
+          <t>379e723b-0e63-4ee0-aabe-5009125009c9.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E49" t="b">
@@ -3351,12 +3351,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2023-12-01T12:39:10.88625Z</t>
+          <t>2022-12-11T16:25:07.205868Z</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023-12-01T12:39:10.88625Z</t>
+          <t>2022-12-11T16:25:07.205868Z</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -3365,12 +3365,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>60d0a2d1367b6b64c398aa37848efae3</t>
+          <t>d0e96bb2faf9ed17182c357e39b68779</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>docker.irrazionale.org</t>
+          <t>coolify.irrazionale.org</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3410,12 +3410,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2025-02-07T16:29:08.840612Z</t>
+          <t>2025-02-09T22:15:14.34368Z</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2025-02-07T16:29:08.840612Z</t>
+          <t>2025-02-09T22:15:14.34368Z</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -3424,12 +3424,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>08d407943ed4067865b5a819494093df</t>
+          <t>911a85c4a4a11c6e7c594788937a2456</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>freesounds.irrazionale.org</t>
+          <t>dell.irrazionale.org</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>86cfa504-c90d-46fd-a7f9-8c8d7a74ec1b.cfargotunnel.com</t>
+          <t>4e789f43-bcab-410e-a7c8-9c7bd88fd294.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2022-05-29T10:34:39.700377Z</t>
+          <t>2023-12-01T12:39:10.88625Z</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2022-05-29T10:34:39.700377Z</t>
+          <t>2023-12-01T12:39:10.88625Z</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -3483,12 +3483,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>41be2e667e4654c8425c3747809eaf4b</t>
+          <t>60d0a2d1367b6b64c398aa37848efae3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>git.irrazionale.org</t>
+          <t>docker.irrazionale.org</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2025-02-09T17:43:27.673327Z</t>
+          <t>2025-02-07T16:29:08.840612Z</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2025-02-09T17:43:27.673327Z</t>
+          <t>2025-02-07T16:29:08.840612Z</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -3542,12 +3542,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>216f28a4197e4846265257d9a19df44a</t>
+          <t>08d407943ed4067865b5a819494093df</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>jellyfin.irrazionale.org</t>
+          <t>freesounds.irrazionale.org</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ecb8d351-a34c-4b72-829d-9e0ef5726b65.cfargotunnel.com</t>
+          <t>86cfa504-c90d-46fd-a7f9-8c8d7a74ec1b.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E53" t="b">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2023-12-01T16:34:33.145093Z</t>
+          <t>2022-05-29T10:34:39.700377Z</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2023-12-01T16:34:33.145093Z</t>
+          <t>2022-05-29T10:34:39.700377Z</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -3601,12 +3601,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>a294caebd6eeaa83278ae5e170afa4a7</t>
+          <t>41be2e667e4654c8425c3747809eaf4b</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>lf.irrazionale.org</t>
+          <t>git.irrazionale.org</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E54" t="b">
@@ -3646,12 +3646,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2024-04-25T08:35:09.947241Z</t>
+          <t>2025-02-09T17:43:27.673327Z</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2024-04-25T08:35:09.947241Z</t>
+          <t>2025-02-09T17:43:27.673327Z</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -3660,12 +3660,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>b3c12f8816422fb6e017703c896aa4eb</t>
+          <t>216f28a4197e4846265257d9a19df44a</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>localhost.irrazionale.org</t>
+          <t>jellyfin.irrazionale.org</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>05dcfc0e-c6f7-45c8-9c51-04d3ea300b3c.cfargotunnel.com</t>
+          <t>ecb8d351-a34c-4b72-829d-9e0ef5726b65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E55" t="b">
@@ -3705,12 +3705,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2025-03-26T09:51:19.730468Z</t>
+          <t>2023-12-01T16:34:33.145093Z</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2025-03-26T09:51:19.730468Z</t>
+          <t>2023-12-01T16:34:33.145093Z</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
+          <t>a294caebd6eeaa83278ae5e170afa4a7</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>mt-link.irrazionale.org</t>
+          <t>lf.irrazionale.org</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3734,14 +3734,14 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2024-04-25T08:35:09.947241Z</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2024-04-25T08:35:09.947241Z</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -3778,12 +3778,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3d3ea0a30645f9869829e88faee2503f</t>
+          <t>b3c12f8816422fb6e017703c896aa4eb</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
+          <t>localhost.irrazionale.org</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3793,14 +3793,14 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>05dcfc0e-c6f7-45c8-9c51-04d3ea300b3c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2025-03-26T09:51:19.730468Z</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2025-03-26T09:51:19.730468Z</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3837,12 +3837,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1229fb10c393330dc3c65ae010d33165</t>
+          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ocr.irrazionale.org</t>
+          <t>mt-link.irrazionale.org</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3852,14 +3852,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3882,12 +3882,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2025-04-14T16:13:52.683863Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2025-04-14T16:13:52.683863Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -3896,12 +3896,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
+          <t>3d3ea0a30645f9869829e88faee2503f</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ollama.irrazionale.org</t>
+          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3911,14 +3911,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3941,12 +3941,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -3955,12 +3955,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>78c3a51bff323b9cf5c78e4d2c699452</t>
+          <t>1229fb10c393330dc3c65ae010d33165</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pdf2docx.irrazionale.org</t>
+          <t>ocr.irrazionale.org</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>bc9f57f2-e22f-4154-a26b-a765f0942d61.cfargotunnel.com</t>
+          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E60" t="b">
@@ -4000,12 +4000,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2025-04-14T15:30:12.902487Z</t>
+          <t>2025-04-14T16:13:52.683863Z</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2025-04-14T15:30:12.902487Z</t>
+          <t>2025-04-14T16:13:52.683863Z</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -4014,12 +4014,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4a64c597d17da513e052355df93bbc58</t>
+          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>powerdns.irrazionale.org</t>
+          <t>ollama.irrazionale.org</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E61" t="b">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4bd65cc8d342c16851d7e90462f78579</t>
+          <t>78c3a51bff323b9cf5c78e4d2c699452</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>proxmox.irrazionale.org</t>
+          <t>pdf2docx.irrazionale.org</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>bc9f57f2-e22f-4154-a26b-a765f0942d61.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E62" t="b">
@@ -4118,12 +4118,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2025-04-14T15:30:12.902487Z</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2025-04-14T15:30:12.902487Z</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -4132,12 +4132,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
+          <t>4a64c597d17da513e052355df93bbc58</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>proxmox-ssh.irrazionale.org</t>
+          <t>powerdns.irrazionale.org</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E63" t="b">
@@ -4177,12 +4177,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -4191,12 +4191,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
+          <t>4bd65cc8d342c16851d7e90462f78579</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.irrazionale.org</t>
+          <t>proxmox.irrazionale.org</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4206,14 +4206,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4236,12 +4236,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -4250,12 +4250,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>04d14cb456a1976f403ee148eca05cc8</t>
+          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.irrazionale.org</t>
+          <t>proxmox-ssh.irrazionale.org</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4265,14 +4265,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4295,12 +4295,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -4309,12 +4309,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
+          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>s3.irrazionale.org</t>
+          <t>rwmt1._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4324,14 +4324,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4354,12 +4354,12 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -4368,12 +4368,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0ce0da84393eb2e44a959deb2116cce5</t>
+          <t>04d14cb456a1976f403ee148eca05cc8</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>s3ui.irrazionale.org</t>
+          <t>rwmt2._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4383,14 +4383,14 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -4427,12 +4427,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
+          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>sci-fi.irrazionale.org</t>
+          <t>s3.irrazionale.org</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E68" t="b">
@@ -4472,12 +4472,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -4486,12 +4486,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
+          <t>0ce0da84393eb2e44a959deb2116cce5</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>search.irrazionale.org</t>
+          <t>s3ui.irrazionale.org</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4531,12 +4531,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -4545,12 +4545,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>d136067486f9bfd1260a66e04c217624</t>
+          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>webcheck.irrazionale.org</t>
+          <t>sci-fi.irrazionale.org</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -4590,12 +4590,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
@@ -4604,29 +4604,29 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
+          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>search.irrazionale.org</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>mail.irrazionale.org</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4649,45 +4649,43 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="n">
-        <v>1</v>
-      </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5e61f46e73d33d23b901c830c11d05e5</t>
+          <t>d136067486f9bfd1260a66e04c217624</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>webcheck.irrazionale.org</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4710,23 +4708,21 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
-      <c r="O72" t="n">
-        <v>73</v>
-      </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>4a187b659dadf78253cb30054350314c</t>
+          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4741,7 +4737,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>route2mx.cloudflare.net</t>
+          <t>mail.irrazionale.org</t>
         </is>
       </c>
       <c r="E73" t="b">
@@ -4771,23 +4767,23 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
+          <t>5e61f46e73d33d23b901c830c11d05e5</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4802,7 +4798,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E74" t="b">
@@ -4832,38 +4828,38 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>bb6fca1069dfef36eac3160ec423215a</t>
+          <t>4a187b659dadf78253cb30054350314c</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>safe.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>dnsafe.irrazionale.org</t>
+          <t>route2mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E75" t="b">
@@ -4893,36 +4889,38 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
+      <c r="O75" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3a04124b47167ef39224aa1b60a8fe25</t>
+          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>_acme-challenge.mail.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E76" t="b">
@@ -4932,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4952,36 +4950,38 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
+      <c r="O76" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
+          <t>bb6fca1069dfef36eac3160ec423215a</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>safe.irrazionale.org</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
+          <t>dnsafe.irrazionale.org</t>
         </is>
       </c>
       <c r="E77" t="b">
@@ -5011,12 +5011,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -5025,12 +5025,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>c931695adebdf9cc13b66924f8d442a2</t>
+          <t>3a04124b47167ef39224aa1b60a8fe25</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>_acme-challenge.mail.irrazionale.org</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
+          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
         </is>
       </c>
       <c r="E78" t="b">
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -5070,12 +5070,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -5084,7 +5084,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>5674a44427225f44209d188901e7e212</t>
+          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
         </is>
       </c>
       <c r="E79" t="b">
@@ -5129,12 +5129,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
@@ -5143,12 +5143,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>575daba57b52a33ae44441e93e44ad93</t>
+          <t>c931695adebdf9cc13b66924f8d442a2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
+          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
         </is>
       </c>
       <c r="E80" t="b">
@@ -5188,12 +5188,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -5202,12 +5202,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>8ae5f18920790fbc1ac6e57676db376b</t>
+          <t>5674a44427225f44209d188901e7e212</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E81" t="b">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -5261,7 +5261,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>5f752add42e06a88468c1b1203a5241c</t>
+          <t>575daba57b52a33ae44441e93e44ad93</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
+          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
         </is>
       </c>
       <c r="E82" t="b">
@@ -5306,12 +5306,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
@@ -5320,7 +5320,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
+          <t>8ae5f18920790fbc1ac6e57676db376b</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 -all</t>
+          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E83" t="b">
@@ -5365,12 +5365,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
@@ -5379,12 +5379,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>96bf76d43d32043fc586f04d28efe912</t>
+          <t>5f752add42e06a88468c1b1203a5241c</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>mail._domainkey.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
+          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
         </is>
       </c>
       <c r="E84" t="b">
@@ -5424,12 +5424,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
@@ -5438,12 +5438,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6aa7d6d1576b8790519602102e390beb</t>
+          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>s20220715915._domainkey.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
+          <t>v=spf1 ip4:185.182.185.194 -all</t>
         </is>
       </c>
       <c r="E85" t="b">
@@ -5483,12 +5483,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -5497,12 +5497,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>f07372fefe2aeec92ba78a42ee921960</t>
+          <t>96bf76d43d32043fc586f04d28efe912</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>s20221212161._domainkey.irrazionale.org</t>
+          <t>mail._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
+          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -5542,12 +5542,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
@@ -5556,22 +5556,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>f02f658bd3f849218f8880600ee8f124</t>
+          <t>6aa7d6d1576b8790519602102e390beb</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>proxmox-dc2-mn.italiacdn.net</t>
+          <t>s20220715915._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>100.92.242.58</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
         </is>
       </c>
       <c r="E87" t="b">
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -5601,12 +5601,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -5615,29 +5615,29 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>25f1985f805e21184de23f5dd6f43ea9</t>
+          <t>f07372fefe2aeec92ba78a42ee921960</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bin.italiacdn.net</t>
+          <t>s20221212161._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
         </is>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5660,12 +5660,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
@@ -5674,32 +5674,32 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
+          <t>f02f658bd3f849218f8880600ee8f124</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>logs.italiacdn.net</t>
+          <t>proxmox-dc2-mn.italiacdn.net</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
+          <t>100.92.242.58</t>
         </is>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5719,12 +5719,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
@@ -5733,12 +5733,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>b013512ac14813f9241bfb82d58e6a15</t>
+          <t>25f1985f805e21184de23f5dd6f43ea9</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>private.italiacdn.net</t>
+          <t>bin.italiacdn.net</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
+          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E90" t="b">
@@ -5778,12 +5778,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
@@ -5792,12 +5792,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>da6f732331d53062b4a64822c4d8053c</t>
+          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>public-bucket.italiacdn.net</t>
+          <t>logs.italiacdn.net</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
+          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E91" t="b">
@@ -5837,12 +5837,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -5851,12 +5851,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>68ff9d51859905c9e8f951acf9650166</t>
+          <t>b013512ac14813f9241bfb82d58e6a15</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>vault.italiacdn.net</t>
+          <t>private.italiacdn.net</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
+          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E92" t="b">
@@ -5896,12 +5896,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
@@ -5910,12 +5910,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
+          <t>da6f732331d53062b4a64822c4d8053c</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>vpn.italiacdn.net</t>
+          <t>public-bucket.italiacdn.net</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
+          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E93" t="b">
@@ -5955,12 +5955,12 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
@@ -5969,32 +5969,32 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>14efda500a1c1e9c12dffecc2640246d</t>
+          <t>68ff9d51859905c9e8f951acf9650166</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
+          <t>vault.italiacdn.net</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>27b4d1e9dabc5765ebb48532ae2443</t>
+          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -6014,12 +6014,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
@@ -6028,12 +6028,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>a49ade48a5be45f002d5417140f370a0</t>
+          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>adinsp9sqvzxue8n.italiadns.com</t>
+          <t>vpn.italiacdn.net</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6043,17 +6043,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -6073,12 +6073,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2024-07-31T13:37:34.938024Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2024-07-31T13:38:29.779921Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
@@ -6087,32 +6087,32 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>57267997534d7cf452997a9c191591ee</t>
+          <t>14efda500a1c1e9c12dffecc2640246d</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>mt-link.italiadns.com</t>
+          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>27b4d1e9dabc5765ebb48532ae2443</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -6132,12 +6132,12 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
@@ -6146,12 +6146,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3a7c851242dbc15ea213945d901512b9</t>
+          <t>a49ade48a5be45f002d5417140f370a0</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.italiadns.com</t>
+          <t>adinsp9sqvzxue8n.italiadns.com</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E97" t="b">
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -6191,12 +6191,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:37:34.938024Z</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:38:29.779921Z</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -6205,12 +6205,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>f06b6c37872df6a52852ee0d128d45ee</t>
+          <t>57267997534d7cf452997a9c191591ee</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.italiadns.com</t>
+          <t>mt-link.italiadns.com</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E98" t="b">
@@ -6250,12 +6250,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
@@ -6264,12 +6264,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>41fd60824243d4f2538de3c3c29b7736</t>
+          <t>3a7c851242dbc15ea213945d901512b9</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>w1y139ns251ah6gc.italiadns.com</t>
+          <t>rwmt1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6279,7 +6279,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E99" t="b">
@@ -6309,12 +6309,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
@@ -6323,26 +6323,26 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>a38c7cb5dce002e6fa5326111beba54f</t>
+          <t>f06b6c37872df6a52852ee0d128d45ee</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>rwmt2._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -6368,42 +6368,40 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
-      <c r="O100" t="n">
-        <v>61</v>
-      </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
+          <t>41fd60824243d4f2538de3c3c29b7736</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>w1y139ns251ah6gc.italiadns.com</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
@@ -6418,7 +6416,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -6429,23 +6427,21 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
-      <c r="O101" t="n">
-        <v>14</v>
-      </c>
+      <c r="O101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>6c5bf0b471503f7060c852986b55b0e0</t>
+          <t>a38c7cb5dce002e6fa5326111beba54f</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6460,7 +6456,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -6490,38 +6486,38 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>e6da0cedff625c31979aecd06ce463d4</t>
+          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -6551,36 +6547,38 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
+      <c r="O103" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
+          <t>6c5bf0b471503f7060c852986b55b0e0</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>_dmarc.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -6599,7 +6597,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -6610,26 +6608,28 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
+      <c r="O104" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>129ae399ff1f816f521c481aa58251a7</t>
+          <t>e6da0cedff625c31979aecd06ce463d4</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>cf2024-1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E105" t="b">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -6669,12 +6669,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:30.706502Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2024-08-19T08:39:22.495623Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -6683,22 +6683,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
+          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>_dmarc.italiadns.com</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ns-1683.awsdns-18.co.uk</t>
+          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E106" t="b">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -6742,22 +6742,22 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>4131e3d65c1df20458045bfa612298e9</t>
+          <t>129ae399ff1f816f521c481aa58251a7</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ns-1303.awsdns-34.org</t>
+          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E107" t="b">
@@ -6787,12 +6787,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2024-07-31T12:41:30.706502Z</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2024-08-19T08:39:22.495623Z</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -6801,22 +6801,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>03da4898b7afbb1408bfdd51f42e5936</t>
+          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
+          <t>ns-1683.awsdns-18.co.uk</t>
         </is>
       </c>
       <c r="E108" t="b">
@@ -6846,12 +6846,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6860,22 +6860,22 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>fd06957f7e745e10c388665bb8be096a</t>
+          <t>4131e3d65c1df20458045bfa612298e9</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
+          <t>ns-1303.awsdns-34.org</t>
         </is>
       </c>
       <c r="E109" t="b">
@@ -6905,12 +6905,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
+          <t>03da4898b7afbb1408bfdd51f42e5936</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>v=spf1 a mx ~all</t>
+          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
         </is>
       </c>
       <c r="E110" t="b">
@@ -6964,12 +6964,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
@@ -6978,29 +6978,29 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>b738ae8c910e28345612400cb8a6e23e</t>
+          <t>fd06957f7e745e10c388665bb8be096a</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ssh.repolizer.com</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
+          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7023,12 +7023,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
@@ -7037,29 +7037,29 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>bfd43018c9b1cd41cc29efc4c62c6d8c</t>
+          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>www.repolizer.com</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
+          <t>v=spf1 a mx ~all</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7082,12 +7082,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2025-04-23T08:30:24.446765Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2025-04-23T08:34:01.380912Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -7096,29 +7096,29 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>c7df12561d64e4e680c6b0859c123f99</t>
+          <t>b738ae8c910e28345612400cb8a6e23e</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>imap.rivoluzioneinformatica.org</t>
+          <t>ssh.repolizer.com</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -7141,12 +7141,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -7155,29 +7155,29 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>e95c85414a6c93e847a2755df7c16cf0</t>
+          <t>bfd43018c9b1cd41cc29efc4c62c6d8c</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>mail.rivoluzioneinformatica.org</t>
+          <t>www.repolizer.com</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7200,12 +7200,12 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2025-04-23T08:30:24.446765Z</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2025-04-23T08:34:01.380912Z</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -7214,12 +7214,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>6834f98896056a837138409566211327</t>
+          <t>c7df12561d64e4e680c6b0859c123f99</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>smtp.rivoluzioneinformatica.org</t>
+          <t>imap.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7259,12 +7259,12 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
@@ -7273,12 +7273,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
+          <t>e95c85414a6c93e847a2755df7c16cf0</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>webmail.rivoluzioneinformatica.org</t>
+          <t>mail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7295,7 +7295,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7318,12 +7318,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
@@ -7332,29 +7332,29 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
+          <t>6834f98896056a837138409566211327</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>git.rivoluzioneinformatica.org</t>
+          <t>smtp.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -7377,12 +7377,12 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -7391,22 +7391,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>eb220c9fb1df30719c788ef51fe312f6</t>
+          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>npm.rivoluzioneinformatica.org</t>
+          <t>webmail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E118" t="b">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
@@ -7450,12 +7450,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
+          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>proxmox.rivoluzioneinformatica.org</t>
+          <t>git.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
+          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -7495,12 +7495,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
@@ -7509,12 +7509,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>236f1b867d3720d5dd29c6af49782d62</t>
+          <t>eb220c9fb1df30719c788ef51fe312f6</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>npm.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -7554,12 +7554,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
@@ -7568,12 +7568,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>7c6da25c8e1e486da458cd5373402382</t>
+          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>vpn.rivoluzioneinformatica.org</t>
+          <t>proxmox.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E121" t="b">
@@ -7613,12 +7613,12 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
@@ -7627,22 +7627,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3045396196bc00b6e05726f94825c6bd</t>
+          <t>236f1b867d3720d5dd29c6af49782d62</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>rivoluzioneinformatica.org</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>www.rivoluzioneinformatica.org</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>CNAME</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E122" t="b">
@@ -7672,12 +7672,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2022-08-17T08:57:50.756388Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2022-08-17T08:59:41.92016Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -7686,12 +7686,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>25f714bcbfe5ff8215c314a503379edc</t>
+          <t>7c6da25c8e1e486da458cd5373402382</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>xmq.rivoluzioneinformatica.org</t>
+          <t>vpn.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -7731,12 +7731,12 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
@@ -7745,29 +7745,29 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
+          <t>3045396196bc00b6e05726f94825c6bd</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>amir.mx.cloudflare.net</t>
+          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7779,7 +7779,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -7790,45 +7790,43 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2022-08-17T08:57:50.756388Z</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2022-08-17T08:59:41.92016Z</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
-      <c r="O124" t="n">
-        <v>40</v>
-      </c>
+      <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
+          <t>25f714bcbfe5ff8215c314a503379edc</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>xmq.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>linda.mx.cloudflare.net</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7840,7 +7838,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -7851,23 +7849,21 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
-      <c r="O125" t="n">
-        <v>90</v>
-      </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>bcd73d5a0e03a2593be162cd5259a678</t>
+          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -7882,7 +7878,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>isaac.mx.cloudflare.net</t>
+          <t>amir.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -7912,38 +7908,38 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="n">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>e6ffaf786ff743b47650f73557b07b66</t>
+          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>linda.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E127" t="b">
@@ -7973,36 +7969,38 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
+      <c r="O127" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
+          <t>bcd73d5a0e03a2593be162cd5259a678</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>_dmarc.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>isaac.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E128" t="b">
@@ -8021,7 +8019,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -8032,26 +8030,28 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2022-02-07T15:43:39.763425Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2022-05-22T11:09:18.092063Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
+      <c r="O128" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2a74f92cf716979d913217d640655261</t>
+          <t>e6ffaf786ff743b47650f73557b07b66</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E129" t="b">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -8091,12 +8091,12 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
@@ -8105,12 +8105,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
+          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>_dmarc.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E130" t="b">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2022-02-07T15:43:39.763425Z</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2022-05-22T11:09:18.092063Z</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
@@ -8164,7 +8164,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>47bb0eec812c7e5f3961cb9079727d80</t>
+          <t>2a74f92cf716979d913217d640655261</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
+          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
         </is>
       </c>
       <c r="E131" t="b">
@@ -8209,12 +8209,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8223,12 +8223,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>9abd161d29cb47ce6cfa783657e67723</t>
+          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E132" t="b">
@@ -8268,12 +8268,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2022-05-13T21:13:25.301942Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2022-05-22T10:18:49.411362Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8282,12 +8282,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
+          <t>47bb0eec812c7e5f3961cb9079727d80</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -8297,7 +8297,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
+          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
         </is>
       </c>
       <c r="E133" t="b">
@@ -8327,12 +8327,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8341,29 +8341,29 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>904b0a528a01b0dd8370295ce305d3da</t>
+          <t>9abd161d29cb47ce6cfa783657e67723</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>demo.uglyfeed.com</t>
+          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -8386,12 +8386,12 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-05-13T21:13:25.301942Z</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-05-22T10:18:49.411362Z</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
@@ -8400,29 +8400,29 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1b7333a979fa92816324f0e9be6a564a</t>
+          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>xml.uglyfeed.com</t>
+          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
         </is>
       </c>
       <c r="E135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -8445,12 +8445,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
@@ -8459,29 +8459,29 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>904b0a528a01b0dd8370295ce305d3da</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>demo.uglyfeed.com</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -8504,12 +8504,12 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
@@ -8518,29 +8518,29 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>1b7333a979fa92816324f0e9be6a564a</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>xml.uglyfeed.com</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -8563,12 +8563,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -8577,12 +8577,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E138" t="b">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -8622,12 +8622,12 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
@@ -8636,12 +8636,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -8651,7 +8651,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E139" t="b">
@@ -8681,12 +8681,12 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
@@ -8695,29 +8695,29 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -8740,12 +8740,12 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
@@ -8754,29 +8754,29 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>videodioggi.com</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -8799,12 +8799,12 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
@@ -8813,12 +8813,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -8858,12 +8858,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2023-03-30T09:59:11.98058Z</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2023-03-30T09:59:12.228482Z</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -8872,12 +8872,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>test2.webtek.live</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -8917,12 +8917,12 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-28T08:34:29.902515Z</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-28T08:34:30.164318Z</t>
         </is>
       </c>
       <c r="N143" t="inlineStr"/>
@@ -8931,12 +8931,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>432df2553b443742f9f905e155878536</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>test.webtek.live</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -8976,12 +8976,12 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2023-03-24T11:44:15.078812Z</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2023-03-24T11:44:15.367412Z</t>
         </is>
       </c>
       <c r="N144" t="inlineStr"/>
@@ -8990,29 +8990,29 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>_dmarc.youknowwhataimean.com</t>
+          <t>webtek.live</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -9035,12 +9035,12 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="N145" t="inlineStr"/>
@@ -9049,29 +9049,29 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+          <t>e02587466a80086957e4f19a05760dec</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -9094,12 +9094,12 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-06T11:52:31.670164Z</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-06T12:04:32.454791Z</t>
         </is>
       </c>
       <c r="N146" t="inlineStr"/>
@@ -9108,12 +9108,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>_dmarc.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E147" t="b">
@@ -9153,12 +9153,12 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="N147" t="inlineStr"/>
@@ -9167,29 +9167,29 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>transversalpuntozero.org</t>
+          <t>*._domainkey.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>transversalpuntozero.pages.dev</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -9212,16 +9212,134 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>youknowwhataimean.com</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>v=spf1 -all</t>
+        </is>
+      </c>
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149" t="b">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.931067Z</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.931067Z</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.org</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.pages.dev</t>
+        </is>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O150"/>
+  <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3837,12 +3837,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
+          <t>59f655ac3982f7c3d6318c237aada804</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>mt-link.irrazionale.org</t>
+          <t>mixpost.irrazionale.org</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3852,14 +3852,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>07122097-0310-42ba-b8c6-ea15e3b8612e.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3882,12 +3882,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2025-06-25T19:29:40.179134Z</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2025-06-25T19:29:40.179134Z</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -3896,12 +3896,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3d3ea0a30645f9869829e88faee2503f</t>
+          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
+          <t>mt-link.irrazionale.org</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E59" t="b">
@@ -3941,12 +3941,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -3955,12 +3955,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1229fb10c393330dc3c65ae010d33165</t>
+          <t>3d3ea0a30645f9869829e88faee2503f</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ocr.irrazionale.org</t>
+          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3970,14 +3970,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4000,12 +4000,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2025-04-14T16:13:52.683863Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2025-04-14T16:13:52.683863Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -4014,12 +4014,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
+          <t>1229fb10c393330dc3c65ae010d33165</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ollama.irrazionale.org</t>
+          <t>ocr.irrazionale.org</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E61" t="b">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2025-04-14T16:13:52.683863Z</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2025-04-14T16:13:52.683863Z</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -4073,12 +4073,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>78c3a51bff323b9cf5c78e4d2c699452</t>
+          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pdf2docx.irrazionale.org</t>
+          <t>ollama.irrazionale.org</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>bc9f57f2-e22f-4154-a26b-a765f0942d61.cfargotunnel.com</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E62" t="b">
@@ -4118,12 +4118,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2025-04-14T15:30:12.902487Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2025-04-14T15:30:12.902487Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -4132,12 +4132,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4a64c597d17da513e052355df93bbc58</t>
+          <t>78c3a51bff323b9cf5c78e4d2c699452</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>powerdns.irrazionale.org</t>
+          <t>pdf2docx.irrazionale.org</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
+          <t>bc9f57f2-e22f-4154-a26b-a765f0942d61.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E63" t="b">
@@ -4177,12 +4177,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2025-04-14T15:30:12.902487Z</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2025-04-14T15:30:12.902487Z</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -4191,12 +4191,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4bd65cc8d342c16851d7e90462f78579</t>
+          <t>7131e78a346aea946d969f014c2cb1e9</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>proxmox.irrazionale.org</t>
+          <t>postiz.irrazionale.org</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E64" t="b">
@@ -4236,12 +4236,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2025-06-25T07:43:38.264549Z</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2025-06-25T07:43:38.264549Z</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -4250,12 +4250,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
+          <t>4a64c597d17da513e052355df93bbc58</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>proxmox-ssh.irrazionale.org</t>
+          <t>powerdns.irrazionale.org</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E65" t="b">
@@ -4295,12 +4295,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -4309,12 +4309,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
+          <t>4bd65cc8d342c16851d7e90462f78579</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.irrazionale.org</t>
+          <t>proxmox.irrazionale.org</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4324,14 +4324,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4354,12 +4354,12 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -4368,12 +4368,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>04d14cb456a1976f403ee148eca05cc8</t>
+          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.irrazionale.org</t>
+          <t>proxmox-ssh.irrazionale.org</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4383,14 +4383,14 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -4427,12 +4427,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
+          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>s3.irrazionale.org</t>
+          <t>rwmt1._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4442,14 +4442,14 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4472,12 +4472,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -4486,12 +4486,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0ce0da84393eb2e44a959deb2116cce5</t>
+          <t>04d14cb456a1976f403ee148eca05cc8</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>s3ui.irrazionale.org</t>
+          <t>rwmt2._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4501,14 +4501,14 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4531,12 +4531,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -4545,12 +4545,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
+          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sci-fi.irrazionale.org</t>
+          <t>s3.irrazionale.org</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -4590,12 +4590,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
@@ -4604,12 +4604,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
+          <t>0ce0da84393eb2e44a959deb2116cce5</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>search.irrazionale.org</t>
+          <t>s3ui.irrazionale.org</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
@@ -4663,12 +4663,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>d136067486f9bfd1260a66e04c217624</t>
+          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>webcheck.irrazionale.org</t>
+          <t>sci-fi.irrazionale.org</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -4708,12 +4708,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -4722,29 +4722,29 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
+          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>search.irrazionale.org</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>mail.irrazionale.org</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4767,45 +4767,43 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="n">
-        <v>1</v>
-      </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>5e61f46e73d33d23b901c830c11d05e5</t>
+          <t>d136067486f9bfd1260a66e04c217624</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>webcheck.irrazionale.org</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4828,23 +4826,21 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
-      <c r="O74" t="n">
-        <v>73</v>
-      </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4a187b659dadf78253cb30054350314c</t>
+          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4859,7 +4855,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>route2mx.cloudflare.net</t>
+          <t>mail.irrazionale.org</t>
         </is>
       </c>
       <c r="E75" t="b">
@@ -4889,23 +4885,23 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
+          <t>5e61f46e73d33d23b901c830c11d05e5</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4920,7 +4916,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E76" t="b">
@@ -4950,38 +4946,38 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>bb6fca1069dfef36eac3160ec423215a</t>
+          <t>4a187b659dadf78253cb30054350314c</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>safe.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>dnsafe.irrazionale.org</t>
+          <t>route2mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E77" t="b">
@@ -5011,36 +5007,38 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+      <c r="O77" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3a04124b47167ef39224aa1b60a8fe25</t>
+          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>_acme-challenge.mail.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E78" t="b">
@@ -5050,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -5070,36 +5068,38 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
+      <c r="O78" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
+          <t>bb6fca1069dfef36eac3160ec423215a</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>safe.irrazionale.org</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
+          <t>dnsafe.irrazionale.org</t>
         </is>
       </c>
       <c r="E79" t="b">
@@ -5129,12 +5129,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
@@ -5143,12 +5143,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>c931695adebdf9cc13b66924f8d442a2</t>
+          <t>3a04124b47167ef39224aa1b60a8fe25</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>_acme-challenge.mail.irrazionale.org</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
+          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
         </is>
       </c>
       <c r="E80" t="b">
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -5188,12 +5188,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -5202,7 +5202,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5674a44427225f44209d188901e7e212</t>
+          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
         </is>
       </c>
       <c r="E81" t="b">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -5261,12 +5261,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>575daba57b52a33ae44441e93e44ad93</t>
+          <t>c931695adebdf9cc13b66924f8d442a2</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
+          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
         </is>
       </c>
       <c r="E82" t="b">
@@ -5306,12 +5306,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
@@ -5320,12 +5320,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>8ae5f18920790fbc1ac6e57676db376b</t>
+          <t>5674a44427225f44209d188901e7e212</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E83" t="b">
@@ -5365,12 +5365,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
@@ -5379,7 +5379,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>5f752add42e06a88468c1b1203a5241c</t>
+          <t>575daba57b52a33ae44441e93e44ad93</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
+          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
         </is>
       </c>
       <c r="E84" t="b">
@@ -5424,12 +5424,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
@@ -5438,7 +5438,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
+          <t>8ae5f18920790fbc1ac6e57676db376b</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 -all</t>
+          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E85" t="b">
@@ -5483,12 +5483,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -5497,12 +5497,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>96bf76d43d32043fc586f04d28efe912</t>
+          <t>5f752add42e06a88468c1b1203a5241c</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>mail._domainkey.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
+          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -5542,12 +5542,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
@@ -5556,12 +5556,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6aa7d6d1576b8790519602102e390beb</t>
+          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>s20220715915._domainkey.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
+          <t>v=spf1 ip4:185.182.185.194 -all</t>
         </is>
       </c>
       <c r="E87" t="b">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -5615,12 +5615,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>f07372fefe2aeec92ba78a42ee921960</t>
+          <t>96bf76d43d32043fc586f04d28efe912</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>s20221212161._domainkey.irrazionale.org</t>
+          <t>mail._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
+          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
         </is>
       </c>
       <c r="E88" t="b">
@@ -5660,12 +5660,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
@@ -5674,22 +5674,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>f02f658bd3f849218f8880600ee8f124</t>
+          <t>6aa7d6d1576b8790519602102e390beb</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>proxmox-dc2-mn.italiacdn.net</t>
+          <t>s20220715915._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>100.92.242.58</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
         </is>
       </c>
       <c r="E89" t="b">
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5719,12 +5719,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
@@ -5733,29 +5733,29 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>25f1985f805e21184de23f5dd6f43ea9</t>
+          <t>f07372fefe2aeec92ba78a42ee921960</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>bin.italiacdn.net</t>
+          <t>s20221212161._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
         </is>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5778,12 +5778,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
@@ -5792,32 +5792,32 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
+          <t>f02f658bd3f849218f8880600ee8f124</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>logs.italiacdn.net</t>
+          <t>proxmox-dc2-mn.italiacdn.net</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
+          <t>100.92.242.58</t>
         </is>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5837,12 +5837,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -5851,12 +5851,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>b013512ac14813f9241bfb82d58e6a15</t>
+          <t>25f1985f805e21184de23f5dd6f43ea9</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>private.italiacdn.net</t>
+          <t>bin.italiacdn.net</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
+          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E92" t="b">
@@ -5896,12 +5896,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
@@ -5910,12 +5910,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>da6f732331d53062b4a64822c4d8053c</t>
+          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>public-bucket.italiacdn.net</t>
+          <t>logs.italiacdn.net</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
+          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E93" t="b">
@@ -5955,12 +5955,12 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
@@ -5969,12 +5969,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>68ff9d51859905c9e8f951acf9650166</t>
+          <t>b013512ac14813f9241bfb82d58e6a15</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>vault.italiacdn.net</t>
+          <t>private.italiacdn.net</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
+          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E94" t="b">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
@@ -6028,12 +6028,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
+          <t>da6f732331d53062b4a64822c4d8053c</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>vpn.italiacdn.net</t>
+          <t>public-bucket.italiacdn.net</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
+          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E95" t="b">
@@ -6073,12 +6073,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
@@ -6087,32 +6087,32 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>14efda500a1c1e9c12dffecc2640246d</t>
+          <t>68ff9d51859905c9e8f951acf9650166</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
+          <t>vault.italiacdn.net</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>27b4d1e9dabc5765ebb48532ae2443</t>
+          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -6132,12 +6132,12 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
@@ -6146,12 +6146,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>a49ade48a5be45f002d5417140f370a0</t>
+          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>adinsp9sqvzxue8n.italiadns.com</t>
+          <t>vpn.italiacdn.net</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6161,17 +6161,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -6191,12 +6191,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2024-07-31T13:37:34.938024Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2024-07-31T13:38:29.779921Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -6205,32 +6205,32 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>57267997534d7cf452997a9c191591ee</t>
+          <t>14efda500a1c1e9c12dffecc2640246d</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>mt-link.italiadns.com</t>
+          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>27b4d1e9dabc5765ebb48532ae2443</t>
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -6250,12 +6250,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
@@ -6264,12 +6264,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3a7c851242dbc15ea213945d901512b9</t>
+          <t>a49ade48a5be45f002d5417140f370a0</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.italiadns.com</t>
+          <t>adinsp9sqvzxue8n.italiadns.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6279,7 +6279,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E99" t="b">
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -6309,12 +6309,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:37:34.938024Z</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2024-07-31T13:38:29.779921Z</t>
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
@@ -6323,12 +6323,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>f06b6c37872df6a52852ee0d128d45ee</t>
+          <t>57267997534d7cf452997a9c191591ee</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.italiadns.com</t>
+          <t>mt-link.italiadns.com</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E100" t="b">
@@ -6368,12 +6368,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
@@ -6382,12 +6382,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>41fd60824243d4f2538de3c3c29b7736</t>
+          <t>3a7c851242dbc15ea213945d901512b9</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>w1y139ns251ah6gc.italiadns.com</t>
+          <t>rwmt1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E101" t="b">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
@@ -6441,26 +6441,26 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>a38c7cb5dce002e6fa5326111beba54f</t>
+          <t>f06b6c37872df6a52852ee0d128d45ee</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>rwmt2._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -6486,42 +6486,40 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
-      <c r="O102" t="n">
-        <v>61</v>
-      </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
+          <t>41fd60824243d4f2538de3c3c29b7736</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>w1y139ns251ah6gc.italiadns.com</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="b">
         <v>0</v>
@@ -6536,7 +6534,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -6547,23 +6545,21 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
-      <c r="O103" t="n">
-        <v>14</v>
-      </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>6c5bf0b471503f7060c852986b55b0e0</t>
+          <t>a38c7cb5dce002e6fa5326111beba54f</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6578,7 +6574,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -6608,38 +6604,38 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>e6da0cedff625c31979aecd06ce463d4</t>
+          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E105" t="b">
@@ -6669,36 +6665,38 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
+      <c r="O105" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
+          <t>6c5bf0b471503f7060c852986b55b0e0</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>_dmarc.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E106" t="b">
@@ -6717,7 +6715,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -6728,26 +6726,28 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
+      <c r="O106" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>129ae399ff1f816f521c481aa58251a7</t>
+          <t>e6da0cedff625c31979aecd06ce463d4</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>cf2024-1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E107" t="b">
@@ -6776,7 +6776,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -6787,12 +6787,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:30.706502Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2024-08-19T08:39:22.495623Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -6801,22 +6801,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
+          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>_dmarc.italiadns.com</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ns-1683.awsdns-18.co.uk</t>
+          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E108" t="b">
@@ -6846,12 +6846,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6860,22 +6860,22 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>4131e3d65c1df20458045bfa612298e9</t>
+          <t>129ae399ff1f816f521c481aa58251a7</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ns-1303.awsdns-34.org</t>
+          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E109" t="b">
@@ -6905,12 +6905,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2024-07-31T12:41:30.706502Z</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2024-08-19T08:39:22.495623Z</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6919,22 +6919,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>03da4898b7afbb1408bfdd51f42e5936</t>
+          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
+          <t>ns-1683.awsdns-18.co.uk</t>
         </is>
       </c>
       <c r="E110" t="b">
@@ -6964,12 +6964,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
@@ -6978,22 +6978,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>fd06957f7e745e10c388665bb8be096a</t>
+          <t>4131e3d65c1df20458045bfa612298e9</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
+          <t>ns-1303.awsdns-34.org</t>
         </is>
       </c>
       <c r="E111" t="b">
@@ -7023,12 +7023,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
@@ -7037,7 +7037,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
+          <t>03da4898b7afbb1408bfdd51f42e5936</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -7052,7 +7052,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>v=spf1 a mx ~all</t>
+          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
         </is>
       </c>
       <c r="E112" t="b">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -7096,29 +7096,29 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>b738ae8c910e28345612400cb8a6e23e</t>
+          <t>fd06957f7e745e10c388665bb8be096a</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ssh.repolizer.com</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
+          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -7141,12 +7141,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -7155,29 +7155,29 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>bfd43018c9b1cd41cc29efc4c62c6d8c</t>
+          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>www.repolizer.com</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
+          <t>v=spf1 a mx ~all</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7200,12 +7200,12 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2025-04-23T08:30:24.446765Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2025-04-23T08:34:01.380912Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
@@ -7214,29 +7214,29 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>c7df12561d64e4e680c6b0859c123f99</t>
+          <t>b738ae8c910e28345612400cb8a6e23e</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>imap.rivoluzioneinformatica.org</t>
+          <t>ssh.repolizer.com</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7259,12 +7259,12 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
@@ -7273,29 +7273,29 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>e95c85414a6c93e847a2755df7c16cf0</t>
+          <t>bfd43018c9b1cd41cc29efc4c62c6d8c</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>mail.rivoluzioneinformatica.org</t>
+          <t>www.repolizer.com</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7318,12 +7318,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2025-04-23T08:30:24.446765Z</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2025-04-23T08:34:01.380912Z</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
@@ -7332,12 +7332,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>6834f98896056a837138409566211327</t>
+          <t>c7df12561d64e4e680c6b0859c123f99</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>smtp.rivoluzioneinformatica.org</t>
+          <t>imap.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7377,12 +7377,12 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -7391,12 +7391,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
+          <t>e95c85414a6c93e847a2755df7c16cf0</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>webmail.rivoluzioneinformatica.org</t>
+          <t>mail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -7413,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7436,12 +7436,12 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
@@ -7450,29 +7450,29 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
+          <t>6834f98896056a837138409566211327</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>git.rivoluzioneinformatica.org</t>
+          <t>smtp.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -7495,12 +7495,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
@@ -7509,22 +7509,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>eb220c9fb1df30719c788ef51fe312f6</t>
+          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>npm.rivoluzioneinformatica.org</t>
+          <t>webmail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -7554,12 +7554,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
@@ -7568,12 +7568,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
+          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>proxmox.rivoluzioneinformatica.org</t>
+          <t>git.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
+          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E121" t="b">
@@ -7613,12 +7613,12 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
@@ -7627,12 +7627,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>236f1b867d3720d5dd29c6af49782d62</t>
+          <t>eb220c9fb1df30719c788ef51fe312f6</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>npm.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E122" t="b">
@@ -7672,12 +7672,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -7686,12 +7686,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>7c6da25c8e1e486da458cd5373402382</t>
+          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>vpn.rivoluzioneinformatica.org</t>
+          <t>proxmox.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E123" t="b">
@@ -7731,12 +7731,12 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
@@ -7745,22 +7745,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3045396196bc00b6e05726f94825c6bd</t>
+          <t>236f1b867d3720d5dd29c6af49782d62</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>rivoluzioneinformatica.org</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>www.rivoluzioneinformatica.org</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>CNAME</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E124" t="b">
@@ -7790,12 +7790,12 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2022-08-17T08:57:50.756388Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2022-08-17T08:59:41.92016Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
@@ -7804,12 +7804,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>25f714bcbfe5ff8215c314a503379edc</t>
+          <t>7c6da25c8e1e486da458cd5373402382</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>xmq.rivoluzioneinformatica.org</t>
+          <t>vpn.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -7849,12 +7849,12 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
@@ -7863,29 +7863,29 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
+          <t>3045396196bc00b6e05726f94825c6bd</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>amir.mx.cloudflare.net</t>
+          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -7908,45 +7908,43 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2022-08-17T08:57:50.756388Z</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2022-08-17T08:59:41.92016Z</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
-      <c r="O126" t="n">
-        <v>40</v>
-      </c>
+      <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
+          <t>25f714bcbfe5ff8215c314a503379edc</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>xmq.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>linda.mx.cloudflare.net</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7958,7 +7956,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -7969,23 +7967,21 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
-      <c r="O127" t="n">
-        <v>90</v>
-      </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>bcd73d5a0e03a2593be162cd5259a678</t>
+          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -8000,7 +7996,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>isaac.mx.cloudflare.net</t>
+          <t>amir.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E128" t="b">
@@ -8030,38 +8026,38 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="n">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>e6ffaf786ff743b47650f73557b07b66</t>
+          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>linda.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E129" t="b">
@@ -8091,36 +8087,38 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
+      <c r="O129" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
+          <t>bcd73d5a0e03a2593be162cd5259a678</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>_dmarc.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>isaac.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E130" t="b">
@@ -8139,7 +8137,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -8150,26 +8148,28 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2022-02-07T15:43:39.763425Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2022-05-22T11:09:18.092063Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
+      <c r="O130" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2a74f92cf716979d913217d640655261</t>
+          <t>e6ffaf786ff743b47650f73557b07b66</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E131" t="b">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -8209,12 +8209,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8223,12 +8223,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
+          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>_dmarc.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E132" t="b">
@@ -8268,12 +8268,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2022-02-07T15:43:39.763425Z</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2022-05-22T11:09:18.092063Z</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8282,7 +8282,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>47bb0eec812c7e5f3961cb9079727d80</t>
+          <t>2a74f92cf716979d913217d640655261</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -8297,7 +8297,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
+          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
         </is>
       </c>
       <c r="E133" t="b">
@@ -8327,12 +8327,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8341,12 +8341,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>9abd161d29cb47ce6cfa783657e67723</t>
+          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -8356,7 +8356,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E134" t="b">
@@ -8386,12 +8386,12 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2022-05-13T21:13:25.301942Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2022-05-22T10:18:49.411362Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
@@ -8400,12 +8400,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
+          <t>47bb0eec812c7e5f3961cb9079727d80</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
+          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
         </is>
       </c>
       <c r="E135" t="b">
@@ -8445,12 +8445,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
@@ -8459,29 +8459,29 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>904b0a528a01b0dd8370295ce305d3da</t>
+          <t>9abd161d29cb47ce6cfa783657e67723</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>demo.uglyfeed.com</t>
+          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8504,12 +8504,12 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-05-13T21:13:25.301942Z</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2022-05-22T10:18:49.411362Z</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
@@ -8518,29 +8518,29 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1b7333a979fa92816324f0e9be6a564a</t>
+          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>xml.uglyfeed.com</t>
+          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -8563,12 +8563,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -8577,29 +8577,29 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>904b0a528a01b0dd8370295ce305d3da</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>demo.uglyfeed.com</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -8622,12 +8622,12 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
@@ -8636,29 +8636,29 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>1b7333a979fa92816324f0e9be6a564a</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>xml.uglyfeed.com</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -8681,12 +8681,12 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
@@ -8695,12 +8695,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E140" t="b">
@@ -8729,7 +8729,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -8740,12 +8740,12 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
@@ -8754,12 +8754,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E141" t="b">
@@ -8799,12 +8799,12 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
@@ -8813,29 +8813,29 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -8858,12 +8858,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -8872,29 +8872,29 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>videodioggi.com</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -8917,12 +8917,12 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="N143" t="inlineStr"/>
@@ -8931,12 +8931,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -8976,12 +8976,12 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2023-03-30T09:59:11.98058Z</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2023-03-30T09:59:12.228482Z</t>
         </is>
       </c>
       <c r="N144" t="inlineStr"/>
@@ -8990,12 +8990,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>test2.webtek.live</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -9035,12 +9035,12 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-28T08:34:29.902515Z</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-03-28T08:34:30.164318Z</t>
         </is>
       </c>
       <c r="N145" t="inlineStr"/>
@@ -9049,12 +9049,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>432df2553b443742f9f905e155878536</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>test.webtek.live</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -9094,12 +9094,12 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2023-03-24T11:44:15.078812Z</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2023-03-24T11:44:15.367412Z</t>
         </is>
       </c>
       <c r="N146" t="inlineStr"/>
@@ -9108,29 +9108,29 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>_dmarc.youknowwhataimean.com</t>
+          <t>webtek.live</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -9153,12 +9153,12 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="N147" t="inlineStr"/>
@@ -9167,29 +9167,29 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+          <t>e02587466a80086957e4f19a05760dec</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -9212,12 +9212,12 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-06T11:52:31.670164Z</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2023-10-06T12:04:32.454791Z</t>
         </is>
       </c>
       <c r="N148" t="inlineStr"/>
@@ -9226,12 +9226,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>_dmarc.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E149" t="b">
@@ -9271,12 +9271,12 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="N149" t="inlineStr"/>
@@ -9285,29 +9285,29 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>transversalpuntozero.org</t>
+          <t>*._domainkey.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>transversalpuntozero.pages.dev</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -9330,16 +9330,134 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>youknowwhataimean.com</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>v=spf1 -all</t>
+        </is>
+      </c>
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.931067Z</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.931067Z</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.org</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.pages.dev</t>
+        </is>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O152"/>
+  <dimension ref="A1:O162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1115,12 +1115,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bdeca83d3f52cd29a0461c8c328e7eb8</t>
+          <t>8a036c1d5ddf43f61d7d48e78f41f72c</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cfguru.org</t>
+          <t>www.certmate.org</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>185.199.109.153</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-12-17T13:15:33.42644Z</t>
+          <t>2025-07-01T16:44:05.723652Z</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-12-17T13:22:36.5376Z</t>
+          <t>2025-07-01T16:47:41.146282Z</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1174,29 +1174,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6473c95616aa9ef1dcb17dacef169db4</t>
+          <t>9a0c1ea7682256e45af5f83341fb113e</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>challenged.cfguru.org</t>
+          <t>certmate.org</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>185.199.110.153</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1219,43 +1219,45 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2025-05-23T07:08:03.816887Z</t>
+          <t>2025-07-01T21:19:12.571955Z</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2025-05-23T07:23:56.302349Z</t>
+          <t>2025-07-01T21:19:12.571955Z</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3c7558d6d766ea8ee23519dc6b3c6fcb</t>
+          <t>aecf0cef3bc28aa58695c24be19d992c</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>get.domainsblacklists.com</t>
+          <t>certmate.org</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.186.251.28</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1267,7 +1269,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1278,43 +1280,45 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-07-29T12:48:06.891684Z</t>
+          <t>2025-07-01T21:19:12.566821Z</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-07-29T12:48:06.891684Z</t>
+          <t>2025-07-01T21:19:12.566821Z</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>90854dd1388fe82242ce0109dfec5c88</t>
+          <t>fd67f08c9417a7d074fabd7e5513f715</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>review.domainsblacklists.com</t>
+          <t>certmate.org</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.186.251.28</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1326,7 +1330,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1337,43 +1341,45 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-30T11:38:30.653586Z</t>
+          <t>2025-07-01T21:19:12.555505Z</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-08-30T11:38:30.653586Z</t>
+          <t>2025-07-01T21:19:12.555505Z</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>c292f89526841ffe14bf72950e566b00</t>
+          <t>14ecb7082a212233d816e345eea11668</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>www.domainsblacklists.com</t>
+          <t>test.certmate.org</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>ns-858.awsdns-43.net</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1396,12 +1402,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2024-01-07T12:46:47.09149Z</t>
+          <t>2025-07-01T21:29:05.514677Z</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2024-01-07T12:47:11.363311Z</t>
+          <t>2025-07-01T21:29:05.514677Z</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -1410,29 +1416,29 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>c357c5667fdc1f5189ff62d9127c5b66</t>
+          <t>0b4d1e1437d207800341e642f54e492f</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>adguard.domainsblacklists.com</t>
+          <t>test.certmate.org</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
+          <t>ns-8.awsdns-01.com</t>
         </is>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1455,12 +1461,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-08-11T14:30:49.889256Z</t>
+          <t>2025-07-01T21:28:53.126097Z</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-08-11T14:30:49.889256Z</t>
+          <t>2025-07-01T21:28:53.126097Z</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -1469,29 +1475,29 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8b834fd2fd544e045645fac878b84f55</t>
+          <t>9c2a6ed018afd465d2a5ce93c4894ef1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>api-ipres.domainsblacklists.com</t>
+          <t>test.certmate.org</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8743e1c1-51d3-4bf8-ba49-c84defa95d06.cfargotunnel.com</t>
+          <t>ns-1790.awsdns-31.co.uk</t>
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1514,12 +1520,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-08-18T17:52:42.610086Z</t>
+          <t>2025-07-01T21:28:33.857419Z</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-08-18T17:52:42.610086Z</t>
+          <t>2025-07-01T21:28:33.857419Z</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -1528,29 +1534,29 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dfe1bcabcf091b40abb6b049a8192442</t>
+          <t>759120960fb1797f3ceb20a074397a60</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>changedetection.domainsblacklists.com</t>
+          <t>test.certmate.org</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3eec4402-ad54-45de-bf9b-926b6e88a159.cfargotunnel.com</t>
+          <t>ns-1479.awsdns-56.org</t>
         </is>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1573,12 +1579,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-09-13T18:26:54.071Z</t>
+          <t>2025-07-01T21:28:13.948625Z</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-09-13T18:26:54.071Z</t>
+          <t>2025-07-01T21:28:13.948625Z</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -1587,29 +1593,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>c776f79530a239242078e5a3cb5d11d2</t>
+          <t>abd1e138555a9935af96e12e735ae62e</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>req.domainsblacklists.com</t>
+          <t>certmate.org</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
+          <t>"v=spf1 include:_spf.mx.cloudflare.net ~all"</t>
         </is>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1632,12 +1638,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2023-09-10T12:21:43.338698Z</t>
+          <t>2025-07-01T21:19:12.576866Z</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-09-10T12:21:43.338698Z</t>
+          <t>2025-07-01T21:19:12.576866Z</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -1646,22 +1652,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2f418611b09ffd2e435cea99583e9480</t>
+          <t>646969ffbd1d8c388fcb28dd08e4b889</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>domainsblacklists.com</t>
+          <t>cf2024-1._domainkey.certmate.org</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E21" t="b">
@@ -1691,45 +1697,43 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.397174Z</t>
+          <t>2025-07-01T21:19:12.582969Z</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.397174Z</t>
+          <t>2025-07-01T21:19:12.582969Z</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>39</v>
-      </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>a5a312e4dbaaaec1eabfe1b9a5c17055</t>
+          <t>bdeca83d3f52cd29a0461c8c328e7eb8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>domainsblacklists.com</t>
+          <t>cfguru.org</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1741,7 +1745,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1752,45 +1756,43 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.389737Z</t>
+          <t>2023-12-17T13:15:33.42644Z</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.389737Z</t>
+          <t>2023-12-17T13:22:36.5376Z</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="n">
-        <v>93</v>
-      </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>376df1b8131105ac8a7209306e22b59c</t>
+          <t>6473c95616aa9ef1dcb17dacef169db4</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>domainsblacklists.com</t>
+          <t>challenged.cfguru.org</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>185.199.110.153</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1802,7 +1804,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1813,45 +1815,43 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.382045Z</t>
+          <t>2025-05-23T07:08:03.816887Z</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.382045Z</t>
+          <t>2025-05-23T07:23:56.302349Z</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>93</v>
-      </c>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>92388a78ff6bc640e36a75e31b30977a</t>
+          <t>3c7558d6d766ea8ee23519dc6b3c6fcb</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.domainsblacklists.com</t>
+          <t>get.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>93.186.251.28</t>
         </is>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1874,12 +1874,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2025-02-01T22:59:01.091354Z</t>
+          <t>2023-07-29T12:48:06.891684Z</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2025-02-01T22:59:01.091354Z</t>
+          <t>2023-07-29T12:48:06.891684Z</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -1888,29 +1888,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>b1f7c2007e82e1af53a8ec6061b331f8</t>
+          <t>90854dd1388fe82242ce0109dfec5c88</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>_dmarc.domainsblacklists.com</t>
+          <t>review.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:9c70ea076036494c93d766dfefd2def1@dmarc-reports.cloudflare.net</t>
+          <t>93.186.251.28</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1933,12 +1933,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:10.919349Z</t>
+          <t>2023-08-30T11:38:30.653586Z</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:10.919349Z</t>
+          <t>2023-08-30T11:38:30.653586Z</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -1947,29 +1947,29 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>519f3626ce2ea9a6dad71afe898ce796</t>
+          <t>c292f89526841ffe14bf72950e566b00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>domainsblacklists.com</t>
+          <t>www.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1992,12 +1992,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.404775Z</t>
+          <t>2024-01-07T12:46:47.09149Z</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-07-29T12:50:26.404775Z</t>
+          <t>2024-01-07T12:47:11.363311Z</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -2006,29 +2006,29 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4dd327c64e78f584c16dc531a13ec1ec</t>
+          <t>c357c5667fdc1f5189ff62d9127c5b66</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>proxmox-test-1.freesubnet.com</t>
+          <t>adguard.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>37.183.16.191</t>
+          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2051,12 +2051,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2024-07-28T19:51:23.923255Z</t>
+          <t>2023-08-11T14:30:49.889256Z</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2024-07-28T19:51:23.923255Z</t>
+          <t>2023-08-11T14:30:49.889256Z</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -2065,29 +2065,29 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ec12d53bf42e7bc2c950d7f4d4eb60e4</t>
+          <t>8b834fd2fd544e045645fac878b84f55</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>rp.freesubnet.com</t>
+          <t>api-ipres.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18.102.76.90</t>
+          <t>8743e1c1-51d3-4bf8-ba49-c84defa95d06.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2110,12 +2110,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2023-05-03T13:52:38.28258Z</t>
+          <t>2023-08-18T17:52:42.610086Z</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-05-03T16:25:08.617872Z</t>
+          <t>2023-08-18T17:52:42.610086Z</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -2124,32 +2124,32 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9bdd5da061a0b3543fb74847be092a31</t>
+          <t>dfe1bcabcf091b40abb6b049a8192442</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>test.freesubnet.com</t>
+          <t>changedetection.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>37.183.16.191</t>
+          <t>3eec4402-ad54-45de-bf9b-926b6e88a159.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2169,12 +2169,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2024-07-24T12:42:57.795531Z</t>
+          <t>2023-09-13T18:26:54.071Z</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2024-07-28T13:17:47.159096Z</t>
+          <t>2023-09-13T18:26:54.071Z</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2183,12 +2183,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>13b2a5129e5f7772daa7f0f70e349a26</t>
+          <t>c776f79530a239242078e5a3cb5d11d2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>waf.freesubnet.com</t>
+          <t>req.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2198,14 +2198,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rp.freesubnet.com</t>
+          <t>d353b979-da9d-4992-9e5c-3b2d3fb34888.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2228,12 +2228,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2023-05-03T13:53:22.545371Z</t>
+          <t>2023-09-10T12:21:43.338698Z</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-05-03T16:25:02.924302Z</t>
+          <t>2023-09-10T12:21:43.338698Z</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -2242,29 +2242,29 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>77c251b8488617268d91ee1ebd51ede5</t>
+          <t>2f418611b09ffd2e435cea99583e9480</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>domainsblacklists.com</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>207.180.193.100</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -2287,43 +2287,45 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2021-07-23T08:58:49.378112Z</t>
+          <t>2023-07-29T12:50:26.397174Z</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2021-07-23T12:56:39.987386Z</t>
+          <t>2023-07-29T12:50:26.397174Z</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>dd673c4571ae6ec6ea4517da4047fa5f</t>
+          <t>a5a312e4dbaaaec1eabfe1b9a5c17055</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>listen.free-tekno.com</t>
+          <t>domainsblacklists.com</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2335,7 +2337,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -2346,43 +2348,45 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2022-02-07T20:32:13.606665Z</t>
+          <t>2023-07-29T12:50:26.389737Z</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2022-02-07T20:32:43.921656Z</t>
+          <t>2023-07-29T12:50:26.389737Z</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>de47139d99158674daebfa2bcc46381b</t>
+          <t>376df1b8131105ac8a7209306e22b59c</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>radio.free-tekno.com</t>
+          <t>domainsblacklists.com</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>161.97.120.130</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2394,7 +2398,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -2405,43 +2409,45 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2021-06-27T11:17:21.364442Z</t>
+          <t>2023-07-29T12:50:26.382045Z</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2022-02-16T15:58:36.261027Z</t>
+          <t>2023-07-29T12:50:26.382045Z</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5acccdfb3c59cd49cacd28e83e48d221</t>
+          <t>92388a78ff6bc640e36a75e31b30977a</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>www.free-tekno.com</t>
+          <t>cf2024-1._domainkey.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>161.97.120.130</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2453,7 +2459,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -2464,12 +2470,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2022-02-07T16:41:14.791288Z</t>
+          <t>2025-02-01T22:59:01.091354Z</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2022-02-07T16:41:14.791288Z</t>
+          <t>2025-02-01T22:59:01.091354Z</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -2478,29 +2484,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ac7c113f029bd912a9b6fe78dffe02a5</t>
+          <t>b1f7c2007e82e1af53a8ec6061b331f8</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mp3.free-tekno.com</t>
+          <t>_dmarc.domainsblacklists.com</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>freetekno.free.nf</t>
+          <t>v=DMARC1;  p=none; rua=mailto:9c70ea076036494c93d766dfefd2def1@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2523,12 +2529,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2023-07-04T19:53:02.363162Z</t>
+          <t>2023-07-29T12:50:10.919349Z</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-07-04T19:53:02.363162Z</t>
+          <t>2023-07-29T12:50:10.919349Z</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -2537,22 +2543,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9450bd2c3778824d44882bf3a36c136a</t>
+          <t>519f3626ce2ea9a6dad71afe898ce796</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>domainsblacklists.com</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>poste.rivoluzioneinformatica.org</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E36" t="b">
@@ -2582,42 +2588,40 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2022-02-16T15:14:24.531147Z</t>
+          <t>2023-07-29T12:50:26.404775Z</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2022-02-16T15:14:24.531147Z</t>
+          <t>2023-07-29T12:50:26.404775Z</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="n">
-        <v>10</v>
-      </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ec58d36579ccf292f4a659648d6a9c19</t>
+          <t>4dd327c64e78f584c16dc531a13ec1ec</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>_dmarc.free-tekno.com</t>
+          <t>proxmox-test-1.freesubnet.com</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; rua=mailto:cloud@free-tekno.com;</t>
+          <t>37.183.16.191</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2643,12 +2647,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2022-02-16T15:36:47.274766Z</t>
+          <t>2024-07-28T19:51:23.923255Z</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2022-02-16T15:36:47.274766Z</t>
+          <t>2024-07-28T19:51:23.923255Z</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -2657,26 +2661,26 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>f82cb05f0c7bd0ee554dc7a7e68481c2</t>
+          <t>ec12d53bf42e7bc2c950d7f4d4eb60e4</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>rp.freesubnet.com</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>v=spf1 mx ip4:161.97.120.130/32 a:mail.rivoluzioneinformatica.org a:poste.rivoluzioneinformatica.org -all</t>
+          <t>18.102.76.90</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2702,12 +2706,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2022-02-16T12:57:13.550913Z</t>
+          <t>2023-05-03T13:52:38.28258Z</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2022-02-16T15:47:18.346287Z</t>
+          <t>2023-05-03T16:25:08.617872Z</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -2716,32 +2720,32 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15a4efde5824a7f870270570f044bf6a</t>
+          <t>9bdd5da061a0b3543fb74847be092a31</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>test.freesubnet.com</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>google-site-verification=u1RtWKENUcJYrh_iqqGrIQMTts0ipS2LpFZjtt7T-Nk</t>
+          <t>37.183.16.191</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2761,12 +2765,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2021-07-25T02:01:05.324193Z</t>
+          <t>2024-07-24T12:42:57.795531Z</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2021-07-25T02:01:05.324193Z</t>
+          <t>2024-07-28T13:17:47.159096Z</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -2775,26 +2779,26 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6f78e130390aca374862016649566194</t>
+          <t>13b2a5129e5f7772daa7f0f70e349a26</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>s20220216247._domainkey.free-tekno.com</t>
+          <t>waf.freesubnet.com</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA25fjdBEzCOeoRC5460U3HHjYEIjqtI4wkAVXidP5ynP9anEQ5i2+bW/lKh+xa5WKGjPofy/qxsnjuLE40ZnivPy7wfOwU3uOFf4CD5cen08xi/76vrqj3r1F29j8v+jJqB9+Z5RCOxCuu0Zx99okko+BaBej+O9W4Eh70d4PAb1TwrwNoBD47GnSLG3xu2b1NuXyWbuAEoQQ43/1+M689TJt7azAmG3yqft4J/7Oo0B7Wyk5V8Al2bpt6GYEoSV48HPrUC+MudIxgxVtR3O5oIVq9tHm7+jg5EY0GZpyk6yVJFlAXFJzt0OIKe4KvCngW0vHQSISmy0tgmZ8j38+uQIDAQAB</t>
+          <t>rp.freesubnet.com</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -2820,12 +2824,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2022-02-16T12:55:09.214302Z</t>
+          <t>2023-05-03T13:53:22.545371Z</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2022-02-16T12:55:09.214302Z</t>
+          <t>2023-05-03T16:25:02.924302Z</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -2834,22 +2838,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>54e5f74cd09ee8a8c9729c9cdb0397b6</t>
+          <t>77c251b8488617268d91ee1ebd51ede5</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>freesounds-selfhosted.freeundergroundtekno.org</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>54a3646c-9701-4a8b-b6b0-e8b9f08e297f.cfargotunnel.com</t>
+          <t>207.180.193.100</t>
         </is>
       </c>
       <c r="E41" t="b">
@@ -2879,12 +2883,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2022-12-10T19:31:31.948543Z</t>
+          <t>2021-07-23T08:58:49.378112Z</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2022-12-10T19:31:31.948543Z</t>
+          <t>2021-07-23T12:56:39.987386Z</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
@@ -2893,22 +2897,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>f2d988c340f9edd8b38f1dcd778bb88a</t>
+          <t>dd673c4571ae6ec6ea4517da4047fa5f</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>mp3.freeundergroundtekno.org</t>
+          <t>listen.free-tekno.com</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7544e2f1-de2b-411b-9eed-4a6c28bf46ac.cfargotunnel.com</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E42" t="b">
@@ -2938,12 +2942,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2022-12-10T20:18:13.753251Z</t>
+          <t>2022-02-07T20:32:13.606665Z</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2022-12-10T20:18:13.753251Z</t>
+          <t>2022-02-07T20:32:43.921656Z</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -2952,22 +2956,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7d449cbba90883fa8a14389f9a18a7a6</t>
+          <t>de47139d99158674daebfa2bcc46381b</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>radio.freeundergroundtekno.org</t>
+          <t>radio.free-tekno.com</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1e58dbc4-7d4f-4d5c-bf27-f801381a4fce.cfargotunnel.com</t>
+          <t>161.97.120.130</t>
         </is>
       </c>
       <c r="E43" t="b">
@@ -2997,12 +3001,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2024-06-08T18:04:10.985475Z</t>
+          <t>2021-06-27T11:17:21.364442Z</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2024-06-08T18:04:10.985475Z</t>
+          <t>2022-02-16T15:58:36.261027Z</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -3011,32 +3015,32 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>b24f98873ca6f73f11bb06015e03a3d1</t>
+          <t>5acccdfb3c59cd49cacd28e83e48d221</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>_acme-challenge.sound.freeundergroundtekno.org</t>
+          <t>www.free-tekno.com</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4bHK_Yi224RlQPT3GaNFHfWNtm2reTuFAJitGpMFgM8</t>
+          <t>161.97.120.130</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -3056,12 +3060,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2018-08-07T16:10:03.300043Z</t>
+          <t>2022-02-07T16:41:14.791288Z</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2018-08-07T16:10:03.300043Z</t>
+          <t>2022-02-07T16:41:14.791288Z</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -3070,32 +3074,32 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>e302bd7fb84138a3a709507e25855226</t>
+          <t>ac7c113f029bd912a9b6fe78dffe02a5</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>freeundergroundtekno.org</t>
+          <t>mp3.free-tekno.com</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>google-site-verification=UoPqDBPRj-_7eqBxrBhGViVVv41rzy51Zb_ZCmftsq0</t>
+          <t>freetekno.free.nf</t>
         </is>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>3600</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -3115,12 +3119,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2024-03-25T22:28:21.998451Z</t>
+          <t>2023-07-04T19:53:02.363162Z</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2024-03-25T22:28:21.998451Z</t>
+          <t>2023-07-04T19:53:02.363162Z</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -3129,29 +3133,29 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3d0c18afd78dff56ae887d0b7f971bf0</t>
+          <t>9450bd2c3778824d44882bf3a36c136a</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ai.irrazionale.org</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>fc418fe6-ca4c-4b2d-988b-b2b9bddc570f.cfargotunnel.com</t>
+          <t>poste.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3174,43 +3178,45 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2025-03-21T11:57:02.473035Z</t>
+          <t>2022-02-16T15:14:24.531147Z</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2025-03-21T11:57:02.473035Z</t>
+          <t>2022-02-16T15:14:24.531147Z</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>737420529070901f1b0cd444ebf396fd</t>
+          <t>ec58d36579ccf292f4a659648d6a9c19</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>baserow.irrazionale.org</t>
+          <t>_dmarc.free-tekno.com</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>v=DMARC1; p=reject; rua=mailto:cloud@free-tekno.com;</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3233,12 +3239,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2025-02-07T16:23:37.038965Z</t>
+          <t>2022-02-16T15:36:47.274766Z</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2025-02-07T16:23:37.038965Z</t>
+          <t>2022-02-16T15:36:47.274766Z</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -3247,29 +3253,29 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2628b62f7c721d0e34d5ad5f81f94aa6</t>
+          <t>f82cb05f0c7bd0ee554dc7a7e68481c2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>check.irrazionale.org</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>eb879ac1-3924-4f69-9c6c-75f6a9e1cdb8.cfargotunnel.com</t>
+          <t>v=spf1 mx ip4:161.97.120.130/32 a:mail.rivoluzioneinformatica.org a:poste.rivoluzioneinformatica.org -all</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3292,12 +3298,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2025-04-10T17:26:36.959974Z</t>
+          <t>2022-02-16T12:57:13.550913Z</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2025-04-10T17:26:36.959974Z</t>
+          <t>2022-02-16T15:47:18.346287Z</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -3306,29 +3312,29 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>081907c20660bf785f8a99b15f7ae6fa</t>
+          <t>15a4efde5824a7f870270570f044bf6a</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>cloud.irrazionale.org</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>379e723b-0e63-4ee0-aabe-5009125009c9.cfargotunnel.com</t>
+          <t>google-site-verification=u1RtWKENUcJYrh_iqqGrIQMTts0ipS2LpFZjtt7T-Nk</t>
         </is>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3351,12 +3357,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2022-12-11T16:25:07.205868Z</t>
+          <t>2021-07-25T02:01:05.324193Z</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2022-12-11T16:25:07.205868Z</t>
+          <t>2021-07-25T02:01:05.324193Z</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -3365,29 +3371,29 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>d0e96bb2faf9ed17182c357e39b68779</t>
+          <t>6f78e130390aca374862016649566194</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>coolify.irrazionale.org</t>
+          <t>s20220216247._domainkey.free-tekno.com</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA25fjdBEzCOeoRC5460U3HHjYEIjqtI4wkAVXidP5ynP9anEQ5i2+bW/lKh+xa5WKGjPofy/qxsnjuLE40ZnivPy7wfOwU3uOFf4CD5cen08xi/76vrqj3r1F29j8v+jJqB9+Z5RCOxCuu0Zx99okko+BaBej+O9W4Eh70d4PAb1TwrwNoBD47GnSLG3xu2b1NuXyWbuAEoQQ43/1+M689TJt7azAmG3yqft4J/7Oo0B7Wyk5V8Al2bpt6GYEoSV48HPrUC+MudIxgxVtR3O5oIVq9tHm7+jg5EY0GZpyk6yVJFlAXFJzt0OIKe4KvCngW0vHQSISmy0tgmZ8j38+uQIDAQAB</t>
         </is>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3410,12 +3416,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2025-02-09T22:15:14.34368Z</t>
+          <t>2022-02-16T12:55:09.214302Z</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2025-02-09T22:15:14.34368Z</t>
+          <t>2022-02-16T12:55:09.214302Z</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -3424,12 +3430,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>911a85c4a4a11c6e7c594788937a2456</t>
+          <t>54e5f74cd09ee8a8c9729c9cdb0397b6</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>dell.irrazionale.org</t>
+          <t>freesounds-selfhosted.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3439,7 +3445,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4e789f43-bcab-410e-a7c8-9c7bd88fd294.cfargotunnel.com</t>
+          <t>54a3646c-9701-4a8b-b6b0-e8b9f08e297f.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -3469,12 +3475,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2023-12-01T12:39:10.88625Z</t>
+          <t>2022-12-10T19:31:31.948543Z</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-12-01T12:39:10.88625Z</t>
+          <t>2022-12-10T19:31:31.948543Z</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -3483,12 +3489,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>60d0a2d1367b6b64c398aa37848efae3</t>
+          <t>f2d988c340f9edd8b38f1dcd778bb88a</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>docker.irrazionale.org</t>
+          <t>mp3.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3498,7 +3504,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>7544e2f1-de2b-411b-9eed-4a6c28bf46ac.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E52" t="b">
@@ -3528,12 +3534,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2025-02-07T16:29:08.840612Z</t>
+          <t>2022-12-10T20:18:13.753251Z</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2025-02-07T16:29:08.840612Z</t>
+          <t>2022-12-10T20:18:13.753251Z</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -3542,12 +3548,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>08d407943ed4067865b5a819494093df</t>
+          <t>7d449cbba90883fa8a14389f9a18a7a6</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>freesounds.irrazionale.org</t>
+          <t>radio.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3557,7 +3563,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>86cfa504-c90d-46fd-a7f9-8c8d7a74ec1b.cfargotunnel.com</t>
+          <t>1e58dbc4-7d4f-4d5c-bf27-f801381a4fce.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E53" t="b">
@@ -3587,12 +3593,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2022-05-29T10:34:39.700377Z</t>
+          <t>2024-06-08T18:04:10.985475Z</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2022-05-29T10:34:39.700377Z</t>
+          <t>2024-06-08T18:04:10.985475Z</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -3601,32 +3607,32 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>41be2e667e4654c8425c3747809eaf4b</t>
+          <t>b24f98873ca6f73f11bb06015e03a3d1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>git.irrazionale.org</t>
+          <t>_acme-challenge.sound.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>4bHK_Yi224RlQPT3GaNFHfWNtm2reTuFAJitGpMFgM8</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3646,12 +3652,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2025-02-09T17:43:27.673327Z</t>
+          <t>2018-08-07T16:10:03.300043Z</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2025-02-09T17:43:27.673327Z</t>
+          <t>2018-08-07T16:10:03.300043Z</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -3660,32 +3666,32 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>216f28a4197e4846265257d9a19df44a</t>
+          <t>e302bd7fb84138a3a709507e25855226</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>jellyfin.irrazionale.org</t>
+          <t>freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ecb8d351-a34c-4b72-829d-9e0ef5726b65.cfargotunnel.com</t>
+          <t>google-site-verification=UoPqDBPRj-_7eqBxrBhGViVVv41rzy51Zb_ZCmftsq0</t>
         </is>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3705,12 +3711,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2023-12-01T16:34:33.145093Z</t>
+          <t>2024-03-25T22:28:21.998451Z</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023-12-01T16:34:33.145093Z</t>
+          <t>2024-03-25T22:28:21.998451Z</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3719,12 +3725,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>a294caebd6eeaa83278ae5e170afa4a7</t>
+          <t>3d0c18afd78dff56ae887d0b7f971bf0</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>lf.irrazionale.org</t>
+          <t>ai.irrazionale.org</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3734,7 +3740,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>fc418fe6-ca4c-4b2d-988b-b2b9bddc570f.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E56" t="b">
@@ -3764,12 +3770,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2024-04-25T08:35:09.947241Z</t>
+          <t>2025-03-21T11:57:02.473035Z</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2024-04-25T08:35:09.947241Z</t>
+          <t>2025-03-21T11:57:02.473035Z</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -3778,12 +3784,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>b3c12f8816422fb6e017703c896aa4eb</t>
+          <t>737420529070901f1b0cd444ebf396fd</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>localhost.irrazionale.org</t>
+          <t>baserow.irrazionale.org</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3793,7 +3799,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>05dcfc0e-c6f7-45c8-9c51-04d3ea300b3c.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E57" t="b">
@@ -3823,12 +3829,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2025-03-26T09:51:19.730468Z</t>
+          <t>2025-02-07T16:23:37.038965Z</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2025-03-26T09:51:19.730468Z</t>
+          <t>2025-02-07T16:23:37.038965Z</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3837,12 +3843,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>59f655ac3982f7c3d6318c237aada804</t>
+          <t>2628b62f7c721d0e34d5ad5f81f94aa6</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>mixpost.irrazionale.org</t>
+          <t>check.irrazionale.org</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3852,7 +3858,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>07122097-0310-42ba-b8c6-ea15e3b8612e.cfargotunnel.com</t>
+          <t>eb879ac1-3924-4f69-9c6c-75f6a9e1cdb8.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E58" t="b">
@@ -3882,12 +3888,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2025-06-25T19:29:40.179134Z</t>
+          <t>2025-04-10T17:26:36.959974Z</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2025-06-25T19:29:40.179134Z</t>
+          <t>2025-04-10T17:26:36.959974Z</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -3896,12 +3902,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
+          <t>081907c20660bf785f8a99b15f7ae6fa</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>mt-link.irrazionale.org</t>
+          <t>cloud.irrazionale.org</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3911,14 +3917,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>379e723b-0e63-4ee0-aabe-5009125009c9.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3941,12 +3947,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2022-12-11T16:25:07.205868Z</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2022-12-11T16:25:07.205868Z</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -3955,12 +3961,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3d3ea0a30645f9869829e88faee2503f</t>
+          <t>d0e96bb2faf9ed17182c357e39b68779</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
+          <t>coolify.irrazionale.org</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3970,14 +3976,14 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4000,12 +4006,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2025-02-09T22:15:14.34368Z</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2025-02-09T22:15:14.34368Z</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -4014,12 +4020,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1229fb10c393330dc3c65ae010d33165</t>
+          <t>911a85c4a4a11c6e7c594788937a2456</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ocr.irrazionale.org</t>
+          <t>dell.irrazionale.org</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4029,7 +4035,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
+          <t>4e789f43-bcab-410e-a7c8-9c7bd88fd294.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E61" t="b">
@@ -4059,12 +4065,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2025-04-14T16:13:52.683863Z</t>
+          <t>2023-12-01T12:39:10.88625Z</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2025-04-14T16:13:52.683863Z</t>
+          <t>2023-12-01T12:39:10.88625Z</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -4073,12 +4079,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
+          <t>60d0a2d1367b6b64c398aa37848efae3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ollama.irrazionale.org</t>
+          <t>docker.irrazionale.org</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4088,7 +4094,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E62" t="b">
@@ -4118,12 +4124,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2025-02-07T16:29:08.840612Z</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2025-02-07T16:29:08.840612Z</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -4132,12 +4138,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>78c3a51bff323b9cf5c78e4d2c699452</t>
+          <t>08d407943ed4067865b5a819494093df</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pdf2docx.irrazionale.org</t>
+          <t>freesounds.irrazionale.org</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4147,7 +4153,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>bc9f57f2-e22f-4154-a26b-a765f0942d61.cfargotunnel.com</t>
+          <t>86cfa504-c90d-46fd-a7f9-8c8d7a74ec1b.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E63" t="b">
@@ -4177,12 +4183,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2025-04-14T15:30:12.902487Z</t>
+          <t>2022-05-29T10:34:39.700377Z</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2025-04-14T15:30:12.902487Z</t>
+          <t>2022-05-29T10:34:39.700377Z</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -4191,12 +4197,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7131e78a346aea946d969f014c2cb1e9</t>
+          <t>41be2e667e4654c8425c3747809eaf4b</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>postiz.irrazionale.org</t>
+          <t>git.irrazionale.org</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4206,7 +4212,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E64" t="b">
@@ -4236,12 +4242,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2025-06-25T07:43:38.264549Z</t>
+          <t>2025-02-09T17:43:27.673327Z</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2025-06-25T07:43:38.264549Z</t>
+          <t>2025-02-09T17:43:27.673327Z</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -4250,12 +4256,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4a64c597d17da513e052355df93bbc58</t>
+          <t>216f28a4197e4846265257d9a19df44a</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>powerdns.irrazionale.org</t>
+          <t>jellyfin.irrazionale.org</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4265,7 +4271,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
+          <t>ecb8d351-a34c-4b72-829d-9e0ef5726b65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E65" t="b">
@@ -4295,12 +4301,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2023-12-01T16:34:33.145093Z</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2023-12-01T16:34:33.145093Z</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -4309,12 +4315,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4bd65cc8d342c16851d7e90462f78579</t>
+          <t>a294caebd6eeaa83278ae5e170afa4a7</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>proxmox.irrazionale.org</t>
+          <t>lf.irrazionale.org</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4324,7 +4330,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E66" t="b">
@@ -4354,12 +4360,12 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2024-04-25T08:35:09.947241Z</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2024-04-25T08:35:09.947241Z</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -4368,12 +4374,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
+          <t>b3c12f8816422fb6e017703c896aa4eb</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>proxmox-ssh.irrazionale.org</t>
+          <t>localhost.irrazionale.org</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4383,7 +4389,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>05dcfc0e-c6f7-45c8-9c51-04d3ea300b3c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E67" t="b">
@@ -4413,12 +4419,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2025-03-26T09:51:19.730468Z</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2025-03-26T09:51:19.730468Z</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -4427,12 +4433,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
+          <t>59f655ac3982f7c3d6318c237aada804</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.irrazionale.org</t>
+          <t>mixpost.irrazionale.org</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4442,14 +4448,14 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>07122097-0310-42ba-b8c6-ea15e3b8612e.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4472,12 +4478,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-06-25T19:29:40.179134Z</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-06-25T19:29:40.179134Z</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -4486,12 +4492,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>04d14cb456a1976f403ee148eca05cc8</t>
+          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.irrazionale.org</t>
+          <t>mt-link.irrazionale.org</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4501,7 +4507,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E69" t="b">
@@ -4531,12 +4537,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -4545,12 +4551,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
+          <t>3d3ea0a30645f9869829e88faee2503f</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>s3.irrazionale.org</t>
+          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4560,14 +4566,14 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4590,12 +4596,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
@@ -4604,12 +4610,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0ce0da84393eb2e44a959deb2116cce5</t>
+          <t>1229fb10c393330dc3c65ae010d33165</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>s3ui.irrazionale.org</t>
+          <t>ocr.irrazionale.org</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4619,7 +4625,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -4649,12 +4655,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2025-04-14T16:13:52.683863Z</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2025-04-14T16:13:52.683863Z</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
@@ -4663,12 +4669,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
+          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>sci-fi.irrazionale.org</t>
+          <t>ollama.irrazionale.org</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4678,7 +4684,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -4708,12 +4714,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -4722,12 +4728,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
+          <t>78c3a51bff323b9cf5c78e4d2c699452</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>search.irrazionale.org</t>
+          <t>pdf2docx.irrazionale.org</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4737,7 +4743,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>bc9f57f2-e22f-4154-a26b-a765f0942d61.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E73" t="b">
@@ -4767,12 +4773,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-04-14T15:30:12.902487Z</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2025-04-14T15:30:12.902487Z</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
@@ -4781,12 +4787,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>d136067486f9bfd1260a66e04c217624</t>
+          <t>7131e78a346aea946d969f014c2cb1e9</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>webcheck.irrazionale.org</t>
+          <t>postiz.irrazionale.org</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4796,7 +4802,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E74" t="b">
@@ -4826,12 +4832,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-06-25T07:43:38.264549Z</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2025-06-25T07:43:38.264549Z</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -4840,29 +4846,29 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
+          <t>4a64c597d17da513e052355df93bbc58</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>powerdns.irrazionale.org</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>mail.irrazionale.org</t>
+          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4885,45 +4891,43 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
-      <c r="O75" t="n">
-        <v>1</v>
-      </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5e61f46e73d33d23b901c830c11d05e5</t>
+          <t>4bd65cc8d342c16851d7e90462f78579</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>proxmox.irrazionale.org</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4946,45 +4950,43 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
-      <c r="O76" t="n">
-        <v>73</v>
-      </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>4a187b659dadf78253cb30054350314c</t>
+          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>proxmox-ssh.irrazionale.org</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>route2mx.cloudflare.net</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5007,42 +5009,40 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
-      <c r="O77" t="n">
-        <v>99</v>
-      </c>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
+          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>rwmt1._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -5068,42 +5068,40 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
-      <c r="O78" t="n">
-        <v>89</v>
-      </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>bb6fca1069dfef36eac3160ec423215a</t>
+          <t>04d14cb456a1976f403ee148eca05cc8</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>safe.irrazionale.org</t>
+          <t>rwmt2._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>dnsafe.irrazionale.org</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -5129,12 +5127,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
@@ -5143,32 +5141,32 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3a04124b47167ef39224aa1b60a8fe25</t>
+          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>_acme-challenge.mail.irrazionale.org</t>
+          <t>s3.irrazionale.org</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -5188,12 +5186,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -5202,29 +5200,29 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
+          <t>0ce0da84393eb2e44a959deb2116cce5</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>s3ui.irrazionale.org</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5247,12 +5245,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -5261,29 +5259,29 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>c931695adebdf9cc13b66924f8d442a2</t>
+          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>sci-fi.irrazionale.org</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
+          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5306,12 +5304,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
@@ -5320,29 +5318,29 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>5674a44427225f44209d188901e7e212</t>
+          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>search.irrazionale.org</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5365,12 +5363,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
@@ -5379,29 +5377,29 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>575daba57b52a33ae44441e93e44ad93</t>
+          <t>d136067486f9bfd1260a66e04c217624</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>webcheck.irrazionale.org</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5424,12 +5422,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
@@ -5438,7 +5436,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>8ae5f18920790fbc1ac6e57676db376b</t>
+          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5448,12 +5446,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
+          <t>mail.irrazionale.org</t>
         </is>
       </c>
       <c r="E85" t="b">
@@ -5483,21 +5481,23 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
+      <c r="O85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>5f752add42e06a88468c1b1203a5241c</t>
+          <t>5e61f46e73d33d23b901c830c11d05e5</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5507,12 +5507,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -5542,21 +5542,23 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="O86" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
+          <t>4a187b659dadf78253cb30054350314c</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5566,12 +5568,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 -all</t>
+          <t>route2mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E87" t="b">
@@ -5601,36 +5603,38 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
+      <c r="O87" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>96bf76d43d32043fc586f04d28efe912</t>
+          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>mail._domainkey.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E88" t="b">
@@ -5660,36 +5664,38 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+      <c r="O88" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6aa7d6d1576b8790519602102e390beb</t>
+          <t>bb6fca1069dfef36eac3160ec423215a</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>s20220715915._domainkey.irrazionale.org</t>
+          <t>safe.irrazionale.org</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
+          <t>dnsafe.irrazionale.org</t>
         </is>
       </c>
       <c r="E89" t="b">
@@ -5719,12 +5725,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
@@ -5733,12 +5739,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>f07372fefe2aeec92ba78a42ee921960</t>
+          <t>3a04124b47167ef39224aa1b60a8fe25</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>s20221212161._domainkey.irrazionale.org</t>
+          <t>_acme-challenge.mail.irrazionale.org</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5748,7 +5754,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
+          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
         </is>
       </c>
       <c r="E90" t="b">
@@ -5758,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5778,12 +5784,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
@@ -5792,22 +5798,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>f02f658bd3f849218f8880600ee8f124</t>
+          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>proxmox-dc2-mn.italiacdn.net</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>100.92.242.58</t>
+          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
         </is>
       </c>
       <c r="E91" t="b">
@@ -5817,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5837,12 +5843,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -5851,29 +5857,29 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>25f1985f805e21184de23f5dd6f43ea9</t>
+          <t>c931695adebdf9cc13b66924f8d442a2</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>bin.italiacdn.net</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
+          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5896,12 +5902,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
@@ -5910,29 +5916,29 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
+          <t>5674a44427225f44209d188901e7e212</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>logs.italiacdn.net</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5955,12 +5961,12 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
@@ -5969,29 +5975,29 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>b013512ac14813f9241bfb82d58e6a15</t>
+          <t>575daba57b52a33ae44441e93e44ad93</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>private.italiacdn.net</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
+          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
         </is>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -6014,12 +6020,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
@@ -6028,29 +6034,29 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>da6f732331d53062b4a64822c4d8053c</t>
+          <t>8ae5f18920790fbc1ac6e57676db376b</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>public-bucket.italiacdn.net</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
+          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6073,12 +6079,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
@@ -6087,29 +6093,29 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>68ff9d51859905c9e8f951acf9650166</t>
+          <t>5f752add42e06a88468c1b1203a5241c</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>vault.italiacdn.net</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
+          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6132,12 +6138,12 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
@@ -6146,29 +6152,29 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
+          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>vpn.italiacdn.net</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
+          <t>v=spf1 ip4:185.182.185.194 -all</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6191,12 +6197,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -6205,12 +6211,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>14efda500a1c1e9c12dffecc2640246d</t>
+          <t>96bf76d43d32043fc586f04d28efe912</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
+          <t>mail._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6220,7 +6226,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>27b4d1e9dabc5765ebb48532ae2443</t>
+          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
         </is>
       </c>
       <c r="E98" t="b">
@@ -6230,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -6250,12 +6256,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
@@ -6264,32 +6270,32 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>a49ade48a5be45f002d5417140f370a0</t>
+          <t>6aa7d6d1576b8790519602102e390beb</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>adinsp9sqvzxue8n.italiadns.com</t>
+          <t>s20220715915._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -6309,12 +6315,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2024-07-31T13:37:34.938024Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2024-07-31T13:38:29.779921Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
@@ -6323,26 +6329,26 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>57267997534d7cf452997a9c191591ee</t>
+          <t>f07372fefe2aeec92ba78a42ee921960</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>mt-link.italiadns.com</t>
+          <t>s20221212161._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
@@ -6368,12 +6374,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
@@ -6382,32 +6388,32 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3a7c851242dbc15ea213945d901512b9</t>
+          <t>f02f658bd3f849218f8880600ee8f124</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.italiadns.com</t>
+          <t>proxmox-dc2-mn.italiacdn.net</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>100.92.242.58</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -6427,12 +6433,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
@@ -6441,12 +6447,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>f06b6c37872df6a52852ee0d128d45ee</t>
+          <t>25f1985f805e21184de23f5dd6f43ea9</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.italiadns.com</t>
+          <t>bin.italiacdn.net</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6456,14 +6462,14 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6486,12 +6492,12 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -6500,12 +6506,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>41fd60824243d4f2538de3c3c29b7736</t>
+          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>w1y139ns251ah6gc.italiadns.com</t>
+          <t>logs.italiacdn.net</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6515,14 +6521,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E103" t="b">
         <v>1</v>
       </c>
       <c r="F103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6545,12 +6551,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
@@ -6559,29 +6565,29 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>a38c7cb5dce002e6fa5326111beba54f</t>
+          <t>b013512ac14813f9241bfb82d58e6a15</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>private.italiacdn.net</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6593,7 +6599,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -6604,45 +6610,43 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
-      <c r="O104" t="n">
-        <v>61</v>
-      </c>
+      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
+          <t>da6f732331d53062b4a64822c4d8053c</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>public-bucket.italiacdn.net</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6654,7 +6658,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -6665,45 +6669,43 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
-      <c r="O105" t="n">
-        <v>14</v>
-      </c>
+      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>6c5bf0b471503f7060c852986b55b0e0</t>
+          <t>68ff9d51859905c9e8f951acf9650166</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>vault.italiacdn.net</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6715,7 +6717,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -6726,45 +6728,43 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
-      <c r="O106" t="n">
-        <v>3</v>
-      </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>e6da0cedff625c31979aecd06ce463d4</t>
+          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.italiadns.com</t>
+          <t>vpn.italiacdn.net</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -6787,12 +6787,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -6801,12 +6801,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
+          <t>14efda500a1c1e9c12dffecc2640246d</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>_dmarc.italiadns.com</t>
+          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
+          <t>27b4d1e9dabc5765ebb48532ae2443</t>
         </is>
       </c>
       <c r="E108" t="b">
@@ -6826,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -6846,12 +6846,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6860,32 +6860,32 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>129ae399ff1f816f521c481aa58251a7</t>
+          <t>a49ade48a5be45f002d5417140f370a0</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>adinsp9sqvzxue8n.italiadns.com</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -6905,12 +6905,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:30.706502Z</t>
+          <t>2024-07-31T13:37:34.938024Z</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2024-08-19T08:39:22.495623Z</t>
+          <t>2024-07-31T13:38:29.779921Z</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6919,26 +6919,26 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
+          <t>57267997534d7cf452997a9c191591ee</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>mt-link.italiadns.com</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ns-1683.awsdns-18.co.uk</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
@@ -6964,12 +6964,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
@@ -6978,26 +6978,26 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>4131e3d65c1df20458045bfa612298e9</t>
+          <t>3a7c851242dbc15ea213945d901512b9</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>rwmt1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ns-1303.awsdns-34.org</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
@@ -7023,12 +7023,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
@@ -7037,26 +7037,26 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>03da4898b7afbb1408bfdd51f42e5936</t>
+          <t>f06b6c37872df6a52852ee0d128d45ee</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>rwmt2._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
@@ -7082,12 +7082,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
@@ -7096,26 +7096,26 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>fd06957f7e745e10c388665bb8be096a</t>
+          <t>41fd60824243d4f2538de3c3c29b7736</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>w1y139ns251ah6gc.italiadns.com</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
@@ -7141,12 +7141,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -7155,22 +7155,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
+          <t>a38c7cb5dce002e6fa5326111beba54f</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>v=spf1 a mx ~all</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E114" t="b">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -7200,43 +7200,45 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
+      <c r="O114" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>b738ae8c910e28345612400cb8a6e23e</t>
+          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ssh.repolizer.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7248,7 +7250,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -7259,43 +7261,45 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
+      <c r="O115" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>bfd43018c9b1cd41cc29efc4c62c6d8c</t>
+          <t>6c5bf0b471503f7060c852986b55b0e0</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>www.repolizer.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7307,7 +7311,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -7318,40 +7322,42 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2025-04-23T08:30:24.446765Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2025-04-23T08:34:01.380912Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
+      <c r="O116" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>c7df12561d64e4e680c6b0859c123f99</t>
+          <t>e6da0cedff625c31979aecd06ce463d4</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>imap.rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
@@ -7366,7 +7372,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -7377,12 +7383,12 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -7391,26 +7397,26 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>e95c85414a6c93e847a2755df7c16cf0</t>
+          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>mail.rivoluzioneinformatica.org</t>
+          <t>_dmarc.italiadns.com</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
@@ -7436,12 +7442,12 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
@@ -7450,26 +7456,26 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>6834f98896056a837138409566211327</t>
+          <t>129ae399ff1f816f521c481aa58251a7</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>smtp.rivoluzioneinformatica.org</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="b">
         <v>0</v>
@@ -7495,12 +7501,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2024-07-31T12:41:30.706502Z</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2024-08-19T08:39:22.495623Z</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
@@ -7509,29 +7515,29 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
+          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>webmail.rivoluzioneinformatica.org</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>ns-1683.awsdns-18.co.uk</t>
         </is>
       </c>
       <c r="E120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -7554,12 +7560,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
@@ -7568,29 +7574,29 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
+          <t>4131e3d65c1df20458045bfa612298e9</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>git.rivoluzioneinformatica.org</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
+          <t>ns-1303.awsdns-34.org</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -7613,12 +7619,12 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
@@ -7627,29 +7633,29 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>eb220c9fb1df30719c788ef51fe312f6</t>
+          <t>03da4898b7afbb1408bfdd51f42e5936</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>npm.rivoluzioneinformatica.org</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
+          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7672,12 +7678,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -7686,29 +7692,29 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
+          <t>fd06957f7e745e10c388665bb8be096a</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>proxmox.rivoluzioneinformatica.org</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
+          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7731,12 +7737,12 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
@@ -7745,29 +7751,29 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>236f1b867d3720d5dd29c6af49782d62</t>
+          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>v=spf1 a mx ~all</t>
         </is>
       </c>
       <c r="E124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7790,12 +7796,12 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
@@ -7804,12 +7810,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>7c6da25c8e1e486da458cd5373402382</t>
+          <t>b738ae8c910e28345612400cb8a6e23e</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>vpn.rivoluzioneinformatica.org</t>
+          <t>ssh.repolizer.com</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -7819,7 +7825,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E125" t="b">
@@ -7849,12 +7855,12 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
@@ -7863,12 +7869,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3045396196bc00b6e05726f94825c6bd</t>
+          <t>bfd43018c9b1cd41cc29efc4c62c6d8c</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>www.repolizer.com</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -7878,7 +7884,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>fabriziosalmi.github.io</t>
+          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -7908,12 +7914,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2022-08-17T08:57:50.756388Z</t>
+          <t>2025-04-23T08:30:24.446765Z</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2022-08-17T08:59:41.92016Z</t>
+          <t>2025-04-23T08:34:01.380912Z</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
@@ -7922,29 +7928,29 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>25f714bcbfe5ff8215c314a503379edc</t>
+          <t>c7df12561d64e4e680c6b0859c123f99</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>xmq.rivoluzioneinformatica.org</t>
+          <t>imap.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7967,12 +7973,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -7981,26 +7987,26 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
+          <t>e95c85414a6c93e847a2755df7c16cf0</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>mail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>amir.mx.cloudflare.net</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -8015,7 +8021,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -8026,42 +8032,40 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
-      <c r="O128" t="n">
-        <v>40</v>
-      </c>
+      <c r="O128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
+          <t>6834f98896056a837138409566211327</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>smtp.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>linda.mx.cloudflare.net</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
@@ -8076,7 +8080,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -8087,45 +8091,43 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
-      <c r="O129" t="n">
-        <v>90</v>
-      </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>bcd73d5a0e03a2593be162cd5259a678</t>
+          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>webmail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>isaac.mx.cloudflare.net</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -8137,7 +8139,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -8148,45 +8150,43 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
-      <c r="O130" t="n">
-        <v>97</v>
-      </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>e6ffaf786ff743b47650f73557b07b66</t>
+          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
+          <t>git.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -8209,12 +8209,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8223,29 +8223,29 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
+          <t>eb220c9fb1df30719c788ef51fe312f6</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>_dmarc.rivoluzioneinformatica.org</t>
+          <t>npm.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -8268,12 +8268,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2022-02-07T15:43:39.763425Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2022-05-22T11:09:18.092063Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8282,29 +8282,29 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2a74f92cf716979d913217d640655261</t>
+          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>proxmox.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
+          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -8327,12 +8327,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8341,7 +8341,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
+          <t>236f1b867d3720d5dd29c6af49782d62</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -8351,19 +8351,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -8386,12 +8386,12 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
@@ -8400,29 +8400,29 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>47bb0eec812c7e5f3961cb9079727d80</t>
+          <t>7c6da25c8e1e486da458cd5373402382</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>vpn.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -8445,12 +8445,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
@@ -8459,29 +8459,29 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>9abd161d29cb47ce6cfa783657e67723</t>
+          <t>3045396196bc00b6e05726f94825c6bd</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
+          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8504,12 +8504,12 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2022-05-13T21:13:25.301942Z</t>
+          <t>2022-08-17T08:57:50.756388Z</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2022-05-22T10:18:49.411362Z</t>
+          <t>2022-08-17T08:59:41.92016Z</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
@@ -8518,29 +8518,29 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
+          <t>25f714bcbfe5ff8215c314a503379edc</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
+          <t>xmq.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -8563,12 +8563,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -8577,29 +8577,29 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>904b0a528a01b0dd8370295ce305d3da</t>
+          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>demo.uglyfeed.com</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>amir.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -8622,43 +8622,45 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
+      <c r="O138" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1b7333a979fa92816324f0e9be6a564a</t>
+          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>xml.uglyfeed.com</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>linda.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -8670,7 +8672,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -8681,36 +8683,38 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
+      <c r="O139" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>bcd73d5a0e03a2593be162cd5259a678</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>isaac.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E140" t="b">
@@ -8740,26 +8744,28 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
+      <c r="O140" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>e6ffaf786ff743b47650f73557b07b66</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -8769,7 +8775,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E141" t="b">
@@ -8788,7 +8794,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -8799,12 +8805,12 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
@@ -8813,12 +8819,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>_dmarc.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -8828,7 +8834,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E142" t="b">
@@ -8858,12 +8864,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2022-02-07T15:43:39.763425Z</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2022-05-22T11:09:18.092063Z</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -8872,12 +8878,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>2a74f92cf716979d913217d640655261</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -8887,7 +8893,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
         </is>
       </c>
       <c r="E143" t="b">
@@ -8917,12 +8923,12 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="N143" t="inlineStr"/>
@@ -8931,29 +8937,29 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -8976,12 +8982,12 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="N144" t="inlineStr"/>
@@ -8990,29 +8996,29 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>47bb0eec812c7e5f3961cb9079727d80</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -9035,12 +9041,12 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="N145" t="inlineStr"/>
@@ -9049,29 +9055,29 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>9abd161d29cb47ce6cfa783657e67723</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -9094,12 +9100,12 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2022-05-13T21:13:25.301942Z</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2022-05-22T10:18:49.411362Z</t>
         </is>
       </c>
       <c r="N146" t="inlineStr"/>
@@ -9108,29 +9114,29 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -9153,12 +9159,12 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="N147" t="inlineStr"/>
@@ -9167,22 +9173,22 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>904b0a528a01b0dd8370295ce305d3da</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>demo.uglyfeed.com</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E148" t="b">
@@ -9212,12 +9218,12 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2024-06-11T13:11:54.727338Z</t>
         </is>
       </c>
       <c r="N148" t="inlineStr"/>
@@ -9226,29 +9232,29 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
+          <t>1b7333a979fa92816324f0e9be6a564a</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>_dmarc.youknowwhataimean.com</t>
+          <t>xml.uglyfeed.com</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -9271,12 +9277,12 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2024-06-13T14:01:29.398752Z</t>
         </is>
       </c>
       <c r="N149" t="inlineStr"/>
@@ -9285,12 +9291,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -9300,7 +9306,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E150" t="b">
@@ -9319,7 +9325,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -9330,12 +9336,12 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N150" t="inlineStr"/>
@@ -9344,12 +9350,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -9359,7 +9365,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E151" t="b">
@@ -9389,12 +9395,12 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N151" t="inlineStr"/>
@@ -9403,29 +9409,29 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>transversalpuntozero.org</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>transversalpuntozero.pages.dev</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -9448,16 +9454,606 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>videodioggi.com</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>v=spf1 -all</t>
+        </is>
+      </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>2021-12-12T16:20:23.51106Z</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>2021-12-12T16:20:23.51106Z</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>185.199.108.153</t>
+        </is>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>2023-03-30T09:59:11.98058Z</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>2023-03-30T09:59:12.228482Z</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>test2.webtek.live</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>185.199.108.153</t>
+        </is>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>2023-03-28T08:34:29.902515Z</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>2023-03-28T08:34:30.164318Z</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>432df2553b443742f9f905e155878536</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>test.webtek.live</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>185.199.108.153</t>
+        </is>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>2023-03-24T11:44:15.078812Z</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>2023-03-24T11:44:15.367412Z</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>webtek.live</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>185.199.108.153</t>
+        </is>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>2023-02-17T23:14:39.792808Z</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>2023-02-17T23:14:39.792808Z</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>e02587466a80086957e4f19a05760dec</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>youknowwhataimean.com</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>185.199.108.153</t>
+        </is>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>2023-10-06T11:52:31.670164Z</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>2023-10-06T12:04:32.454791Z</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>_dmarc.youknowwhataimean.com</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+        </is>
+      </c>
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.963225Z</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.963225Z</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>*._domainkey.youknowwhataimean.com</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>v=DKIM1; p=</t>
+        </is>
+      </c>
+      <c r="E160" t="b">
+        <v>0</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.93815Z</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.93815Z</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>youknowwhataimean.com</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>v=spf1 -all</t>
+        </is>
+      </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.931067Z</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>2023-10-05T14:13:27.931067Z</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.org</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>CNAME</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>transversalpuntozero.pages.dev</t>
+        </is>
+      </c>
+      <c r="E162" t="b">
+        <v>1</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>2024-11-03T08:47:11.475444Z</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4875,7 +4875,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4993,7 +4993,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7898,7 +7898,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -8252,7 +8252,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -8429,7 +8429,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -9202,7 +9202,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -10028,7 +10028,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O162"/>
+  <dimension ref="A1:O160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9173,41 +9173,41 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>904b0a528a01b0dd8370295ce305d3da</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>demo.uglyfeed.com</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -9218,12 +9218,12 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2024-06-11T13:11:54.727338Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N148" t="inlineStr"/>
@@ -9232,36 +9232,36 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1b7333a979fa92816324f0e9be6a564a</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>xml.uglyfeed.com</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -9277,12 +9277,12 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2024-06-13T14:01:29.398752Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N149" t="inlineStr"/>
@@ -9291,12 +9291,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E150" t="b">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -9336,12 +9336,12 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N150" t="inlineStr"/>
@@ -9350,12 +9350,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>videodioggi.com</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -9365,7 +9365,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E151" t="b">
@@ -9395,12 +9395,12 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="N151" t="inlineStr"/>
@@ -9409,29 +9409,29 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -9454,12 +9454,12 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2023-03-30T09:59:11.98058Z</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2023-03-30T09:59:12.228482Z</t>
         </is>
       </c>
       <c r="N152" t="inlineStr"/>
@@ -9468,29 +9468,29 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>test2.webtek.live</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -9513,12 +9513,12 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2023-03-28T08:34:29.902515Z</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2023-03-28T08:34:30.164318Z</t>
         </is>
       </c>
       <c r="N153" t="inlineStr"/>
@@ -9527,12 +9527,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>432df2553b443742f9f905e155878536</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>test.webtek.live</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -9572,12 +9572,12 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2023-03-24T11:44:15.078812Z</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2023-03-24T11:44:15.367412Z</t>
         </is>
       </c>
       <c r="N154" t="inlineStr"/>
@@ -9586,12 +9586,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>webtek.live</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -9631,12 +9631,12 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="N155" t="inlineStr"/>
@@ -9645,12 +9645,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>e02587466a80086957e4f19a05760dec</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -9690,12 +9690,12 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2023-10-06T11:52:31.670164Z</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2023-10-06T12:04:32.454791Z</t>
         </is>
       </c>
       <c r="N156" t="inlineStr"/>
@@ -9704,29 +9704,29 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>_dmarc.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -9749,12 +9749,12 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="N157" t="inlineStr"/>
@@ -9763,29 +9763,29 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>*._domainkey.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -9808,12 +9808,12 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="N158" t="inlineStr"/>
@@ -9822,12 +9822,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>_dmarc.youknowwhataimean.com</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E159" t="b">
@@ -9867,12 +9867,12 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="N159" t="inlineStr"/>
@@ -9881,36 +9881,36 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
+          <t>transversalpuntozero.org</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>transversalpuntozero.pages.dev</t>
         </is>
       </c>
       <c r="E160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -9926,134 +9926,16 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2024-11-03T08:47:11.475444Z</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
+          <t>2024-11-03T08:47:11.475444Z</t>
         </is>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>youknowwhataimean.com</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>TXT</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>v=spf1 -all</t>
-        </is>
-      </c>
-      <c r="E161" t="b">
-        <v>0</v>
-      </c>
-      <c r="F161" t="b">
-        <v>0</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>transversalpuntozero.org</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>CNAME</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>transversalpuntozero.pages.dev</t>
-        </is>
-      </c>
-      <c r="E162" t="b">
-        <v>1</v>
-      </c>
-      <c r="F162" t="b">
-        <v>1</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>{'flatten_cname': False}</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
-        </is>
-      </c>
-      <c r="N162" t="inlineStr"/>
-      <c r="O162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O160"/>
+  <dimension ref="A1:O156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2602,12 +2602,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4dd327c64e78f584c16dc531a13ec1ec</t>
+          <t>77c251b8488617268d91ee1ebd51ede5</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>proxmox-test-1.freesubnet.com</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2617,14 +2617,14 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>37.183.16.191</t>
+          <t>207.180.193.100</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2647,12 +2647,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2024-07-28T19:51:23.923255Z</t>
+          <t>2021-07-23T08:58:49.378112Z</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2024-07-28T19:51:23.923255Z</t>
+          <t>2021-07-23T12:56:39.987386Z</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -2661,12 +2661,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ec12d53bf42e7bc2c950d7f4d4eb60e4</t>
+          <t>dd673c4571ae6ec6ea4517da4047fa5f</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>rp.freesubnet.com</t>
+          <t>listen.free-tekno.com</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2676,14 +2676,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>18.102.76.90</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E38" t="b">
         <v>1</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2706,12 +2706,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2023-05-03T13:52:38.28258Z</t>
+          <t>2022-02-07T20:32:13.606665Z</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-05-03T16:25:08.617872Z</t>
+          <t>2022-02-07T20:32:43.921656Z</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -2720,12 +2720,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9bdd5da061a0b3543fb74847be092a31</t>
+          <t>de47139d99158674daebfa2bcc46381b</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>test.freesubnet.com</t>
+          <t>radio.free-tekno.com</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2735,17 +2735,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>37.183.16.191</t>
+          <t>161.97.120.130</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2765,12 +2765,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2024-07-24T12:42:57.795531Z</t>
+          <t>2021-06-27T11:17:21.364442Z</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2024-07-28T13:17:47.159096Z</t>
+          <t>2022-02-16T15:58:36.261027Z</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -2779,36 +2779,36 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>13b2a5129e5f7772daa7f0f70e349a26</t>
+          <t>5acccdfb3c59cd49cacd28e83e48d221</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>waf.freesubnet.com</t>
+          <t>www.free-tekno.com</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>rp.freesubnet.com</t>
+          <t>161.97.120.130</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2023-05-03T13:53:22.545371Z</t>
+          <t>2022-02-07T16:41:14.791288Z</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023-05-03T16:25:02.924302Z</t>
+          <t>2022-02-07T16:41:14.791288Z</t>
         </is>
       </c>
       <c r="N40" t="inlineStr"/>
@@ -2838,22 +2838,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>77c251b8488617268d91ee1ebd51ede5</t>
+          <t>ac7c113f029bd912a9b6fe78dffe02a5</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>mp3.free-tekno.com</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>207.180.193.100</t>
+          <t>freetekno.free.nf</t>
         </is>
       </c>
       <c r="E41" t="b">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2021-07-23T08:58:49.378112Z</t>
+          <t>2023-07-04T19:53:02.363162Z</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2021-07-23T12:56:39.987386Z</t>
+          <t>2023-07-04T19:53:02.363162Z</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
@@ -2897,29 +2897,29 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>dd673c4571ae6ec6ea4517da4047fa5f</t>
+          <t>9450bd2c3778824d44882bf3a36c136a</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>listen.free-tekno.com</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>poste.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2942,43 +2942,45 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2022-02-07T20:32:13.606665Z</t>
+          <t>2022-02-16T15:14:24.531147Z</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2022-02-07T20:32:43.921656Z</t>
+          <t>2022-02-16T15:14:24.531147Z</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="O42" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>de47139d99158674daebfa2bcc46381b</t>
+          <t>ec58d36579ccf292f4a659648d6a9c19</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>radio.free-tekno.com</t>
+          <t>_dmarc.free-tekno.com</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>161.97.120.130</t>
+          <t>v=DMARC1; p=reject; rua=mailto:cloud@free-tekno.com;</t>
         </is>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3001,12 +3003,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2021-06-27T11:17:21.364442Z</t>
+          <t>2022-02-16T15:36:47.274766Z</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2022-02-16T15:58:36.261027Z</t>
+          <t>2022-02-16T15:36:47.274766Z</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
@@ -3015,29 +3017,29 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5acccdfb3c59cd49cacd28e83e48d221</t>
+          <t>f82cb05f0c7bd0ee554dc7a7e68481c2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>www.free-tekno.com</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>161.97.120.130</t>
+          <t>v=spf1 mx ip4:161.97.120.130/32 a:mail.rivoluzioneinformatica.org a:poste.rivoluzioneinformatica.org -all</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3060,12 +3062,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2022-02-07T16:41:14.791288Z</t>
+          <t>2022-02-16T12:57:13.550913Z</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2022-02-07T16:41:14.791288Z</t>
+          <t>2022-02-16T15:47:18.346287Z</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
@@ -3074,36 +3076,36 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ac7c113f029bd912a9b6fe78dffe02a5</t>
+          <t>15a4efde5824a7f870270570f044bf6a</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mp3.free-tekno.com</t>
+          <t>free-tekno.com</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>freetekno.free.nf</t>
+          <t>google-site-verification=u1RtWKENUcJYrh_iqqGrIQMTts0ipS2LpFZjtt7T-Nk</t>
         </is>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3119,12 +3121,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2023-07-04T19:53:02.363162Z</t>
+          <t>2021-07-25T02:01:05.324193Z</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2023-07-04T19:53:02.363162Z</t>
+          <t>2021-07-25T02:01:05.324193Z</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -3133,22 +3135,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9450bd2c3778824d44882bf3a36c136a</t>
+          <t>6f78e130390aca374862016649566194</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>s20220216247._domainkey.free-tekno.com</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>poste.rivoluzioneinformatica.org</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA25fjdBEzCOeoRC5460U3HHjYEIjqtI4wkAVXidP5ynP9anEQ5i2+bW/lKh+xa5WKGjPofy/qxsnjuLE40ZnivPy7wfOwU3uOFf4CD5cen08xi/76vrqj3r1F29j8v+jJqB9+Z5RCOxCuu0Zx99okko+BaBej+O9W4Eh70d4PAb1TwrwNoBD47GnSLG3xu2b1NuXyWbuAEoQQ43/1+M689TJt7azAmG3yqft4J/7Oo0B7Wyk5V8Al2bpt6GYEoSV48HPrUC+MudIxgxVtR3O5oIVq9tHm7+jg5EY0GZpyk6yVJFlAXFJzt0OIKe4KvCngW0vHQSISmy0tgmZ8j38+uQIDAQAB</t>
         </is>
       </c>
       <c r="E46" t="b">
@@ -3178,52 +3180,50 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2022-02-16T15:14:24.531147Z</t>
+          <t>2022-02-16T12:55:09.214302Z</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2022-02-16T15:14:24.531147Z</t>
+          <t>2022-02-16T12:55:09.214302Z</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="n">
-        <v>10</v>
-      </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ec58d36579ccf292f4a659648d6a9c19</t>
+          <t>54e5f74cd09ee8a8c9729c9cdb0397b6</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>_dmarc.free-tekno.com</t>
+          <t>freesounds-selfhosted.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; rua=mailto:cloud@free-tekno.com;</t>
+          <t>54a3646c-9701-4a8b-b6b0-e8b9f08e297f.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3239,12 +3239,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2022-02-16T15:36:47.274766Z</t>
+          <t>2022-12-10T19:31:31.948543Z</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2022-02-16T15:36:47.274766Z</t>
+          <t>2022-12-10T19:31:31.948543Z</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -3253,36 +3253,36 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>f82cb05f0c7bd0ee554dc7a7e68481c2</t>
+          <t>f2d988c340f9edd8b38f1dcd778bb88a</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>mp3.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>v=spf1 mx ip4:161.97.120.130/32 a:mail.rivoluzioneinformatica.org a:poste.rivoluzioneinformatica.org -all</t>
+          <t>7544e2f1-de2b-411b-9eed-4a6c28bf46ac.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3298,12 +3298,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2022-02-16T12:57:13.550913Z</t>
+          <t>2022-12-10T20:18:13.753251Z</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2022-02-16T15:47:18.346287Z</t>
+          <t>2022-12-10T20:18:13.753251Z</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -3312,36 +3312,36 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>15a4efde5824a7f870270570f044bf6a</t>
+          <t>7d449cbba90883fa8a14389f9a18a7a6</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>free-tekno.com</t>
+          <t>radio.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>google-site-verification=u1RtWKENUcJYrh_iqqGrIQMTts0ipS2LpFZjtt7T-Nk</t>
+          <t>1e58dbc4-7d4f-4d5c-bf27-f801381a4fce.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3357,12 +3357,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2021-07-25T02:01:05.324193Z</t>
+          <t>2024-06-08T18:04:10.985475Z</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2021-07-25T02:01:05.324193Z</t>
+          <t>2024-06-08T18:04:10.985475Z</t>
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
@@ -3371,12 +3371,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6f78e130390aca374862016649566194</t>
+          <t>b24f98873ca6f73f11bb06015e03a3d1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>s20220216247._domainkey.free-tekno.com</t>
+          <t>_acme-challenge.sound.freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA25fjdBEzCOeoRC5460U3HHjYEIjqtI4wkAVXidP5ynP9anEQ5i2+bW/lKh+xa5WKGjPofy/qxsnjuLE40ZnivPy7wfOwU3uOFf4CD5cen08xi/76vrqj3r1F29j8v+jJqB9+Z5RCOxCuu0Zx99okko+BaBej+O9W4Eh70d4PAb1TwrwNoBD47GnSLG3xu2b1NuXyWbuAEoQQ43/1+M689TJt7azAmG3yqft4J/7Oo0B7Wyk5V8Al2bpt6GYEoSV48HPrUC+MudIxgxVtR3O5oIVq9tHm7+jg5EY0GZpyk6yVJFlAXFJzt0OIKe4KvCngW0vHQSISmy0tgmZ8j38+uQIDAQAB</t>
+          <t>4bHK_Yi224RlQPT3GaNFHfWNtm2reTuFAJitGpMFgM8</t>
         </is>
       </c>
       <c r="E50" t="b">
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2022-02-16T12:55:09.214302Z</t>
+          <t>2018-08-07T16:10:03.300043Z</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2022-02-16T12:55:09.214302Z</t>
+          <t>2018-08-07T16:10:03.300043Z</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -3430,36 +3430,36 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>54e5f74cd09ee8a8c9729c9cdb0397b6</t>
+          <t>e302bd7fb84138a3a709507e25855226</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>freesounds-selfhosted.freeundergroundtekno.org</t>
+          <t>freeundergroundtekno.org</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>54a3646c-9701-4a8b-b6b0-e8b9f08e297f.cfargotunnel.com</t>
+          <t>google-site-verification=UoPqDBPRj-_7eqBxrBhGViVVv41rzy51Zb_ZCmftsq0</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3475,12 +3475,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2022-12-10T19:31:31.948543Z</t>
+          <t>2024-03-25T22:28:21.998451Z</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2022-12-10T19:31:31.948543Z</t>
+          <t>2024-03-25T22:28:21.998451Z</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -3489,12 +3489,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>f2d988c340f9edd8b38f1dcd778bb88a</t>
+          <t>3d0c18afd78dff56ae887d0b7f971bf0</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>mp3.freeundergroundtekno.org</t>
+          <t>ai.irrazionale.org</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>7544e2f1-de2b-411b-9eed-4a6c28bf46ac.cfargotunnel.com</t>
+          <t>fc418fe6-ca4c-4b2d-988b-b2b9bddc570f.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E52" t="b">
@@ -3534,12 +3534,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2022-12-10T20:18:13.753251Z</t>
+          <t>2025-03-21T11:57:02.473035Z</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2022-12-10T20:18:13.753251Z</t>
+          <t>2025-03-21T11:57:02.473035Z</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -3548,12 +3548,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>7d449cbba90883fa8a14389f9a18a7a6</t>
+          <t>737420529070901f1b0cd444ebf396fd</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>radio.freeundergroundtekno.org</t>
+          <t>baserow.irrazionale.org</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1e58dbc4-7d4f-4d5c-bf27-f801381a4fce.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E53" t="b">
@@ -3593,12 +3593,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2024-06-08T18:04:10.985475Z</t>
+          <t>2025-02-07T16:23:37.038965Z</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2024-06-08T18:04:10.985475Z</t>
+          <t>2025-02-07T16:23:37.038965Z</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -3607,36 +3607,36 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>b24f98873ca6f73f11bb06015e03a3d1</t>
+          <t>2628b62f7c721d0e34d5ad5f81f94aa6</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>_acme-challenge.sound.freeundergroundtekno.org</t>
+          <t>check.irrazionale.org</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4bHK_Yi224RlQPT3GaNFHfWNtm2reTuFAJitGpMFgM8</t>
+          <t>eb879ac1-3924-4f69-9c6c-75f6a9e1cdb8.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3652,12 +3652,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2018-08-07T16:10:03.300043Z</t>
+          <t>2025-04-10T17:26:36.959974Z</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2018-08-07T16:10:03.300043Z</t>
+          <t>2025-04-10T17:26:36.959974Z</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -3666,36 +3666,36 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>e302bd7fb84138a3a709507e25855226</t>
+          <t>081907c20660bf785f8a99b15f7ae6fa</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>freeundergroundtekno.org</t>
+          <t>cloud.irrazionale.org</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>google-site-verification=UoPqDBPRj-_7eqBxrBhGViVVv41rzy51Zb_ZCmftsq0</t>
+          <t>379e723b-0e63-4ee0-aabe-5009125009c9.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>3600</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3711,12 +3711,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2024-03-25T22:28:21.998451Z</t>
+          <t>2022-12-11T16:25:07.205868Z</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2024-03-25T22:28:21.998451Z</t>
+          <t>2022-12-11T16:25:07.205868Z</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -3725,12 +3725,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3d0c18afd78dff56ae887d0b7f971bf0</t>
+          <t>d0e96bb2faf9ed17182c357e39b68779</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ai.irrazionale.org</t>
+          <t>coolify.irrazionale.org</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>fc418fe6-ca4c-4b2d-988b-b2b9bddc570f.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E56" t="b">
@@ -3770,12 +3770,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2025-03-21T11:57:02.473035Z</t>
+          <t>2025-02-09T22:15:14.34368Z</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2025-03-21T11:57:02.473035Z</t>
+          <t>2025-02-09T22:15:14.34368Z</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -3784,12 +3784,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>737420529070901f1b0cd444ebf396fd</t>
+          <t>911a85c4a4a11c6e7c594788937a2456</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>baserow.irrazionale.org</t>
+          <t>dell.irrazionale.org</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>4e789f43-bcab-410e-a7c8-9c7bd88fd294.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E57" t="b">
@@ -3829,12 +3829,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2025-02-07T16:23:37.038965Z</t>
+          <t>2023-12-01T12:39:10.88625Z</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2025-02-07T16:23:37.038965Z</t>
+          <t>2023-12-01T12:39:10.88625Z</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3843,12 +3843,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2628b62f7c721d0e34d5ad5f81f94aa6</t>
+          <t>60d0a2d1367b6b64c398aa37848efae3</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>check.irrazionale.org</t>
+          <t>docker.irrazionale.org</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>eb879ac1-3924-4f69-9c6c-75f6a9e1cdb8.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E58" t="b">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2025-04-10T17:26:36.959974Z</t>
+          <t>2025-02-07T16:29:08.840612Z</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2025-04-10T17:26:36.959974Z</t>
+          <t>2025-02-07T16:29:08.840612Z</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
@@ -3902,12 +3902,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>081907c20660bf785f8a99b15f7ae6fa</t>
+          <t>08d407943ed4067865b5a819494093df</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>cloud.irrazionale.org</t>
+          <t>freesounds.irrazionale.org</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>379e723b-0e63-4ee0-aabe-5009125009c9.cfargotunnel.com</t>
+          <t>86cfa504-c90d-46fd-a7f9-8c8d7a74ec1b.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E59" t="b">
@@ -3947,12 +3947,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2022-12-11T16:25:07.205868Z</t>
+          <t>2022-05-29T10:34:39.700377Z</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2022-12-11T16:25:07.205868Z</t>
+          <t>2022-05-29T10:34:39.700377Z</t>
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
@@ -3961,12 +3961,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>d0e96bb2faf9ed17182c357e39b68779</t>
+          <t>41be2e667e4654c8425c3747809eaf4b</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>coolify.irrazionale.org</t>
+          <t>git.irrazionale.org</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4006,12 +4006,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2025-02-09T22:15:14.34368Z</t>
+          <t>2025-02-09T17:43:27.673327Z</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2025-02-09T22:15:14.34368Z</t>
+          <t>2025-02-09T17:43:27.673327Z</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -4020,12 +4020,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>911a85c4a4a11c6e7c594788937a2456</t>
+          <t>216f28a4197e4846265257d9a19df44a</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>dell.irrazionale.org</t>
+          <t>jellyfin.irrazionale.org</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4e789f43-bcab-410e-a7c8-9c7bd88fd294.cfargotunnel.com</t>
+          <t>ecb8d351-a34c-4b72-829d-9e0ef5726b65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E61" t="b">
@@ -4065,12 +4065,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2023-12-01T12:39:10.88625Z</t>
+          <t>2023-12-01T16:34:33.145093Z</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2023-12-01T12:39:10.88625Z</t>
+          <t>2023-12-01T16:34:33.145093Z</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -4079,12 +4079,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>60d0a2d1367b6b64c398aa37848efae3</t>
+          <t>a294caebd6eeaa83278ae5e170afa4a7</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>docker.irrazionale.org</t>
+          <t>lf.irrazionale.org</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E62" t="b">
@@ -4124,12 +4124,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2025-02-07T16:29:08.840612Z</t>
+          <t>2024-04-25T08:35:09.947241Z</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2025-02-07T16:29:08.840612Z</t>
+          <t>2024-04-25T08:35:09.947241Z</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
@@ -4138,12 +4138,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>08d407943ed4067865b5a819494093df</t>
+          <t>b3c12f8816422fb6e017703c896aa4eb</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>freesounds.irrazionale.org</t>
+          <t>localhost.irrazionale.org</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>86cfa504-c90d-46fd-a7f9-8c8d7a74ec1b.cfargotunnel.com</t>
+          <t>05dcfc0e-c6f7-45c8-9c51-04d3ea300b3c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E63" t="b">
@@ -4183,12 +4183,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2022-05-29T10:34:39.700377Z</t>
+          <t>2025-03-26T09:51:19.730468Z</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2022-05-29T10:34:39.700377Z</t>
+          <t>2025-03-26T09:51:19.730468Z</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -4197,12 +4197,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>41be2e667e4654c8425c3747809eaf4b</t>
+          <t>59f655ac3982f7c3d6318c237aada804</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>git.irrazionale.org</t>
+          <t>mixpost.irrazionale.org</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>07122097-0310-42ba-b8c6-ea15e3b8612e.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E64" t="b">
@@ -4242,12 +4242,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2025-02-09T17:43:27.673327Z</t>
+          <t>2025-06-25T19:29:40.179134Z</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2025-02-09T17:43:27.673327Z</t>
+          <t>2025-06-25T19:29:40.179134Z</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -4256,12 +4256,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>216f28a4197e4846265257d9a19df44a</t>
+          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jellyfin.irrazionale.org</t>
+          <t>mt-link.irrazionale.org</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4271,14 +4271,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ecb8d351-a34c-4b72-829d-9e0ef5726b65.cfargotunnel.com</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4301,12 +4301,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2023-12-01T16:34:33.145093Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2023-12-01T16:34:33.145093Z</t>
+          <t>2023-07-06T15:34:57.894134Z</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -4315,12 +4315,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>a294caebd6eeaa83278ae5e170afa4a7</t>
+          <t>3d3ea0a30645f9869829e88faee2503f</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>lf.irrazionale.org</t>
+          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4330,14 +4330,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4360,12 +4360,12 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2024-04-25T08:35:09.947241Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2024-04-25T08:35:09.947241Z</t>
+          <t>2023-07-06T15:33:25.6031Z</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -4374,12 +4374,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>b3c12f8816422fb6e017703c896aa4eb</t>
+          <t>1229fb10c393330dc3c65ae010d33165</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>localhost.irrazionale.org</t>
+          <t>ocr.irrazionale.org</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>05dcfc0e-c6f7-45c8-9c51-04d3ea300b3c.cfargotunnel.com</t>
+          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E67" t="b">
@@ -4419,12 +4419,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2025-03-26T09:51:19.730468Z</t>
+          <t>2025-04-14T16:13:52.683863Z</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2025-03-26T09:51:19.730468Z</t>
+          <t>2025-04-14T16:13:52.683863Z</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -4433,12 +4433,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>59f655ac3982f7c3d6318c237aada804</t>
+          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>mixpost.irrazionale.org</t>
+          <t>ollama.irrazionale.org</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>07122097-0310-42ba-b8c6-ea15e3b8612e.cfargotunnel.com</t>
+          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E68" t="b">
@@ -4478,12 +4478,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2025-06-25T19:29:40.179134Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2025-06-25T19:29:40.179134Z</t>
+          <t>2024-04-20T14:38:22.706136Z</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -4492,12 +4492,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>f4dca49d67d59d15ae0d95d59da4e1bc</t>
+          <t>78c3a51bff323b9cf5c78e4d2c699452</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>mt-link.irrazionale.org</t>
+          <t>pdf2docx.irrazionale.org</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4507,14 +4507,14 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>bc9f57f2-e22f-4154-a26b-a765f0942d61.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2025-04-14T15:30:12.902487Z</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:57.894134Z</t>
+          <t>2025-04-14T15:30:12.902487Z</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -4551,12 +4551,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3d3ea0a30645f9869829e88faee2503f</t>
+          <t>7131e78a346aea946d969f014c2cb1e9</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>mtvcz748l8xjyyn1.irrazionale.org</t>
+          <t>postiz.irrazionale.org</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4566,14 +4566,14 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4596,12 +4596,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2025-06-25T07:43:38.264549Z</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:25.6031Z</t>
+          <t>2025-06-25T07:43:38.264549Z</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
@@ -4610,12 +4610,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1229fb10c393330dc3c65ae010d33165</t>
+          <t>4a64c597d17da513e052355df93bbc58</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ocr.irrazionale.org</t>
+          <t>powerdns.irrazionale.org</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4625,7 +4625,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
+          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -4655,12 +4655,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2025-04-14T16:13:52.683863Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2025-04-14T16:13:52.683863Z</t>
+          <t>2022-07-28T21:04:04.261466Z</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
@@ -4669,12 +4669,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0f265f5f7fc8993d0ab2639cf54dd5da</t>
+          <t>4bd65cc8d342c16851d7e90462f78579</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ollama.irrazionale.org</t>
+          <t>proxmox.irrazionale.org</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>98741367-c2d6-4791-adc2-f20eee96e6c3.cfargotunnel.com</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -4714,12 +4714,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2024-04-20T14:38:22.706136Z</t>
+          <t>2025-02-07T16:35:38.19329Z</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -4728,12 +4728,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>78c3a51bff323b9cf5c78e4d2c699452</t>
+          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>pdf2docx.irrazionale.org</t>
+          <t>proxmox-ssh.irrazionale.org</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>bc9f57f2-e22f-4154-a26b-a765f0942d61.cfargotunnel.com</t>
+          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E73" t="b">
@@ -4773,12 +4773,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2025-04-14T15:30:12.902487Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2025-04-14T15:30:12.902487Z</t>
+          <t>2025-02-07T16:36:02.480326Z</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
@@ -4787,12 +4787,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7131e78a346aea946d969f014c2cb1e9</t>
+          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>postiz.irrazionale.org</t>
+          <t>rwmt1._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4802,14 +4802,14 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>8212a2e4-846e-4096-bd97-3349c9da4269.cfargotunnel.com</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4832,12 +4832,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2025-06-25T07:43:38.264549Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2025-06-25T07:43:38.264549Z</t>
+          <t>2023-07-06T15:34:03.879259Z</t>
         </is>
       </c>
       <c r="N74" t="inlineStr"/>
@@ -4846,12 +4846,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4a64c597d17da513e052355df93bbc58</t>
+          <t>04d14cb456a1976f403ee148eca05cc8</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>powerdns.irrazionale.org</t>
+          <t>rwmt2._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4861,14 +4861,14 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>5aa9a43c-0d36-4ba4-aeae-bbd15b710672.cfargotunnel.com</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4891,12 +4891,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2022-07-28T21:04:04.261466Z</t>
+          <t>2023-07-06T15:34:18.717224Z</t>
         </is>
       </c>
       <c r="N75" t="inlineStr"/>
@@ -4905,12 +4905,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>4bd65cc8d342c16851d7e90462f78579</t>
+          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>proxmox.irrazionale.org</t>
+          <t>s3.irrazionale.org</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E76" t="b">
@@ -4950,12 +4950,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2025-02-07T16:35:38.19329Z</t>
+          <t>2025-02-07T16:30:35.386852Z</t>
         </is>
       </c>
       <c r="N76" t="inlineStr"/>
@@ -4964,12 +4964,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>bcecbb8389554f8c10dcbe5342f07c71</t>
+          <t>0ce0da84393eb2e44a959deb2116cce5</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>proxmox-ssh.irrazionale.org</t>
+          <t>s3ui.irrazionale.org</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>b07e1b74-56b3-479f-a59f-ee5c153f9ad5.cfargotunnel.com</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E77" t="b">
@@ -5009,12 +5009,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2025-02-07T16:36:02.480326Z</t>
+          <t>2025-02-07T16:30:54.891274Z</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -5023,12 +5023,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>4df15e68dd88bfa0ecd696b2dd67008e</t>
+          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.irrazionale.org</t>
+          <t>sci-fi.irrazionale.org</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5038,14 +5038,14 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5068,12 +5068,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:03.879259Z</t>
+          <t>2025-03-26T09:46:23.862818Z</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -5082,12 +5082,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>04d14cb456a1976f403ee148eca05cc8</t>
+          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.irrazionale.org</t>
+          <t>search.irrazionale.org</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5097,14 +5097,14 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5127,12 +5127,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:18.717224Z</t>
+          <t>2025-02-09T15:52:15.13208Z</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
@@ -5141,12 +5141,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>8ee0fa4fe49caa8b43660be5e1d1c512</t>
+          <t>d136067486f9bfd1260a66e04c217624</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>s3.irrazionale.org</t>
+          <t>webcheck.irrazionale.org</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5186,12 +5186,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:35.386852Z</t>
+          <t>2025-02-07T16:26:34.171441Z</t>
         </is>
       </c>
       <c r="N80" t="inlineStr"/>
@@ -5200,36 +5200,36 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0ce0da84393eb2e44a959deb2116cce5</t>
+          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>s3ui.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>mail.irrazionale.org</t>
         </is>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5245,50 +5245,52 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2025-02-07T16:30:54.891274Z</t>
+          <t>2022-07-15T07:14:33.759478Z</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
+      <c r="O81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>5a8bf821d63cc1869542ffd4dac042ef</t>
+          <t>5e61f46e73d33d23b901c830c11d05e5</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>sci-fi.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>20dc8c4c-6a80-4cc7-be33-cc9e43dbea4c.cfargotunnel.com</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5304,50 +5306,52 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2025-03-26T09:46:23.862818Z</t>
+          <t>2022-03-21T23:21:47.93845Z</t>
         </is>
       </c>
       <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
+      <c r="O82" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>f1d8eb95f42108e4b07e86388c8670e7</t>
+          <t>4a187b659dadf78253cb30054350314c</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>search.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>route2mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5363,50 +5367,52 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2025-02-09T15:52:15.13208Z</t>
+          <t>2022-03-21T23:21:36.591334Z</t>
         </is>
       </c>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
+      <c r="O83" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>d136067486f9bfd1260a66e04c217624</t>
+          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>webcheck.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>6bc1493d-6cb7-451c-b848-53c8a2043e65.cfargotunnel.com</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5422,36 +5428,38 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2025-02-07T16:26:34.171441Z</t>
+          <t>2022-03-21T23:21:22.978524Z</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
+      <c r="O84" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>095deb0b6f4f0327cf9d1e1abc53e523</t>
+          <t>bb6fca1069dfef36eac3160ec423215a</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>safe.irrazionale.org</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>mail.irrazionale.org</t>
+          <t>dnsafe.irrazionale.org</t>
         </is>
       </c>
       <c r="E85" t="b">
@@ -5481,38 +5489,36 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2022-07-15T07:14:33.759478Z</t>
+          <t>2022-03-25T12:14:53.694611Z</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="n">
-        <v>1</v>
-      </c>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>5e61f46e73d33d23b901c830c11d05e5</t>
+          <t>3a04124b47167ef39224aa1b60a8fe25</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>_acme-challenge.mail.irrazionale.org</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -5522,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5542,38 +5548,36 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:47.93845Z</t>
+          <t>2022-05-17T14:04:00.295343Z</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="n">
-        <v>73</v>
-      </c>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>4a187b659dadf78253cb30054350314c</t>
+          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>route2mx.cloudflare.net</t>
+          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
         </is>
       </c>
       <c r="E87" t="b">
@@ -5603,38 +5607,36 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:36.591334Z</t>
+          <t>2024-04-17T09:09:11.011539Z</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
-      <c r="O87" t="n">
-        <v>99</v>
-      </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>8f14619268c7a453f27c0cc292f5bdf6</t>
+          <t>c931695adebdf9cc13b66924f8d442a2</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
         </is>
       </c>
       <c r="E88" t="b">
@@ -5664,38 +5666,36 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2022-03-21T23:21:22.978524Z</t>
+          <t>2023-07-06T15:34:35.980156Z</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="n">
-        <v>89</v>
-      </c>
+      <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>bb6fca1069dfef36eac3160ec423215a</t>
+          <t>5674a44427225f44209d188901e7e212</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>safe.irrazionale.org</t>
+          <t>_dmarc.irrazionale.org</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>dnsafe.irrazionale.org</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E89" t="b">
@@ -5725,12 +5725,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2022-03-25T12:14:53.694611Z</t>
+          <t>2022-07-15T07:15:44.35849Z</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
@@ -5739,12 +5739,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3a04124b47167ef39224aa1b60a8fe25</t>
+          <t>575daba57b52a33ae44441e93e44ad93</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>_acme-challenge.mail.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>UqWxLrUNf7_wrvKMrtVQqMz-Nl_UtRVF6pbE8tsHdzE</t>
+          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
         </is>
       </c>
       <c r="E90" t="b">
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5784,12 +5784,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2022-05-17T14:04:00.295343Z</t>
+          <t>2024-04-17T09:08:34.680551Z</t>
         </is>
       </c>
       <c r="N90" t="inlineStr"/>
@@ -5798,12 +5798,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1d8156b40d6aacadc2dbd965cdddf5a2</t>
+          <t>8ae5f18920790fbc1ac6e57676db376b</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:rua@dmarc.brevo.com</t>
+          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E91" t="b">
@@ -5843,12 +5843,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2024-04-17T09:09:11.011539Z</t>
+          <t>2023-07-06T15:33:42.660644Z</t>
         </is>
       </c>
       <c r="N91" t="inlineStr"/>
@@ -5857,12 +5857,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>c931695adebdf9cc13b66924f8d442a2</t>
+          <t>5f752add42e06a88468c1b1203a5241c</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=none; rua=mailto:dmarc@smtp.mailtrap.live; ruf=mailto:dmarc@smtp.mailtrap.live; rf=afrf; pct=100</t>
+          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
         </is>
       </c>
       <c r="E92" t="b">
@@ -5902,12 +5902,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2023-07-06T15:34:35.980156Z</t>
+          <t>2023-06-12T10:59:14.29918Z</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
@@ -5916,12 +5916,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>5674a44427225f44209d188901e7e212</t>
+          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>_dmarc.irrazionale.org</t>
+          <t>irrazionale.org</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>v=spf1 ip4:185.182.185.194 -all</t>
         </is>
       </c>
       <c r="E93" t="b">
@@ -5961,12 +5961,12 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2022-07-15T07:15:44.35849Z</t>
+          <t>2022-07-15T07:16:37.604542Z</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
@@ -5975,12 +5975,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>575daba57b52a33ae44441e93e44ad93</t>
+          <t>96bf76d43d32043fc586f04d28efe912</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>mail._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>brevo-code:6f4f7efb6520b5418b28b67f298c9b52</t>
+          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
         </is>
       </c>
       <c r="E94" t="b">
@@ -6020,12 +6020,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:34.680551Z</t>
+          <t>2024-04-17T09:08:52.915406Z</t>
         </is>
       </c>
       <c r="N94" t="inlineStr"/>
@@ -6034,12 +6034,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>8ae5f18920790fbc1ac6e57676db376b</t>
+          <t>6aa7d6d1576b8790519602102e390beb</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>s20220715915._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 include:_spf.smtp.mailtrap.live -all</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
         </is>
       </c>
       <c r="E95" t="b">
@@ -6079,12 +6079,12 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2023-07-06T15:33:42.660644Z</t>
+          <t>2022-07-15T07:12:54.583273Z</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
@@ -6093,12 +6093,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>5f752add42e06a88468c1b1203a5241c</t>
+          <t>f07372fefe2aeec92ba78a42ee921960</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>s20221212161._domainkey.irrazionale.org</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>zone-ownership-verification-58c91853bd399630f635536dca469de68c690b6a4b62aa2e95ceecc9de895f73</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
         </is>
       </c>
       <c r="E96" t="b">
@@ -6138,12 +6138,12 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2023-06-12T10:59:14.29918Z</t>
+          <t>2022-12-12T15:43:59.509606Z</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
@@ -6152,22 +6152,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0f26a20e5f4dd405e38ae5978d278e3d</t>
+          <t>f02f658bd3f849218f8880600ee8f124</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>irrazionale.org</t>
+          <t>proxmox-dc2-mn.italiacdn.net</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>v=spf1 ip4:185.182.185.194 -all</t>
+          <t>100.92.242.58</t>
         </is>
       </c>
       <c r="E97" t="b">
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -6197,12 +6197,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2022-07-15T07:16:37.604542Z</t>
+          <t>2025-03-19T12:53:01.306549Z</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -6211,36 +6211,36 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>96bf76d43d32043fc586f04d28efe912</t>
+          <t>25f1985f805e21184de23f5dd6f43ea9</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>mail._domainkey.irrazionale.org</t>
+          <t>bin.italiacdn.net</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>k=rsa;p=MIGfMA0GCSqGSIb3DQEBAQUAA4GNADCBiQKBgQDeMVIzrCa3T14JsNY0IRv5/2V1/v2itlviLQBwXsa7shBD6TrBkswsFUToPyMRWC9tbR/5ey0nRBH0ZVxp+lsmTxid2Y2z+FApQ6ra2VsXfbJP3HE6wAO0YTVEJt1TmeczhEd2Jiz/fcabIISgXEdSpTYJhb0ct0VJRxcg4c8c7wIDAQAB</t>
+          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2024-04-17T09:08:52.915406Z</t>
+          <t>2025-03-18T20:26:37.20432Z</t>
         </is>
       </c>
       <c r="N98" t="inlineStr"/>
@@ -6270,36 +6270,36 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6aa7d6d1576b8790519602102e390beb</t>
+          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>s20220715915._domainkey.irrazionale.org</t>
+          <t>logs.italiacdn.net</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAyNn2hzqOisuAb2kxl2iqzi7+latoU5BIcqzoLq2IF5PSw8F/ThnpADmyJEoBqDjvPyFpsJAor3lVVE9hE0PnJkDoKmVGyrFTWQxdZr0bUEJd6Tv/3+0yqBxyV4r6t0x6HuUIFERXl2tXBCog5asMqOoYlFjUSagQV7T8r00essEI8KFvMYRE9ec9CumhoosbtHHYZ3mX/HwL6CEZKi3glJymgoxl3W9AeINn+93qsSzIAekLaTEmnlKbrLWBcyhLPR/20xSSaUOJslfn7ucV8OabomN44BJi3lWxQvoHoM6BLHhs48k8jOzROLn/Svdv51TuM25xPuyAKfapJpZEIQIDAQAB</t>
+          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6315,12 +6315,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2022-07-15T07:12:54.583273Z</t>
+          <t>2025-03-18T23:39:26.579932Z</t>
         </is>
       </c>
       <c r="N99" t="inlineStr"/>
@@ -6329,36 +6329,36 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>f07372fefe2aeec92ba78a42ee921960</t>
+          <t>b013512ac14813f9241bfb82d58e6a15</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>s20221212161._domainkey.irrazionale.org</t>
+          <t>private.italiacdn.net</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAofbiDgrsqmp59MqGRDqdglbPZnE5MfHcQxLrCU/3szYwS5JfZBBqS/HMvejGoVlgb3uH+CHuSdGgu8gQzuDob8ULjskAQA93FFpob8MvygixtZQITuiAFl6W4nFzebxN2Tg6zO9oS+eeGQsqq95jp2YWLjlvYcpw2dZU0sdmGJw3VlUrPqJh4+Qp8P5vvGhYHiPykVuZSqd91TqX7OuEzpOabt2uas32ea0AquzzUgpbjbxv7GJdCdccmD5tYBW7Sm6VcWvPXSo42N2gYMQ5R+24tN3QViBOcbBUgX+1K91d2Yad3GqTttoJZ7mt4oiR/t15BcavS9yzutzCeR7b2QIDAQAB</t>
+          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6374,12 +6374,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2022-12-12T15:43:59.509606Z</t>
+          <t>2025-03-19T10:27:09.22597Z</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
@@ -6388,36 +6388,36 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>f02f658bd3f849218f8880600ee8f124</t>
+          <t>da6f732331d53062b4a64822c4d8053c</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>proxmox-dc2-mn.italiacdn.net</t>
+          <t>public-bucket.italiacdn.net</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>100.92.242.58</t>
+          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6433,12 +6433,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2025-03-19T12:53:01.306549Z</t>
+          <t>2025-03-21T20:12:10.177478Z</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
@@ -6447,12 +6447,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>25f1985f805e21184de23f5dd6f43ea9</t>
+          <t>68ff9d51859905c9e8f951acf9650166</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>bin.italiacdn.net</t>
+          <t>vault.italiacdn.net</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>62012bb4-9a36-4017-b533-489f1e455049.cfargotunnel.com</t>
+          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -6492,12 +6492,12 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.20432Z</t>
+          <t>2025-03-19T09:30:39.063935Z</t>
         </is>
       </c>
       <c r="N102" t="inlineStr"/>
@@ -6506,12 +6506,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>35b29e9d5ed68e0541ae38a785efe1ce</t>
+          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>logs.italiacdn.net</t>
+          <t>vpn.italiacdn.net</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>00f31d96-6439-42a2-b318-a67a0c4a3185.cfargotunnel.com</t>
+          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -6551,12 +6551,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2025-03-18T23:39:26.579932Z</t>
+          <t>2025-03-18T20:26:37.148167Z</t>
         </is>
       </c>
       <c r="N103" t="inlineStr"/>
@@ -6565,36 +6565,36 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>b013512ac14813f9241bfb82d58e6a15</t>
+          <t>14efda500a1c1e9c12dffecc2640246d</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>private.italiacdn.net</t>
+          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1f087ba6-ed46-46e1-ad14-5c6de5a6cb17.cfargotunnel.com</t>
+          <t>27b4d1e9dabc5765ebb48532ae2443</t>
         </is>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6610,12 +6610,12 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2025-03-19T10:27:09.22597Z</t>
+          <t>2025-03-19T10:11:55.275773Z</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
@@ -6624,12 +6624,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>da6f732331d53062b4a64822c4d8053c</t>
+          <t>a49ade48a5be45f002d5417140f370a0</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>public-bucket.italiacdn.net</t>
+          <t>adinsp9sqvzxue8n.italiadns.com</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6639,17 +6639,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>5765bae3-e774-4f5e-bc6f-618607856ac4.cfargotunnel.com</t>
+          <t>smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -6669,12 +6669,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2024-07-31T13:37:34.938024Z</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2025-03-21T20:12:10.177478Z</t>
+          <t>2024-07-31T13:38:29.779921Z</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -6683,12 +6683,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>68ff9d51859905c9e8f951acf9650166</t>
+          <t>57267997534d7cf452997a9c191591ee</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>vault.italiacdn.net</t>
+          <t>mt-link.italiadns.com</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -6698,14 +6698,14 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>c59561f4-d014-47f6-8a62-39e616d1303a.cfargotunnel.com</t>
+          <t>t.mailtrap.live</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6728,12 +6728,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2025-03-19T09:30:39.063935Z</t>
+          <t>2024-07-31T13:27:32.020186Z</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -6742,12 +6742,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3f675bb7dfbfea17e4c7b970c12c90c4</t>
+          <t>3a7c851242dbc15ea213945d901512b9</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>vpn.italiacdn.net</t>
+          <t>rwmt1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -6757,14 +6757,14 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>19ccacfd-5678-4b66-99ae-ee25848d03fe.cfargotunnel.com</t>
+          <t>rwmt1.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6787,12 +6787,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2025-03-18T20:26:37.148167Z</t>
+          <t>2024-07-31T12:40:48.527918Z</t>
         </is>
       </c>
       <c r="N107" t="inlineStr"/>
@@ -6801,36 +6801,36 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>14efda500a1c1e9c12dffecc2640246d</t>
+          <t>f06b6c37872df6a52852ee0d128d45ee</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>_github-pages-challenge-italiacdn.italiacdn.net</t>
+          <t>rwmt2._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>27b4d1e9dabc5765ebb48532ae2443</t>
+          <t>rwmt2.dkim.smtp.mailtrap.live</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6846,12 +6846,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2025-03-19T10:11:55.275773Z</t>
+          <t>2024-07-31T12:41:04.319914Z</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
@@ -6860,12 +6860,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>a49ade48a5be45f002d5417140f370a0</t>
+          <t>41fd60824243d4f2538de3c3c29b7736</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>adinsp9sqvzxue8n.italiadns.com</t>
+          <t>w1y139ns251ah6gc.italiadns.com</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -6905,12 +6905,12 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2024-07-31T13:37:34.938024Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2024-07-31T13:38:29.779921Z</t>
+          <t>2024-07-31T12:40:29.695093Z</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6919,26 +6919,26 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>57267997534d7cf452997a9c191591ee</t>
+          <t>a38c7cb5dce002e6fa5326111beba54f</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>mt-link.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>route3.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
@@ -6948,12 +6948,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -6964,40 +6964,42 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2023-07-20T09:24:21.51429Z</t>
         </is>
       </c>
       <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
+      <c r="O110" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3a7c851242dbc15ea213945d901512b9</t>
+          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>rwmt1.dkim.smtp.mailtrap.live</t>
+          <t>route2.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
@@ -7007,12 +7009,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -7023,40 +7025,42 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:48.527918Z</t>
+          <t>2023-07-20T09:24:21.506037Z</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
+      <c r="O111" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>f06b6c37872df6a52852ee0d128d45ee</t>
+          <t>6c5bf0b471503f7060c852986b55b0e0</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>rwmt2._domainkey.italiadns.com</t>
+          <t>italiadns.com</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>rwmt2.dkim.smtp.mailtrap.live</t>
+          <t>route1.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
@@ -7066,12 +7070,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -7082,40 +7086,42 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:04.319914Z</t>
+          <t>2023-07-20T09:24:21.498021Z</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
+      <c r="O112" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>41fd60824243d4f2538de3c3c29b7736</t>
+          <t>e6da0cedff625c31979aecd06ce463d4</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>w1y139ns251ah6gc.italiadns.com</t>
+          <t>cf2024-1._domainkey.italiadns.com</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
@@ -7125,12 +7131,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -7141,12 +7147,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2024-07-31T12:40:29.695093Z</t>
+          <t>2025-02-01T23:21:21.67206Z</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -7155,22 +7161,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>a38c7cb5dce002e6fa5326111beba54f</t>
+          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>_dmarc.italiadns.com</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>route3.mx.cloudflare.net</t>
+          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
         </is>
       </c>
       <c r="E114" t="b">
@@ -7189,7 +7195,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -7200,23 +7206,21 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.51429Z</t>
+          <t>2023-07-20T10:48:55.291431Z</t>
         </is>
       </c>
       <c r="N114" t="inlineStr"/>
-      <c r="O114" t="n">
-        <v>61</v>
-      </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>f5ba2bca6c00c93674036cf5d49b0523</t>
+          <t>129ae399ff1f816f521c481aa58251a7</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -7226,12 +7230,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>route2.mx.cloudflare.net</t>
+          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
         </is>
       </c>
       <c r="E115" t="b">
@@ -7250,7 +7254,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -7261,38 +7265,36 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2024-07-31T12:41:30.706502Z</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.506037Z</t>
+          <t>2024-08-19T08:39:22.495623Z</t>
         </is>
       </c>
       <c r="N115" t="inlineStr"/>
-      <c r="O115" t="n">
-        <v>14</v>
-      </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>6c5bf0b471503f7060c852986b55b0e0</t>
+          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>route1.mx.cloudflare.net</t>
+          <t>ns-1683.awsdns-18.co.uk</t>
         </is>
       </c>
       <c r="E116" t="b">
@@ -7311,7 +7313,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -7322,38 +7324,36 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2023-07-20T09:24:21.498021Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
-      <c r="O116" t="n">
-        <v>3</v>
-      </c>
+      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>e6da0cedff625c31979aecd06ce463d4</t>
+          <t>4131e3d65c1df20458045bfa612298e9</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.italiadns.com</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>ns-1303.awsdns-34.org</t>
         </is>
       </c>
       <c r="E117" t="b">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -7383,12 +7383,12 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2025-02-01T23:21:21.67206Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="N117" t="inlineStr"/>
@@ -7397,12 +7397,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>98ed2139a5df7fb42d178b73688e8fa1</t>
+          <t>03da4898b7afbb1408bfdd51f42e5936</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>_dmarc.italiadns.com</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>v=DMARC1;  p=none; rua=mailto:cadbf2dc4b9e4b52be30114a34d30ad7@dmarc-reports.cloudflare.net</t>
+          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
         </is>
       </c>
       <c r="E118" t="b">
@@ -7442,12 +7442,12 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2023-07-20T10:48:55.291431Z</t>
+          <t>2015-05-25T23:39:18.201448Z</t>
         </is>
       </c>
       <c r="N118" t="inlineStr"/>
@@ -7456,12 +7456,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>129ae399ff1f816f521c481aa58251a7</t>
+          <t>fd06957f7e745e10c388665bb8be096a</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>italiadns.com</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.smtp.mailtrap.live -all</t>
+          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
         </is>
       </c>
       <c r="E119" t="b">
@@ -7501,12 +7501,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2024-07-31T12:41:30.706502Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2024-08-19T08:39:22.495623Z</t>
+          <t>2014-06-23T19:34:28.649657Z</t>
         </is>
       </c>
       <c r="N119" t="inlineStr"/>
@@ -7515,22 +7515,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
+          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>kisstube.tv</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ns-1683.awsdns-18.co.uk</t>
+          <t>v=spf1 a mx ~all</t>
         </is>
       </c>
       <c r="E120" t="b">
@@ -7560,12 +7560,12 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:51.528649Z</t>
+          <t>2014-06-23T19:34:28.647128Z</t>
         </is>
       </c>
       <c r="N120" t="inlineStr"/>
@@ -7574,36 +7574,36 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>4131e3d65c1df20458045bfa612298e9</t>
+          <t>b738ae8c910e28345612400cb8a6e23e</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>aws.italiadns.net</t>
+          <t>ssh.repolizer.com</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ns-1303.awsdns-34.org</t>
+          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7619,12 +7619,12 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2025-03-03T11:17:34.736768Z</t>
+          <t>2025-04-09T08:29:51.295021Z</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
@@ -7633,36 +7633,36 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>03da4898b7afbb1408bfdd51f42e5936</t>
+          <t>bfd43018c9b1cd41cc29efc4c62c6d8c</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>www.repolizer.com</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>google-site-verification=6DRoK-0kxVjTkrYzq-kCZy3nDRa1dBHfsCcbAzm1dYw</t>
+          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7678,12 +7678,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-04-23T08:30:24.446765Z</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2015-05-25T23:39:18.201448Z</t>
+          <t>2025-04-23T08:34:01.380912Z</t>
         </is>
       </c>
       <c r="N122" t="inlineStr"/>
@@ -7692,26 +7692,26 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>fd06957f7e745e10c388665bb8be096a</t>
+          <t>c7df12561d64e4e680c6b0859c123f99</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>imap.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>google-site-verification=39ep5VoK19J3GTzqrCZ3wKSPlg5bQXkFsuFQy0mtLeA</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
@@ -7737,12 +7737,12 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.649657Z</t>
+          <t>2022-05-22T11:08:51.308823Z</t>
         </is>
       </c>
       <c r="N123" t="inlineStr"/>
@@ -7751,26 +7751,26 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ccf7ca30f014519f55993c5bc5846c1a</t>
+          <t>e95c85414a6c93e847a2755df7c16cf0</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>kisstube.tv</t>
+          <t>mail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>v=spf1 a mx ~all</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2014-06-23T19:34:28.647128Z</t>
+          <t>2022-05-22T10:15:04.05472Z</t>
         </is>
       </c>
       <c r="N124" t="inlineStr"/>
@@ -7810,36 +7810,36 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>b738ae8c910e28345612400cb8a6e23e</t>
+          <t>6834f98896056a837138409566211327</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ssh.repolizer.com</t>
+          <t>smtp.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7855,12 +7855,12 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2025-04-09T08:29:51.295021Z</t>
+          <t>2022-05-22T11:08:43.086179Z</t>
         </is>
       </c>
       <c r="N125" t="inlineStr"/>
@@ -7869,22 +7869,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>bfd43018c9b1cd41cc29efc4c62c6d8c</t>
+          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>www.repolizer.com</t>
+          <t>webmail.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>a7a86777-918b-4a27-9ad1-ab108649b92d.cfargotunnel.com</t>
+          <t>185.182.185.194</t>
         </is>
       </c>
       <c r="E126" t="b">
@@ -7898,7 +7898,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7914,12 +7914,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2025-04-23T08:30:24.446765Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2025-04-23T08:34:01.380912Z</t>
+          <t>2022-05-22T08:24:00.700773Z</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
@@ -7928,36 +7928,36 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>c7df12561d64e4e680c6b0859c123f99</t>
+          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>imap.rivoluzioneinformatica.org</t>
+          <t>git.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7973,12 +7973,12 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:51.308823Z</t>
+          <t>2025-01-29T00:26:34.637101Z</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
@@ -7987,36 +7987,36 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>e95c85414a6c93e847a2755df7c16cf0</t>
+          <t>eb220c9fb1df30719c788ef51fe312f6</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>mail.rivoluzioneinformatica.org</t>
+          <t>npm.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8032,12 +8032,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2022-05-22T10:15:04.05472Z</t>
+          <t>2022-02-09T11:43:38.114483Z</t>
         </is>
       </c>
       <c r="N128" t="inlineStr"/>
@@ -8046,36 +8046,36 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>6834f98896056a837138409566211327</t>
+          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>smtp.rivoluzioneinformatica.org</t>
+          <t>proxmox.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -8091,12 +8091,12 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2022-05-22T11:08:43.086179Z</t>
+          <t>2022-12-12T15:18:23.651021Z</t>
         </is>
       </c>
       <c r="N129" t="inlineStr"/>
@@ -8105,22 +8105,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ba18f2da24401c4bc0c2ed6444470ab3</t>
+          <t>236f1b867d3720d5dd29c6af49782d62</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>webmail.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>185.182.185.194</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="E130" t="b">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2022-05-22T08:24:00.700773Z</t>
+          <t>2023-11-10T15:34:50.070177Z</t>
         </is>
       </c>
       <c r="N130" t="inlineStr"/>
@@ -8164,12 +8164,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>37bbd8bcff79b84679e1be20a97fbd4f</t>
+          <t>7c6da25c8e1e486da458cd5373402382</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>git.rivoluzioneinformatica.org</t>
+          <t>vpn.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>b98dd568-bdbf-415a-8894-f30bb5bbbf91.cfargotunnel.com</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E131" t="b">
@@ -8209,12 +8209,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2025-01-29T00:26:34.637101Z</t>
+          <t>2023-02-11T13:51:31.288382Z</t>
         </is>
       </c>
       <c r="N131" t="inlineStr"/>
@@ -8223,12 +8223,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>eb220c9fb1df30719c788ef51fe312f6</t>
+          <t>3045396196bc00b6e05726f94825c6bd</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>npm.rivoluzioneinformatica.org</t>
+          <t>www.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>692501dc-d195-4f10-b0a7-11a71a4cef78.cfargotunnel.com</t>
+          <t>fabriziosalmi.github.io</t>
         </is>
       </c>
       <c r="E132" t="b">
@@ -8268,12 +8268,12 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-08-17T08:57:50.756388Z</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2022-02-09T11:43:38.114483Z</t>
+          <t>2022-08-17T08:59:41.92016Z</t>
         </is>
       </c>
       <c r="N132" t="inlineStr"/>
@@ -8282,12 +8282,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>9feadf111b5434fd8dd2b41f8008ca09</t>
+          <t>25f714bcbfe5ff8215c314a503379edc</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>proxmox.rivoluzioneinformatica.org</t>
+          <t>xmq.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -8297,7 +8297,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>4436d941-eff4-4134-91a8-c5400be27423.cfargotunnel.com</t>
+          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
         </is>
       </c>
       <c r="E133" t="b">
@@ -8327,12 +8327,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2022-12-12T15:18:23.651021Z</t>
+          <t>2023-02-07T20:14:06.346543Z</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8341,7 +8341,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>236f1b867d3720d5dd29c6af49782d62</t>
+          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -8351,31 +8351,31 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>amir.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -8386,55 +8386,57 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2023-11-10T15:34:50.070177Z</t>
+          <t>2023-06-12T11:01:48.035723Z</t>
         </is>
       </c>
       <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr"/>
+      <c r="O134" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>7c6da25c8e1e486da458cd5373402382</t>
+          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>vpn.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>linda.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -8445,55 +8447,57 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2023-02-11T13:51:31.288382Z</t>
+          <t>2023-06-12T11:01:48.026902Z</t>
         </is>
       </c>
       <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr"/>
+      <c r="O135" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>3045396196bc00b6e05726f94825c6bd</t>
+          <t>bcd73d5a0e03a2593be162cd5259a678</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>www.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>fabriziosalmi.github.io</t>
+          <t>isaac.mx.cloudflare.net</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -8504,55 +8508,57 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2022-08-17T08:57:50.756388Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2022-08-17T08:59:41.92016Z</t>
+          <t>2023-06-12T11:01:48.018567Z</t>
         </is>
       </c>
       <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
+      <c r="O136" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>25f714bcbfe5ff8215c314a503379edc</t>
+          <t>e6ffaf786ff743b47650f73557b07b66</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>xmq.rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>faa2f03f-72a7-4812-a2f9-18c9db40c328.cfargotunnel.com</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -8563,12 +8569,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2023-02-07T20:14:06.346543Z</t>
+          <t>2025-03-13T15:24:01.244511Z</t>
         </is>
       </c>
       <c r="N137" t="inlineStr"/>
@@ -8577,22 +8583,22 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3a2fa8fe309047db5c79bf90a17c2580</t>
+          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>_dmarc.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>amir.mx.cloudflare.net</t>
+          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
         </is>
       </c>
       <c r="E138" t="b">
@@ -8611,7 +8617,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -8622,23 +8628,21 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2022-02-07T15:43:39.763425Z</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.035723Z</t>
+          <t>2022-05-22T11:09:18.092063Z</t>
         </is>
       </c>
       <c r="N138" t="inlineStr"/>
-      <c r="O138" t="n">
-        <v>40</v>
-      </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>177c0d9e3950bcc6a4ede7696aacb0a7</t>
+          <t>2a74f92cf716979d913217d640655261</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -8648,12 +8652,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>linda.mx.cloudflare.net</t>
+          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
         </is>
       </c>
       <c r="E139" t="b">
@@ -8672,7 +8676,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -8683,23 +8687,21 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.026902Z</t>
+          <t>2023-11-09T20:49:42.435335Z</t>
         </is>
       </c>
       <c r="N139" t="inlineStr"/>
-      <c r="O139" t="n">
-        <v>90</v>
-      </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>bcd73d5a0e03a2593be162cd5259a678</t>
+          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -8709,12 +8711,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>isaac.mx.cloudflare.net</t>
+          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
         </is>
       </c>
       <c r="E140" t="b">
@@ -8733,7 +8735,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -8744,28 +8746,26 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.018567Z</t>
+          <t>2023-06-12T11:01:48.044476Z</t>
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
-      <c r="O140" t="n">
-        <v>97</v>
-      </c>
+      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>e6ffaf786ff743b47650f73557b07b66</t>
+          <t>47bb0eec812c7e5f3961cb9079727d80</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.rivoluzioneinformatica.org</t>
+          <t>rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
         </is>
       </c>
       <c r="E141" t="b">
@@ -8794,7 +8794,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -8805,12 +8805,12 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2025-03-13T15:24:01.244511Z</t>
+          <t>2022-08-17T11:49:34.320428Z</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
@@ -8819,12 +8819,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>6bad42a7eedda28b7979d37d8e66d6d8</t>
+          <t>9abd161d29cb47ce6cfa783657e67723</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>_dmarc.rivoluzioneinformatica.org</t>
+          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; rua=mailto:weqc8axy@ag.eu.dmarcian.com</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
         </is>
       </c>
       <c r="E142" t="b">
@@ -8864,12 +8864,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>2022-02-07T15:43:39.763425Z</t>
+          <t>2022-05-13T21:13:25.301942Z</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2022-05-22T11:09:18.092063Z</t>
+          <t>2022-05-22T10:18:49.411362Z</t>
         </is>
       </c>
       <c r="N142" t="inlineStr"/>
@@ -8878,12 +8878,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2a74f92cf716979d913217d640655261</t>
+          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>openai-domain-verification=dv-LwNd6wuOrll7KNwSnOzMAlPT</t>
+          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
         </is>
       </c>
       <c r="E143" t="b">
@@ -8923,12 +8923,12 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2023-11-09T20:49:42.435335Z</t>
+          <t>2022-12-12T15:42:56.669675Z</t>
         </is>
       </c>
       <c r="N143" t="inlineStr"/>
@@ -8937,12 +8937,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>db8ada7f22832e3e4f352d5bd7829a4f</t>
+          <t>6c874506c8ce87bd95aeb7af511402a4</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>cf2024-1._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>v=spf1 include:_spf.mx.cloudflare.net ~all</t>
+          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
         </is>
       </c>
       <c r="E144" t="b">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'email_routing': True, 'read_only': True}</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -8982,12 +8982,12 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2023-06-12T11:01:48.044476Z</t>
+          <t>2025-03-14T01:50:15.254316Z</t>
         </is>
       </c>
       <c r="N144" t="inlineStr"/>
@@ -8996,12 +8996,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>47bb0eec812c7e5f3961cb9079727d80</t>
+          <t>d745f5935c526f8ec4c18455bb114e2c</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>rivoluzioneinformatica.org</t>
+          <t>_dmarc.videodioggi.com</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>google-site-verification=IjTuC9rcrlAzy_NPt27HTlWxytX_NsTAR_FnpyT3VZI</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E145" t="b">
@@ -9041,12 +9041,12 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2022-08-17T11:49:34.320428Z</t>
+          <t>2021-12-12T16:20:23.516418Z</t>
         </is>
       </c>
       <c r="N145" t="inlineStr"/>
@@ -9055,12 +9055,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>9abd161d29cb47ce6cfa783657e67723</t>
+          <t>174e7c363d39762d0e764dca9d4f83fe</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>s20220522816._domainkey.rivoluzioneinformatica.org</t>
+          <t>*._domainkey.videodioggi.com</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -9070,7 +9070,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAx3UfU+JrN8hQLHmMKQb4fVNTDP7rN7m0qzh0T/PV9xgHuuyckzIjqjG+elA1+Fn7Wo+DHFpGimlwVH2npG9Csbn2vAVcjydIsH17wqjqz0QSGoKoEXc3D0oTL4t2Lclz5gkRU/fo4578PmNZL6zPUZRwSGChTGNHG2R5I0W3HfIEYzULppN8DqsRbWxO/T5aGhhd+MMQt9gGMrNgW9BeeKQmOmIimuVozfLCW4rKLEREwOLYD75vhqTY0deCi3NnEXfap4Cqf7gI9F4MSXUoUiYBVRLqWSlDWH6uErQciiJZ8sw64fIZCQxpgYt9pXr5OOtThYiRWRrAXE5DTHEI1wIDAQAB</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E146" t="b">
@@ -9100,12 +9100,12 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>2022-05-13T21:13:25.301942Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2022-05-22T10:18:49.411362Z</t>
+          <t>2021-12-12T16:20:23.509152Z</t>
         </is>
       </c>
       <c r="N146" t="inlineStr"/>
@@ -9114,12 +9114,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>40834d23224c0eb0f3ae2f6cb80411fa</t>
+          <t>af815c727d2b5518ef3190a388afbce1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>s20221212131._domainkey.rivoluzioneinformatica.org</t>
+          <t>videodioggi.com</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEA0rb2uVzRTT2zZeqCpsJfX/nINuSJuyfV8CFWiDFXiQjrUHnVGg9dit2iQOVK+3opfQ+IG8OIAogmGWL4MUcqgLIF5t1mQKImdh/Ni1D7WGNpFvXNcohczpvMmGSVXOn9QY2sg+KmkSDO1qwS2WIuXQDxEGJ+iZVMMgMy37vtVyk3bw7bqOKgGEEC2pBpJU4E4tdA6gI8/ZLuBp4ejmT3ZKRS4Z2tyq91qAF9R+tRspMxSEMeI+OiBhYiB+wms2CvGCS8YtfC2mq7YwXfvTTg7eEdS6UU+0gCZWL0e8gl7edsY1wnZmM3lp+SY3WXbiONYy0/T96Xdg9kxCcr/1mBaQIDAQAB</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E147" t="b">
@@ -9159,12 +9159,12 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2022-12-12T15:42:56.669675Z</t>
+          <t>2021-12-12T16:20:23.51106Z</t>
         </is>
       </c>
       <c r="N147" t="inlineStr"/>
@@ -9173,29 +9173,29 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>6c874506c8ce87bd95aeb7af511402a4</t>
+          <t>cd8e879f3c9881e570af82269bcd0477</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>cf2024-1._domainkey.videodioggi.com</t>
+          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>"v=DKIM1; h=sha256; k=rsa; p=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAiweykoi+o48IOGuP7GR3X0MOExCUDY/BCRHoWBnh3rChl7WhdyCxW3jgq1daEjPPqoi7sJvdg5hEQVsgVRQP4DcnQDVjGMbASQtrY4WmB1VebF+RPJB2ECPsEDTpeiI5ZyUAwJaVX7r6bznU67g7LvFq35yIo4sdlmtZGV+i0H4cpYH9+3JJ78k" "m4KXwaf9xUJCWF6nxeD+qG6Fyruw1Qlbds2r85U9dkNDVAS3gioCvELryh1TxKGiVTkg4wqHTyHfWsp7KD3WQHYJn0RyfJJu6YEmL77zonn7p2SRMvTMP3ZEXibnC9gz3nnhR6wcYL8Q7zXypKTMD58bTixDSJwIDAQAB"</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -9207,7 +9207,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>{'email_routing': True, 'read_only': True}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -9218,12 +9218,12 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2023-03-30T09:59:11.98058Z</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2025-03-14T01:50:15.254316Z</t>
+          <t>2023-03-30T09:59:12.228482Z</t>
         </is>
       </c>
       <c r="N148" t="inlineStr"/>
@@ -9232,29 +9232,29 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>d745f5935c526f8ec4c18455bb114e2c</t>
+          <t>203ca5160347df21edeb2dcfafacdbf8</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>_dmarc.videodioggi.com</t>
+          <t>test2.webtek.live</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -9277,12 +9277,12 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2023-03-28T08:34:29.902515Z</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.516418Z</t>
+          <t>2023-03-28T08:34:30.164318Z</t>
         </is>
       </c>
       <c r="N149" t="inlineStr"/>
@@ -9291,29 +9291,29 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>174e7c363d39762d0e764dca9d4f83fe</t>
+          <t>432df2553b443742f9f905e155878536</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>*._domainkey.videodioggi.com</t>
+          <t>test.webtek.live</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>v=DKIM1; p=</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -9336,12 +9336,12 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2023-03-24T11:44:15.078812Z</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.509152Z</t>
+          <t>2023-03-24T11:44:15.367412Z</t>
         </is>
       </c>
       <c r="N150" t="inlineStr"/>
@@ -9350,29 +9350,29 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>af815c727d2b5518ef3190a388afbce1</t>
+          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>videodioggi.com</t>
+          <t>webtek.live</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>v=spf1 -all</t>
+          <t>185.199.108.153</t>
         </is>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -9395,12 +9395,12 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>2021-12-12T16:20:23.51106Z</t>
+          <t>2023-02-17T23:14:39.792808Z</t>
         </is>
       </c>
       <c r="N151" t="inlineStr"/>
@@ -9409,12 +9409,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>cd8e879f3c9881e570af82269bcd0477</t>
+          <t>e02587466a80086957e4f19a05760dec</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>dasdsadsadasdasdasdasasas.webtek.live</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -9454,12 +9454,12 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:11.98058Z</t>
+          <t>2023-10-06T11:52:31.670164Z</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>2023-03-30T09:59:12.228482Z</t>
+          <t>2023-10-06T12:04:32.454791Z</t>
         </is>
       </c>
       <c r="N152" t="inlineStr"/>
@@ -9468,29 +9468,29 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>203ca5160347df21edeb2dcfafacdbf8</t>
+          <t>7982468ab5963924b1a08dedcac6892b</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>test2.webtek.live</t>
+          <t>_dmarc.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
         </is>
       </c>
       <c r="E153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -9513,12 +9513,12 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:29.902515Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>2023-03-28T08:34:30.164318Z</t>
+          <t>2023-10-05T14:13:27.963225Z</t>
         </is>
       </c>
       <c r="N153" t="inlineStr"/>
@@ -9527,29 +9527,29 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>432df2553b443742f9f905e155878536</t>
+          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>test.webtek.live</t>
+          <t>*._domainkey.youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=DKIM1; p=</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.078812Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>2023-03-24T11:44:15.367412Z</t>
+          <t>2023-10-05T14:13:27.93815Z</t>
         </is>
       </c>
       <c r="N154" t="inlineStr"/>
@@ -9586,29 +9586,29 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0f6431cd01ce8d23f5e6116a84799b6d</t>
+          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>webtek.live</t>
+          <t>youknowwhataimean.com</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>v=spf1 -all</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -9631,12 +9631,12 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>2023-02-17T23:14:39.792808Z</t>
+          <t>2023-10-05T14:13:27.931067Z</t>
         </is>
       </c>
       <c r="N155" t="inlineStr"/>
@@ -9645,22 +9645,22 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>e02587466a80086957e4f19a05760dec</t>
+          <t>add653a25af3cf87d882f89eb8c305c0</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>youknowwhataimean.com</t>
+          <t>transversalpuntozero.org</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CNAME</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>185.199.108.153</t>
+          <t>transversalpuntozero.pages.dev</t>
         </is>
       </c>
       <c r="E156" t="b">
@@ -9674,7 +9674,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'flatten_cname': False}</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9690,252 +9690,16 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>2023-10-06T11:52:31.670164Z</t>
+          <t>2024-11-03T08:47:11.475444Z</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>2023-10-06T12:04:32.454791Z</t>
+          <t>2024-11-03T08:47:11.475444Z</t>
         </is>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>7982468ab5963924b1a08dedcac6892b</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>_dmarc.youknowwhataimean.com</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>TXT</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>v=DMARC1; p=reject; sp=reject; adkim=s; aspf=s;</t>
-        </is>
-      </c>
-      <c r="E157" t="b">
-        <v>0</v>
-      </c>
-      <c r="F157" t="b">
-        <v>0</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>2023-10-05T14:13:27.963225Z</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>406b6f469b58a98c0cb2acb3abbccdcd</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>*._domainkey.youknowwhataimean.com</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>TXT</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>v=DKIM1; p=</t>
-        </is>
-      </c>
-      <c r="E158" t="b">
-        <v>0</v>
-      </c>
-      <c r="F158" t="b">
-        <v>0</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>2023-10-05T14:13:27.93815Z</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>c6cef2dc26f42a4852a4006685bc06fa</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>youknowwhataimean.com</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>TXT</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>v=spf1 -all</t>
-        </is>
-      </c>
-      <c r="E159" t="b">
-        <v>0</v>
-      </c>
-      <c r="F159" t="b">
-        <v>0</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>2023-10-05T14:13:27.931067Z</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>add653a25af3cf87d882f89eb8c305c0</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>transversalpuntozero.org</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>CNAME</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>transversalpuntozero.pages.dev</t>
-        </is>
-      </c>
-      <c r="E160" t="b">
-        <v>1</v>
-      </c>
-      <c r="F160" t="b">
-        <v>1</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>{'flatten_cname': False}</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>2024-11-03T08:47:11.475444Z</t>
-        </is>
-      </c>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/cloudflare_dns_records.xlsx
+++ b/exports/cloudflare_dns_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O156"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6624,36 +6624,36 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>a49ade48a5be45f002d5417140f370a0</t>
+          <t>c0f4b4c2ad85a76c92a692cda9b07f2f</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>adinsp9sqvzxue8n.italiadns.com</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>smtp.mailtrap.live</t>
+          <t>ns-1683.awsdns-18.co.uk</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6669,12 +6669,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2024-07-31T13:37:34.938024Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2024-07-31T13:38:29.779921Z</t>
+          <t>2025-03-03T11:17:51.528649Z</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -6683,26 +6683,26 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>57267997534d7cf452997a9c191591ee</t>
+          <t>4131e3d65c1df20458045bfa612298e9</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>mt-link.italiadns.com</t>
+          <t>aws.italiadns.net</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CNAME</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>t.mailtrap.live</t>
+          <t>ns-1303.awsdns-34.org</t>
         </is>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>{'flatten_cname': False}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2024-07-31T13:27:32.020186Z</t>
+          <t>2025-03-03T11:17:34.736768Z</t>
         </is>
       </c>
       <c r="N106" t="inlineStr"/>
@@ -6742,26 +6742,26 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3a7c851242dbc15ea213945d901512b9</t>
+          <t>03da4898b7afbb1408bfdd51f42e5936</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>rwmt1._domainkey.italiadns.com</t>
+          <t>kisstube.tv</t>
 